--- a/curation/draft/collection/collection_specialization_EG_Local.xlsx
+++ b/curation/draft/collection/collection_specialization_EG_Local.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD59482-7F02-4946-9093-7A46EC8C6CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBD8E39-7563-48F6-B947-F75742F89B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EG!$A$1:$AG$81</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="213">
   <si>
     <t>package_date</t>
   </si>
@@ -299,9 +299,6 @@
     <t>EGORRESU; EGTEST; EGTESTCD</t>
   </si>
   <si>
-    <t>EGORRESU when EGTESTCD = EGHRMN</t>
-  </si>
-  <si>
     <t>C117779</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>12 LEAD STANDARD</t>
   </si>
   <si>
-    <t>12 Lead Standard</t>
-  </si>
-  <si>
     <t>C82525</t>
   </si>
   <si>
@@ -657,6 +651,33 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>C71102</t>
+  </si>
+  <si>
+    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = EGHRMN</t>
+  </si>
+  <si>
+    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QRSAG</t>
+  </si>
+  <si>
+    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = PRAG</t>
+  </si>
+  <si>
+    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QTAG</t>
+  </si>
+  <si>
+    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QTCBAG</t>
+  </si>
+  <si>
+    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QTCFAG</t>
+  </si>
+  <si>
+    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QTCUNSAG</t>
+  </si>
+  <si>
+    <t>EGORRESU = beats/min when EGTESTCD = EGHRMN</t>
   </si>
 </sst>
 </file>
@@ -1061,29 +1082,34 @@
   <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="AE74" sqref="AE74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" customWidth="1"/>
-    <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="24" max="24" width="19.7109375" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="22" style="3" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="21" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="21.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="22" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="19.85546875" customWidth="1"/>
     <col min="29" max="29" width="21.85546875" customWidth="1"/>
-    <col min="30" max="30" width="22.140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="30.42578125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="74.42578125" style="3" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
     <col min="33" max="33" width="12.85546875" customWidth="1"/>
   </cols>
@@ -1191,7 +1217,7 @@
     </row>
     <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1215,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>38</v>
@@ -1253,7 +1279,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1360,7 +1386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -1418,20 +1444,17 @@
       <c r="X5" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>45</v>
+      <c r="AB5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>204</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="45" x14ac:dyDescent="0.25">
@@ -1636,27 +1659,27 @@
         <v>85</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>89</v>
       </c>
       <c r="I9" t="s">
         <v>56</v>
@@ -1665,7 +1688,7 @@
         <v>57</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
         <v>47</v>
@@ -1698,24 +1721,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>89</v>
       </c>
       <c r="I10" t="s">
         <v>56</v>
@@ -1724,7 +1747,7 @@
         <v>57</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -1756,40 +1779,37 @@
       <c r="X10" t="s">
         <v>60</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>45</v>
+      <c r="AB10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>204</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>89</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
@@ -1798,7 +1818,7 @@
         <v>57</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
         <v>64</v>
@@ -1848,22 +1868,22 @@
     </row>
     <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
         <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>89</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
@@ -1872,19 +1892,19 @@
         <v>57</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M12" t="s">
         <v>71</v>
       </c>
       <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -1902,27 +1922,27 @@
         <v>75</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>89</v>
       </c>
       <c r="I13" t="s">
         <v>56</v>
@@ -1931,19 +1951,19 @@
         <v>57</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s">
         <v>78</v>
       </c>
       <c r="N13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -1964,10 +1984,10 @@
         <v>82</v>
       </c>
       <c r="Y13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z13" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA13" t="s">
         <v>45</v>
@@ -1976,27 +1996,27 @@
         <v>85</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
         <v>100</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
         <v>101</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>102</v>
       </c>
       <c r="I14" t="s">
         <v>56</v>
@@ -2005,7 +2025,7 @@
         <v>57</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
         <v>47</v>
@@ -2038,24 +2058,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
         <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s">
-        <v>102</v>
       </c>
       <c r="I15" t="s">
         <v>56</v>
@@ -2064,7 +2084,7 @@
         <v>57</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -2096,40 +2116,37 @@
       <c r="X15" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>45</v>
+      <c r="AB15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>204</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
         <v>101</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s">
-        <v>102</v>
       </c>
       <c r="I16" t="s">
         <v>56</v>
@@ -2138,7 +2155,7 @@
         <v>57</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
         <v>64</v>
@@ -2188,22 +2205,22 @@
     </row>
     <row r="17" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
         <v>100</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
         <v>101</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>102</v>
       </c>
       <c r="I17" t="s">
         <v>56</v>
@@ -2212,19 +2229,19 @@
         <v>57</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
         <v>71</v>
       </c>
       <c r="N17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -2242,27 +2259,27 @@
         <v>75</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
         <v>100</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
         <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>102</v>
       </c>
       <c r="I18" t="s">
         <v>56</v>
@@ -2271,19 +2288,19 @@
         <v>57</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
         <v>78</v>
       </c>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -2304,10 +2321,10 @@
         <v>82</v>
       </c>
       <c r="Y18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z18" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA18" t="s">
         <v>45</v>
@@ -2316,27 +2333,27 @@
         <v>85</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
         <v>109</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
         <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s">
-        <v>111</v>
       </c>
       <c r="I19" t="s">
         <v>56</v>
@@ -2345,7 +2362,7 @@
         <v>57</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s">
         <v>47</v>
@@ -2380,22 +2397,22 @@
     </row>
     <row r="20" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
         <v>110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>111</v>
       </c>
       <c r="I20" t="s">
         <v>56</v>
@@ -2404,7 +2421,7 @@
         <v>57</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s">
         <v>60</v>
@@ -2436,40 +2453,37 @@
       <c r="X20" t="s">
         <v>60</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>45</v>
+      <c r="AB20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>204</v>
       </c>
       <c r="AD20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
         <v>109</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
         <v>110</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>111</v>
       </c>
       <c r="I21" t="s">
         <v>56</v>
@@ -2478,7 +2492,7 @@
         <v>57</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s">
         <v>64</v>
@@ -2528,22 +2542,22 @@
     </row>
     <row r="22" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
         <v>110</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>111</v>
       </c>
       <c r="I22" t="s">
         <v>56</v>
@@ -2552,19 +2566,19 @@
         <v>57</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
         <v>71</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -2582,27 +2596,27 @@
         <v>75</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
         <v>109</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
         <v>110</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>111</v>
       </c>
       <c r="I23" t="s">
         <v>56</v>
@@ -2611,19 +2625,19 @@
         <v>57</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M23" t="s">
         <v>78</v>
       </c>
       <c r="N23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -2644,10 +2658,10 @@
         <v>82</v>
       </c>
       <c r="Y23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z23" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA23" t="s">
         <v>45</v>
@@ -2656,27 +2670,27 @@
         <v>85</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
         <v>119</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s">
-        <v>120</v>
       </c>
       <c r="I24" t="s">
         <v>56</v>
@@ -2685,7 +2699,7 @@
         <v>57</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L24" t="s">
         <v>47</v>
@@ -2720,22 +2734,22 @@
     </row>
     <row r="25" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
         <v>118</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
         <v>119</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s">
-        <v>120</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
@@ -2744,7 +2758,7 @@
         <v>57</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s">
         <v>60</v>
@@ -2776,40 +2790,37 @@
       <c r="X25" t="s">
         <v>60</v>
       </c>
-      <c r="Y25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>45</v>
+      <c r="AB25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>204</v>
       </c>
       <c r="AD25" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
         <v>118</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
         <v>119</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" t="s">
-        <v>120</v>
       </c>
       <c r="I26" t="s">
         <v>56</v>
@@ -2818,7 +2829,7 @@
         <v>57</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L26" t="s">
         <v>64</v>
@@ -2868,22 +2879,22 @@
     </row>
     <row r="27" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
         <v>118</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
         <v>119</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s">
-        <v>120</v>
       </c>
       <c r="I27" t="s">
         <v>56</v>
@@ -2892,19 +2903,19 @@
         <v>57</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M27" t="s">
         <v>71</v>
       </c>
       <c r="N27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -2922,27 +2933,27 @@
         <v>75</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
         <v>118</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
         <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>120</v>
       </c>
       <c r="I28" t="s">
         <v>56</v>
@@ -2951,19 +2962,19 @@
         <v>57</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M28" t="s">
         <v>78</v>
       </c>
       <c r="N28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -2984,10 +2995,10 @@
         <v>82</v>
       </c>
       <c r="Y28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z28" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA28" t="s">
         <v>45</v>
@@ -2996,27 +3007,27 @@
         <v>85</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
         <v>127</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" t="s">
-        <v>129</v>
       </c>
       <c r="I29" t="s">
         <v>56</v>
@@ -3025,7 +3036,7 @@
         <v>57</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s">
         <v>47</v>
@@ -3060,22 +3071,22 @@
     </row>
     <row r="30" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
         <v>127</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s">
         <v>128</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s">
-        <v>129</v>
       </c>
       <c r="I30" t="s">
         <v>56</v>
@@ -3084,7 +3095,7 @@
         <v>57</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s">
         <v>60</v>
@@ -3116,40 +3127,37 @@
       <c r="X30" t="s">
         <v>60</v>
       </c>
-      <c r="Y30" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>45</v>
+      <c r="AB30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>204</v>
       </c>
       <c r="AD30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
         <v>128</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" t="s">
-        <v>129</v>
       </c>
       <c r="I31" t="s">
         <v>56</v>
@@ -3158,7 +3166,7 @@
         <v>57</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s">
         <v>64</v>
@@ -3208,22 +3216,22 @@
     </row>
     <row r="32" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
         <v>127</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s">
         <v>128</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" t="s">
-        <v>129</v>
       </c>
       <c r="I32" t="s">
         <v>56</v>
@@ -3232,19 +3240,19 @@
         <v>57</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M32" t="s">
         <v>71</v>
       </c>
       <c r="N32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -3262,27 +3270,27 @@
         <v>75</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
         <v>127</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s">
         <v>128</v>
-      </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s">
-        <v>129</v>
       </c>
       <c r="I33" t="s">
         <v>56</v>
@@ -3291,19 +3299,19 @@
         <v>57</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s">
         <v>78</v>
       </c>
       <c r="N33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -3324,10 +3332,10 @@
         <v>82</v>
       </c>
       <c r="Y33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z33" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA33" t="s">
         <v>45</v>
@@ -3336,27 +3344,27 @@
         <v>85</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
         <v>136</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
         <v>137</v>
-      </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s">
-        <v>138</v>
       </c>
       <c r="I34" t="s">
         <v>56</v>
@@ -3365,7 +3373,7 @@
         <v>57</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s">
         <v>47</v>
@@ -3400,22 +3408,22 @@
     </row>
     <row r="35" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
         <v>136</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
         <v>137</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s">
-        <v>138</v>
       </c>
       <c r="I35" t="s">
         <v>56</v>
@@ -3424,7 +3432,7 @@
         <v>57</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s">
         <v>60</v>
@@ -3456,40 +3464,37 @@
       <c r="X35" t="s">
         <v>60</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>45</v>
+      <c r="AB35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>204</v>
       </c>
       <c r="AD35" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
         <v>136</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
         <v>137</v>
-      </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" t="s">
-        <v>138</v>
       </c>
       <c r="I36" t="s">
         <v>56</v>
@@ -3498,7 +3503,7 @@
         <v>57</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s">
         <v>64</v>
@@ -3548,22 +3553,22 @@
     </row>
     <row r="37" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
         <v>136</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s">
         <v>137</v>
-      </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s">
-        <v>138</v>
       </c>
       <c r="I37" t="s">
         <v>56</v>
@@ -3572,19 +3577,19 @@
         <v>57</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M37" t="s">
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -3602,27 +3607,27 @@
         <v>75</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
         <v>136</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s">
         <v>137</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" t="s">
-        <v>138</v>
       </c>
       <c r="I38" t="s">
         <v>56</v>
@@ -3631,19 +3636,19 @@
         <v>57</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s">
         <v>78</v>
       </c>
       <c r="N38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -3664,10 +3669,10 @@
         <v>82</v>
       </c>
       <c r="Y38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z38" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA38" t="s">
         <v>45</v>
@@ -3676,27 +3681,27 @@
         <v>85</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" t="s">
         <v>146</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" t="s">
-        <v>147</v>
       </c>
       <c r="I39" t="s">
         <v>56</v>
@@ -3705,7 +3710,7 @@
         <v>57</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s">
         <v>47</v>
@@ -3740,22 +3745,22 @@
     </row>
     <row r="40" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s">
         <v>145</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s">
         <v>146</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" t="s">
-        <v>147</v>
       </c>
       <c r="I40" t="s">
         <v>56</v>
@@ -3764,19 +3769,19 @@
         <v>57</v>
       </c>
       <c r="K40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L40" t="s">
         <v>148</v>
-      </c>
-      <c r="L40" t="s">
-        <v>149</v>
       </c>
       <c r="M40" t="s">
         <v>71</v>
       </c>
       <c r="N40" t="s">
+        <v>149</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -3791,16 +3796,16 @@
         <v>3</v>
       </c>
       <c r="W40" t="s">
+        <v>151</v>
+      </c>
+      <c r="X40" t="s">
         <v>152</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Y40" s="3" t="s">
+      <c r="Z40" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="Z40" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="AA40" t="s">
         <v>45</v>
@@ -3809,27 +3814,27 @@
         <v>75</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s">
         <v>145</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" t="s">
         <v>146</v>
-      </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" t="s">
-        <v>147</v>
       </c>
       <c r="I41" t="s">
         <v>56</v>
@@ -3838,19 +3843,19 @@
         <v>57</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s">
+        <v>156</v>
+      </c>
+      <c r="M41" t="s">
+        <v>156</v>
+      </c>
+      <c r="N41" t="s">
         <v>157</v>
       </c>
-      <c r="M41" t="s">
-        <v>157</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="O41" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -3880,30 +3885,30 @@
         <v>45</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="2:31" ht="75" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" t="s">
         <v>145</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" t="s">
         <v>146</v>
-      </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" t="s">
-        <v>147</v>
       </c>
       <c r="I42" t="s">
         <v>56</v>
@@ -3912,19 +3917,19 @@
         <v>57</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L42" t="s">
+        <v>159</v>
+      </c>
+      <c r="M42" t="s">
+        <v>159</v>
+      </c>
+      <c r="N42" t="s">
         <v>160</v>
       </c>
-      <c r="M42" t="s">
-        <v>160</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="O42" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -3939,25 +3944,25 @@
         <v>50</v>
       </c>
       <c r="W42" t="s">
+        <v>162</v>
+      </c>
+      <c r="X42" t="s">
         <v>163</v>
       </c>
-      <c r="X42" t="s">
-        <v>164</v>
-      </c>
       <c r="Y42" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA42" t="s">
         <v>45</v>
       </c>
       <c r="AD42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -3977,16 +3982,16 @@
         <v>35</v>
       </c>
       <c r="H43" t="s">
+        <v>164</v>
+      </c>
+      <c r="I43" t="s">
         <v>165</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="J43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="L43" t="s">
         <v>47</v>
@@ -4036,16 +4041,16 @@
         <v>35</v>
       </c>
       <c r="H44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" t="s">
         <v>165</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="J44" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="L44" t="s">
         <v>60</v>
@@ -4057,7 +4062,7 @@
         <v>61</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -4077,20 +4082,17 @@
       <c r="X44" t="s">
         <v>60</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>45</v>
+      <c r="AB44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>204</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="2:31" ht="45" x14ac:dyDescent="0.25">
@@ -4110,16 +4112,16 @@
         <v>35</v>
       </c>
       <c r="H45" t="s">
+        <v>164</v>
+      </c>
+      <c r="I45" t="s">
         <v>165</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="J45" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="L45" t="s">
         <v>64</v>
@@ -4131,7 +4133,7 @@
         <v>65</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -4184,19 +4186,19 @@
         <v>35</v>
       </c>
       <c r="H46" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" t="s">
         <v>165</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J46" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" t="s">
         <v>167</v>
-      </c>
-      <c r="L46" t="s">
-        <v>168</v>
       </c>
       <c r="M46" t="s">
         <v>71</v>
@@ -4243,19 +4245,19 @@
         <v>35</v>
       </c>
       <c r="H47" t="s">
+        <v>164</v>
+      </c>
+      <c r="I47" t="s">
         <v>165</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J47" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="L47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M47" t="s">
         <v>78</v>
@@ -4264,7 +4266,7 @@
         <v>79</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -4294,16 +4296,16 @@
         <v>85</v>
       </c>
       <c r="AE47" s="3" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
         <v>87</v>
       </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
       <c r="D48" t="s">
         <v>33</v>
       </c>
@@ -4314,16 +4316,16 @@
         <v>35</v>
       </c>
       <c r="H48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" t="s">
+        <v>165</v>
+      </c>
+      <c r="J48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="I48" t="s">
-        <v>166</v>
-      </c>
-      <c r="J48" t="s">
-        <v>57</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="L48" t="s">
         <v>47</v>
@@ -4358,11 +4360,11 @@
     </row>
     <row r="49" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="C49" t="s">
-        <v>88</v>
-      </c>
       <c r="D49" t="s">
         <v>33</v>
       </c>
@@ -4373,16 +4375,16 @@
         <v>35</v>
       </c>
       <c r="H49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="I49" t="s">
-        <v>166</v>
-      </c>
-      <c r="J49" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="L49" t="s">
         <v>60</v>
@@ -4394,7 +4396,7 @@
         <v>61</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -4414,29 +4416,26 @@
       <c r="X49" t="s">
         <v>60</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>45</v>
+      <c r="AB49" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>204</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
         <v>87</v>
       </c>
-      <c r="C50" t="s">
-        <v>88</v>
-      </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
@@ -4447,16 +4446,16 @@
         <v>35</v>
       </c>
       <c r="H50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="I50" t="s">
-        <v>166</v>
-      </c>
-      <c r="J50" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="L50" t="s">
         <v>64</v>
@@ -4468,7 +4467,7 @@
         <v>65</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -4506,11 +4505,11 @@
     </row>
     <row r="51" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
         <v>87</v>
       </c>
-      <c r="C51" t="s">
-        <v>88</v>
-      </c>
       <c r="D51" t="s">
         <v>33</v>
       </c>
@@ -4521,28 +4520,28 @@
         <v>35</v>
       </c>
       <c r="H51" t="s">
+        <v>170</v>
+      </c>
+      <c r="I51" t="s">
+        <v>165</v>
+      </c>
+      <c r="J51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I51" t="s">
-        <v>166</v>
-      </c>
-      <c r="J51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" t="s">
         <v>172</v>
-      </c>
-      <c r="L51" t="s">
-        <v>173</v>
       </c>
       <c r="M51" t="s">
         <v>71</v>
       </c>
       <c r="N51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" t="s">
         <v>91</v>
-      </c>
-      <c r="P51" t="s">
-        <v>92</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -4560,16 +4559,16 @@
         <v>75</v>
       </c>
       <c r="AE51" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
         <v>87</v>
       </c>
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
       <c r="D52" t="s">
         <v>33</v>
       </c>
@@ -4580,28 +4579,28 @@
         <v>35</v>
       </c>
       <c r="H52" t="s">
+        <v>170</v>
+      </c>
+      <c r="I52" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I52" t="s">
-        <v>166</v>
-      </c>
-      <c r="J52" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="L52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M52" t="s">
         <v>78</v>
       </c>
       <c r="N52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -4622,10 +4621,10 @@
         <v>82</v>
       </c>
       <c r="Y52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z52" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA52" t="s">
         <v>45</v>
@@ -4634,16 +4633,16 @@
         <v>85</v>
       </c>
       <c r="AE52" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
         <v>100</v>
       </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
       <c r="D53" t="s">
         <v>33</v>
       </c>
@@ -4654,16 +4653,16 @@
         <v>35</v>
       </c>
       <c r="H53" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="I53" t="s">
-        <v>166</v>
-      </c>
-      <c r="J53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="L53" t="s">
         <v>47</v>
@@ -4698,11 +4697,11 @@
     </row>
     <row r="54" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
         <v>100</v>
       </c>
-      <c r="C54" t="s">
-        <v>101</v>
-      </c>
       <c r="D54" t="s">
         <v>33</v>
       </c>
@@ -4713,16 +4712,16 @@
         <v>35</v>
       </c>
       <c r="H54" t="s">
+        <v>174</v>
+      </c>
+      <c r="I54" t="s">
+        <v>165</v>
+      </c>
+      <c r="J54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="I54" t="s">
-        <v>166</v>
-      </c>
-      <c r="J54" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="L54" t="s">
         <v>60</v>
@@ -4734,7 +4733,7 @@
         <v>61</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -4754,29 +4753,26 @@
       <c r="X54" t="s">
         <v>60</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z54" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>45</v>
+      <c r="AB54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>204</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE54" s="3" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
         <v>100</v>
       </c>
-      <c r="C55" t="s">
-        <v>101</v>
-      </c>
       <c r="D55" t="s">
         <v>33</v>
       </c>
@@ -4787,16 +4783,16 @@
         <v>35</v>
       </c>
       <c r="H55" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55" t="s">
+        <v>165</v>
+      </c>
+      <c r="J55" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="I55" t="s">
-        <v>166</v>
-      </c>
-      <c r="J55" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="L55" t="s">
         <v>64</v>
@@ -4808,7 +4804,7 @@
         <v>65</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -4846,11 +4842,11 @@
     </row>
     <row r="56" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
         <v>100</v>
       </c>
-      <c r="C56" t="s">
-        <v>101</v>
-      </c>
       <c r="D56" t="s">
         <v>33</v>
       </c>
@@ -4861,28 +4857,28 @@
         <v>35</v>
       </c>
       <c r="H56" t="s">
+        <v>174</v>
+      </c>
+      <c r="I56" t="s">
+        <v>165</v>
+      </c>
+      <c r="J56" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I56" t="s">
-        <v>166</v>
-      </c>
-      <c r="J56" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="L56" t="s">
         <v>176</v>
-      </c>
-      <c r="L56" t="s">
-        <v>177</v>
       </c>
       <c r="M56" t="s">
         <v>71</v>
       </c>
       <c r="N56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -4900,16 +4896,16 @@
         <v>75</v>
       </c>
       <c r="AE56" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
         <v>100</v>
       </c>
-      <c r="C57" t="s">
-        <v>101</v>
-      </c>
       <c r="D57" t="s">
         <v>33</v>
       </c>
@@ -4920,28 +4916,28 @@
         <v>35</v>
       </c>
       <c r="H57" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" t="s">
+        <v>165</v>
+      </c>
+      <c r="J57" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I57" t="s">
-        <v>166</v>
-      </c>
-      <c r="J57" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="L57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M57" t="s">
         <v>78</v>
       </c>
       <c r="N57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -4962,10 +4958,10 @@
         <v>82</v>
       </c>
       <c r="Y57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z57" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z57" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA57" t="s">
         <v>45</v>
@@ -4974,16 +4970,16 @@
         <v>85</v>
       </c>
       <c r="AE57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
         <v>109</v>
       </c>
-      <c r="C58" t="s">
-        <v>110</v>
-      </c>
       <c r="D58" t="s">
         <v>33</v>
       </c>
@@ -4994,16 +4990,16 @@
         <v>35</v>
       </c>
       <c r="H58" t="s">
+        <v>178</v>
+      </c>
+      <c r="I58" t="s">
+        <v>165</v>
+      </c>
+      <c r="J58" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="I58" t="s">
-        <v>166</v>
-      </c>
-      <c r="J58" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="L58" t="s">
         <v>47</v>
@@ -5038,11 +5034,11 @@
     </row>
     <row r="59" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
         <v>109</v>
       </c>
-      <c r="C59" t="s">
-        <v>110</v>
-      </c>
       <c r="D59" t="s">
         <v>33</v>
       </c>
@@ -5053,16 +5049,16 @@
         <v>35</v>
       </c>
       <c r="H59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" t="s">
+        <v>165</v>
+      </c>
+      <c r="J59" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="I59" t="s">
-        <v>166</v>
-      </c>
-      <c r="J59" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="L59" t="s">
         <v>60</v>
@@ -5074,7 +5070,7 @@
         <v>61</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -5094,29 +5090,26 @@
       <c r="X59" t="s">
         <v>60</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>45</v>
+      <c r="AB59" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>204</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE59" s="3" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
         <v>109</v>
       </c>
-      <c r="C60" t="s">
-        <v>110</v>
-      </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
@@ -5127,16 +5120,16 @@
         <v>35</v>
       </c>
       <c r="H60" t="s">
+        <v>178</v>
+      </c>
+      <c r="I60" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="I60" t="s">
-        <v>166</v>
-      </c>
-      <c r="J60" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="L60" t="s">
         <v>64</v>
@@ -5148,7 +5141,7 @@
         <v>65</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -5186,11 +5179,11 @@
     </row>
     <row r="61" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
         <v>109</v>
       </c>
-      <c r="C61" t="s">
-        <v>110</v>
-      </c>
       <c r="D61" t="s">
         <v>33</v>
       </c>
@@ -5201,28 +5194,28 @@
         <v>35</v>
       </c>
       <c r="H61" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61" t="s">
+        <v>165</v>
+      </c>
+      <c r="J61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I61" t="s">
-        <v>166</v>
-      </c>
-      <c r="J61" t="s">
-        <v>57</v>
-      </c>
-      <c r="K61" s="3" t="s">
+      <c r="L61" t="s">
         <v>180</v>
-      </c>
-      <c r="L61" t="s">
-        <v>181</v>
       </c>
       <c r="M61" t="s">
         <v>71</v>
       </c>
       <c r="N61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -5240,16 +5233,16 @@
         <v>75</v>
       </c>
       <c r="AE61" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
         <v>109</v>
       </c>
-      <c r="C62" t="s">
-        <v>110</v>
-      </c>
       <c r="D62" t="s">
         <v>33</v>
       </c>
@@ -5260,28 +5253,28 @@
         <v>35</v>
       </c>
       <c r="H62" t="s">
+        <v>178</v>
+      </c>
+      <c r="I62" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I62" t="s">
-        <v>166</v>
-      </c>
-      <c r="J62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="L62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M62" t="s">
         <v>78</v>
       </c>
       <c r="N62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -5302,10 +5295,10 @@
         <v>82</v>
       </c>
       <c r="Y62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z62" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA62" t="s">
         <v>45</v>
@@ -5314,16 +5307,16 @@
         <v>85</v>
       </c>
       <c r="AE62" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
         <v>118</v>
       </c>
-      <c r="C63" t="s">
-        <v>119</v>
-      </c>
       <c r="D63" t="s">
         <v>33</v>
       </c>
@@ -5334,16 +5327,16 @@
         <v>35</v>
       </c>
       <c r="H63" t="s">
+        <v>182</v>
+      </c>
+      <c r="I63" t="s">
+        <v>165</v>
+      </c>
+      <c r="J63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="I63" t="s">
-        <v>166</v>
-      </c>
-      <c r="J63" t="s">
-        <v>57</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="L63" t="s">
         <v>47</v>
@@ -5378,11 +5371,11 @@
     </row>
     <row r="64" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s">
         <v>118</v>
       </c>
-      <c r="C64" t="s">
-        <v>119</v>
-      </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
@@ -5393,16 +5386,16 @@
         <v>35</v>
       </c>
       <c r="H64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I64" t="s">
+        <v>165</v>
+      </c>
+      <c r="J64" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="I64" t="s">
-        <v>166</v>
-      </c>
-      <c r="J64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="L64" t="s">
         <v>60</v>
@@ -5414,7 +5407,7 @@
         <v>61</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -5434,29 +5427,26 @@
       <c r="X64" t="s">
         <v>60</v>
       </c>
-      <c r="Y64" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z64" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>45</v>
+      <c r="AB64" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>204</v>
       </c>
       <c r="AD64" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE64" s="3" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
         <v>118</v>
       </c>
-      <c r="C65" t="s">
-        <v>119</v>
-      </c>
       <c r="D65" t="s">
         <v>33</v>
       </c>
@@ -5467,16 +5457,16 @@
         <v>35</v>
       </c>
       <c r="H65" t="s">
+        <v>182</v>
+      </c>
+      <c r="I65" t="s">
+        <v>165</v>
+      </c>
+      <c r="J65" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="I65" t="s">
-        <v>166</v>
-      </c>
-      <c r="J65" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="L65" t="s">
         <v>64</v>
@@ -5488,7 +5478,7 @@
         <v>65</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -5526,11 +5516,11 @@
     </row>
     <row r="66" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
         <v>118</v>
       </c>
-      <c r="C66" t="s">
-        <v>119</v>
-      </c>
       <c r="D66" t="s">
         <v>33</v>
       </c>
@@ -5541,28 +5531,28 @@
         <v>35</v>
       </c>
       <c r="H66" t="s">
+        <v>182</v>
+      </c>
+      <c r="I66" t="s">
+        <v>165</v>
+      </c>
+      <c r="J66" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I66" t="s">
-        <v>166</v>
-      </c>
-      <c r="J66" t="s">
-        <v>57</v>
-      </c>
-      <c r="K66" s="3" t="s">
+      <c r="L66" t="s">
         <v>184</v>
-      </c>
-      <c r="L66" t="s">
-        <v>185</v>
       </c>
       <c r="M66" t="s">
         <v>71</v>
       </c>
       <c r="N66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -5580,16 +5570,16 @@
         <v>75</v>
       </c>
       <c r="AE66" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s">
         <v>118</v>
       </c>
-      <c r="C67" t="s">
-        <v>119</v>
-      </c>
       <c r="D67" t="s">
         <v>33</v>
       </c>
@@ -5600,28 +5590,28 @@
         <v>35</v>
       </c>
       <c r="H67" t="s">
+        <v>182</v>
+      </c>
+      <c r="I67" t="s">
+        <v>165</v>
+      </c>
+      <c r="J67" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I67" t="s">
-        <v>166</v>
-      </c>
-      <c r="J67" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="L67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M67" t="s">
         <v>78</v>
       </c>
       <c r="N67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -5642,10 +5632,10 @@
         <v>82</v>
       </c>
       <c r="Y67" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z67" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z67" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA67" t="s">
         <v>45</v>
@@ -5654,16 +5644,16 @@
         <v>85</v>
       </c>
       <c r="AE67" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" t="s">
         <v>127</v>
       </c>
-      <c r="C68" t="s">
-        <v>128</v>
-      </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
@@ -5674,16 +5664,16 @@
         <v>35</v>
       </c>
       <c r="H68" t="s">
+        <v>186</v>
+      </c>
+      <c r="I68" t="s">
+        <v>165</v>
+      </c>
+      <c r="J68" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="I68" t="s">
-        <v>166</v>
-      </c>
-      <c r="J68" t="s">
-        <v>57</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="L68" t="s">
         <v>47</v>
@@ -5718,11 +5708,11 @@
     </row>
     <row r="69" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s">
         <v>127</v>
       </c>
-      <c r="C69" t="s">
-        <v>128</v>
-      </c>
       <c r="D69" t="s">
         <v>33</v>
       </c>
@@ -5733,16 +5723,16 @@
         <v>35</v>
       </c>
       <c r="H69" t="s">
+        <v>186</v>
+      </c>
+      <c r="I69" t="s">
+        <v>165</v>
+      </c>
+      <c r="J69" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="I69" t="s">
-        <v>166</v>
-      </c>
-      <c r="J69" t="s">
-        <v>57</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="L69" t="s">
         <v>60</v>
@@ -5754,7 +5744,7 @@
         <v>61</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -5774,29 +5764,26 @@
       <c r="X69" t="s">
         <v>60</v>
       </c>
-      <c r="Y69" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z69" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>45</v>
+      <c r="AB69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>204</v>
       </c>
       <c r="AD69" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE69" s="3" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" t="s">
         <v>127</v>
       </c>
-      <c r="C70" t="s">
-        <v>128</v>
-      </c>
       <c r="D70" t="s">
         <v>33</v>
       </c>
@@ -5807,16 +5794,16 @@
         <v>35</v>
       </c>
       <c r="H70" t="s">
+        <v>186</v>
+      </c>
+      <c r="I70" t="s">
+        <v>165</v>
+      </c>
+      <c r="J70" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="I70" t="s">
-        <v>166</v>
-      </c>
-      <c r="J70" t="s">
-        <v>57</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="L70" t="s">
         <v>64</v>
@@ -5828,7 +5815,7 @@
         <v>65</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -5866,11 +5853,11 @@
     </row>
     <row r="71" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" t="s">
         <v>127</v>
       </c>
-      <c r="C71" t="s">
-        <v>128</v>
-      </c>
       <c r="D71" t="s">
         <v>33</v>
       </c>
@@ -5881,28 +5868,28 @@
         <v>35</v>
       </c>
       <c r="H71" t="s">
+        <v>186</v>
+      </c>
+      <c r="I71" t="s">
+        <v>165</v>
+      </c>
+      <c r="J71" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I71" t="s">
-        <v>166</v>
-      </c>
-      <c r="J71" t="s">
-        <v>57</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="L71" t="s">
         <v>188</v>
-      </c>
-      <c r="L71" t="s">
-        <v>189</v>
       </c>
       <c r="M71" t="s">
         <v>71</v>
       </c>
       <c r="N71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -5920,16 +5907,16 @@
         <v>75</v>
       </c>
       <c r="AE71" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" t="s">
         <v>127</v>
       </c>
-      <c r="C72" t="s">
-        <v>128</v>
-      </c>
       <c r="D72" t="s">
         <v>33</v>
       </c>
@@ -5940,28 +5927,28 @@
         <v>35</v>
       </c>
       <c r="H72" t="s">
+        <v>186</v>
+      </c>
+      <c r="I72" t="s">
+        <v>165</v>
+      </c>
+      <c r="J72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I72" t="s">
-        <v>166</v>
-      </c>
-      <c r="J72" t="s">
-        <v>57</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="L72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M72" t="s">
         <v>78</v>
       </c>
       <c r="N72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -5982,10 +5969,10 @@
         <v>82</v>
       </c>
       <c r="Y72" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z72" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA72" t="s">
         <v>45</v>
@@ -5994,16 +5981,16 @@
         <v>85</v>
       </c>
       <c r="AE72" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
         <v>136</v>
       </c>
-      <c r="C73" t="s">
-        <v>137</v>
-      </c>
       <c r="D73" t="s">
         <v>33</v>
       </c>
@@ -6014,16 +6001,16 @@
         <v>35</v>
       </c>
       <c r="H73" t="s">
+        <v>190</v>
+      </c>
+      <c r="I73" t="s">
+        <v>165</v>
+      </c>
+      <c r="J73" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="I73" t="s">
-        <v>166</v>
-      </c>
-      <c r="J73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="L73" t="s">
         <v>47</v>
@@ -6058,11 +6045,11 @@
     </row>
     <row r="74" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" t="s">
         <v>136</v>
       </c>
-      <c r="C74" t="s">
-        <v>137</v>
-      </c>
       <c r="D74" t="s">
         <v>33</v>
       </c>
@@ -6073,16 +6060,16 @@
         <v>35</v>
       </c>
       <c r="H74" t="s">
+        <v>190</v>
+      </c>
+      <c r="I74" t="s">
+        <v>165</v>
+      </c>
+      <c r="J74" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="I74" t="s">
-        <v>166</v>
-      </c>
-      <c r="J74" t="s">
-        <v>57</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="L74" t="s">
         <v>60</v>
@@ -6094,7 +6081,7 @@
         <v>61</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -6114,29 +6101,26 @@
       <c r="X74" t="s">
         <v>60</v>
       </c>
-      <c r="Y74" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z74" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>45</v>
+      <c r="AB74" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>204</v>
       </c>
       <c r="AD74" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AE74" s="3" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s">
         <v>136</v>
       </c>
-      <c r="C75" t="s">
-        <v>137</v>
-      </c>
       <c r="D75" t="s">
         <v>33</v>
       </c>
@@ -6147,16 +6131,16 @@
         <v>35</v>
       </c>
       <c r="H75" t="s">
+        <v>190</v>
+      </c>
+      <c r="I75" t="s">
+        <v>165</v>
+      </c>
+      <c r="J75" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="I75" t="s">
-        <v>166</v>
-      </c>
-      <c r="J75" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="L75" t="s">
         <v>64</v>
@@ -6168,7 +6152,7 @@
         <v>65</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -6206,11 +6190,11 @@
     </row>
     <row r="76" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" t="s">
         <v>136</v>
       </c>
-      <c r="C76" t="s">
-        <v>137</v>
-      </c>
       <c r="D76" t="s">
         <v>33</v>
       </c>
@@ -6221,28 +6205,28 @@
         <v>35</v>
       </c>
       <c r="H76" t="s">
+        <v>190</v>
+      </c>
+      <c r="I76" t="s">
+        <v>165</v>
+      </c>
+      <c r="J76" t="s">
+        <v>57</v>
+      </c>
+      <c r="K76" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I76" t="s">
-        <v>166</v>
-      </c>
-      <c r="J76" t="s">
-        <v>57</v>
-      </c>
-      <c r="K76" s="3" t="s">
+      <c r="L76" t="s">
         <v>192</v>
-      </c>
-      <c r="L76" t="s">
-        <v>193</v>
       </c>
       <c r="M76" t="s">
         <v>71</v>
       </c>
       <c r="N76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -6260,16 +6244,16 @@
         <v>75</v>
       </c>
       <c r="AE76" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" t="s">
         <v>136</v>
       </c>
-      <c r="C77" t="s">
-        <v>137</v>
-      </c>
       <c r="D77" t="s">
         <v>33</v>
       </c>
@@ -6280,28 +6264,28 @@
         <v>35</v>
       </c>
       <c r="H77" t="s">
+        <v>190</v>
+      </c>
+      <c r="I77" t="s">
+        <v>165</v>
+      </c>
+      <c r="J77" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I77" t="s">
-        <v>166</v>
-      </c>
-      <c r="J77" t="s">
-        <v>57</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="L77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M77" t="s">
         <v>78</v>
       </c>
       <c r="N77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -6322,10 +6306,10 @@
         <v>82</v>
       </c>
       <c r="Y77" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z77" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="Z77" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="AA77" t="s">
         <v>45</v>
@@ -6334,16 +6318,16 @@
         <v>85</v>
       </c>
       <c r="AE77" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" t="s">
         <v>145</v>
       </c>
-      <c r="C78" t="s">
-        <v>146</v>
-      </c>
       <c r="D78" t="s">
         <v>33</v>
       </c>
@@ -6354,16 +6338,16 @@
         <v>35</v>
       </c>
       <c r="H78" t="s">
+        <v>194</v>
+      </c>
+      <c r="I78" t="s">
+        <v>165</v>
+      </c>
+      <c r="J78" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="I78" t="s">
-        <v>166</v>
-      </c>
-      <c r="J78" t="s">
-        <v>57</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="L78" t="s">
         <v>47</v>
@@ -6398,11 +6382,11 @@
     </row>
     <row r="79" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" t="s">
         <v>145</v>
       </c>
-      <c r="C79" t="s">
-        <v>146</v>
-      </c>
       <c r="D79" t="s">
         <v>33</v>
       </c>
@@ -6413,28 +6397,28 @@
         <v>35</v>
       </c>
       <c r="H79" t="s">
+        <v>194</v>
+      </c>
+      <c r="I79" t="s">
+        <v>165</v>
+      </c>
+      <c r="J79" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I79" t="s">
-        <v>166</v>
-      </c>
-      <c r="J79" t="s">
-        <v>57</v>
-      </c>
-      <c r="K79" s="3" t="s">
+      <c r="L79" t="s">
         <v>196</v>
-      </c>
-      <c r="L79" t="s">
-        <v>197</v>
       </c>
       <c r="M79" t="s">
         <v>71</v>
       </c>
       <c r="N79" t="s">
+        <v>149</v>
+      </c>
+      <c r="P79" t="s">
         <v>150</v>
-      </c>
-      <c r="P79" t="s">
-        <v>151</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -6449,16 +6433,16 @@
         <v>50</v>
       </c>
       <c r="W79" t="s">
+        <v>151</v>
+      </c>
+      <c r="X79" t="s">
         <v>152</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Y79" s="3" t="s">
+      <c r="Z79" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="Z79" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="AA79" t="s">
         <v>45</v>
@@ -6467,16 +6451,16 @@
         <v>75</v>
       </c>
       <c r="AE79" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
         <v>145</v>
       </c>
-      <c r="C80" t="s">
-        <v>146</v>
-      </c>
       <c r="D80" t="s">
         <v>33</v>
       </c>
@@ -6487,28 +6471,28 @@
         <v>35</v>
       </c>
       <c r="H80" t="s">
+        <v>194</v>
+      </c>
+      <c r="I80" t="s">
+        <v>165</v>
+      </c>
+      <c r="J80" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I80" t="s">
-        <v>166</v>
-      </c>
-      <c r="J80" t="s">
-        <v>57</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="L80" t="s">
+        <v>156</v>
+      </c>
+      <c r="M80" t="s">
+        <v>156</v>
+      </c>
+      <c r="N80" t="s">
         <v>157</v>
       </c>
-      <c r="M80" t="s">
-        <v>157</v>
-      </c>
-      <c r="N80" t="s">
+      <c r="P80" t="s">
         <v>158</v>
-      </c>
-      <c r="P80" t="s">
-        <v>159</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -6538,19 +6522,19 @@
         <v>45</v>
       </c>
       <c r="AD80" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AE80" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="2:31" ht="75" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" t="s">
         <v>145</v>
       </c>
-      <c r="C81" t="s">
-        <v>146</v>
-      </c>
       <c r="D81" t="s">
         <v>33</v>
       </c>
@@ -6561,28 +6545,28 @@
         <v>35</v>
       </c>
       <c r="H81" t="s">
+        <v>194</v>
+      </c>
+      <c r="I81" t="s">
+        <v>165</v>
+      </c>
+      <c r="J81" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I81" t="s">
-        <v>166</v>
-      </c>
-      <c r="J81" t="s">
-        <v>57</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="L81" t="s">
+        <v>159</v>
+      </c>
+      <c r="M81" t="s">
+        <v>159</v>
+      </c>
+      <c r="N81" t="s">
         <v>160</v>
       </c>
-      <c r="M81" t="s">
-        <v>160</v>
-      </c>
-      <c r="N81" t="s">
-        <v>161</v>
-      </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -6597,25 +6581,25 @@
         <v>50</v>
       </c>
       <c r="W81" t="s">
+        <v>162</v>
+      </c>
+      <c r="X81" t="s">
         <v>163</v>
       </c>
-      <c r="X81" t="s">
-        <v>164</v>
-      </c>
       <c r="Y81" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Z81" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA81" t="s">
         <v>45</v>
       </c>
       <c r="AD81" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE81" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/curation/draft/collection/collection_specialization_EG_Local.xlsx
+++ b/curation/draft/collection/collection_specialization_EG_Local.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBD8E39-7563-48F6-B947-F75742F89B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E5BCDD-C282-4DF8-8953-924D9C6FDEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,30 +1082,30 @@
   <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE74" sqref="AE74"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="21" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="19.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="22" style="3" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" customWidth="1"/>
+    <col min="17" max="19" width="8.85546875" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="19.7109375" customWidth="1"/>
+    <col min="25" max="25" width="21.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="22" style="3" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" customWidth="1"/>
     <col min="28" max="28" width="19.85546875" customWidth="1"/>
     <col min="29" max="29" width="21.85546875" customWidth="1"/>
     <col min="30" max="30" width="24.7109375" style="3" bestFit="1" customWidth="1"/>

--- a/curation/draft/collection/collection_specialization_EG_Local.xlsx
+++ b/curation/draft/collection/collection_specialization_EG_Local.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B333A12-3783-454E-B88E-1E040556C1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4393691B-8C56-3745-BDD6-271D210F51A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="3400" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_EG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EG!$A$1:$AG$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EG!$A$1:$AG$124</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="251">
   <si>
     <t>package_date</t>
   </si>
@@ -209,18 +209,12 @@
     <t>LOCAL READING</t>
   </si>
   <si>
-    <t>What was the date of assessment?</t>
-  </si>
-  <si>
     <t>EGMETHOD</t>
   </si>
   <si>
     <t>C82535</t>
   </si>
   <si>
-    <t>What was the method used for the ECG?</t>
-  </si>
-  <si>
     <t>C71151</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
     <t>C62164</t>
   </si>
   <si>
-    <t>What was the position of the subject during the ECG measurement?</t>
-  </si>
-  <si>
     <t>C71148</t>
   </si>
   <si>
@@ -263,9 +254,6 @@
     <t>EGORRES when EGTESTCD = EGHRMN</t>
   </si>
   <si>
-    <t>EGHRMNU</t>
-  </si>
-  <si>
     <t>EGORRESU</t>
   </si>
   <si>
@@ -302,15 +290,9 @@
     <t>EGORRES when EGTESTCD = QRSAG</t>
   </si>
   <si>
-    <t>QRSAGU</t>
-  </si>
-  <si>
     <t>C42574</t>
   </si>
   <si>
-    <t>QRS Duration, Aggregate Result Unit</t>
-  </si>
-  <si>
     <t>ms;/s</t>
   </si>
   <si>
@@ -332,12 +314,6 @@
     <t>EGORRES when EGTESTCD = PRAG</t>
   </si>
   <si>
-    <t>PRAGU</t>
-  </si>
-  <si>
-    <t>PR Interval, Single Beat Result Unit</t>
-  </si>
-  <si>
     <t>EGORRESU when EGTESTCD = PRAG</t>
   </si>
   <si>
@@ -353,12 +329,6 @@
     <t>EGORRES when EGTESTCD = QTAG</t>
   </si>
   <si>
-    <t>QTAGU</t>
-  </si>
-  <si>
-    <t>QT Interval, Aggregate Result Unit</t>
-  </si>
-  <si>
     <t>EGORRESU when EGTESTCD = QTAG</t>
   </si>
   <si>
@@ -374,12 +344,6 @@
     <t>EGORRES when EGTESTCD = QTCBAG</t>
   </si>
   <si>
-    <t>QTCBAGU</t>
-  </si>
-  <si>
-    <t>QTcB Interval, Aggregate Result Unit</t>
-  </si>
-  <si>
     <t>EGORRESU when EGTESTCD = QTCBAG</t>
   </si>
   <si>
@@ -395,12 +359,6 @@
     <t>EGORRES when EGTESTCD = QTCFAG</t>
   </si>
   <si>
-    <t>QTCFAGU</t>
-  </si>
-  <si>
-    <t>QTcF Interval, Aggregate Result Unit</t>
-  </si>
-  <si>
     <t>EGORRESU when EGTESTCD = QTCFAG</t>
   </si>
   <si>
@@ -410,15 +368,9 @@
     <t>QTCUNSAG</t>
   </si>
   <si>
-    <t>QTc Corr Method Unspecified, Aggregate Result</t>
-  </si>
-  <si>
     <t>EGORRES when EGTESTCD = QTCUNSAG</t>
   </si>
   <si>
-    <t>QTCUNSAGU</t>
-  </si>
-  <si>
     <t>QTc Corr Method Unspecified, Aggregate Result Unit</t>
   </si>
   <si>
@@ -470,9 +422,6 @@
     <t>C51824</t>
   </si>
   <si>
-    <t>Who was the evaluator?</t>
-  </si>
-  <si>
     <t>C78735</t>
   </si>
   <si>
@@ -551,27 +500,6 @@
     <t>C71102</t>
   </si>
   <si>
-    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = EGHRMN</t>
-  </si>
-  <si>
-    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QRSAG</t>
-  </si>
-  <si>
-    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = PRAG</t>
-  </si>
-  <si>
-    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QTAG</t>
-  </si>
-  <si>
-    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QTCBAG</t>
-  </si>
-  <si>
-    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QTCFAG</t>
-  </si>
-  <si>
-    <t>EGMETHOD = 12 LEAD STANDARD when EGTESTCD = QTCUNSAG</t>
-  </si>
-  <si>
     <t>EGORRESU = beats/min when EGTESTCD = EGHRMN</t>
   </si>
   <si>
@@ -747,13 +675,130 @@
   </si>
   <si>
     <t>C41255</t>
+  </si>
+  <si>
+    <t>C117791</t>
+  </si>
+  <si>
+    <t>C117792</t>
+  </si>
+  <si>
+    <t>C117793</t>
+  </si>
+  <si>
+    <t>C117794</t>
+  </si>
+  <si>
+    <t>C117795</t>
+  </si>
+  <si>
+    <t>C117796</t>
+  </si>
+  <si>
+    <t>C117797</t>
+  </si>
+  <si>
+    <t>RRAG</t>
+  </si>
+  <si>
+    <t>RRAG_NORMALIZED</t>
+  </si>
+  <si>
+    <t>RR Interval Aggregate (Normalized)</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>C41140</t>
+  </si>
+  <si>
+    <t>RR Interval, Aggregate</t>
+  </si>
+  <si>
+    <t>EGTEST = RR Interval, Aggregate</t>
+  </si>
+  <si>
+    <t>EGORRES when EGTESTCD = RRAG</t>
+  </si>
+  <si>
+    <t>EGORRESU when EGTESTCD = RRAG</t>
+  </si>
+  <si>
+    <t>EGMETHOD = 12 LEAD STANDARD</t>
+  </si>
+  <si>
+    <t>RRAG_DENORMALIZED</t>
+  </si>
+  <si>
+    <t>RR Interval Aggregate (Denormalized)</t>
+  </si>
+  <si>
+    <t>RRAG_EGORRESU</t>
+  </si>
+  <si>
+    <t>QRS_AXIS</t>
+  </si>
+  <si>
+    <t>QRS_AXIS_NORMALIZED</t>
+  </si>
+  <si>
+    <t>QRS Axis (Normalized)</t>
+  </si>
+  <si>
+    <t>EGORRES when EGTESTCD = QRS_AXIS</t>
+  </si>
+  <si>
+    <t>EGORRESU when EGTESTCD = QRS_AXIS</t>
+  </si>
+  <si>
+    <t>QRS Axis</t>
+  </si>
+  <si>
+    <t>EGTEST = QRS Axis</t>
+  </si>
+  <si>
+    <t>QRS_AXIS_DENORMALIZED</t>
+  </si>
+  <si>
+    <t>QRS Axis (Denormalized)</t>
+  </si>
+  <si>
+    <t>TECHQUAL</t>
+  </si>
+  <si>
+    <t>TECHQUAL_DENORMALIZED</t>
+  </si>
+  <si>
+    <t>ECG Technical Quality (Denormalized)</t>
+  </si>
+  <si>
+    <t>QRS_AXIS_EGORRES</t>
+  </si>
+  <si>
+    <t>QRS_AXIS_EGORRESU</t>
+  </si>
+  <si>
+    <t>EGORRES when EGTESTCD = TECHQUAL</t>
+  </si>
+  <si>
+    <t>ADJUDICATION COMMITTEE;INDEPENDENT ASSESSOR;INVESTIGATOR;VENDOR</t>
+  </si>
+  <si>
+    <t>Adjudication Committee;Independent Assessor;Investigator;Vendor</t>
+  </si>
+  <si>
+    <t>What was the interpretation of the result?</t>
+  </si>
+  <si>
+    <t>How was the technical quality of the assessment?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,6 +819,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -789,7 +840,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -827,11 +878,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -847,9 +913,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,11 +1224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG96"/>
+  <dimension ref="A1:AG124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <selection pane="bottomLeft" activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1364,7 @@
     </row>
     <row r="2" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1316,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>38</v>
@@ -1354,7 +1426,7 @@
     </row>
     <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1380,7 +1452,7 @@
       <c r="N3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="Q3">
@@ -1419,16 +1491,16 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
         <v>55</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L4" t="s">
         <v>47</v>
@@ -1478,28 +1550,28 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J5" t="s">
         <v>55</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
         <v>57</v>
       </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" t="s">
-        <v>58</v>
-      </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1514,22 +1586,22 @@
         <v>50</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="48" x14ac:dyDescent="0.2">
@@ -1549,28 +1621,28 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J6" t="s">
         <v>55</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1585,154 +1657,146 @@
         <v>50</v>
       </c>
       <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA6" t="s">
         <v>45</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8">
+        <v>40</v>
+      </c>
+      <c r="W8" t="s">
+        <v>193</v>
+      </c>
+      <c r="X8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD8" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>4</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="6">
-        <v>50</v>
-      </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-    </row>
-    <row r="8" spans="1:33" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>5</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="6">
-        <v>40</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AB8" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>220</v>
+      <c r="AE8" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="32" x14ac:dyDescent="0.2">
@@ -1752,28 +1816,28 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
         <v>55</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -1782,16 +1846,16 @@
         <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="32" x14ac:dyDescent="0.2">
@@ -1811,28 +1875,28 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I10" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -1847,31 +1911,31 @@
         <v>50</v>
       </c>
       <c r="W10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1883,16 +1947,16 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I11" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="L11" t="s">
         <v>47</v>
@@ -1903,8 +1967,8 @@
       <c r="N11" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>56</v>
+      <c r="P11" t="s">
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1927,10 +1991,10 @@
     </row>
     <row r="12" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1942,28 +2006,28 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J12" t="s">
         <v>55</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" t="s">
         <v>57</v>
       </c>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>59</v>
+      <c r="P12" t="s">
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1978,30 +2042,30 @@
         <v>100</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC12" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2013,28 +2077,28 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J13" t="s">
         <v>55</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="L13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -2043,168 +2107,160 @@
         <v>50</v>
       </c>
       <c r="S13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T13">
         <v>50</v>
       </c>
       <c r="W13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z13" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA13" t="s">
         <v>45</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" t="s">
+        <v>191</v>
+      </c>
+      <c r="M14" t="s">
+        <v>191</v>
+      </c>
+      <c r="P14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q14">
         <v>4</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S14" s="6" t="s">
+      <c r="R14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="6">
-        <v>50</v>
-      </c>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-    </row>
-    <row r="15" spans="1:33" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q15" s="6">
+      <c r="T14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" t="s">
+        <v>188</v>
+      </c>
+      <c r="M15" t="s">
+        <v>188</v>
+      </c>
+      <c r="N15" t="s">
+        <v>193</v>
+      </c>
+      <c r="P15" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q15">
         <v>5</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" t="s">
         <v>40</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15">
         <v>40</v>
       </c>
-      <c r="W15" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AB15" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD15" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE15" s="7" t="s">
-        <v>223</v>
+      <c r="W15" t="s">
+        <v>193</v>
+      </c>
+      <c r="X15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2216,28 +2272,28 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
         <v>55</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="P16" t="s">
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -2246,57 +2302,57 @@
         <v>39</v>
       </c>
       <c r="S16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T16">
         <v>3</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" t="s">
-        <v>88</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>89</v>
+      <c r="P17" t="s">
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -2311,33 +2367,33 @@
         <v>50</v>
       </c>
       <c r="W17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA17" t="s">
         <v>45</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2349,16 +2405,16 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="I18" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
         <v>55</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
         <v>47</v>
@@ -2369,8 +2425,8 @@
       <c r="N18" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>56</v>
+      <c r="P18" t="s">
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2393,10 +2449,10 @@
     </row>
     <row r="19" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2408,28 +2464,28 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" t="s">
         <v>57</v>
       </c>
-      <c r="M19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>59</v>
+      <c r="P19" t="s">
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -2438,36 +2494,36 @@
         <v>39</v>
       </c>
       <c r="S19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC19" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2479,28 +2535,28 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
         <v>55</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
-        <v>62</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="P20" t="s">
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -2515,162 +2571,154 @@
         <v>50</v>
       </c>
       <c r="W20" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z20" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X20" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA20" t="s">
         <v>45</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q21" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P21" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q21">
         <v>4</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S21" s="6" t="s">
+      <c r="R21" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" t="s">
         <v>40</v>
       </c>
-      <c r="T21" s="6">
-        <v>50</v>
-      </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-    </row>
-    <row r="22" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q22" s="6">
+      <c r="T21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="s">
+        <v>188</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="P22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q22">
         <v>5</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" t="s">
         <v>40</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22">
         <v>40</v>
       </c>
-      <c r="W22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="X22" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AB22" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE22" s="7" t="s">
-        <v>225</v>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2682,28 +2730,28 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="M23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N23" t="s">
-        <v>84</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="P23" t="s">
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -2712,24 +2760,24 @@
         <v>39</v>
       </c>
       <c r="S23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2741,28 +2789,28 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="M24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N24" t="s">
-        <v>88</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="P24" t="s">
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -2777,33 +2825,33 @@
         <v>50</v>
       </c>
       <c r="W24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA24" t="s">
         <v>45</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -2815,16 +2863,16 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s">
         <v>47</v>
@@ -2835,8 +2883,8 @@
       <c r="N25" t="s">
         <v>48</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>56</v>
+      <c r="P25" t="s">
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -2859,10 +2907,10 @@
     </row>
     <row r="26" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2874,28 +2922,28 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J26" t="s">
         <v>55</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" t="s">
         <v>57</v>
       </c>
-      <c r="M26" t="s">
-        <v>57</v>
-      </c>
-      <c r="N26" t="s">
-        <v>58</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>59</v>
+      <c r="P26" t="s">
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -2910,30 +2958,30 @@
         <v>50</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC26" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -2945,28 +2993,28 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
         <v>55</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>62</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="P27" t="s">
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -2981,162 +3029,154 @@
         <v>50</v>
       </c>
       <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z27" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X27" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA27" t="s">
         <v>45</v>
       </c>
       <c r="AD27" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I28" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" t="s">
+        <v>191</v>
+      </c>
+      <c r="M28" t="s">
+        <v>191</v>
+      </c>
+      <c r="P28" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s">
+        <v>50</v>
+      </c>
+      <c r="S28" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L29" t="s">
+        <v>188</v>
+      </c>
+      <c r="M29" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+      <c r="P29" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29">
+        <v>40</v>
+      </c>
+      <c r="W29" t="s">
+        <v>193</v>
+      </c>
+      <c r="X29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE29" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>4</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T28" s="6">
-        <v>50</v>
-      </c>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-    </row>
-    <row r="29" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>5</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T29" s="6">
-        <v>40</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="X29" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AB29" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD29" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE29" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -3148,28 +3188,28 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s">
         <v>55</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="P30" t="s">
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -3178,24 +3218,24 @@
         <v>39</v>
       </c>
       <c r="S30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T30">
         <v>3</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -3207,28 +3247,28 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="I31" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J31" t="s">
         <v>55</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="M31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>105</v>
+        <v>83</v>
+      </c>
+      <c r="P31" t="s">
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -3243,33 +3283,33 @@
         <v>50</v>
       </c>
       <c r="W31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="s">
         <v>45</v>
       </c>
       <c r="AD31" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -3281,16 +3321,16 @@
         <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="I32" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J32" t="s">
         <v>55</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s">
         <v>47</v>
@@ -3301,8 +3341,8 @@
       <c r="N32" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>56</v>
+      <c r="P32" t="s">
+        <v>49</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -3325,10 +3365,10 @@
     </row>
     <row r="33" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -3340,28 +3380,28 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="I33" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
         <v>55</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" t="s">
         <v>57</v>
       </c>
-      <c r="M33" t="s">
-        <v>57</v>
-      </c>
-      <c r="N33" t="s">
-        <v>58</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>59</v>
+      <c r="P33" t="s">
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -3376,30 +3416,30 @@
         <v>50</v>
       </c>
       <c r="W33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC33" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -3411,28 +3451,28 @@
         <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="I34" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
         <v>55</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>62</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="P34" t="s">
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -3447,162 +3487,154 @@
         <v>50</v>
       </c>
       <c r="W34" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z34" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X34" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA34" t="s">
         <v>45</v>
       </c>
       <c r="AD34" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q35" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" t="s">
+        <v>191</v>
+      </c>
+      <c r="M35" t="s">
+        <v>191</v>
+      </c>
+      <c r="P35" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q35">
         <v>4</v>
       </c>
-      <c r="R35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S35" s="6" t="s">
+      <c r="R35" t="s">
+        <v>50</v>
+      </c>
+      <c r="S35" t="s">
         <v>40</v>
       </c>
-      <c r="T35" s="6">
-        <v>50</v>
-      </c>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-    </row>
-    <row r="36" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q36" s="6">
+      <c r="T35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" t="s">
+        <v>188</v>
+      </c>
+      <c r="M36" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q36">
         <v>5</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="R36" t="s">
         <v>39</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="S36" t="s">
         <v>40</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36">
         <v>40</v>
       </c>
-      <c r="W36" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="X36" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AB36" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE36" s="7" t="s">
-        <v>229</v>
+      <c r="W36" t="s">
+        <v>193</v>
+      </c>
+      <c r="X36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -3614,28 +3646,28 @@
         <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="I37" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J37" t="s">
         <v>55</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="M37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N37" t="s">
-        <v>84</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="P37" t="s">
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -3644,24 +3676,24 @@
         <v>39</v>
       </c>
       <c r="S37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="AD37" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -3673,28 +3705,28 @@
         <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="I38" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J38" t="s">
         <v>55</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="M38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N38" t="s">
-        <v>88</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>112</v>
+        <v>83</v>
+      </c>
+      <c r="P38" t="s">
+        <v>131</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -3709,33 +3741,33 @@
         <v>50</v>
       </c>
       <c r="W38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA38" t="s">
         <v>45</v>
       </c>
       <c r="AD38" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -3747,16 +3779,16 @@
         <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I39" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J39" t="s">
         <v>55</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s">
         <v>47</v>
@@ -3767,8 +3799,8 @@
       <c r="N39" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>56</v>
+      <c r="P39" t="s">
+        <v>49</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -3791,10 +3823,10 @@
     </row>
     <row r="40" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
@@ -3806,28 +3838,28 @@
         <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I40" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J40" t="s">
         <v>55</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" t="s">
         <v>57</v>
       </c>
-      <c r="M40" t="s">
-        <v>57</v>
-      </c>
-      <c r="N40" t="s">
-        <v>58</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>59</v>
+      <c r="P40" t="s">
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -3842,30 +3874,30 @@
         <v>50</v>
       </c>
       <c r="W40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB40" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC40" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
@@ -3877,28 +3909,28 @@
         <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I41" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J41" t="s">
         <v>55</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N41" t="s">
-        <v>62</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="P41" t="s">
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -3913,162 +3945,154 @@
         <v>50</v>
       </c>
       <c r="W41" t="s">
+        <v>61</v>
+      </c>
+      <c r="X41" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z41" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X41" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA41" t="s">
         <v>45</v>
       </c>
       <c r="AD41" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE41" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B42" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q42" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" t="s">
+        <v>176</v>
+      </c>
+      <c r="I42" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L42" t="s">
+        <v>191</v>
+      </c>
+      <c r="M42" t="s">
+        <v>191</v>
+      </c>
+      <c r="P42" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q42">
         <v>4</v>
       </c>
-      <c r="R42" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S42" s="6" t="s">
+      <c r="R42" t="s">
+        <v>50</v>
+      </c>
+      <c r="S42" t="s">
         <v>40</v>
       </c>
-      <c r="T42" s="6">
-        <v>50</v>
-      </c>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
-    </row>
-    <row r="43" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B43" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O43" s="7"/>
-      <c r="P43" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q43" s="6">
+      <c r="T42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" t="s">
+        <v>179</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L43" t="s">
+        <v>188</v>
+      </c>
+      <c r="M43" t="s">
+        <v>188</v>
+      </c>
+      <c r="N43" t="s">
+        <v>193</v>
+      </c>
+      <c r="P43" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q43">
         <v>5</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="R43" t="s">
         <v>39</v>
       </c>
-      <c r="S43" s="6" t="s">
+      <c r="S43" t="s">
         <v>40</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43">
         <v>40</v>
       </c>
-      <c r="W43" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="X43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AB43" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC43" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE43" s="7" t="s">
-        <v>231</v>
+      <c r="W43" t="s">
+        <v>193</v>
+      </c>
+      <c r="X43" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -4080,28 +4104,28 @@
         <v>35</v>
       </c>
       <c r="H44" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I44" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J44" t="s">
         <v>55</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N44" t="s">
-        <v>84</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>116</v>
+        <v>80</v>
+      </c>
+      <c r="P44" t="s">
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -4110,24 +4134,24 @@
         <v>39</v>
       </c>
       <c r="S44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="AD44" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
@@ -4139,28 +4163,28 @@
         <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I45" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J45" t="s">
         <v>55</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L45" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="M45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>119</v>
+        <v>83</v>
+      </c>
+      <c r="P45" t="s">
+        <v>131</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -4175,33 +4199,33 @@
         <v>50</v>
       </c>
       <c r="W45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA45" t="s">
         <v>45</v>
       </c>
       <c r="AD45" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
@@ -4213,16 +4237,16 @@
         <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="I46" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J46" t="s">
         <v>55</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L46" t="s">
         <v>47</v>
@@ -4233,8 +4257,8 @@
       <c r="N46" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>56</v>
+      <c r="P46" t="s">
+        <v>49</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -4257,10 +4281,10 @@
     </row>
     <row r="47" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
@@ -4272,28 +4296,28 @@
         <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="I47" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J47" t="s">
         <v>55</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s">
+        <v>56</v>
+      </c>
+      <c r="M47" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" t="s">
         <v>57</v>
       </c>
-      <c r="M47" t="s">
-        <v>57</v>
-      </c>
-      <c r="N47" t="s">
-        <v>58</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>59</v>
+      <c r="P47" t="s">
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -4308,30 +4332,30 @@
         <v>50</v>
       </c>
       <c r="W47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB47" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC47" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE47" s="3" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
         <v>33</v>
@@ -4343,28 +4367,28 @@
         <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="I48" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J48" t="s">
         <v>55</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N48" t="s">
-        <v>62</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="P48" t="s">
+        <v>151</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -4379,162 +4403,154 @@
         <v>50</v>
       </c>
       <c r="W48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z48" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X48" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA48" t="s">
         <v>45</v>
       </c>
       <c r="AD48" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE48" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:31" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B49" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O49" s="7"/>
-      <c r="P49" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q49" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I49" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L49" t="s">
+        <v>191</v>
+      </c>
+      <c r="M49" t="s">
+        <v>191</v>
+      </c>
+      <c r="P49" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q49">
         <v>4</v>
       </c>
-      <c r="R49" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S49" s="6" t="s">
+      <c r="R49" t="s">
+        <v>50</v>
+      </c>
+      <c r="S49" t="s">
         <v>40</v>
       </c>
-      <c r="T49" s="6">
-        <v>50</v>
-      </c>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
-    </row>
-    <row r="50" spans="2:31" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B50" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q50" s="6">
+      <c r="T49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L50" t="s">
+        <v>188</v>
+      </c>
+      <c r="M50" t="s">
+        <v>188</v>
+      </c>
+      <c r="N50" t="s">
+        <v>193</v>
+      </c>
+      <c r="P50" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q50">
         <v>5</v>
       </c>
-      <c r="R50" s="6" t="s">
+      <c r="R50" t="s">
         <v>39</v>
       </c>
-      <c r="S50" s="6" t="s">
+      <c r="S50" t="s">
         <v>40</v>
       </c>
-      <c r="T50" s="6">
+      <c r="T50">
         <v>40</v>
       </c>
-      <c r="W50" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="X50" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AB50" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC50" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD50" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE50" s="7" t="s">
-        <v>233</v>
+      <c r="W50" t="s">
+        <v>193</v>
+      </c>
+      <c r="X50" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE50" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
@@ -4546,28 +4562,28 @@
         <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="I51" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J51" t="s">
         <v>55</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="M51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N51" t="s">
-        <v>84</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>123</v>
+        <v>80</v>
+      </c>
+      <c r="P51" t="s">
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -4582,18 +4598,18 @@
         <v>50</v>
       </c>
       <c r="AD51" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE51" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>33</v>
@@ -4605,28 +4621,28 @@
         <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="I52" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J52" t="s">
         <v>55</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="M52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N52" t="s">
-        <v>88</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
+      </c>
+      <c r="P52" t="s">
+        <v>131</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -4641,33 +4657,33 @@
         <v>50</v>
       </c>
       <c r="W52" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA52" t="s">
         <v>45</v>
       </c>
       <c r="AD52" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE52" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
@@ -4679,16 +4695,16 @@
         <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="I53" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J53" t="s">
         <v>55</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L53" t="s">
         <v>47</v>
@@ -4699,8 +4715,8 @@
       <c r="N53" t="s">
         <v>48</v>
       </c>
-      <c r="O53" s="3" t="s">
-        <v>56</v>
+      <c r="P53" t="s">
+        <v>49</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -4721,86 +4737,83 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K54" s="7" t="s">
+    <row r="54" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" t="s">
+        <v>178</v>
+      </c>
+      <c r="I54" t="s">
+        <v>179</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L54" t="s">
+        <v>188</v>
+      </c>
+      <c r="M54" t="s">
+        <v>188</v>
+      </c>
+      <c r="N54" t="s">
+        <v>193</v>
+      </c>
+      <c r="P54" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54" t="s">
+        <v>39</v>
+      </c>
+      <c r="S54" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s">
+        <v>193</v>
+      </c>
+      <c r="X54" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC54" t="s">
         <v>211</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O54" s="7"/>
-      <c r="P54" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>2</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S54" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T54" s="6">
-        <v>40</v>
-      </c>
-      <c r="W54" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="X54" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AB54" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC54" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD54" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE54" s="7" t="s">
-        <v>234</v>
+      <c r="AD54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE54" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
         <v>33</v>
@@ -4812,28 +4825,28 @@
         <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="I55" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J55" t="s">
         <v>55</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L55" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="M55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N55" t="s">
-        <v>131</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
+      </c>
+      <c r="P55" t="s">
+        <v>151</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -4842,39 +4855,39 @@
         <v>39</v>
       </c>
       <c r="S55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T55">
         <v>3</v>
       </c>
       <c r="W55" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="X55" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AA55" t="s">
         <v>45</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE55" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
@@ -4886,28 +4899,28 @@
         <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="I56" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J56" t="s">
         <v>55</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M56" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="N56" t="s">
-        <v>139</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="P56" t="s">
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -4937,18 +4950,18 @@
         <v>45</v>
       </c>
       <c r="AD56" s="3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AE56" s="3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -4960,28 +4973,28 @@
         <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="I57" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J57" t="s">
         <v>55</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="M57" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="N57" t="s">
-        <v>142</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
+      </c>
+      <c r="P57" t="s">
+        <v>145</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -4996,25 +5009,25 @@
         <v>50</v>
       </c>
       <c r="W57" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="X57" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="AA57" t="s">
         <v>45</v>
       </c>
       <c r="AD57" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AE57" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:31" ht="32" x14ac:dyDescent="0.2">
@@ -5034,16 +5047,16 @@
         <v>35</v>
       </c>
       <c r="H58" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="I58" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J58" t="s">
         <v>55</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s">
         <v>47</v>
@@ -5093,28 +5106,28 @@
         <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="I59" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J59" t="s">
         <v>55</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L59" t="s">
+        <v>56</v>
+      </c>
+      <c r="M59" t="s">
+        <v>56</v>
+      </c>
+      <c r="N59" t="s">
         <v>57</v>
       </c>
-      <c r="M59" t="s">
-        <v>57</v>
-      </c>
-      <c r="N59" t="s">
-        <v>58</v>
-      </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -5129,22 +5142,22 @@
         <v>50</v>
       </c>
       <c r="W59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC59" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE59" s="3" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="2:31" ht="48" x14ac:dyDescent="0.2">
@@ -5164,28 +5177,28 @@
         <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="I60" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J60" t="s">
         <v>55</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -5200,25 +5213,25 @@
         <v>50</v>
       </c>
       <c r="W60" t="s">
+        <v>61</v>
+      </c>
+      <c r="X60" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z60" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X60" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z60" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA60" t="s">
         <v>45</v>
       </c>
       <c r="AD60" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE60" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="2:31" ht="32" x14ac:dyDescent="0.2">
@@ -5238,28 +5251,28 @@
         <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="I61" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J61" t="s">
         <v>55</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="M61" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -5268,16 +5281,16 @@
         <v>39</v>
       </c>
       <c r="S61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="AD61" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE61" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:31" ht="32" x14ac:dyDescent="0.2">
@@ -5297,28 +5310,28 @@
         <v>35</v>
       </c>
       <c r="H62" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="I62" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J62" t="s">
         <v>55</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L62" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P62" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -5333,30 +5346,30 @@
         <v>50</v>
       </c>
       <c r="W62" t="s">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X62" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD62" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="AE62" s="3" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
@@ -5368,16 +5381,16 @@
         <v>35</v>
       </c>
       <c r="H63" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="I63" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J63" t="s">
         <v>55</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="L63" t="s">
         <v>47</v>
@@ -5412,10 +5425,10 @@
     </row>
     <row r="64" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
@@ -5427,28 +5440,28 @@
         <v>35</v>
       </c>
       <c r="H64" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="I64" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J64" t="s">
         <v>55</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="L64" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" t="s">
+        <v>56</v>
+      </c>
+      <c r="N64" t="s">
         <v>57</v>
       </c>
-      <c r="M64" t="s">
-        <v>57</v>
-      </c>
-      <c r="N64" t="s">
-        <v>58</v>
-      </c>
       <c r="P64" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -5463,30 +5476,30 @@
         <v>50</v>
       </c>
       <c r="W64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB64" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC64" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD64" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE64" s="3" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
@@ -5498,28 +5511,28 @@
         <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="I65" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J65" t="s">
         <v>55</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P65" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -5534,33 +5547,33 @@
         <v>50</v>
       </c>
       <c r="W65" t="s">
+        <v>61</v>
+      </c>
+      <c r="X65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z65" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X65" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z65" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA65" t="s">
         <v>45</v>
       </c>
       <c r="AD65" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE65" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
         <v>33</v>
@@ -5572,28 +5585,28 @@
         <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="I66" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J66" t="s">
         <v>55</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="L66" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="M66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N66" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P66" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -5602,57 +5615,57 @@
         <v>39</v>
       </c>
       <c r="S66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="AD66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE66" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" t="s">
+        <v>155</v>
+      </c>
+      <c r="I67" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67" t="s">
+        <v>55</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L67" t="s">
+        <v>133</v>
+      </c>
+      <c r="M67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N67" t="s">
         <v>83</v>
       </c>
-      <c r="D67" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" t="s">
-        <v>179</v>
-      </c>
-      <c r="I67" t="s">
-        <v>186</v>
-      </c>
-      <c r="J67" t="s">
-        <v>55</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L67" t="s">
-        <v>150</v>
-      </c>
-      <c r="M67" t="s">
-        <v>75</v>
-      </c>
-      <c r="N67" t="s">
-        <v>88</v>
-      </c>
       <c r="P67" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -5667,33 +5680,33 @@
         <v>50</v>
       </c>
       <c r="W67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X67" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z67" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA67" t="s">
         <v>45</v>
       </c>
       <c r="AD67" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE67" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
@@ -5705,16 +5718,16 @@
         <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I68" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J68" t="s">
         <v>55</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L68" t="s">
         <v>47</v>
@@ -5749,10 +5762,10 @@
     </row>
     <row r="69" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
         <v>33</v>
@@ -5764,28 +5777,28 @@
         <v>35</v>
       </c>
       <c r="H69" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I69" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J69" t="s">
         <v>55</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L69" t="s">
+        <v>56</v>
+      </c>
+      <c r="M69" t="s">
+        <v>56</v>
+      </c>
+      <c r="N69" t="s">
         <v>57</v>
       </c>
-      <c r="M69" t="s">
-        <v>57</v>
-      </c>
-      <c r="N69" t="s">
-        <v>58</v>
-      </c>
       <c r="P69" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -5800,30 +5813,30 @@
         <v>50</v>
       </c>
       <c r="W69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB69" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC69" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD69" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE69" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
         <v>33</v>
@@ -5835,28 +5848,28 @@
         <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I70" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J70" t="s">
         <v>55</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P70" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -5871,33 +5884,33 @@
         <v>50</v>
       </c>
       <c r="W70" t="s">
+        <v>61</v>
+      </c>
+      <c r="X70" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z70" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X70" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y70" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z70" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA70" t="s">
         <v>45</v>
       </c>
       <c r="AD70" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE70" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
         <v>33</v>
@@ -5909,28 +5922,28 @@
         <v>35</v>
       </c>
       <c r="H71" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I71" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J71" t="s">
         <v>55</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L71" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="M71" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N71" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P71" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -5939,24 +5952,24 @@
         <v>39</v>
       </c>
       <c r="S71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="AD71" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE71" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
         <v>33</v>
@@ -5968,28 +5981,28 @@
         <v>35</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I72" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J72" t="s">
         <v>55</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L72" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="M72" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N72" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -6004,33 +6017,33 @@
         <v>50</v>
       </c>
       <c r="W72" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X72" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y72" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z72" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA72" t="s">
         <v>45</v>
       </c>
       <c r="AD72" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE72" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
         <v>33</v>
@@ -6042,16 +6055,16 @@
         <v>35</v>
       </c>
       <c r="H73" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I73" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J73" t="s">
         <v>55</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L73" t="s">
         <v>47</v>
@@ -6086,10 +6099,10 @@
     </row>
     <row r="74" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D74" t="s">
         <v>33</v>
@@ -6101,28 +6114,28 @@
         <v>35</v>
       </c>
       <c r="H74" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I74" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J74" t="s">
         <v>55</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L74" t="s">
+        <v>56</v>
+      </c>
+      <c r="M74" t="s">
+        <v>56</v>
+      </c>
+      <c r="N74" t="s">
         <v>57</v>
       </c>
-      <c r="M74" t="s">
-        <v>57</v>
-      </c>
-      <c r="N74" t="s">
-        <v>58</v>
-      </c>
       <c r="P74" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -6137,30 +6150,30 @@
         <v>50</v>
       </c>
       <c r="W74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB74" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC74" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD74" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE74" s="3" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D75" t="s">
         <v>33</v>
@@ -6172,28 +6185,28 @@
         <v>35</v>
       </c>
       <c r="H75" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I75" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J75" t="s">
         <v>55</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P75" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -6208,33 +6221,33 @@
         <v>50</v>
       </c>
       <c r="W75" t="s">
+        <v>61</v>
+      </c>
+      <c r="X75" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z75" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X75" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y75" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z75" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA75" t="s">
         <v>45</v>
       </c>
       <c r="AD75" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE75" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D76" t="s">
         <v>33</v>
@@ -6246,28 +6259,28 @@
         <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I76" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J76" t="s">
         <v>55</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L76" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M76" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N76" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -6276,24 +6289,24 @@
         <v>39</v>
       </c>
       <c r="S76" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T76">
         <v>3</v>
       </c>
       <c r="AD76" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE76" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
         <v>33</v>
@@ -6305,28 +6318,28 @@
         <v>35</v>
       </c>
       <c r="H77" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I77" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J77" t="s">
         <v>55</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L77" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="M77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N77" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P77" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -6341,33 +6354,33 @@
         <v>50</v>
       </c>
       <c r="W77" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X77" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z77" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA77" t="s">
         <v>45</v>
       </c>
       <c r="AD77" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE77" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
@@ -6379,16 +6392,16 @@
         <v>35</v>
       </c>
       <c r="H78" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I78" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J78" t="s">
         <v>55</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L78" t="s">
         <v>47</v>
@@ -6423,10 +6436,10 @@
     </row>
     <row r="79" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D79" t="s">
         <v>33</v>
@@ -6438,28 +6451,28 @@
         <v>35</v>
       </c>
       <c r="H79" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I79" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J79" t="s">
         <v>55</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L79" t="s">
+        <v>56</v>
+      </c>
+      <c r="M79" t="s">
+        <v>56</v>
+      </c>
+      <c r="N79" t="s">
         <v>57</v>
       </c>
-      <c r="M79" t="s">
-        <v>57</v>
-      </c>
-      <c r="N79" t="s">
-        <v>58</v>
-      </c>
       <c r="P79" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -6474,30 +6487,30 @@
         <v>50</v>
       </c>
       <c r="W79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB79" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC79" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD79" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE79" s="3" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D80" t="s">
         <v>33</v>
@@ -6509,28 +6522,28 @@
         <v>35</v>
       </c>
       <c r="H80" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I80" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J80" t="s">
         <v>55</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P80" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -6545,33 +6558,33 @@
         <v>50</v>
       </c>
       <c r="W80" t="s">
+        <v>61</v>
+      </c>
+      <c r="X80" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z80" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X80" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y80" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z80" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA80" t="s">
         <v>45</v>
       </c>
       <c r="AD80" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE80" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D81" t="s">
         <v>33</v>
@@ -6583,28 +6596,28 @@
         <v>35</v>
       </c>
       <c r="H81" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I81" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J81" t="s">
         <v>55</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L81" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M81" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N81" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -6613,24 +6626,24 @@
         <v>39</v>
       </c>
       <c r="S81" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="AD81" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE81" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
@@ -6642,28 +6655,28 @@
         <v>35</v>
       </c>
       <c r="H82" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I82" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J82" t="s">
         <v>55</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L82" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="M82" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N82" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P82" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -6678,33 +6691,33 @@
         <v>50</v>
       </c>
       <c r="W82" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X82" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y82" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z82" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA82" t="s">
         <v>45</v>
       </c>
       <c r="AD82" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE82" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
         <v>33</v>
@@ -6716,16 +6729,16 @@
         <v>35</v>
       </c>
       <c r="H83" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I83" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J83" t="s">
         <v>55</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L83" t="s">
         <v>47</v>
@@ -6760,10 +6773,10 @@
     </row>
     <row r="84" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
         <v>33</v>
@@ -6775,28 +6788,28 @@
         <v>35</v>
       </c>
       <c r="H84" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I84" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J84" t="s">
         <v>55</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L84" t="s">
+        <v>56</v>
+      </c>
+      <c r="M84" t="s">
+        <v>56</v>
+      </c>
+      <c r="N84" t="s">
         <v>57</v>
       </c>
-      <c r="M84" t="s">
-        <v>57</v>
-      </c>
-      <c r="N84" t="s">
-        <v>58</v>
-      </c>
       <c r="P84" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -6811,30 +6824,30 @@
         <v>50</v>
       </c>
       <c r="W84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB84" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC84" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD84" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE84" s="3" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
         <v>33</v>
@@ -6846,28 +6859,28 @@
         <v>35</v>
       </c>
       <c r="H85" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I85" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J85" t="s">
         <v>55</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P85" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -6882,33 +6895,33 @@
         <v>50</v>
       </c>
       <c r="W85" t="s">
+        <v>61</v>
+      </c>
+      <c r="X85" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z85" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X85" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y85" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z85" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA85" t="s">
         <v>45</v>
       </c>
       <c r="AD85" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE85" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D86" t="s">
         <v>33</v>
@@ -6920,28 +6933,28 @@
         <v>35</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I86" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J86" t="s">
         <v>55</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L86" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M86" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N86" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -6950,24 +6963,24 @@
         <v>39</v>
       </c>
       <c r="S86" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T86">
         <v>3</v>
       </c>
       <c r="AD86" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE86" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
         <v>33</v>
@@ -6979,28 +6992,28 @@
         <v>35</v>
       </c>
       <c r="H87" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I87" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J87" t="s">
         <v>55</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L87" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="M87" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N87" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P87" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -7015,33 +7028,33 @@
         <v>50</v>
       </c>
       <c r="W87" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X87" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z87" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA87" t="s">
         <v>45</v>
       </c>
       <c r="AD87" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE87" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
         <v>33</v>
@@ -7053,16 +7066,16 @@
         <v>35</v>
       </c>
       <c r="H88" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I88" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J88" t="s">
         <v>55</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L88" t="s">
         <v>47</v>
@@ -7097,10 +7110,10 @@
     </row>
     <row r="89" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D89" t="s">
         <v>33</v>
@@ -7112,28 +7125,28 @@
         <v>35</v>
       </c>
       <c r="H89" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I89" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J89" t="s">
         <v>55</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L89" t="s">
+        <v>56</v>
+      </c>
+      <c r="M89" t="s">
+        <v>56</v>
+      </c>
+      <c r="N89" t="s">
         <v>57</v>
       </c>
-      <c r="M89" t="s">
-        <v>57</v>
-      </c>
-      <c r="N89" t="s">
-        <v>58</v>
-      </c>
       <c r="P89" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -7148,30 +7161,30 @@
         <v>50</v>
       </c>
       <c r="W89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB89" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="AC89" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD89" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE89" s="3" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D90" t="s">
         <v>33</v>
@@ -7183,28 +7196,28 @@
         <v>35</v>
       </c>
       <c r="H90" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I90" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J90" t="s">
         <v>55</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P90" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -7219,33 +7232,33 @@
         <v>50</v>
       </c>
       <c r="W90" t="s">
+        <v>61</v>
+      </c>
+      <c r="X90" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y90" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z90" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="X90" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y90" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z90" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="AA90" t="s">
         <v>45</v>
       </c>
       <c r="AD90" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE90" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
         <v>33</v>
@@ -7257,28 +7270,28 @@
         <v>35</v>
       </c>
       <c r="H91" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I91" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J91" t="s">
         <v>55</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L91" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="M91" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N91" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P91" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -7287,24 +7300,24 @@
         <v>39</v>
       </c>
       <c r="S91" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T91">
         <v>3</v>
       </c>
       <c r="AD91" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE91" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
         <v>33</v>
@@ -7316,28 +7329,28 @@
         <v>35</v>
       </c>
       <c r="H92" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I92" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J92" t="s">
         <v>55</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L92" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="M92" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P92" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -7352,33 +7365,33 @@
         <v>50</v>
       </c>
       <c r="W92" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X92" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y92" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Z92" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA92" t="s">
         <v>45</v>
       </c>
       <c r="AD92" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE92" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
         <v>33</v>
@@ -7390,16 +7403,16 @@
         <v>35</v>
       </c>
       <c r="H93" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I93" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J93" t="s">
         <v>55</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="L93" t="s">
         <v>47</v>
@@ -7432,12 +7445,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D94" t="s">
         <v>33</v>
@@ -7449,28 +7462,28 @@
         <v>35</v>
       </c>
       <c r="H94" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I94" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J94" t="s">
         <v>55</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="L94" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="M94" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N94" t="s">
-        <v>131</v>
-      </c>
-      <c r="P94" t="s">
-        <v>132</v>
+        <v>115</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -7485,33 +7498,33 @@
         <v>50</v>
       </c>
       <c r="W94" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="X94" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="Y94" s="3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="Z94" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AA94" t="s">
         <v>45</v>
       </c>
       <c r="AD94" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE94" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D95" t="s">
         <v>33</v>
@@ -7523,28 +7536,28 @@
         <v>35</v>
       </c>
       <c r="H95" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I95" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J95" t="s">
         <v>55</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="L95" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M95" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="N95" t="s">
-        <v>139</v>
-      </c>
-      <c r="P95" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="O95" t="s">
+        <v>124</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -7574,18 +7587,18 @@
         <v>45</v>
       </c>
       <c r="AD95" s="3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AE95" s="3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="2:31" ht="48" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D96" t="s">
         <v>33</v>
@@ -7597,28 +7610,28 @@
         <v>35</v>
       </c>
       <c r="H96" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I96" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J96" t="s">
         <v>55</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="L96" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="M96" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="N96" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="P96" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -7633,29 +7646,1942 @@
         <v>50</v>
       </c>
       <c r="W96" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="X96" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="Y96" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="Z96" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="AA96" t="s">
         <v>45</v>
       </c>
       <c r="AD96" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="AE96" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O97" s="9"/>
+      <c r="P97" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q97" s="6">
+        <v>1</v>
+      </c>
+      <c r="R97" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S97" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T97" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="9"/>
+      <c r="AD97" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE97" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O98" s="9"/>
+      <c r="P98" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>2</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T98" s="6">
+        <v>50</v>
+      </c>
+      <c r="W98" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y98" s="9"/>
+      <c r="Z98" s="9"/>
+      <c r="AB98" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC98" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD98" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE98" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="2:31" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B99" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O99" s="9"/>
+      <c r="P99" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>3</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T99" s="6">
+        <v>50</v>
+      </c>
+      <c r="W99" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X99" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y99" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z99" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA99" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD99" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE99" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B100" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O100" s="9"/>
+      <c r="P100" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q100" s="6">
+        <v>4</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T100" s="6">
+        <v>50</v>
+      </c>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AD100" s="9"/>
+      <c r="AE100" s="9"/>
+    </row>
+    <row r="101" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O101" s="9"/>
+      <c r="P101" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q101" s="6">
+        <v>5</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S101" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T101" s="6">
+        <v>40</v>
+      </c>
+      <c r="W101" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="X101" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="9"/>
+      <c r="AB101" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC101" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD101" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE101" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B102" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O102" s="9"/>
+      <c r="P102" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q102" s="6">
+        <v>6</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S102" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T102" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AD102" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE102" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O103" s="9"/>
+      <c r="P103" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q103" s="6">
+        <v>7</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S103" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T103" s="6">
+        <v>50</v>
+      </c>
+      <c r="W103" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X103" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="10"/>
+      <c r="AB103" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC103" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD103" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE103" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O104" s="9"/>
+      <c r="P104" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q104" s="6">
+        <v>1</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S104" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T104" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="9"/>
+      <c r="AD104" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE104" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O105" s="9"/>
+      <c r="P105" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q105" s="6">
+        <v>2</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S105" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T105" s="6">
+        <v>50</v>
+      </c>
+      <c r="W105" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X105" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AB105" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC105" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD105" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE105" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="2:31" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B106" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O106" s="9"/>
+      <c r="P106" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q106" s="6">
+        <v>3</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S106" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T106" s="6">
+        <v>50</v>
+      </c>
+      <c r="W106" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X106" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y106" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z106" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA106" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD106" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE106" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O107" s="9"/>
+      <c r="P107" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q107" s="6">
+        <v>4</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S107" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T107" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+      <c r="AD107" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE107" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O108" s="9"/>
+      <c r="P108" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q108" s="6">
+        <v>5</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S108" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T108" s="6">
+        <v>50</v>
+      </c>
+      <c r="W108" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X108" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y108" s="9"/>
+      <c r="Z108" s="9"/>
+      <c r="AA108" s="10"/>
+      <c r="AB108" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC108" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD108" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE108" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O109" s="9"/>
+      <c r="P109" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q109" s="6">
+        <v>1</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S109" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T109" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+      <c r="AD109" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE109" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O110" s="9"/>
+      <c r="P110" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q110" s="6">
+        <v>2</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S110" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T110" s="6">
+        <v>50</v>
+      </c>
+      <c r="W110" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X110" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="9"/>
+      <c r="AB110" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC110" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD110" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE110" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="2:31" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O111" s="9"/>
+      <c r="P111" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q111" s="6">
+        <v>3</v>
+      </c>
+      <c r="R111" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S111" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T111" s="6">
+        <v>50</v>
+      </c>
+      <c r="W111" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X111" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y111" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z111" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA111" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD111" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE111" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B112" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O112" s="9"/>
+      <c r="P112" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q112" s="6">
+        <v>4</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S112" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T112" s="6">
+        <v>50</v>
+      </c>
+      <c r="Y112" s="9"/>
+      <c r="Z112" s="9"/>
+      <c r="AD112" s="9"/>
+      <c r="AE112" s="9"/>
+    </row>
+    <row r="113" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O113" s="9"/>
+      <c r="P113" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q113" s="6">
+        <v>5</v>
+      </c>
+      <c r="R113" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S113" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T113" s="6">
+        <v>40</v>
+      </c>
+      <c r="W113" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="X113" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="9"/>
+      <c r="AB113" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC113" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD113" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE113" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B114" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O114" s="9"/>
+      <c r="P114" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q114" s="6">
+        <v>6</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S114" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T114" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="9"/>
+      <c r="AD114" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE114" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B115" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O115" s="9"/>
+      <c r="P115" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q115" s="6">
+        <v>7</v>
+      </c>
+      <c r="R115" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S115" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T115" s="6">
+        <v>50</v>
+      </c>
+      <c r="W115" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X115" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y115" s="9"/>
+      <c r="Z115" s="9"/>
+      <c r="AA115" s="10"/>
+      <c r="AC115" s="7"/>
+      <c r="AD115" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE115" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B116" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O116" s="9"/>
+      <c r="P116" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q116" s="6">
+        <v>1</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S116" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T116" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y116" s="9"/>
+      <c r="Z116" s="9"/>
+      <c r="AD116" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE116" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B117" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O117" s="9"/>
+      <c r="P117" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q117" s="6">
+        <v>2</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S117" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T117" s="6">
+        <v>50</v>
+      </c>
+      <c r="W117" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X117" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y117" s="9"/>
+      <c r="Z117" s="9"/>
+      <c r="AB117" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC117" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD117" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE117" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B118" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O118" s="9"/>
+      <c r="P118" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q118" s="6">
+        <v>3</v>
+      </c>
+      <c r="R118" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S118" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T118" s="6">
+        <v>40</v>
+      </c>
+      <c r="W118" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="X118" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y118" s="9"/>
+      <c r="Z118" s="9"/>
+      <c r="AB118" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC118" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD118" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE118" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B119" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O119" s="9"/>
+      <c r="P119" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>4</v>
+      </c>
+      <c r="R119" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S119" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T119" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y119" s="9"/>
+      <c r="Z119" s="9"/>
+      <c r="AD119" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE119" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B120" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O120" s="9"/>
+      <c r="P120" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q120" s="6">
+        <v>5</v>
+      </c>
+      <c r="R120" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S120" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T120" s="6">
+        <v>50</v>
+      </c>
+      <c r="W120" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X120" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y120" s="9"/>
+      <c r="Z120" s="9"/>
+      <c r="AA120" s="10"/>
+      <c r="AC120" s="7"/>
+      <c r="AD120" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE120" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B121" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O121" s="9"/>
+      <c r="P121" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>1</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S121" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T121" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y121" s="9"/>
+      <c r="Z121" s="9"/>
+      <c r="AD121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE121" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B122" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O122" s="9"/>
+      <c r="P122" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q122" s="6">
+        <v>2</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S122" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T122" s="6">
+        <v>50</v>
+      </c>
+      <c r="W122" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X122" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y122" s="9"/>
+      <c r="Z122" s="9"/>
+      <c r="AB122" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC122" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD122" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE122" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="2:31" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B123" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O123" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q123" s="6">
+        <v>3</v>
+      </c>
+      <c r="R123" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S123" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T123" s="6">
+        <v>200</v>
+      </c>
+      <c r="Y123" s="9"/>
+      <c r="Z123" s="9"/>
+      <c r="AD123" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE123" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="2:31" s="6" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B124" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O124" s="9"/>
+      <c r="P124" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>4</v>
+      </c>
+      <c r="R124" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S124" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T124" s="6">
+        <v>100</v>
+      </c>
+      <c r="W124" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="X124" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y124" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z124" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA124" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC124" s="7"/>
+      <c r="AD124" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE124" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AG124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/curation/draft/collection/collection_specialization_EG_Local.xlsx
+++ b/curation/draft/collection/collection_specialization_EG_Local.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4393691B-8C56-3745-BDD6-271D210F51A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7787B9C5-06CE-3543-A9CF-60E34093E5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3400" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="3400" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_EG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EG!$A$1:$AG$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EG!$A$1:$AH$124</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="252">
   <si>
     <t>package_date</t>
   </si>
@@ -792,6 +792,9 @@
   </si>
   <si>
     <t>How was the technical quality of the assessment?</t>
+  </si>
+  <si>
+    <t>categories</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -912,16 +915,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG124"/>
+  <dimension ref="A1:AH124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L131" sqref="L131"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1237,31 +1234,31 @@
     <col min="4" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" customWidth="1"/>
-    <col min="13" max="13" width="22.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="31.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" customWidth="1"/>
-    <col min="17" max="19" width="8.83203125" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" customWidth="1"/>
-    <col min="21" max="21" width="24.1640625" customWidth="1"/>
-    <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="25" customWidth="1"/>
-    <col min="24" max="24" width="19.6640625" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="22" style="3" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" customWidth="1"/>
-    <col min="28" max="28" width="19.83203125" customWidth="1"/>
-    <col min="29" max="29" width="21.83203125" customWidth="1"/>
-    <col min="30" max="30" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="74.5" style="3" customWidth="1"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="12.83203125" customWidth="1"/>
+    <col min="10" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.1640625" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="31.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="26.33203125" customWidth="1"/>
+    <col min="18" max="20" width="8.83203125" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
+    <col min="22" max="22" width="24.1640625" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
+    <col min="24" max="24" width="25" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="22" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.1640625" customWidth="1"/>
+    <col min="29" max="29" width="19.83203125" customWidth="1"/>
+    <col min="30" max="30" width="21.83203125" customWidth="1"/>
+    <col min="31" max="31" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="74.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
+    <col min="34" max="34" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,77 +1289,80 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>147</v>
       </c>
@@ -1378,53 +1378,53 @@
       <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
       </c>
       <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>147</v>
       </c>
@@ -1440,41 +1440,41 @@
       <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
       </c>
       <c r="M3" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
       <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
         <v>51</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>10</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1499,41 +1499,41 @@
       <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
       </c>
       <c r="M4" t="s">
         <v>47</v>
       </c>
       <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
         <v>48</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>49</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="R4" t="s">
-        <v>50</v>
-      </c>
       <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
         <v>51</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>10</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -1558,53 +1558,53 @@
       <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="L5" t="s">
-        <v>56</v>
       </c>
       <c r="M5" t="s">
         <v>56</v>
       </c>
       <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
         <v>57</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>150</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>39</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>40</v>
       </c>
-      <c r="T5">
-        <v>50</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="U5">
+        <v>50</v>
+      </c>
+      <c r="X5" t="s">
         <v>58</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>56</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>152</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1629,56 +1629,56 @@
       <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="L6" t="s">
-        <v>59</v>
       </c>
       <c r="M6" t="s">
         <v>59</v>
       </c>
       <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
         <v>60</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>151</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6" t="s">
-        <v>50</v>
-      </c>
       <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
         <v>40</v>
       </c>
-      <c r="T6">
-        <v>50</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="U6">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
         <v>61</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>45</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -1703,32 +1703,32 @@
       <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="L7" t="s">
-        <v>191</v>
       </c>
       <c r="M7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" t="s">
         <v>192</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
-        <v>50</v>
-      </c>
       <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
         <v>40</v>
       </c>
-      <c r="T7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="U7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>53</v>
       </c>
@@ -1753,53 +1753,53 @@
       <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="L8" t="s">
-        <v>188</v>
       </c>
       <c r="M8" t="s">
         <v>188</v>
       </c>
       <c r="N8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O8" t="s">
         <v>193</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>189</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>39</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>40</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>40</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>193</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>188</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>194</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>53</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>53</v>
       </c>
@@ -1824,41 +1824,41 @@
       <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="L9" t="s">
-        <v>65</v>
       </c>
       <c r="M9" t="s">
         <v>65</v>
       </c>
       <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
         <v>66</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>190</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>39</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>68</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -1883,54 +1883,54 @@
       <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="L10" t="s">
-        <v>71</v>
       </c>
       <c r="M10" t="s">
         <v>71</v>
       </c>
       <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
         <v>72</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>131</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>39</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>40</v>
       </c>
-      <c r="T10">
-        <v>50</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="U10">
+        <v>50</v>
+      </c>
+      <c r="X10" t="s">
         <v>73</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>74</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" t="s">
+      <c r="AB10" s="5"/>
+      <c r="AC10" t="s">
         <v>75</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>76</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>78</v>
       </c>
@@ -1955,41 +1955,41 @@
       <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
       </c>
       <c r="M11" t="s">
         <v>47</v>
       </c>
       <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" t="s">
         <v>48</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>49</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1</v>
       </c>
-      <c r="R11" t="s">
-        <v>50</v>
-      </c>
       <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
         <v>51</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>10</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE11" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -2014,53 +2014,53 @@
       <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="L12" t="s">
-        <v>56</v>
       </c>
       <c r="M12" t="s">
         <v>56</v>
       </c>
       <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
         <v>57</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>150</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>39</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>40</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>100</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>58</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>56</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>152</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>78</v>
       </c>
@@ -2085,56 +2085,56 @@
       <c r="J13" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="L13" t="s">
-        <v>59</v>
       </c>
       <c r="M13" t="s">
         <v>59</v>
       </c>
       <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" t="s">
         <v>60</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>151</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>3</v>
       </c>
-      <c r="R13" t="s">
-        <v>50</v>
-      </c>
       <c r="S13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" t="s">
         <v>68</v>
       </c>
-      <c r="T13">
-        <v>50</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="U13">
+        <v>50</v>
+      </c>
+      <c r="X13" t="s">
         <v>61</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>62</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>45</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE13" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>78</v>
       </c>
@@ -2159,32 +2159,32 @@
       <c r="J14" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="L14" t="s">
-        <v>191</v>
       </c>
       <c r="M14" t="s">
         <v>191</v>
       </c>
-      <c r="P14" t="s">
+      <c r="N14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" t="s">
         <v>192</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4</v>
       </c>
-      <c r="R14" t="s">
-        <v>50</v>
-      </c>
       <c r="S14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" t="s">
         <v>40</v>
       </c>
-      <c r="T14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="U14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -2209,53 +2209,53 @@
       <c r="J15" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="L15" t="s">
-        <v>188</v>
       </c>
       <c r="M15" t="s">
         <v>188</v>
       </c>
       <c r="N15" t="s">
+        <v>188</v>
+      </c>
+      <c r="O15" t="s">
         <v>193</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>189</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>5</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>39</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>40</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>40</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>193</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>188</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>197</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>198</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>78</v>
       </c>
@@ -2280,41 +2280,41 @@
       <c r="J16" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="L16" t="s">
-        <v>65</v>
       </c>
       <c r="M16" t="s">
         <v>65</v>
       </c>
       <c r="N16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" t="s">
         <v>80</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>190</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>6</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>39</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>68</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>3</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AF16" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>78</v>
       </c>
@@ -2339,56 +2339,56 @@
       <c r="J17" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="L17" t="s">
-        <v>71</v>
       </c>
       <c r="M17" t="s">
         <v>71</v>
       </c>
       <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
         <v>83</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>131</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>7</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>39</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>40</v>
       </c>
-      <c r="T17">
-        <v>50</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="U17">
+        <v>50</v>
+      </c>
+      <c r="X17" t="s">
         <v>73</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>74</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>45</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -2413,41 +2413,41 @@
       <c r="J18" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="L18" t="s">
-        <v>47</v>
       </c>
       <c r="M18" t="s">
         <v>47</v>
       </c>
       <c r="N18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" t="s">
         <v>48</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>49</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1</v>
       </c>
-      <c r="R18" t="s">
-        <v>50</v>
-      </c>
       <c r="S18" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" t="s">
         <v>51</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>10</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE18" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>87</v>
       </c>
@@ -2472,53 +2472,53 @@
       <c r="J19" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="L19" t="s">
-        <v>56</v>
       </c>
       <c r="M19" t="s">
         <v>56</v>
       </c>
       <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>150</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>39</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>68</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>3</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>58</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>56</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AC19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>152</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>87</v>
       </c>
@@ -2543,56 +2543,56 @@
       <c r="J20" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="L20" t="s">
-        <v>59</v>
       </c>
       <c r="M20" t="s">
         <v>59</v>
       </c>
       <c r="N20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" t="s">
         <v>60</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>151</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>3</v>
       </c>
-      <c r="R20" t="s">
-        <v>50</v>
-      </c>
       <c r="S20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20" t="s">
         <v>40</v>
       </c>
-      <c r="T20">
-        <v>50</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="U20">
+        <v>50</v>
+      </c>
+      <c r="X20" t="s">
         <v>61</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>62</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>45</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE20" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>87</v>
       </c>
@@ -2617,32 +2617,32 @@
       <c r="J21" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="L21" t="s">
-        <v>191</v>
       </c>
       <c r="M21" t="s">
         <v>191</v>
       </c>
-      <c r="P21" t="s">
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q21" t="s">
         <v>192</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>4</v>
       </c>
-      <c r="R21" t="s">
-        <v>50</v>
-      </c>
       <c r="S21" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" t="s">
         <v>40</v>
       </c>
-      <c r="T21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="U21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>87</v>
       </c>
@@ -2667,53 +2667,53 @@
       <c r="J22" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="L22" t="s">
-        <v>188</v>
       </c>
       <c r="M22" t="s">
         <v>188</v>
       </c>
       <c r="N22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" t="s">
         <v>193</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>189</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>5</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>39</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>40</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>40</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>193</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>188</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>200</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>87</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AF22" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>87</v>
       </c>
@@ -2738,41 +2738,41 @@
       <c r="J23" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="L23" t="s">
-        <v>65</v>
       </c>
       <c r="M23" t="s">
         <v>65</v>
       </c>
       <c r="N23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" t="s">
         <v>80</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>190</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>6</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>39</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>68</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>3</v>
       </c>
-      <c r="AD23" s="3" t="s">
+      <c r="AE23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE23" s="3" t="s">
+      <c r="AF23" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>87</v>
       </c>
@@ -2797,56 +2797,56 @@
       <c r="J24" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="L24" t="s">
-        <v>71</v>
       </c>
       <c r="M24" t="s">
         <v>71</v>
       </c>
       <c r="N24" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" t="s">
         <v>83</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>131</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>7</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>39</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>40</v>
       </c>
-      <c r="T24">
-        <v>50</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="U24">
+        <v>50</v>
+      </c>
+      <c r="X24" t="s">
         <v>73</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>74</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Z24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="AA24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>45</v>
       </c>
-      <c r="AD24" s="3" t="s">
+      <c r="AE24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE24" s="3" t="s">
+      <c r="AF24" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>92</v>
       </c>
@@ -2871,41 +2871,41 @@
       <c r="J25" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="L25" t="s">
-        <v>47</v>
       </c>
       <c r="M25" t="s">
         <v>47</v>
       </c>
       <c r="N25" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" t="s">
         <v>48</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>49</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1</v>
       </c>
-      <c r="R25" t="s">
-        <v>50</v>
-      </c>
       <c r="S25" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25" t="s">
         <v>51</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>10</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE25" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>92</v>
       </c>
@@ -2930,53 +2930,53 @@
       <c r="J26" t="s">
         <v>55</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" t="s">
-        <v>56</v>
       </c>
       <c r="M26" t="s">
         <v>56</v>
       </c>
       <c r="N26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" t="s">
         <v>57</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>150</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>39</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>40</v>
       </c>
-      <c r="T26">
-        <v>50</v>
-      </c>
-      <c r="W26" t="s">
+      <c r="U26">
+        <v>50</v>
+      </c>
+      <c r="X26" t="s">
         <v>58</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>56</v>
       </c>
-      <c r="AB26" s="3" t="s">
+      <c r="AC26" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>152</v>
       </c>
-      <c r="AD26" s="3" t="s">
+      <c r="AE26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE26" s="3" t="s">
+      <c r="AF26" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>92</v>
       </c>
@@ -3001,56 +3001,56 @@
       <c r="J27" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="L27" t="s">
-        <v>59</v>
       </c>
       <c r="M27" t="s">
         <v>59</v>
       </c>
       <c r="N27" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" t="s">
         <v>60</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>151</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>3</v>
       </c>
-      <c r="R27" t="s">
-        <v>50</v>
-      </c>
       <c r="S27" t="s">
+        <v>50</v>
+      </c>
+      <c r="T27" t="s">
         <v>40</v>
       </c>
-      <c r="T27">
-        <v>50</v>
-      </c>
-      <c r="W27" t="s">
+      <c r="U27">
+        <v>50</v>
+      </c>
+      <c r="X27" t="s">
         <v>61</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>62</v>
       </c>
-      <c r="Y27" s="3" t="s">
+      <c r="Z27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="AA27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>45</v>
-      </c>
-      <c r="AD27" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE27" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>92</v>
       </c>
@@ -3075,32 +3075,32 @@
       <c r="J28" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="L28" t="s">
-        <v>191</v>
       </c>
       <c r="M28" t="s">
         <v>191</v>
       </c>
-      <c r="P28" t="s">
+      <c r="N28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q28" t="s">
         <v>192</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>4</v>
       </c>
-      <c r="R28" t="s">
-        <v>50</v>
-      </c>
       <c r="S28" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" t="s">
         <v>40</v>
       </c>
-      <c r="T28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="U28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>92</v>
       </c>
@@ -3125,53 +3125,53 @@
       <c r="J29" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="L29" t="s">
-        <v>188</v>
       </c>
       <c r="M29" t="s">
         <v>188</v>
       </c>
       <c r="N29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" t="s">
         <v>193</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>189</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>5</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>39</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>40</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>40</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>193</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>188</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>202</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>92</v>
       </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AF29" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>92</v>
       </c>
@@ -3196,41 +3196,41 @@
       <c r="J30" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="L30" t="s">
-        <v>65</v>
       </c>
       <c r="M30" t="s">
         <v>65</v>
       </c>
       <c r="N30" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" t="s">
         <v>80</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>190</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>6</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>39</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>68</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>3</v>
       </c>
-      <c r="AD30" s="3" t="s">
+      <c r="AE30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE30" s="3" t="s">
+      <c r="AF30" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>92</v>
       </c>
@@ -3255,56 +3255,56 @@
       <c r="J31" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="L31" t="s">
-        <v>71</v>
       </c>
       <c r="M31" t="s">
         <v>71</v>
       </c>
       <c r="N31" t="s">
+        <v>71</v>
+      </c>
+      <c r="O31" t="s">
         <v>83</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>131</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>7</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>39</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>40</v>
       </c>
-      <c r="T31">
-        <v>50</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="U31">
+        <v>50</v>
+      </c>
+      <c r="X31" t="s">
         <v>73</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>74</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="Z31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z31" s="3" t="s">
+      <c r="AA31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>45</v>
       </c>
-      <c r="AD31" s="3" t="s">
+      <c r="AE31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE31" s="3" t="s">
+      <c r="AF31" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>97</v>
       </c>
@@ -3329,41 +3329,41 @@
       <c r="J32" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="L32" t="s">
-        <v>47</v>
       </c>
       <c r="M32" t="s">
         <v>47</v>
       </c>
       <c r="N32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" t="s">
         <v>48</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>49</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1</v>
       </c>
-      <c r="R32" t="s">
-        <v>50</v>
-      </c>
       <c r="S32" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32" t="s">
         <v>51</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>10</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE32" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>97</v>
       </c>
@@ -3388,53 +3388,53 @@
       <c r="J33" t="s">
         <v>55</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="L33" t="s">
-        <v>56</v>
       </c>
       <c r="M33" t="s">
         <v>56</v>
       </c>
       <c r="N33" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" t="s">
         <v>57</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>150</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>39</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>40</v>
       </c>
-      <c r="T33">
-        <v>50</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="U33">
+        <v>50</v>
+      </c>
+      <c r="X33" t="s">
         <v>58</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>56</v>
       </c>
-      <c r="AB33" s="3" t="s">
+      <c r="AC33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>152</v>
       </c>
-      <c r="AD33" s="3" t="s">
+      <c r="AE33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE33" s="3" t="s">
+      <c r="AF33" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>97</v>
       </c>
@@ -3459,56 +3459,56 @@
       <c r="J34" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="L34" t="s">
-        <v>59</v>
       </c>
       <c r="M34" t="s">
         <v>59</v>
       </c>
       <c r="N34" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34" t="s">
         <v>60</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>151</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>3</v>
       </c>
-      <c r="R34" t="s">
-        <v>50</v>
-      </c>
       <c r="S34" t="s">
+        <v>50</v>
+      </c>
+      <c r="T34" t="s">
         <v>40</v>
       </c>
-      <c r="T34">
-        <v>50</v>
-      </c>
-      <c r="W34" t="s">
+      <c r="U34">
+        <v>50</v>
+      </c>
+      <c r="X34" t="s">
         <v>61</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>62</v>
       </c>
-      <c r="Y34" s="3" t="s">
+      <c r="Z34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z34" s="3" t="s">
+      <c r="AA34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>45</v>
-      </c>
-      <c r="AD34" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE34" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>97</v>
       </c>
@@ -3533,32 +3533,32 @@
       <c r="J35" t="s">
         <v>55</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="L35" t="s">
-        <v>191</v>
       </c>
       <c r="M35" t="s">
         <v>191</v>
       </c>
-      <c r="P35" t="s">
+      <c r="N35" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q35" t="s">
         <v>192</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>4</v>
       </c>
-      <c r="R35" t="s">
-        <v>50</v>
-      </c>
       <c r="S35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T35" t="s">
         <v>40</v>
       </c>
-      <c r="T35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="U35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>97</v>
       </c>
@@ -3583,53 +3583,53 @@
       <c r="J36" t="s">
         <v>55</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="L36" t="s">
-        <v>188</v>
       </c>
       <c r="M36" t="s">
         <v>188</v>
       </c>
       <c r="N36" t="s">
+        <v>188</v>
+      </c>
+      <c r="O36" t="s">
         <v>193</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>189</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>5</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>39</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>40</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>40</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>193</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>188</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>204</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>97</v>
       </c>
-      <c r="AD36" s="3" t="s">
+      <c r="AE36" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE36" s="3" t="s">
+      <c r="AF36" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>97</v>
       </c>
@@ -3654,41 +3654,41 @@
       <c r="J37" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="L37" t="s">
-        <v>65</v>
       </c>
       <c r="M37" t="s">
         <v>65</v>
       </c>
       <c r="N37" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" t="s">
         <v>80</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>190</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>6</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>39</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>68</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>3</v>
       </c>
-      <c r="AD37" s="3" t="s">
+      <c r="AE37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE37" s="3" t="s">
+      <c r="AF37" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>97</v>
       </c>
@@ -3713,56 +3713,56 @@
       <c r="J38" t="s">
         <v>55</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="L38" t="s">
-        <v>71</v>
       </c>
       <c r="M38" t="s">
         <v>71</v>
       </c>
       <c r="N38" t="s">
+        <v>71</v>
+      </c>
+      <c r="O38" t="s">
         <v>83</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>131</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>7</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>39</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>40</v>
       </c>
-      <c r="T38">
-        <v>50</v>
-      </c>
-      <c r="W38" t="s">
+      <c r="U38">
+        <v>50</v>
+      </c>
+      <c r="X38" t="s">
         <v>73</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>74</v>
       </c>
-      <c r="Y38" s="3" t="s">
+      <c r="Z38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z38" s="3" t="s">
+      <c r="AA38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>45</v>
       </c>
-      <c r="AD38" s="3" t="s">
+      <c r="AE38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE38" s="3" t="s">
+      <c r="AF38" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>102</v>
       </c>
@@ -3787,41 +3787,41 @@
       <c r="J39" t="s">
         <v>55</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="L39" t="s">
-        <v>47</v>
       </c>
       <c r="M39" t="s">
         <v>47</v>
       </c>
       <c r="N39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" t="s">
         <v>48</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>49</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>1</v>
       </c>
-      <c r="R39" t="s">
-        <v>50</v>
-      </c>
       <c r="S39" t="s">
+        <v>50</v>
+      </c>
+      <c r="T39" t="s">
         <v>51</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>10</v>
-      </c>
-      <c r="AD39" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE39" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>102</v>
       </c>
@@ -3846,53 +3846,53 @@
       <c r="J40" t="s">
         <v>55</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="L40" t="s">
-        <v>56</v>
       </c>
       <c r="M40" t="s">
         <v>56</v>
       </c>
       <c r="N40" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" t="s">
         <v>57</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>150</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>39</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>40</v>
       </c>
-      <c r="T40">
-        <v>50</v>
-      </c>
-      <c r="W40" t="s">
+      <c r="U40">
+        <v>50</v>
+      </c>
+      <c r="X40" t="s">
         <v>58</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>56</v>
       </c>
-      <c r="AB40" s="3" t="s">
+      <c r="AC40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD40" t="s">
         <v>152</v>
       </c>
-      <c r="AD40" s="3" t="s">
+      <c r="AE40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE40" s="3" t="s">
+      <c r="AF40" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>102</v>
       </c>
@@ -3917,56 +3917,56 @@
       <c r="J41" t="s">
         <v>55</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="L41" t="s">
-        <v>59</v>
       </c>
       <c r="M41" t="s">
         <v>59</v>
       </c>
       <c r="N41" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41" t="s">
         <v>60</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>151</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>3</v>
       </c>
-      <c r="R41" t="s">
-        <v>50</v>
-      </c>
       <c r="S41" t="s">
+        <v>50</v>
+      </c>
+      <c r="T41" t="s">
         <v>40</v>
       </c>
-      <c r="T41">
-        <v>50</v>
-      </c>
-      <c r="W41" t="s">
+      <c r="U41">
+        <v>50</v>
+      </c>
+      <c r="X41" t="s">
         <v>61</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>62</v>
       </c>
-      <c r="Y41" s="3" t="s">
+      <c r="Z41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z41" s="3" t="s">
+      <c r="AA41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>45</v>
-      </c>
-      <c r="AD41" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE41" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>102</v>
       </c>
@@ -3991,32 +3991,32 @@
       <c r="J42" t="s">
         <v>55</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="L42" t="s">
-        <v>191</v>
       </c>
       <c r="M42" t="s">
         <v>191</v>
       </c>
-      <c r="P42" t="s">
+      <c r="N42" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q42" t="s">
         <v>192</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>4</v>
       </c>
-      <c r="R42" t="s">
-        <v>50</v>
-      </c>
       <c r="S42" t="s">
+        <v>50</v>
+      </c>
+      <c r="T42" t="s">
         <v>40</v>
       </c>
-      <c r="T42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="U42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>102</v>
       </c>
@@ -4041,53 +4041,53 @@
       <c r="J43" t="s">
         <v>55</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="L43" t="s">
-        <v>188</v>
       </c>
       <c r="M43" t="s">
         <v>188</v>
       </c>
       <c r="N43" t="s">
+        <v>188</v>
+      </c>
+      <c r="O43" t="s">
         <v>193</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>189</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>5</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>39</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>40</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>40</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>193</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>188</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>206</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD43" t="s">
         <v>102</v>
       </c>
-      <c r="AD43" s="3" t="s">
+      <c r="AE43" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE43" s="3" t="s">
+      <c r="AF43" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>102</v>
       </c>
@@ -4112,41 +4112,41 @@
       <c r="J44" t="s">
         <v>55</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="L44" t="s">
-        <v>65</v>
       </c>
       <c r="M44" t="s">
         <v>65</v>
       </c>
       <c r="N44" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" t="s">
         <v>80</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>190</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>6</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>39</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>68</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>3</v>
       </c>
-      <c r="AD44" s="3" t="s">
+      <c r="AE44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE44" s="3" t="s">
+      <c r="AF44" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>102</v>
       </c>
@@ -4171,56 +4171,56 @@
       <c r="J45" t="s">
         <v>55</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="L45" t="s">
-        <v>71</v>
       </c>
       <c r="M45" t="s">
         <v>71</v>
       </c>
       <c r="N45" t="s">
+        <v>71</v>
+      </c>
+      <c r="O45" t="s">
         <v>83</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>131</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>7</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>39</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>40</v>
       </c>
-      <c r="T45">
-        <v>50</v>
-      </c>
-      <c r="W45" t="s">
+      <c r="U45">
+        <v>50</v>
+      </c>
+      <c r="X45" t="s">
         <v>73</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>74</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Z45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="AA45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>45</v>
       </c>
-      <c r="AD45" s="3" t="s">
+      <c r="AE45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE45" s="3" t="s">
+      <c r="AF45" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>107</v>
       </c>
@@ -4245,41 +4245,41 @@
       <c r="J46" t="s">
         <v>55</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="L46" t="s">
-        <v>47</v>
       </c>
       <c r="M46" t="s">
         <v>47</v>
       </c>
       <c r="N46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" t="s">
         <v>48</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>49</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>1</v>
       </c>
-      <c r="R46" t="s">
-        <v>50</v>
-      </c>
       <c r="S46" t="s">
+        <v>50</v>
+      </c>
+      <c r="T46" t="s">
         <v>51</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>10</v>
-      </c>
-      <c r="AD46" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE46" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>107</v>
       </c>
@@ -4304,53 +4304,53 @@
       <c r="J47" t="s">
         <v>55</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="L47" t="s">
-        <v>56</v>
       </c>
       <c r="M47" t="s">
         <v>56</v>
       </c>
       <c r="N47" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" t="s">
         <v>57</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>150</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>2</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>39</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>40</v>
       </c>
-      <c r="T47">
-        <v>50</v>
-      </c>
-      <c r="W47" t="s">
+      <c r="U47">
+        <v>50</v>
+      </c>
+      <c r="X47" t="s">
         <v>58</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>56</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AC47" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AD47" t="s">
         <v>152</v>
       </c>
-      <c r="AD47" s="3" t="s">
+      <c r="AE47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE47" s="3" t="s">
+      <c r="AF47" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>107</v>
       </c>
@@ -4375,56 +4375,56 @@
       <c r="J48" t="s">
         <v>55</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="L48" t="s">
-        <v>59</v>
       </c>
       <c r="M48" t="s">
         <v>59</v>
       </c>
       <c r="N48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O48" t="s">
         <v>60</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>151</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>3</v>
       </c>
-      <c r="R48" t="s">
-        <v>50</v>
-      </c>
       <c r="S48" t="s">
+        <v>50</v>
+      </c>
+      <c r="T48" t="s">
         <v>40</v>
       </c>
-      <c r="T48">
-        <v>50</v>
-      </c>
-      <c r="W48" t="s">
+      <c r="U48">
+        <v>50</v>
+      </c>
+      <c r="X48" t="s">
         <v>61</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>62</v>
       </c>
-      <c r="Y48" s="3" t="s">
+      <c r="Z48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z48" s="3" t="s">
+      <c r="AA48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>45</v>
-      </c>
-      <c r="AD48" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE48" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="49" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>107</v>
       </c>
@@ -4449,32 +4449,32 @@
       <c r="J49" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="L49" t="s">
-        <v>191</v>
       </c>
       <c r="M49" t="s">
         <v>191</v>
       </c>
-      <c r="P49" t="s">
+      <c r="N49" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q49" t="s">
         <v>192</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>4</v>
       </c>
-      <c r="R49" t="s">
-        <v>50</v>
-      </c>
       <c r="S49" t="s">
+        <v>50</v>
+      </c>
+      <c r="T49" t="s">
         <v>40</v>
       </c>
-      <c r="T49">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="U49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>107</v>
       </c>
@@ -4499,53 +4499,53 @@
       <c r="J50" t="s">
         <v>55</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="L50" t="s">
-        <v>188</v>
       </c>
       <c r="M50" t="s">
         <v>188</v>
       </c>
       <c r="N50" t="s">
+        <v>188</v>
+      </c>
+      <c r="O50" t="s">
         <v>193</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>189</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>5</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>39</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>40</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>40</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>193</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>188</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AC50" t="s">
         <v>208</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AD50" t="s">
         <v>107</v>
       </c>
-      <c r="AD50" s="3" t="s">
+      <c r="AE50" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE50" s="3" t="s">
+      <c r="AF50" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>107</v>
       </c>
@@ -4570,41 +4570,41 @@
       <c r="J51" t="s">
         <v>55</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="L51" t="s">
-        <v>65</v>
       </c>
       <c r="M51" t="s">
         <v>65</v>
       </c>
       <c r="N51" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" t="s">
         <v>80</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>190</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>6</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>39</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>40</v>
       </c>
-      <c r="T51">
-        <v>50</v>
-      </c>
-      <c r="AD51" s="3" t="s">
+      <c r="U51">
+        <v>50</v>
+      </c>
+      <c r="AE51" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE51" s="3" t="s">
+      <c r="AF51" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>107</v>
       </c>
@@ -4629,56 +4629,56 @@
       <c r="J52" t="s">
         <v>55</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="L52" t="s">
-        <v>71</v>
       </c>
       <c r="M52" t="s">
         <v>71</v>
       </c>
       <c r="N52" t="s">
+        <v>71</v>
+      </c>
+      <c r="O52" t="s">
         <v>83</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>131</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>7</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>39</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>40</v>
       </c>
-      <c r="T52">
-        <v>50</v>
-      </c>
-      <c r="W52" t="s">
+      <c r="U52">
+        <v>50</v>
+      </c>
+      <c r="X52" t="s">
         <v>73</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>74</v>
       </c>
-      <c r="Y52" s="3" t="s">
+      <c r="Z52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z52" s="3" t="s">
+      <c r="AA52" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>45</v>
       </c>
-      <c r="AD52" s="3" t="s">
+      <c r="AE52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE52" s="3" t="s">
+      <c r="AF52" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>112</v>
       </c>
@@ -4703,41 +4703,41 @@
       <c r="J53" t="s">
         <v>55</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="L53" t="s">
-        <v>47</v>
       </c>
       <c r="M53" t="s">
         <v>47</v>
       </c>
       <c r="N53" t="s">
+        <v>47</v>
+      </c>
+      <c r="O53" t="s">
         <v>48</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>49</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>1</v>
       </c>
-      <c r="R53" t="s">
-        <v>50</v>
-      </c>
       <c r="S53" t="s">
+        <v>50</v>
+      </c>
+      <c r="T53" t="s">
         <v>51</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>10</v>
-      </c>
-      <c r="AD53" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE53" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>112</v>
       </c>
@@ -4762,53 +4762,53 @@
       <c r="J54" t="s">
         <v>55</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="L54" t="s">
-        <v>188</v>
       </c>
       <c r="M54" t="s">
         <v>188</v>
       </c>
       <c r="N54" t="s">
+        <v>188</v>
+      </c>
+      <c r="O54" t="s">
         <v>193</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>150</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>2</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>39</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>40</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>40</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>193</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>188</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AC54" t="s">
         <v>116</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AD54" t="s">
         <v>211</v>
       </c>
-      <c r="AD54" s="3" t="s">
+      <c r="AE54" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE54" s="3" t="s">
+      <c r="AF54" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>112</v>
       </c>
@@ -4833,56 +4833,56 @@
       <c r="J55" t="s">
         <v>55</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>114</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>65</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>115</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>151</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>3</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>39</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>68</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>3</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>117</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>118</v>
       </c>
-      <c r="Y55" s="3" t="s">
+      <c r="Z55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Z55" s="3" t="s">
+      <c r="AA55" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>45</v>
       </c>
-      <c r="AD55" s="3" t="s">
+      <c r="AE55" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE55" s="3" t="s">
+      <c r="AF55" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>112</v>
       </c>
@@ -4907,56 +4907,56 @@
       <c r="J56" t="s">
         <v>55</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="L56" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="L56" t="s">
-        <v>122</v>
       </c>
       <c r="M56" t="s">
         <v>122</v>
       </c>
       <c r="N56" t="s">
+        <v>122</v>
+      </c>
+      <c r="O56" t="s">
         <v>123</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>192</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>4</v>
       </c>
-      <c r="R56" t="s">
-        <v>50</v>
-      </c>
       <c r="S56" t="s">
+        <v>50</v>
+      </c>
+      <c r="T56" t="s">
         <v>40</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>1</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>41</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>42</v>
       </c>
-      <c r="Y56" s="3" t="s">
+      <c r="Z56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z56" s="3" t="s">
+      <c r="AA56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>45</v>
-      </c>
-      <c r="AD56" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="AE56" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="57" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>112</v>
       </c>
@@ -4981,56 +4981,56 @@
       <c r="J57" t="s">
         <v>55</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="L57" t="s">
-        <v>125</v>
       </c>
       <c r="M57" t="s">
         <v>125</v>
       </c>
       <c r="N57" t="s">
+        <v>125</v>
+      </c>
+      <c r="O57" t="s">
         <v>126</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>145</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>5</v>
       </c>
-      <c r="R57" t="s">
-        <v>50</v>
-      </c>
       <c r="S57" t="s">
+        <v>50</v>
+      </c>
+      <c r="T57" t="s">
         <v>40</v>
       </c>
-      <c r="T57">
-        <v>50</v>
-      </c>
-      <c r="W57" t="s">
+      <c r="U57">
+        <v>50</v>
+      </c>
+      <c r="X57" t="s">
         <v>127</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>128</v>
       </c>
-      <c r="Y57" s="3" t="s">
+      <c r="Z57" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Z57" s="3" t="s">
+      <c r="AA57" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>45</v>
-      </c>
-      <c r="AD57" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="AE57" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="58" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -5055,41 +5055,41 @@
       <c r="J58" t="s">
         <v>55</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="L58" t="s">
-        <v>47</v>
       </c>
       <c r="M58" t="s">
         <v>47</v>
       </c>
       <c r="N58" t="s">
+        <v>47</v>
+      </c>
+      <c r="O58" t="s">
         <v>48</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>49</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>1</v>
       </c>
-      <c r="R58" t="s">
-        <v>50</v>
-      </c>
       <c r="S58" t="s">
+        <v>50</v>
+      </c>
+      <c r="T58" t="s">
         <v>51</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>10</v>
-      </c>
-      <c r="AD58" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE58" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -5114,53 +5114,53 @@
       <c r="J59" t="s">
         <v>55</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="L59" t="s">
-        <v>56</v>
       </c>
       <c r="M59" t="s">
         <v>56</v>
       </c>
       <c r="N59" t="s">
+        <v>56</v>
+      </c>
+      <c r="O59" t="s">
         <v>57</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>150</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>2</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>39</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>40</v>
       </c>
-      <c r="T59">
-        <v>50</v>
-      </c>
-      <c r="W59" t="s">
+      <c r="U59">
+        <v>50</v>
+      </c>
+      <c r="X59" t="s">
         <v>58</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>56</v>
       </c>
-      <c r="AB59" s="3" t="s">
+      <c r="AC59" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="AD59" t="s">
         <v>152</v>
       </c>
-      <c r="AD59" s="3" t="s">
+      <c r="AE59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE59" s="3" t="s">
+      <c r="AF59" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>53</v>
       </c>
@@ -5185,56 +5185,56 @@
       <c r="J60" t="s">
         <v>55</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="L60" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="L60" t="s">
-        <v>59</v>
       </c>
       <c r="M60" t="s">
         <v>59</v>
       </c>
       <c r="N60" t="s">
+        <v>59</v>
+      </c>
+      <c r="O60" t="s">
         <v>60</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>151</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>3</v>
       </c>
-      <c r="R60" t="s">
-        <v>50</v>
-      </c>
       <c r="S60" t="s">
+        <v>50</v>
+      </c>
+      <c r="T60" t="s">
         <v>40</v>
       </c>
-      <c r="T60">
-        <v>50</v>
-      </c>
-      <c r="W60" t="s">
+      <c r="U60">
+        <v>50</v>
+      </c>
+      <c r="X60" t="s">
         <v>61</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>62</v>
       </c>
-      <c r="Y60" s="3" t="s">
+      <c r="Z60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z60" s="3" t="s">
+      <c r="AA60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>45</v>
-      </c>
-      <c r="AD60" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE60" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>53</v>
       </c>
@@ -5259,41 +5259,41 @@
       <c r="J61" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>129</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>65</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>66</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>67</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>4</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>39</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>68</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>3</v>
       </c>
-      <c r="AD61" s="3" t="s">
+      <c r="AE61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE61" s="3" t="s">
+      <c r="AF61" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>53</v>
       </c>
@@ -5318,53 +5318,53 @@
       <c r="J62" t="s">
         <v>55</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>130</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>71</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>72</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>131</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>5</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>39</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>40</v>
       </c>
-      <c r="T62">
-        <v>50</v>
-      </c>
-      <c r="W62" t="s">
+      <c r="U62">
+        <v>50</v>
+      </c>
+      <c r="X62" t="s">
         <v>73</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>74</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AC62" t="s">
         <v>75</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AD62" t="s">
         <v>76</v>
       </c>
-      <c r="AD62" s="3" t="s">
+      <c r="AE62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE62" s="3" t="s">
+      <c r="AF62" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>78</v>
       </c>
@@ -5389,41 +5389,41 @@
       <c r="J63" t="s">
         <v>55</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="L63" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="L63" t="s">
-        <v>47</v>
       </c>
       <c r="M63" t="s">
         <v>47</v>
       </c>
       <c r="N63" t="s">
+        <v>47</v>
+      </c>
+      <c r="O63" t="s">
         <v>48</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>49</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>1</v>
       </c>
-      <c r="R63" t="s">
-        <v>50</v>
-      </c>
       <c r="S63" t="s">
+        <v>50</v>
+      </c>
+      <c r="T63" t="s">
         <v>51</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>10</v>
-      </c>
-      <c r="AD63" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE63" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>78</v>
       </c>
@@ -5448,53 +5448,53 @@
       <c r="J64" t="s">
         <v>55</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="L64" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="L64" t="s">
-        <v>56</v>
       </c>
       <c r="M64" t="s">
         <v>56</v>
       </c>
       <c r="N64" t="s">
+        <v>56</v>
+      </c>
+      <c r="O64" t="s">
         <v>57</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>150</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>2</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>39</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>40</v>
       </c>
-      <c r="T64">
-        <v>50</v>
-      </c>
-      <c r="W64" t="s">
+      <c r="U64">
+        <v>50</v>
+      </c>
+      <c r="X64" t="s">
         <v>58</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>56</v>
       </c>
-      <c r="AB64" s="3" t="s">
+      <c r="AC64" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="AD64" t="s">
         <v>152</v>
       </c>
-      <c r="AD64" s="3" t="s">
+      <c r="AE64" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE64" s="3" t="s">
+      <c r="AF64" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>78</v>
       </c>
@@ -5519,56 +5519,56 @@
       <c r="J65" t="s">
         <v>55</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="L65" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="L65" t="s">
-        <v>59</v>
       </c>
       <c r="M65" t="s">
         <v>59</v>
       </c>
       <c r="N65" t="s">
+        <v>59</v>
+      </c>
+      <c r="O65" t="s">
         <v>60</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>151</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>3</v>
       </c>
-      <c r="R65" t="s">
-        <v>50</v>
-      </c>
       <c r="S65" t="s">
+        <v>50</v>
+      </c>
+      <c r="T65" t="s">
         <v>40</v>
       </c>
-      <c r="T65">
-        <v>50</v>
-      </c>
-      <c r="W65" t="s">
+      <c r="U65">
+        <v>50</v>
+      </c>
+      <c r="X65" t="s">
         <v>61</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>62</v>
       </c>
-      <c r="Y65" s="3" t="s">
+      <c r="Z65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z65" s="3" t="s">
+      <c r="AA65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>45</v>
-      </c>
-      <c r="AD65" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE65" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>78</v>
       </c>
@@ -5593,41 +5593,41 @@
       <c r="J66" t="s">
         <v>55</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>132</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>65</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>80</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>81</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>4</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>39</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>68</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>3</v>
       </c>
-      <c r="AD66" s="3" t="s">
+      <c r="AE66" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE66" s="3" t="s">
+      <c r="AF66" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>78</v>
       </c>
@@ -5652,56 +5652,56 @@
       <c r="J67" t="s">
         <v>55</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="L67" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>133</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>71</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>83</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>131</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>5</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>39</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>40</v>
       </c>
-      <c r="T67">
-        <v>50</v>
-      </c>
-      <c r="W67" t="s">
+      <c r="U67">
+        <v>50</v>
+      </c>
+      <c r="X67" t="s">
         <v>73</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>74</v>
       </c>
-      <c r="Y67" s="3" t="s">
+      <c r="Z67" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z67" s="3" t="s">
+      <c r="AA67" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>45</v>
       </c>
-      <c r="AD67" s="3" t="s">
+      <c r="AE67" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE67" s="3" t="s">
+      <c r="AF67" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>87</v>
       </c>
@@ -5726,41 +5726,41 @@
       <c r="J68" t="s">
         <v>55</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="L68" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="L68" t="s">
-        <v>47</v>
       </c>
       <c r="M68" t="s">
         <v>47</v>
       </c>
       <c r="N68" t="s">
+        <v>47</v>
+      </c>
+      <c r="O68" t="s">
         <v>48</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>49</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>1</v>
       </c>
-      <c r="R68" t="s">
-        <v>50</v>
-      </c>
       <c r="S68" t="s">
+        <v>50</v>
+      </c>
+      <c r="T68" t="s">
         <v>51</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>10</v>
-      </c>
-      <c r="AD68" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE68" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>87</v>
       </c>
@@ -5785,53 +5785,53 @@
       <c r="J69" t="s">
         <v>55</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="L69" t="s">
-        <v>56</v>
       </c>
       <c r="M69" t="s">
         <v>56</v>
       </c>
       <c r="N69" t="s">
+        <v>56</v>
+      </c>
+      <c r="O69" t="s">
         <v>57</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>150</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>2</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>39</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>40</v>
       </c>
-      <c r="T69">
-        <v>50</v>
-      </c>
-      <c r="W69" t="s">
+      <c r="U69">
+        <v>50</v>
+      </c>
+      <c r="X69" t="s">
         <v>58</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>56</v>
       </c>
-      <c r="AB69" s="3" t="s">
+      <c r="AC69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="AD69" t="s">
         <v>152</v>
       </c>
-      <c r="AD69" s="3" t="s">
+      <c r="AE69" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE69" s="3" t="s">
+      <c r="AF69" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>87</v>
       </c>
@@ -5856,56 +5856,56 @@
       <c r="J70" t="s">
         <v>55</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="L70" t="s">
-        <v>59</v>
       </c>
       <c r="M70" t="s">
         <v>59</v>
       </c>
       <c r="N70" t="s">
+        <v>59</v>
+      </c>
+      <c r="O70" t="s">
         <v>60</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>151</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>3</v>
       </c>
-      <c r="R70" t="s">
-        <v>50</v>
-      </c>
       <c r="S70" t="s">
+        <v>50</v>
+      </c>
+      <c r="T70" t="s">
         <v>40</v>
       </c>
-      <c r="T70">
-        <v>50</v>
-      </c>
-      <c r="W70" t="s">
+      <c r="U70">
+        <v>50</v>
+      </c>
+      <c r="X70" t="s">
         <v>61</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>62</v>
       </c>
-      <c r="Y70" s="3" t="s">
+      <c r="Z70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z70" s="3" t="s">
+      <c r="AA70" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>45</v>
-      </c>
-      <c r="AD70" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE70" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>87</v>
       </c>
@@ -5930,41 +5930,41 @@
       <c r="J71" t="s">
         <v>55</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="L71" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>134</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>65</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>80</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>89</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>4</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>39</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>68</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>3</v>
       </c>
-      <c r="AD71" s="3" t="s">
+      <c r="AE71" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE71" s="3" t="s">
+      <c r="AF71" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>87</v>
       </c>
@@ -5989,56 +5989,56 @@
       <c r="J72" t="s">
         <v>55</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>135</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>71</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>83</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>131</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>5</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>39</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>40</v>
       </c>
-      <c r="T72">
-        <v>50</v>
-      </c>
-      <c r="W72" t="s">
+      <c r="U72">
+        <v>50</v>
+      </c>
+      <c r="X72" t="s">
         <v>73</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>74</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z72" s="3" t="s">
+      <c r="AA72" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>45</v>
       </c>
-      <c r="AD72" s="3" t="s">
+      <c r="AE72" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE72" s="3" t="s">
+      <c r="AF72" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>92</v>
       </c>
@@ -6063,41 +6063,41 @@
       <c r="J73" t="s">
         <v>55</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="L73" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="L73" t="s">
-        <v>47</v>
       </c>
       <c r="M73" t="s">
         <v>47</v>
       </c>
       <c r="N73" t="s">
+        <v>47</v>
+      </c>
+      <c r="O73" t="s">
         <v>48</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>49</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>1</v>
       </c>
-      <c r="R73" t="s">
-        <v>50</v>
-      </c>
       <c r="S73" t="s">
+        <v>50</v>
+      </c>
+      <c r="T73" t="s">
         <v>51</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>10</v>
-      </c>
-      <c r="AD73" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE73" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>92</v>
       </c>
@@ -6122,53 +6122,53 @@
       <c r="J74" t="s">
         <v>55</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="L74" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="L74" t="s">
-        <v>56</v>
       </c>
       <c r="M74" t="s">
         <v>56</v>
       </c>
       <c r="N74" t="s">
+        <v>56</v>
+      </c>
+      <c r="O74" t="s">
         <v>57</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>150</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>2</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>39</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>40</v>
       </c>
-      <c r="T74">
-        <v>50</v>
-      </c>
-      <c r="W74" t="s">
+      <c r="U74">
+        <v>50</v>
+      </c>
+      <c r="X74" t="s">
         <v>58</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>56</v>
       </c>
-      <c r="AB74" s="3" t="s">
+      <c r="AC74" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC74" t="s">
+      <c r="AD74" t="s">
         <v>152</v>
       </c>
-      <c r="AD74" s="3" t="s">
+      <c r="AE74" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE74" s="3" t="s">
+      <c r="AF74" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>92</v>
       </c>
@@ -6193,56 +6193,56 @@
       <c r="J75" t="s">
         <v>55</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="L75" t="s">
-        <v>59</v>
       </c>
       <c r="M75" t="s">
         <v>59</v>
       </c>
       <c r="N75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O75" t="s">
         <v>60</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>151</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>3</v>
       </c>
-      <c r="R75" t="s">
-        <v>50</v>
-      </c>
       <c r="S75" t="s">
+        <v>50</v>
+      </c>
+      <c r="T75" t="s">
         <v>40</v>
       </c>
-      <c r="T75">
-        <v>50</v>
-      </c>
-      <c r="W75" t="s">
+      <c r="U75">
+        <v>50</v>
+      </c>
+      <c r="X75" t="s">
         <v>61</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>62</v>
       </c>
-      <c r="Y75" s="3" t="s">
+      <c r="Z75" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z75" s="3" t="s">
+      <c r="AA75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>45</v>
-      </c>
-      <c r="AD75" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE75" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>92</v>
       </c>
@@ -6267,41 +6267,41 @@
       <c r="J76" t="s">
         <v>55</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="L76" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>136</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>65</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>80</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>94</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>4</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>39</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>68</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>3</v>
       </c>
-      <c r="AD76" s="3" t="s">
+      <c r="AE76" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE76" s="3" t="s">
+      <c r="AF76" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>92</v>
       </c>
@@ -6326,56 +6326,56 @@
       <c r="J77" t="s">
         <v>55</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="L77" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>137</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>71</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>83</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>131</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>5</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>39</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>40</v>
       </c>
-      <c r="T77">
-        <v>50</v>
-      </c>
-      <c r="W77" t="s">
+      <c r="U77">
+        <v>50</v>
+      </c>
+      <c r="X77" t="s">
         <v>73</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>74</v>
       </c>
-      <c r="Y77" s="3" t="s">
+      <c r="Z77" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z77" s="3" t="s">
+      <c r="AA77" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>45</v>
       </c>
-      <c r="AD77" s="3" t="s">
+      <c r="AE77" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE77" s="3" t="s">
+      <c r="AF77" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>97</v>
       </c>
@@ -6400,41 +6400,41 @@
       <c r="J78" t="s">
         <v>55</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="L78" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="L78" t="s">
-        <v>47</v>
       </c>
       <c r="M78" t="s">
         <v>47</v>
       </c>
       <c r="N78" t="s">
+        <v>47</v>
+      </c>
+      <c r="O78" t="s">
         <v>48</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>49</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>1</v>
       </c>
-      <c r="R78" t="s">
-        <v>50</v>
-      </c>
       <c r="S78" t="s">
+        <v>50</v>
+      </c>
+      <c r="T78" t="s">
         <v>51</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>10</v>
-      </c>
-      <c r="AD78" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE78" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF78" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>97</v>
       </c>
@@ -6459,53 +6459,53 @@
       <c r="J79" t="s">
         <v>55</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="L79" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="L79" t="s">
-        <v>56</v>
       </c>
       <c r="M79" t="s">
         <v>56</v>
       </c>
       <c r="N79" t="s">
+        <v>56</v>
+      </c>
+      <c r="O79" t="s">
         <v>57</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>150</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>2</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>39</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>40</v>
       </c>
-      <c r="T79">
-        <v>50</v>
-      </c>
-      <c r="W79" t="s">
+      <c r="U79">
+        <v>50</v>
+      </c>
+      <c r="X79" t="s">
         <v>58</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>56</v>
       </c>
-      <c r="AB79" s="3" t="s">
+      <c r="AC79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="AD79" t="s">
         <v>152</v>
       </c>
-      <c r="AD79" s="3" t="s">
+      <c r="AE79" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE79" s="3" t="s">
+      <c r="AF79" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>97</v>
       </c>
@@ -6530,56 +6530,56 @@
       <c r="J80" t="s">
         <v>55</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="L80" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="L80" t="s">
-        <v>59</v>
       </c>
       <c r="M80" t="s">
         <v>59</v>
       </c>
       <c r="N80" t="s">
+        <v>59</v>
+      </c>
+      <c r="O80" t="s">
         <v>60</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>151</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>3</v>
       </c>
-      <c r="R80" t="s">
-        <v>50</v>
-      </c>
       <c r="S80" t="s">
+        <v>50</v>
+      </c>
+      <c r="T80" t="s">
         <v>40</v>
       </c>
-      <c r="T80">
-        <v>50</v>
-      </c>
-      <c r="W80" t="s">
+      <c r="U80">
+        <v>50</v>
+      </c>
+      <c r="X80" t="s">
         <v>61</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>62</v>
       </c>
-      <c r="Y80" s="3" t="s">
+      <c r="Z80" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z80" s="3" t="s">
+      <c r="AA80" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="AB80" t="s">
         <v>45</v>
-      </c>
-      <c r="AD80" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE80" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="81" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF80" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>97</v>
       </c>
@@ -6604,41 +6604,41 @@
       <c r="J81" t="s">
         <v>55</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="L81" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>138</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>65</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>80</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>99</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>4</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>39</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>68</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>3</v>
       </c>
-      <c r="AD81" s="3" t="s">
+      <c r="AE81" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE81" s="3" t="s">
+      <c r="AF81" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>97</v>
       </c>
@@ -6663,56 +6663,56 @@
       <c r="J82" t="s">
         <v>55</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="L82" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>139</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>71</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>83</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>131</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>5</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>39</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>40</v>
       </c>
-      <c r="T82">
-        <v>50</v>
-      </c>
-      <c r="W82" t="s">
+      <c r="U82">
+        <v>50</v>
+      </c>
+      <c r="X82" t="s">
         <v>73</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>74</v>
       </c>
-      <c r="Y82" s="3" t="s">
+      <c r="Z82" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z82" s="3" t="s">
+      <c r="AA82" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA82" t="s">
+      <c r="AB82" t="s">
         <v>45</v>
       </c>
-      <c r="AD82" s="3" t="s">
+      <c r="AE82" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE82" s="3" t="s">
+      <c r="AF82" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>102</v>
       </c>
@@ -6737,41 +6737,41 @@
       <c r="J83" t="s">
         <v>55</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="L83" t="s">
-        <v>47</v>
       </c>
       <c r="M83" t="s">
         <v>47</v>
       </c>
       <c r="N83" t="s">
+        <v>47</v>
+      </c>
+      <c r="O83" t="s">
         <v>48</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>49</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>1</v>
       </c>
-      <c r="R83" t="s">
-        <v>50</v>
-      </c>
       <c r="S83" t="s">
+        <v>50</v>
+      </c>
+      <c r="T83" t="s">
         <v>51</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>10</v>
-      </c>
-      <c r="AD83" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE83" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="84" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>102</v>
       </c>
@@ -6796,53 +6796,53 @@
       <c r="J84" t="s">
         <v>55</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="L84" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="L84" t="s">
-        <v>56</v>
       </c>
       <c r="M84" t="s">
         <v>56</v>
       </c>
       <c r="N84" t="s">
+        <v>56</v>
+      </c>
+      <c r="O84" t="s">
         <v>57</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>150</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>2</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>39</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>40</v>
       </c>
-      <c r="T84">
-        <v>50</v>
-      </c>
-      <c r="W84" t="s">
+      <c r="U84">
+        <v>50</v>
+      </c>
+      <c r="X84" t="s">
         <v>58</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>56</v>
       </c>
-      <c r="AB84" s="3" t="s">
+      <c r="AC84" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AD84" t="s">
         <v>152</v>
       </c>
-      <c r="AD84" s="3" t="s">
+      <c r="AE84" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE84" s="3" t="s">
+      <c r="AF84" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>102</v>
       </c>
@@ -6867,56 +6867,56 @@
       <c r="J85" t="s">
         <v>55</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="L85" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="L85" t="s">
-        <v>59</v>
       </c>
       <c r="M85" t="s">
         <v>59</v>
       </c>
       <c r="N85" t="s">
+        <v>59</v>
+      </c>
+      <c r="O85" t="s">
         <v>60</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>151</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>3</v>
       </c>
-      <c r="R85" t="s">
-        <v>50</v>
-      </c>
       <c r="S85" t="s">
+        <v>50</v>
+      </c>
+      <c r="T85" t="s">
         <v>40</v>
       </c>
-      <c r="T85">
-        <v>50</v>
-      </c>
-      <c r="W85" t="s">
+      <c r="U85">
+        <v>50</v>
+      </c>
+      <c r="X85" t="s">
         <v>61</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>62</v>
       </c>
-      <c r="Y85" s="3" t="s">
+      <c r="Z85" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z85" s="3" t="s">
+      <c r="AA85" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA85" t="s">
+      <c r="AB85" t="s">
         <v>45</v>
-      </c>
-      <c r="AD85" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE85" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="86" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>102</v>
       </c>
@@ -6941,41 +6941,41 @@
       <c r="J86" t="s">
         <v>55</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="L86" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>140</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>65</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>80</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>104</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>4</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>39</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>68</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>3</v>
       </c>
-      <c r="AD86" s="3" t="s">
+      <c r="AE86" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE86" s="3" t="s">
+      <c r="AF86" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>102</v>
       </c>
@@ -7000,56 +7000,56 @@
       <c r="J87" t="s">
         <v>55</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="L87" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>141</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>71</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>83</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>131</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>5</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>39</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>40</v>
       </c>
-      <c r="T87">
-        <v>50</v>
-      </c>
-      <c r="W87" t="s">
+      <c r="U87">
+        <v>50</v>
+      </c>
+      <c r="X87" t="s">
         <v>73</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>74</v>
       </c>
-      <c r="Y87" s="3" t="s">
+      <c r="Z87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z87" s="3" t="s">
+      <c r="AA87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AB87" t="s">
         <v>45</v>
       </c>
-      <c r="AD87" s="3" t="s">
+      <c r="AE87" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE87" s="3" t="s">
+      <c r="AF87" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>107</v>
       </c>
@@ -7074,41 +7074,41 @@
       <c r="J88" t="s">
         <v>55</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="L88" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="L88" t="s">
-        <v>47</v>
       </c>
       <c r="M88" t="s">
         <v>47</v>
       </c>
       <c r="N88" t="s">
+        <v>47</v>
+      </c>
+      <c r="O88" t="s">
         <v>48</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>49</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>1</v>
       </c>
-      <c r="R88" t="s">
-        <v>50</v>
-      </c>
       <c r="S88" t="s">
+        <v>50</v>
+      </c>
+      <c r="T88" t="s">
         <v>51</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>10</v>
-      </c>
-      <c r="AD88" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE88" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="89" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>107</v>
       </c>
@@ -7133,53 +7133,53 @@
       <c r="J89" t="s">
         <v>55</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="L89" t="s">
-        <v>56</v>
       </c>
       <c r="M89" t="s">
         <v>56</v>
       </c>
       <c r="N89" t="s">
+        <v>56</v>
+      </c>
+      <c r="O89" t="s">
         <v>57</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>150</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>2</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>39</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>40</v>
       </c>
-      <c r="T89">
-        <v>50</v>
-      </c>
-      <c r="W89" t="s">
+      <c r="U89">
+        <v>50</v>
+      </c>
+      <c r="X89" t="s">
         <v>58</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>56</v>
       </c>
-      <c r="AB89" s="3" t="s">
+      <c r="AC89" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="AD89" t="s">
         <v>152</v>
       </c>
-      <c r="AD89" s="3" t="s">
+      <c r="AE89" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE89" s="3" t="s">
+      <c r="AF89" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>107</v>
       </c>
@@ -7204,56 +7204,56 @@
       <c r="J90" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="L90" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="L90" t="s">
-        <v>59</v>
       </c>
       <c r="M90" t="s">
         <v>59</v>
       </c>
       <c r="N90" t="s">
+        <v>59</v>
+      </c>
+      <c r="O90" t="s">
         <v>60</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>151</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>3</v>
       </c>
-      <c r="R90" t="s">
-        <v>50</v>
-      </c>
       <c r="S90" t="s">
+        <v>50</v>
+      </c>
+      <c r="T90" t="s">
         <v>40</v>
       </c>
-      <c r="T90">
-        <v>50</v>
-      </c>
-      <c r="W90" t="s">
+      <c r="U90">
+        <v>50</v>
+      </c>
+      <c r="X90" t="s">
         <v>61</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>62</v>
       </c>
-      <c r="Y90" s="3" t="s">
+      <c r="Z90" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z90" s="3" t="s">
+      <c r="AA90" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA90" t="s">
+      <c r="AB90" t="s">
         <v>45</v>
-      </c>
-      <c r="AD90" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="AE90" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="91" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>107</v>
       </c>
@@ -7278,41 +7278,41 @@
       <c r="J91" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>142</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>65</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>80</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>110</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>4</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>39</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>68</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>3</v>
       </c>
-      <c r="AD91" s="3" t="s">
+      <c r="AE91" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE91" s="3" t="s">
+      <c r="AF91" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>107</v>
       </c>
@@ -7337,56 +7337,56 @@
       <c r="J92" t="s">
         <v>55</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="L92" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>143</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>71</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>83</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>131</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>5</v>
       </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>39</v>
       </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>40</v>
       </c>
-      <c r="T92">
-        <v>50</v>
-      </c>
-      <c r="W92" t="s">
+      <c r="U92">
+        <v>50</v>
+      </c>
+      <c r="X92" t="s">
         <v>73</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>74</v>
       </c>
-      <c r="Y92" s="3" t="s">
+      <c r="Z92" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z92" s="3" t="s">
+      <c r="AA92" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA92" t="s">
+      <c r="AB92" t="s">
         <v>45</v>
       </c>
-      <c r="AD92" s="3" t="s">
+      <c r="AE92" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE92" s="3" t="s">
+      <c r="AF92" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>112</v>
       </c>
@@ -7411,41 +7411,41 @@
       <c r="J93" t="s">
         <v>55</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="L93" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="L93" t="s">
-        <v>47</v>
       </c>
       <c r="M93" t="s">
         <v>47</v>
       </c>
       <c r="N93" t="s">
+        <v>47</v>
+      </c>
+      <c r="O93" t="s">
         <v>48</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>49</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>1</v>
       </c>
-      <c r="R93" t="s">
-        <v>50</v>
-      </c>
       <c r="S93" t="s">
+        <v>50</v>
+      </c>
+      <c r="T93" t="s">
         <v>51</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>10</v>
-      </c>
-      <c r="AD93" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AE93" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="94" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>112</v>
       </c>
@@ -7470,56 +7470,56 @@
       <c r="J94" t="s">
         <v>55</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>144</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>65</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>115</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>2</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>39</v>
       </c>
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>40</v>
       </c>
-      <c r="T94">
-        <v>50</v>
-      </c>
-      <c r="W94" t="s">
+      <c r="U94">
+        <v>50</v>
+      </c>
+      <c r="X94" t="s">
         <v>117</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>118</v>
       </c>
-      <c r="Y94" s="3" t="s">
+      <c r="Z94" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Z94" s="3" t="s">
+      <c r="AA94" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="AB94" t="s">
         <v>45</v>
       </c>
-      <c r="AD94" s="3" t="s">
+      <c r="AE94" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE94" s="3" t="s">
+      <c r="AF94" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>112</v>
       </c>
@@ -7544,56 +7544,56 @@
       <c r="J95" t="s">
         <v>55</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="L95" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="L95" t="s">
-        <v>122</v>
       </c>
       <c r="M95" t="s">
         <v>122</v>
       </c>
       <c r="N95" t="s">
+        <v>122</v>
+      </c>
+      <c r="O95" t="s">
         <v>123</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>124</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>3</v>
       </c>
-      <c r="R95" t="s">
-        <v>50</v>
-      </c>
       <c r="S95" t="s">
+        <v>50</v>
+      </c>
+      <c r="T95" t="s">
         <v>40</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>1</v>
       </c>
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>41</v>
       </c>
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>42</v>
       </c>
-      <c r="Y95" s="3" t="s">
+      <c r="Z95" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z95" s="3" t="s">
+      <c r="AA95" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="AB95" t="s">
         <v>45</v>
-      </c>
-      <c r="AD95" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="AE95" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="96" spans="2:31" ht="48" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="2:32" ht="48" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>112</v>
       </c>
@@ -7618,1969 +7618,1890 @@
       <c r="J96" t="s">
         <v>55</v>
       </c>
-      <c r="K96" s="3" t="s">
+      <c r="L96" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="L96" t="s">
-        <v>125</v>
       </c>
       <c r="M96" t="s">
         <v>125</v>
       </c>
       <c r="N96" t="s">
+        <v>125</v>
+      </c>
+      <c r="O96" t="s">
         <v>126</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" t="s">
         <v>145</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>4</v>
       </c>
-      <c r="R96" t="s">
-        <v>50</v>
-      </c>
       <c r="S96" t="s">
+        <v>50</v>
+      </c>
+      <c r="T96" t="s">
         <v>40</v>
       </c>
-      <c r="T96">
-        <v>50</v>
-      </c>
-      <c r="W96" t="s">
+      <c r="U96">
+        <v>50</v>
+      </c>
+      <c r="X96" t="s">
         <v>127</v>
       </c>
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>128</v>
       </c>
-      <c r="Y96" s="3" t="s">
+      <c r="Z96" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Z96" s="3" t="s">
+      <c r="AA96" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AA96" t="s">
+      <c r="AB96" t="s">
         <v>45</v>
-      </c>
-      <c r="AD96" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="AE96" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="97" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B97" s="6" t="s">
+      <c r="AF96" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>212</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="6" t="s">
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" t="s">
         <v>220</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="I97" t="s">
         <v>179</v>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K97" s="8" t="s">
+      <c r="J97" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L97" s="6" t="s">
+      <c r="M97" t="s">
         <v>47</v>
       </c>
-      <c r="M97" s="6" t="s">
+      <c r="N97" t="s">
         <v>47</v>
       </c>
-      <c r="N97" s="6" t="s">
+      <c r="O97" t="s">
         <v>48</v>
       </c>
-      <c r="O97" s="9"/>
-      <c r="P97" s="6" t="s">
+      <c r="Q97" t="s">
         <v>49</v>
       </c>
-      <c r="Q97" s="6">
+      <c r="R97">
         <v>1</v>
       </c>
-      <c r="R97" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S97" s="6" t="s">
+      <c r="S97" t="s">
+        <v>50</v>
+      </c>
+      <c r="T97" t="s">
         <v>51</v>
       </c>
-      <c r="T97" s="6">
+      <c r="U97">
         <v>10</v>
       </c>
-      <c r="Y97" s="9"/>
-      <c r="Z97" s="9"/>
-      <c r="AD97" s="9" t="s">
+      <c r="AE97" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE97" s="9" t="s">
+      <c r="AF97" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B98" s="6" t="s">
+    <row r="98" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>213</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="6" t="s">
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" t="s">
         <v>220</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" t="s">
         <v>179</v>
       </c>
-      <c r="J98" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K98" s="8" t="s">
+      <c r="J98" t="s">
+        <v>55</v>
+      </c>
+      <c r="L98" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L98" s="6" t="s">
+      <c r="M98" t="s">
         <v>56</v>
       </c>
-      <c r="M98" s="6" t="s">
+      <c r="N98" t="s">
         <v>56</v>
       </c>
-      <c r="N98" s="6" t="s">
+      <c r="O98" t="s">
         <v>57</v>
       </c>
-      <c r="O98" s="9"/>
-      <c r="P98" s="6" t="s">
+      <c r="Q98" t="s">
         <v>150</v>
       </c>
-      <c r="Q98" s="6">
+      <c r="R98">
         <v>2</v>
       </c>
-      <c r="R98" s="6" t="s">
+      <c r="S98" t="s">
         <v>39</v>
       </c>
-      <c r="S98" s="6" t="s">
+      <c r="T98" t="s">
         <v>40</v>
       </c>
-      <c r="T98" s="6">
-        <v>50</v>
-      </c>
-      <c r="W98" s="6" t="s">
+      <c r="U98">
+        <v>50</v>
+      </c>
+      <c r="X98" t="s">
         <v>58</v>
       </c>
-      <c r="X98" s="6" t="s">
+      <c r="Y98" t="s">
         <v>56</v>
       </c>
-      <c r="Y98" s="9"/>
-      <c r="Z98" s="9"/>
-      <c r="AB98" s="9" t="s">
+      <c r="AC98" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC98" s="6" t="s">
+      <c r="AD98" t="s">
         <v>152</v>
       </c>
-      <c r="AD98" s="9" t="s">
+      <c r="AE98" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE98" s="9" t="s">
+      <c r="AF98" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="2:31" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B99" s="6" t="s">
+    <row r="99" spans="2:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H99" s="6" t="s">
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" t="s">
         <v>220</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="I99" t="s">
         <v>179</v>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K99" s="8" t="s">
+      <c r="J99" t="s">
+        <v>55</v>
+      </c>
+      <c r="L99" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L99" s="6" t="s">
+      <c r="M99" t="s">
         <v>59</v>
       </c>
-      <c r="M99" s="6" t="s">
+      <c r="N99" t="s">
         <v>59</v>
       </c>
-      <c r="N99" s="6" t="s">
+      <c r="O99" t="s">
         <v>60</v>
       </c>
-      <c r="O99" s="9"/>
-      <c r="P99" s="6" t="s">
+      <c r="Q99" t="s">
         <v>151</v>
       </c>
-      <c r="Q99" s="6">
+      <c r="R99">
         <v>3</v>
       </c>
-      <c r="R99" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S99" s="6" t="s">
+      <c r="S99" t="s">
+        <v>50</v>
+      </c>
+      <c r="T99" t="s">
         <v>40</v>
       </c>
-      <c r="T99" s="6">
-        <v>50</v>
-      </c>
-      <c r="W99" s="6" t="s">
+      <c r="U99">
+        <v>50</v>
+      </c>
+      <c r="X99" t="s">
         <v>61</v>
       </c>
-      <c r="X99" s="6" t="s">
+      <c r="Y99" t="s">
         <v>62</v>
       </c>
-      <c r="Y99" s="9" t="s">
+      <c r="Z99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z99" s="9" t="s">
+      <c r="AA99" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA99" s="6" t="s">
+      <c r="AB99" t="s">
         <v>45</v>
       </c>
-      <c r="AD99" s="9" t="s">
+      <c r="AE99" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AE99" s="9" t="s">
+      <c r="AF99" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B100" s="6" t="s">
+    <row r="100" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>215</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="6" t="s">
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" t="s">
         <v>220</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I100" t="s">
         <v>179</v>
       </c>
-      <c r="J100" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K100" s="8" t="s">
+      <c r="J100" t="s">
+        <v>55</v>
+      </c>
+      <c r="L100" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L100" s="6" t="s">
+      <c r="M100" t="s">
         <v>191</v>
       </c>
-      <c r="M100" s="6" t="s">
+      <c r="N100" t="s">
         <v>191</v>
       </c>
-      <c r="O100" s="9"/>
-      <c r="P100" s="6" t="s">
+      <c r="Q100" t="s">
         <v>192</v>
       </c>
-      <c r="Q100" s="6">
+      <c r="R100">
         <v>4</v>
       </c>
-      <c r="R100" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S100" s="6" t="s">
+      <c r="S100" t="s">
+        <v>50</v>
+      </c>
+      <c r="T100" t="s">
         <v>40</v>
       </c>
-      <c r="T100" s="6">
-        <v>50</v>
-      </c>
-      <c r="Y100" s="9"/>
-      <c r="Z100" s="9"/>
-      <c r="AD100" s="9"/>
-      <c r="AE100" s="9"/>
-    </row>
-    <row r="101" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B101" s="6" t="s">
+      <c r="U100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>216</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H101" s="6" t="s">
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" t="s">
         <v>220</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I101" t="s">
         <v>179</v>
       </c>
-      <c r="J101" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K101" s="8" t="s">
+      <c r="J101" t="s">
+        <v>55</v>
+      </c>
+      <c r="L101" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L101" s="6" t="s">
+      <c r="M101" t="s">
         <v>188</v>
       </c>
-      <c r="M101" s="6" t="s">
+      <c r="N101" t="s">
         <v>188</v>
       </c>
-      <c r="N101" s="6" t="s">
+      <c r="O101" t="s">
         <v>193</v>
       </c>
-      <c r="O101" s="9"/>
-      <c r="P101" s="6" t="s">
+      <c r="Q101" t="s">
         <v>189</v>
       </c>
-      <c r="Q101" s="6">
+      <c r="R101">
         <v>5</v>
       </c>
-      <c r="R101" s="6" t="s">
+      <c r="S101" t="s">
         <v>39</v>
       </c>
-      <c r="S101" s="6" t="s">
+      <c r="T101" t="s">
         <v>40</v>
       </c>
-      <c r="T101" s="6">
+      <c r="U101">
         <v>40</v>
       </c>
-      <c r="W101" s="6" t="s">
+      <c r="X101" t="s">
         <v>193</v>
       </c>
-      <c r="X101" s="6" t="s">
+      <c r="Y101" t="s">
         <v>188</v>
       </c>
-      <c r="Y101" s="9"/>
-      <c r="Z101" s="9"/>
-      <c r="AB101" s="7" t="s">
+      <c r="AC101" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="AC101" s="7" t="s">
+      <c r="AD101" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="AD101" s="9" t="s">
+      <c r="AE101" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE101" s="9" t="s">
+      <c r="AF101" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B102" s="6" t="s">
+    <row r="102" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" s="6" t="s">
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" t="s">
         <v>220</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I102" t="s">
         <v>179</v>
       </c>
-      <c r="J102" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K102" s="8" t="s">
+      <c r="J102" t="s">
+        <v>55</v>
+      </c>
+      <c r="L102" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L102" s="6" t="s">
+      <c r="M102" t="s">
         <v>65</v>
       </c>
-      <c r="M102" s="6" t="s">
+      <c r="N102" t="s">
         <v>65</v>
       </c>
-      <c r="N102" s="6" t="s">
+      <c r="O102" t="s">
         <v>66</v>
       </c>
-      <c r="O102" s="9"/>
-      <c r="P102" s="6" t="s">
+      <c r="Q102" t="s">
         <v>190</v>
       </c>
-      <c r="Q102" s="6">
+      <c r="R102">
         <v>6</v>
       </c>
-      <c r="R102" s="6" t="s">
+      <c r="S102" t="s">
         <v>39</v>
       </c>
-      <c r="S102" s="6" t="s">
+      <c r="T102" t="s">
         <v>68</v>
       </c>
-      <c r="T102" s="6">
+      <c r="U102">
         <v>3</v>
       </c>
-      <c r="Y102" s="9"/>
-      <c r="Z102" s="9"/>
-      <c r="AD102" s="9" t="s">
+      <c r="AE102" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE102" s="9" t="s">
+      <c r="AF102" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B103" s="6" t="s">
+    <row r="103" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H103" s="6" t="s">
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" t="s">
         <v>220</v>
       </c>
-      <c r="I103" s="6" t="s">
+      <c r="I103" t="s">
         <v>179</v>
       </c>
-      <c r="J103" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K103" s="8" t="s">
+      <c r="J103" t="s">
+        <v>55</v>
+      </c>
+      <c r="L103" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L103" s="6" t="s">
+      <c r="M103" t="s">
         <v>71</v>
       </c>
-      <c r="M103" s="6" t="s">
+      <c r="N103" t="s">
         <v>71</v>
       </c>
-      <c r="N103" s="6" t="s">
+      <c r="O103" t="s">
         <v>72</v>
       </c>
-      <c r="O103" s="9"/>
-      <c r="P103" s="6" t="s">
+      <c r="Q103" t="s">
         <v>131</v>
       </c>
-      <c r="Q103" s="6">
+      <c r="R103">
         <v>7</v>
       </c>
-      <c r="R103" s="6" t="s">
+      <c r="S103" t="s">
         <v>39</v>
       </c>
-      <c r="S103" s="6" t="s">
+      <c r="T103" t="s">
         <v>40</v>
       </c>
-      <c r="T103" s="6">
-        <v>50</v>
-      </c>
-      <c r="W103" s="6" t="s">
+      <c r="U103">
+        <v>50</v>
+      </c>
+      <c r="X103" t="s">
         <v>73</v>
       </c>
-      <c r="X103" s="6" t="s">
+      <c r="Y103" t="s">
         <v>74</v>
       </c>
-      <c r="Y103" s="9"/>
-      <c r="Z103" s="9"/>
-      <c r="AA103" s="10"/>
-      <c r="AB103" s="6" t="s">
+      <c r="AB103" s="5"/>
+      <c r="AC103" t="s">
         <v>222</v>
       </c>
-      <c r="AC103" s="7" t="s">
+      <c r="AD103" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AD103" s="9" t="s">
+      <c r="AE103" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE103" s="9" t="s">
+      <c r="AF103" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B104" s="6" t="s">
+    <row r="104" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>212</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H104" s="6" t="s">
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" t="s">
         <v>229</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I104" t="s">
         <v>162</v>
       </c>
-      <c r="J104" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K104" s="8" t="s">
+      <c r="J104" t="s">
+        <v>55</v>
+      </c>
+      <c r="L104" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L104" s="6" t="s">
+      <c r="M104" t="s">
         <v>47</v>
       </c>
-      <c r="M104" s="6" t="s">
+      <c r="N104" t="s">
         <v>47</v>
       </c>
-      <c r="N104" s="6" t="s">
+      <c r="O104" t="s">
         <v>48</v>
       </c>
-      <c r="O104" s="9"/>
-      <c r="P104" s="6" t="s">
+      <c r="Q104" t="s">
         <v>49</v>
       </c>
-      <c r="Q104" s="6">
+      <c r="R104">
         <v>1</v>
       </c>
-      <c r="R104" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S104" s="6" t="s">
+      <c r="S104" t="s">
+        <v>50</v>
+      </c>
+      <c r="T104" t="s">
         <v>51</v>
       </c>
-      <c r="T104" s="6">
+      <c r="U104">
         <v>10</v>
       </c>
-      <c r="Y104" s="9"/>
-      <c r="Z104" s="9"/>
-      <c r="AD104" s="9" t="s">
+      <c r="AE104" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE104" s="9" t="s">
+      <c r="AF104" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B105" s="6" t="s">
+    <row r="105" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>213</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H105" s="6" t="s">
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" t="s">
         <v>229</v>
       </c>
-      <c r="I105" s="6" t="s">
+      <c r="I105" t="s">
         <v>162</v>
       </c>
-      <c r="J105" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K105" s="8" t="s">
+      <c r="J105" t="s">
+        <v>55</v>
+      </c>
+      <c r="L105" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L105" s="6" t="s">
+      <c r="M105" t="s">
         <v>56</v>
       </c>
-      <c r="M105" s="6" t="s">
+      <c r="N105" t="s">
         <v>56</v>
       </c>
-      <c r="N105" s="6" t="s">
+      <c r="O105" t="s">
         <v>57</v>
       </c>
-      <c r="O105" s="9"/>
-      <c r="P105" s="6" t="s">
+      <c r="Q105" t="s">
         <v>150</v>
       </c>
-      <c r="Q105" s="6">
+      <c r="R105">
         <v>2</v>
       </c>
-      <c r="R105" s="6" t="s">
+      <c r="S105" t="s">
         <v>39</v>
       </c>
-      <c r="S105" s="6" t="s">
+      <c r="T105" t="s">
         <v>40</v>
       </c>
-      <c r="T105" s="6">
-        <v>50</v>
-      </c>
-      <c r="W105" s="6" t="s">
+      <c r="U105">
+        <v>50</v>
+      </c>
+      <c r="X105" t="s">
         <v>58</v>
       </c>
-      <c r="X105" s="6" t="s">
+      <c r="Y105" t="s">
         <v>56</v>
       </c>
-      <c r="Y105" s="9"/>
-      <c r="Z105" s="9"/>
-      <c r="AB105" s="9" t="s">
+      <c r="AC105" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC105" s="6" t="s">
+      <c r="AD105" t="s">
         <v>152</v>
       </c>
-      <c r="AD105" s="9" t="s">
+      <c r="AE105" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE105" s="9" t="s">
+      <c r="AF105" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="2:31" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B106" s="6" t="s">
+    <row r="106" spans="2:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>214</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" s="6" t="s">
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s">
         <v>229</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="I106" t="s">
         <v>162</v>
       </c>
-      <c r="J106" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K106" s="8" t="s">
+      <c r="J106" t="s">
+        <v>55</v>
+      </c>
+      <c r="L106" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L106" s="6" t="s">
+      <c r="M106" t="s">
         <v>59</v>
       </c>
-      <c r="M106" s="6" t="s">
+      <c r="N106" t="s">
         <v>59</v>
       </c>
-      <c r="N106" s="6" t="s">
+      <c r="O106" t="s">
         <v>60</v>
       </c>
-      <c r="O106" s="9"/>
-      <c r="P106" s="6" t="s">
+      <c r="Q106" t="s">
         <v>151</v>
       </c>
-      <c r="Q106" s="6">
+      <c r="R106">
         <v>3</v>
       </c>
-      <c r="R106" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S106" s="6" t="s">
+      <c r="S106" t="s">
+        <v>50</v>
+      </c>
+      <c r="T106" t="s">
         <v>40</v>
       </c>
-      <c r="T106" s="6">
-        <v>50</v>
-      </c>
-      <c r="W106" s="6" t="s">
+      <c r="U106">
+        <v>50</v>
+      </c>
+      <c r="X106" t="s">
         <v>61</v>
       </c>
-      <c r="X106" s="6" t="s">
+      <c r="Y106" t="s">
         <v>62</v>
       </c>
-      <c r="Y106" s="9" t="s">
+      <c r="Z106" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z106" s="9" t="s">
+      <c r="AA106" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA106" s="6" t="s">
+      <c r="AB106" t="s">
         <v>45</v>
       </c>
-      <c r="AD106" s="9" t="s">
+      <c r="AE106" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AE106" s="9" t="s">
+      <c r="AF106" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B107" s="6" t="s">
+    <row r="107" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>217</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H107" s="6" t="s">
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
+        <v>35</v>
+      </c>
+      <c r="H107" t="s">
         <v>229</v>
       </c>
-      <c r="I107" s="6" t="s">
+      <c r="I107" t="s">
         <v>162</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K107" s="8" t="s">
+      <c r="J107" t="s">
+        <v>55</v>
+      </c>
+      <c r="L107" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L107" s="6" t="s">
+      <c r="M107" t="s">
         <v>231</v>
       </c>
-      <c r="M107" s="6" t="s">
+      <c r="N107" t="s">
         <v>65</v>
       </c>
-      <c r="N107" s="6" t="s">
+      <c r="O107" t="s">
         <v>66</v>
       </c>
-      <c r="O107" s="9"/>
-      <c r="P107" s="6" t="s">
+      <c r="Q107" t="s">
         <v>190</v>
       </c>
-      <c r="Q107" s="6">
+      <c r="R107">
         <v>4</v>
       </c>
-      <c r="R107" s="6" t="s">
+      <c r="S107" t="s">
         <v>39</v>
       </c>
-      <c r="S107" s="6" t="s">
+      <c r="T107" t="s">
         <v>68</v>
       </c>
-      <c r="T107" s="6">
+      <c r="U107">
         <v>3</v>
       </c>
-      <c r="Y107" s="9"/>
-      <c r="Z107" s="9"/>
-      <c r="AD107" s="9" t="s">
+      <c r="AE107" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE107" s="9" t="s">
+      <c r="AF107" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B108" s="6" t="s">
+    <row r="108" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>218</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H108" s="6" t="s">
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" t="s">
         <v>229</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="I108" t="s">
         <v>162</v>
       </c>
-      <c r="J108" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K108" s="8" t="s">
+      <c r="J108" t="s">
+        <v>55</v>
+      </c>
+      <c r="L108" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L108" s="6" t="s">
+      <c r="M108" t="s">
         <v>231</v>
       </c>
-      <c r="M108" s="6" t="s">
+      <c r="N108" t="s">
         <v>71</v>
       </c>
-      <c r="N108" s="6" t="s">
+      <c r="O108" t="s">
         <v>72</v>
       </c>
-      <c r="O108" s="9"/>
-      <c r="P108" s="6" t="s">
+      <c r="Q108" t="s">
         <v>131</v>
       </c>
-      <c r="Q108" s="6">
+      <c r="R108">
         <v>5</v>
       </c>
-      <c r="R108" s="6" t="s">
+      <c r="S108" t="s">
         <v>39</v>
       </c>
-      <c r="S108" s="6" t="s">
+      <c r="T108" t="s">
         <v>40</v>
       </c>
-      <c r="T108" s="6">
-        <v>50</v>
-      </c>
-      <c r="W108" s="6" t="s">
+      <c r="U108">
+        <v>50</v>
+      </c>
+      <c r="X108" t="s">
         <v>73</v>
       </c>
-      <c r="X108" s="6" t="s">
+      <c r="Y108" t="s">
         <v>74</v>
       </c>
-      <c r="Y108" s="9"/>
-      <c r="Z108" s="9"/>
-      <c r="AA108" s="10"/>
-      <c r="AB108" s="6" t="s">
+      <c r="AB108" s="5"/>
+      <c r="AC108" t="s">
         <v>222</v>
       </c>
-      <c r="AC108" s="7" t="s">
+      <c r="AD108" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AD108" s="9" t="s">
+      <c r="AE108" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE108" s="9" t="s">
+      <c r="AF108" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="109" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B109" s="6" t="s">
+    <row r="109" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>212</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H109" s="6" t="s">
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" t="s">
         <v>233</v>
       </c>
-      <c r="I109" s="6" t="s">
+      <c r="I109" t="s">
         <v>179</v>
       </c>
-      <c r="J109" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K109" s="8" t="s">
+      <c r="J109" t="s">
+        <v>55</v>
+      </c>
+      <c r="L109" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L109" s="6" t="s">
+      <c r="M109" t="s">
         <v>47</v>
       </c>
-      <c r="M109" s="6" t="s">
+      <c r="N109" t="s">
         <v>47</v>
       </c>
-      <c r="N109" s="6" t="s">
+      <c r="O109" t="s">
         <v>48</v>
       </c>
-      <c r="O109" s="9"/>
-      <c r="P109" s="6" t="s">
+      <c r="Q109" t="s">
         <v>49</v>
       </c>
-      <c r="Q109" s="6">
+      <c r="R109">
         <v>1</v>
       </c>
-      <c r="R109" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S109" s="6" t="s">
+      <c r="S109" t="s">
+        <v>50</v>
+      </c>
+      <c r="T109" t="s">
         <v>51</v>
       </c>
-      <c r="T109" s="6">
+      <c r="U109">
         <v>10</v>
       </c>
-      <c r="Y109" s="9"/>
-      <c r="Z109" s="9"/>
-      <c r="AD109" s="9" t="s">
+      <c r="AE109" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE109" s="9" t="s">
+      <c r="AF109" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B110" s="6" t="s">
+    <row r="110" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>213</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H110" s="6" t="s">
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" t="s">
         <v>233</v>
       </c>
-      <c r="I110" s="6" t="s">
+      <c r="I110" t="s">
         <v>179</v>
       </c>
-      <c r="J110" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K110" s="8" t="s">
+      <c r="J110" t="s">
+        <v>55</v>
+      </c>
+      <c r="L110" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L110" s="6" t="s">
+      <c r="M110" t="s">
         <v>56</v>
       </c>
-      <c r="M110" s="6" t="s">
+      <c r="N110" t="s">
         <v>56</v>
       </c>
-      <c r="N110" s="6" t="s">
+      <c r="O110" t="s">
         <v>57</v>
       </c>
-      <c r="O110" s="9"/>
-      <c r="P110" s="6" t="s">
+      <c r="Q110" t="s">
         <v>150</v>
       </c>
-      <c r="Q110" s="6">
+      <c r="R110">
         <v>2</v>
       </c>
-      <c r="R110" s="6" t="s">
+      <c r="S110" t="s">
         <v>39</v>
       </c>
-      <c r="S110" s="6" t="s">
+      <c r="T110" t="s">
         <v>40</v>
       </c>
-      <c r="T110" s="6">
-        <v>50</v>
-      </c>
-      <c r="W110" s="6" t="s">
+      <c r="U110">
+        <v>50</v>
+      </c>
+      <c r="X110" t="s">
         <v>58</v>
       </c>
-      <c r="X110" s="6" t="s">
+      <c r="Y110" t="s">
         <v>56</v>
       </c>
-      <c r="Y110" s="9"/>
-      <c r="Z110" s="9"/>
-      <c r="AB110" s="9" t="s">
+      <c r="AC110" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC110" s="6" t="s">
+      <c r="AD110" t="s">
         <v>152</v>
       </c>
-      <c r="AD110" s="9" t="s">
+      <c r="AE110" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE110" s="9" t="s">
+      <c r="AF110" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="2:31" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B111" s="6" t="s">
+    <row r="111" spans="2:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H111" s="6" t="s">
+      <c r="D111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" t="s">
         <v>233</v>
       </c>
-      <c r="I111" s="6" t="s">
+      <c r="I111" t="s">
         <v>179</v>
       </c>
-      <c r="J111" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K111" s="8" t="s">
+      <c r="J111" t="s">
+        <v>55</v>
+      </c>
+      <c r="L111" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L111" s="6" t="s">
+      <c r="M111" t="s">
         <v>59</v>
       </c>
-      <c r="M111" s="6" t="s">
+      <c r="N111" t="s">
         <v>59</v>
       </c>
-      <c r="N111" s="6" t="s">
+      <c r="O111" t="s">
         <v>60</v>
       </c>
-      <c r="O111" s="9"/>
-      <c r="P111" s="6" t="s">
+      <c r="Q111" t="s">
         <v>151</v>
       </c>
-      <c r="Q111" s="6">
+      <c r="R111">
         <v>3</v>
       </c>
-      <c r="R111" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S111" s="6" t="s">
+      <c r="S111" t="s">
+        <v>50</v>
+      </c>
+      <c r="T111" t="s">
         <v>40</v>
       </c>
-      <c r="T111" s="6">
-        <v>50</v>
-      </c>
-      <c r="W111" s="6" t="s">
+      <c r="U111">
+        <v>50</v>
+      </c>
+      <c r="X111" t="s">
         <v>61</v>
       </c>
-      <c r="X111" s="6" t="s">
+      <c r="Y111" t="s">
         <v>62</v>
       </c>
-      <c r="Y111" s="9" t="s">
+      <c r="Z111" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z111" s="9" t="s">
+      <c r="AA111" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA111" s="6" t="s">
+      <c r="AB111" t="s">
         <v>45</v>
       </c>
-      <c r="AD111" s="9" t="s">
+      <c r="AE111" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AE111" s="9" t="s">
+      <c r="AF111" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B112" s="6" t="s">
+    <row r="112" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>215</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" s="6" t="s">
+      <c r="D112" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" t="s">
         <v>233</v>
       </c>
-      <c r="I112" s="6" t="s">
+      <c r="I112" t="s">
         <v>179</v>
       </c>
-      <c r="J112" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K112" s="8" t="s">
+      <c r="J112" t="s">
+        <v>55</v>
+      </c>
+      <c r="L112" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L112" s="6" t="s">
+      <c r="M112" t="s">
         <v>191</v>
       </c>
-      <c r="M112" s="6" t="s">
+      <c r="N112" t="s">
         <v>191</v>
       </c>
-      <c r="O112" s="9"/>
-      <c r="P112" s="6" t="s">
+      <c r="Q112" t="s">
         <v>192</v>
       </c>
-      <c r="Q112" s="6">
+      <c r="R112">
         <v>4</v>
       </c>
-      <c r="R112" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S112" s="6" t="s">
+      <c r="S112" t="s">
+        <v>50</v>
+      </c>
+      <c r="T112" t="s">
         <v>40</v>
       </c>
-      <c r="T112" s="6">
-        <v>50</v>
-      </c>
-      <c r="Y112" s="9"/>
-      <c r="Z112" s="9"/>
-      <c r="AD112" s="9"/>
-      <c r="AE112" s="9"/>
-    </row>
-    <row r="113" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B113" s="6" t="s">
+      <c r="U112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>216</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" s="6" t="s">
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" t="s">
         <v>233</v>
       </c>
-      <c r="I113" s="6" t="s">
+      <c r="I113" t="s">
         <v>179</v>
       </c>
-      <c r="J113" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K113" s="8" t="s">
+      <c r="J113" t="s">
+        <v>55</v>
+      </c>
+      <c r="L113" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L113" s="6" t="s">
+      <c r="M113" t="s">
         <v>188</v>
       </c>
-      <c r="M113" s="6" t="s">
+      <c r="N113" t="s">
         <v>188</v>
       </c>
-      <c r="N113" s="6" t="s">
+      <c r="O113" t="s">
         <v>193</v>
       </c>
-      <c r="O113" s="9"/>
-      <c r="P113" s="6" t="s">
+      <c r="Q113" t="s">
         <v>189</v>
       </c>
-      <c r="Q113" s="6">
+      <c r="R113">
         <v>5</v>
       </c>
-      <c r="R113" s="6" t="s">
+      <c r="S113" t="s">
         <v>39</v>
       </c>
-      <c r="S113" s="6" t="s">
+      <c r="T113" t="s">
         <v>40</v>
       </c>
-      <c r="T113" s="6">
+      <c r="U113">
         <v>40</v>
       </c>
-      <c r="W113" s="6" t="s">
+      <c r="X113" t="s">
         <v>193</v>
       </c>
-      <c r="X113" s="6" t="s">
+      <c r="Y113" t="s">
         <v>188</v>
       </c>
-      <c r="Y113" s="9"/>
-      <c r="Z113" s="9"/>
-      <c r="AB113" s="7" t="s">
+      <c r="AC113" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AC113" s="7" t="s">
+      <c r="AD113" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="AD113" s="9" t="s">
+      <c r="AE113" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE113" s="9" t="s">
+      <c r="AF113" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="114" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B114" s="6" t="s">
+    <row r="114" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>217</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H114" s="6" t="s">
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" t="s">
         <v>233</v>
       </c>
-      <c r="I114" s="6" t="s">
+      <c r="I114" t="s">
         <v>179</v>
       </c>
-      <c r="J114" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K114" s="8" t="s">
+      <c r="J114" t="s">
+        <v>55</v>
+      </c>
+      <c r="L114" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L114" s="6" t="s">
+      <c r="M114" t="s">
         <v>65</v>
       </c>
-      <c r="M114" s="6" t="s">
+      <c r="N114" t="s">
         <v>65</v>
       </c>
-      <c r="N114" s="6" t="s">
+      <c r="O114" t="s">
         <v>66</v>
       </c>
-      <c r="O114" s="9"/>
-      <c r="P114" s="6" t="s">
+      <c r="Q114" t="s">
         <v>190</v>
       </c>
-      <c r="Q114" s="6">
+      <c r="R114">
         <v>6</v>
       </c>
-      <c r="R114" s="6" t="s">
+      <c r="S114" t="s">
         <v>39</v>
       </c>
-      <c r="S114" s="6" t="s">
+      <c r="T114" t="s">
         <v>68</v>
       </c>
-      <c r="T114" s="6">
+      <c r="U114">
         <v>3</v>
       </c>
-      <c r="Y114" s="9"/>
-      <c r="Z114" s="9"/>
-      <c r="AD114" s="9" t="s">
+      <c r="AE114" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE114" s="9" t="s">
+      <c r="AF114" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B115" s="6" t="s">
+    <row r="115" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>218</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H115" s="6" t="s">
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" t="s">
         <v>233</v>
       </c>
-      <c r="I115" s="6" t="s">
+      <c r="I115" t="s">
         <v>179</v>
       </c>
-      <c r="J115" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K115" s="8" t="s">
+      <c r="J115" t="s">
+        <v>55</v>
+      </c>
+      <c r="L115" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L115" s="6" t="s">
+      <c r="M115" t="s">
         <v>71</v>
       </c>
-      <c r="M115" s="6" t="s">
+      <c r="N115" t="s">
         <v>71</v>
       </c>
-      <c r="N115" s="6" t="s">
+      <c r="O115" t="s">
         <v>72</v>
       </c>
-      <c r="O115" s="9"/>
-      <c r="P115" s="6" t="s">
+      <c r="Q115" t="s">
         <v>131</v>
       </c>
-      <c r="Q115" s="6">
+      <c r="R115">
         <v>7</v>
       </c>
-      <c r="R115" s="6" t="s">
+      <c r="S115" t="s">
         <v>39</v>
       </c>
-      <c r="S115" s="6" t="s">
+      <c r="T115" t="s">
         <v>40</v>
       </c>
-      <c r="T115" s="6">
-        <v>50</v>
-      </c>
-      <c r="W115" s="6" t="s">
+      <c r="U115">
+        <v>50</v>
+      </c>
+      <c r="X115" t="s">
         <v>73</v>
       </c>
-      <c r="X115" s="6" t="s">
+      <c r="Y115" t="s">
         <v>74</v>
       </c>
-      <c r="Y115" s="9"/>
-      <c r="Z115" s="9"/>
-      <c r="AA115" s="10"/>
-      <c r="AC115" s="7"/>
-      <c r="AD115" s="9" t="s">
+      <c r="AB115" s="5"/>
+      <c r="AD115" s="6"/>
+      <c r="AE115" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE115" s="9" t="s">
+      <c r="AF115" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B116" s="6" t="s">
+    <row r="116" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>212</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H116" s="6" t="s">
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" t="s">
         <v>239</v>
       </c>
-      <c r="I116" s="6" t="s">
+      <c r="I116" t="s">
         <v>162</v>
       </c>
-      <c r="J116" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K116" s="8" t="s">
+      <c r="J116" t="s">
+        <v>55</v>
+      </c>
+      <c r="L116" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L116" s="6" t="s">
+      <c r="M116" t="s">
         <v>47</v>
       </c>
-      <c r="M116" s="6" t="s">
+      <c r="N116" t="s">
         <v>47</v>
       </c>
-      <c r="N116" s="6" t="s">
+      <c r="O116" t="s">
         <v>48</v>
       </c>
-      <c r="O116" s="9"/>
-      <c r="P116" s="6" t="s">
+      <c r="Q116" t="s">
         <v>49</v>
       </c>
-      <c r="Q116" s="6">
+      <c r="R116">
         <v>1</v>
       </c>
-      <c r="R116" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S116" s="6" t="s">
+      <c r="S116" t="s">
+        <v>50</v>
+      </c>
+      <c r="T116" t="s">
         <v>51</v>
       </c>
-      <c r="T116" s="6">
+      <c r="U116">
         <v>10</v>
       </c>
-      <c r="Y116" s="9"/>
-      <c r="Z116" s="9"/>
-      <c r="AD116" s="9" t="s">
+      <c r="AE116" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE116" s="9" t="s">
+      <c r="AF116" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B117" s="6" t="s">
+    <row r="117" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>213</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H117" s="6" t="s">
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" t="s">
         <v>239</v>
       </c>
-      <c r="I117" s="6" t="s">
+      <c r="I117" t="s">
         <v>162</v>
       </c>
-      <c r="J117" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K117" s="8" t="s">
+      <c r="J117" t="s">
+        <v>55</v>
+      </c>
+      <c r="L117" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L117" s="6" t="s">
+      <c r="M117" t="s">
         <v>56</v>
       </c>
-      <c r="M117" s="6" t="s">
+      <c r="N117" t="s">
         <v>56</v>
       </c>
-      <c r="N117" s="6" t="s">
+      <c r="O117" t="s">
         <v>57</v>
       </c>
-      <c r="O117" s="9"/>
-      <c r="P117" s="6" t="s">
+      <c r="Q117" t="s">
         <v>150</v>
       </c>
-      <c r="Q117" s="6">
+      <c r="R117">
         <v>2</v>
       </c>
-      <c r="R117" s="6" t="s">
+      <c r="S117" t="s">
         <v>39</v>
       </c>
-      <c r="S117" s="6" t="s">
+      <c r="T117" t="s">
         <v>40</v>
       </c>
-      <c r="T117" s="6">
-        <v>50</v>
-      </c>
-      <c r="W117" s="6" t="s">
+      <c r="U117">
+        <v>50</v>
+      </c>
+      <c r="X117" t="s">
         <v>58</v>
       </c>
-      <c r="X117" s="6" t="s">
+      <c r="Y117" t="s">
         <v>56</v>
       </c>
-      <c r="Y117" s="9"/>
-      <c r="Z117" s="9"/>
-      <c r="AB117" s="9" t="s">
+      <c r="AC117" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC117" s="6" t="s">
+      <c r="AD117" t="s">
         <v>152</v>
       </c>
-      <c r="AD117" s="9" t="s">
+      <c r="AE117" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE117" s="9" t="s">
+      <c r="AF117" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B118" s="6" t="s">
+    <row r="118" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>216</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H118" s="6" t="s">
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" t="s">
         <v>239</v>
       </c>
-      <c r="I118" s="6" t="s">
+      <c r="I118" t="s">
         <v>162</v>
       </c>
-      <c r="J118" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K118" s="8" t="s">
+      <c r="J118" t="s">
+        <v>55</v>
+      </c>
+      <c r="L118" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L118" s="6" t="s">
+      <c r="M118" t="s">
         <v>188</v>
       </c>
-      <c r="M118" s="6" t="s">
+      <c r="N118" t="s">
         <v>188</v>
       </c>
-      <c r="N118" s="6" t="s">
+      <c r="O118" t="s">
         <v>193</v>
       </c>
-      <c r="O118" s="9"/>
-      <c r="P118" s="6" t="s">
+      <c r="Q118" t="s">
         <v>189</v>
       </c>
-      <c r="Q118" s="6">
+      <c r="R118">
         <v>3</v>
       </c>
-      <c r="R118" s="6" t="s">
+      <c r="S118" t="s">
         <v>39</v>
       </c>
-      <c r="S118" s="6" t="s">
+      <c r="T118" t="s">
         <v>40</v>
       </c>
-      <c r="T118" s="6">
+      <c r="U118">
         <v>40</v>
       </c>
-      <c r="W118" s="6" t="s">
+      <c r="X118" t="s">
         <v>193</v>
       </c>
-      <c r="X118" s="6" t="s">
+      <c r="Y118" t="s">
         <v>188</v>
       </c>
-      <c r="Y118" s="9"/>
-      <c r="Z118" s="9"/>
-      <c r="AB118" s="7" t="s">
+      <c r="AC118" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AC118" s="7" t="s">
+      <c r="AD118" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="AD118" s="9" t="s">
+      <c r="AE118" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE118" s="9" t="s">
+      <c r="AF118" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B119" s="6" t="s">
+    <row r="119" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>217</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H119" s="6" t="s">
+      <c r="D119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" t="s">
         <v>239</v>
       </c>
-      <c r="I119" s="6" t="s">
+      <c r="I119" t="s">
         <v>162</v>
       </c>
-      <c r="J119" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K119" s="8" t="s">
+      <c r="J119" t="s">
+        <v>55</v>
+      </c>
+      <c r="L119" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L119" s="6" t="s">
+      <c r="M119" t="s">
         <v>244</v>
       </c>
-      <c r="M119" s="6" t="s">
+      <c r="N119" t="s">
         <v>65</v>
       </c>
-      <c r="N119" s="6" t="s">
+      <c r="O119" t="s">
         <v>66</v>
       </c>
-      <c r="O119" s="9"/>
-      <c r="P119" s="6" t="s">
+      <c r="Q119" t="s">
         <v>190</v>
       </c>
-      <c r="Q119" s="6">
+      <c r="R119">
         <v>4</v>
       </c>
-      <c r="R119" s="6" t="s">
+      <c r="S119" t="s">
         <v>39</v>
       </c>
-      <c r="S119" s="6" t="s">
+      <c r="T119" t="s">
         <v>68</v>
       </c>
-      <c r="T119" s="6">
+      <c r="U119">
         <v>3</v>
       </c>
-      <c r="Y119" s="9"/>
-      <c r="Z119" s="9"/>
-      <c r="AD119" s="9" t="s">
+      <c r="AE119" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE119" s="9" t="s">
+      <c r="AF119" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B120" s="6" t="s">
+    <row r="120" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>218</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120" s="6" t="s">
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" t="s">
         <v>239</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="I120" t="s">
         <v>162</v>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K120" s="8" t="s">
+      <c r="J120" t="s">
+        <v>55</v>
+      </c>
+      <c r="L120" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L120" s="6" t="s">
+      <c r="M120" t="s">
         <v>245</v>
       </c>
-      <c r="M120" s="6" t="s">
+      <c r="N120" t="s">
         <v>71</v>
       </c>
-      <c r="N120" s="6" t="s">
+      <c r="O120" t="s">
         <v>72</v>
       </c>
-      <c r="O120" s="9"/>
-      <c r="P120" s="6" t="s">
+      <c r="Q120" t="s">
         <v>131</v>
       </c>
-      <c r="Q120" s="6">
+      <c r="R120">
         <v>5</v>
       </c>
-      <c r="R120" s="6" t="s">
+      <c r="S120" t="s">
         <v>39</v>
       </c>
-      <c r="S120" s="6" t="s">
+      <c r="T120" t="s">
         <v>40</v>
       </c>
-      <c r="T120" s="6">
-        <v>50</v>
-      </c>
-      <c r="W120" s="6" t="s">
+      <c r="U120">
+        <v>50</v>
+      </c>
+      <c r="X120" t="s">
         <v>73</v>
       </c>
-      <c r="X120" s="6" t="s">
+      <c r="Y120" t="s">
         <v>74</v>
       </c>
-      <c r="Y120" s="9"/>
-      <c r="Z120" s="9"/>
-      <c r="AA120" s="10"/>
-      <c r="AC120" s="7"/>
-      <c r="AD120" s="9" t="s">
+      <c r="AB120" s="5"/>
+      <c r="AD120" s="6"/>
+      <c r="AE120" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AE120" s="9" t="s">
+      <c r="AF120" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B121" s="6" t="s">
+    <row r="121" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
         <v>212</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H121" s="6" t="s">
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" t="s">
         <v>242</v>
       </c>
-      <c r="I121" s="6" t="s">
+      <c r="I121" t="s">
         <v>162</v>
       </c>
-      <c r="J121" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K121" s="8" t="s">
+      <c r="J121" t="s">
+        <v>55</v>
+      </c>
+      <c r="L121" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L121" s="6" t="s">
+      <c r="M121" t="s">
         <v>47</v>
       </c>
-      <c r="M121" s="6" t="s">
+      <c r="N121" t="s">
         <v>47</v>
       </c>
-      <c r="N121" s="6" t="s">
+      <c r="O121" t="s">
         <v>48</v>
       </c>
-      <c r="O121" s="9"/>
-      <c r="P121" s="6" t="s">
+      <c r="Q121" t="s">
         <v>49</v>
       </c>
-      <c r="Q121" s="6">
+      <c r="R121">
         <v>1</v>
       </c>
-      <c r="R121" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S121" s="6" t="s">
+      <c r="S121" t="s">
+        <v>50</v>
+      </c>
+      <c r="T121" t="s">
         <v>51</v>
       </c>
-      <c r="T121" s="6">
+      <c r="U121">
         <v>10</v>
       </c>
-      <c r="Y121" s="9"/>
-      <c r="Z121" s="9"/>
-      <c r="AD121" s="9" t="s">
+      <c r="AE121" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE121" s="9" t="s">
+      <c r="AF121" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="2:31" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B122" s="6" t="s">
+    <row r="122" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>213</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H122" s="6" t="s">
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" t="s">
         <v>242</v>
       </c>
-      <c r="I122" s="6" t="s">
+      <c r="I122" t="s">
         <v>162</v>
       </c>
-      <c r="J122" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K122" s="8" t="s">
+      <c r="J122" t="s">
+        <v>55</v>
+      </c>
+      <c r="L122" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L122" s="6" t="s">
+      <c r="M122" t="s">
         <v>56</v>
       </c>
-      <c r="M122" s="6" t="s">
+      <c r="N122" t="s">
         <v>56</v>
       </c>
-      <c r="N122" s="6" t="s">
+      <c r="O122" t="s">
         <v>57</v>
       </c>
-      <c r="O122" s="9"/>
-      <c r="P122" s="6" t="s">
+      <c r="Q122" t="s">
         <v>150</v>
       </c>
-      <c r="Q122" s="6">
+      <c r="R122">
         <v>2</v>
       </c>
-      <c r="R122" s="6" t="s">
+      <c r="S122" t="s">
         <v>39</v>
       </c>
-      <c r="S122" s="6" t="s">
+      <c r="T122" t="s">
         <v>40</v>
       </c>
-      <c r="T122" s="6">
-        <v>50</v>
-      </c>
-      <c r="W122" s="6" t="s">
+      <c r="U122">
+        <v>50</v>
+      </c>
+      <c r="X122" t="s">
         <v>58</v>
       </c>
-      <c r="X122" s="6" t="s">
+      <c r="Y122" t="s">
         <v>56</v>
       </c>
-      <c r="Y122" s="9"/>
-      <c r="Z122" s="9"/>
-      <c r="AB122" s="9" t="s">
+      <c r="AC122" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AC122" s="6" t="s">
+      <c r="AD122" t="s">
         <v>152</v>
       </c>
-      <c r="AD122" s="9" t="s">
+      <c r="AE122" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE122" s="9" t="s">
+      <c r="AF122" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="123" spans="2:31" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B123" s="6" t="s">
+    <row r="123" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>217</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H123" s="6" t="s">
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" t="s">
         <v>242</v>
       </c>
-      <c r="I123" s="6" t="s">
+      <c r="I123" t="s">
         <v>162</v>
       </c>
-      <c r="J123" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K123" s="8" t="s">
+      <c r="J123" t="s">
+        <v>55</v>
+      </c>
+      <c r="L123" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L123" s="6" t="s">
+      <c r="M123" t="s">
         <v>65</v>
       </c>
-      <c r="M123" s="6" t="s">
+      <c r="N123" t="s">
         <v>65</v>
       </c>
-      <c r="N123" s="6" t="s">
+      <c r="O123" t="s">
         <v>66</v>
       </c>
-      <c r="O123" s="9" t="s">
+      <c r="P123" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="Q123" s="6">
+      <c r="R123">
         <v>3</v>
       </c>
-      <c r="R123" s="6" t="s">
+      <c r="S123" t="s">
         <v>39</v>
       </c>
-      <c r="S123" s="6" t="s">
+      <c r="T123" t="s">
         <v>40</v>
       </c>
-      <c r="T123" s="6">
+      <c r="U123">
         <v>200</v>
       </c>
-      <c r="Y123" s="9"/>
-      <c r="Z123" s="9"/>
-      <c r="AD123" s="9" t="s">
+      <c r="AE123" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE123" s="9" t="s">
+      <c r="AF123" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="2:31" s="6" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="B124" s="6" t="s">
+    <row r="124" spans="2:32" ht="64" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>218</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H124" s="6" t="s">
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" t="s">
         <v>242</v>
       </c>
-      <c r="I124" s="6" t="s">
+      <c r="I124" t="s">
         <v>162</v>
       </c>
-      <c r="J124" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K124" s="8" t="s">
+      <c r="J124" t="s">
+        <v>55</v>
+      </c>
+      <c r="L124" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L124" s="6" t="s">
+      <c r="M124" t="s">
         <v>125</v>
       </c>
-      <c r="M124" s="6" t="s">
+      <c r="N124" t="s">
         <v>125</v>
       </c>
-      <c r="N124" s="6" t="s">
+      <c r="O124" t="s">
         <v>126</v>
       </c>
-      <c r="O124" s="9"/>
-      <c r="P124" s="6" t="s">
+      <c r="Q124" t="s">
         <v>145</v>
       </c>
-      <c r="Q124" s="6">
+      <c r="R124">
         <v>4</v>
       </c>
-      <c r="R124" s="6" t="s">
+      <c r="S124" t="s">
         <v>39</v>
       </c>
-      <c r="S124" s="6" t="s">
+      <c r="T124" t="s">
         <v>40</v>
       </c>
-      <c r="T124" s="6">
+      <c r="U124">
         <v>100</v>
       </c>
-      <c r="W124" s="6" t="s">
+      <c r="X124" t="s">
         <v>127</v>
       </c>
-      <c r="X124" s="7" t="s">
+      <c r="Y124" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="Y124" s="8" t="s">
+      <c r="Z124" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="Z124" s="8" t="s">
+      <c r="AA124" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="AA124" s="11" t="s">
+      <c r="AB124" t="s">
         <v>45</v>
       </c>
-      <c r="AC124" s="7"/>
-      <c r="AD124" s="9" t="s">
+      <c r="AD124" s="6"/>
+      <c r="AE124" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE124" s="9" t="s">
+      <c r="AF124" s="3" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AH124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/curation/draft/collection/collection_specialization_EG_Local.xlsx
+++ b/curation/draft/collection/collection_specialization_EG_Local.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136106D6-DE41-7746-95D8-E75912B3C0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643F4BB-C504-B64D-9181-6227A3310672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Collection_EG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EG!$A$1:$AH$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EG!$A$1:$AJ$244</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4685" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="375">
   <si>
     <t>package_date</t>
   </si>
@@ -1158,6 +1158,12 @@
   </si>
   <si>
     <t>C68667</t>
+  </si>
+  <si>
+    <t>derived_variable</t>
+  </si>
+  <si>
+    <t>derivation_description</t>
   </si>
 </sst>
 </file>
@@ -1600,11 +1606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH244"/>
+  <dimension ref="A1:AJ244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1623,21 +1629,21 @@
     <col min="18" max="20" width="8.83203125" customWidth="1"/>
     <col min="21" max="21" width="14.1640625" customWidth="1"/>
     <col min="22" max="22" width="24.1640625" customWidth="1"/>
-    <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="25" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="26" width="21.6640625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="22" style="3" customWidth="1"/>
-    <col min="28" max="28" width="15.1640625" customWidth="1"/>
-    <col min="29" max="29" width="19.83203125" customWidth="1"/>
-    <col min="30" max="30" width="21.83203125" customWidth="1"/>
-    <col min="31" max="31" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="74.5" style="3" customWidth="1"/>
-    <col min="33" max="33" width="16" customWidth="1"/>
-    <col min="34" max="34" width="12.83203125" customWidth="1"/>
+    <col min="23" max="25" width="21" customWidth="1"/>
+    <col min="26" max="26" width="25" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" customWidth="1"/>
+    <col min="28" max="28" width="21.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22" style="3" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" customWidth="1"/>
+    <col min="31" max="31" width="19.83203125" customWidth="1"/>
+    <col min="32" max="32" width="21.83203125" customWidth="1"/>
+    <col min="33" max="33" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="74.5" style="3" customWidth="1"/>
+    <col min="35" max="35" width="16" customWidth="1"/>
+    <col min="36" max="36" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16">
+    <row r="1" spans="1:36" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1708,40 +1714,46 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="16">
+    <row r="2" spans="1:36" ht="16">
       <c r="B2" s="4" t="s">
         <v>145</v>
       </c>
@@ -1784,26 +1796,26 @@
       <c r="U2">
         <v>1</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="16">
+    <row r="3" spans="1:36" ht="16">
       <c r="B3" s="4" t="s">
         <v>145</v>
       </c>
@@ -1846,14 +1858,14 @@
       <c r="U3">
         <v>10</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="32">
+    <row r="4" spans="1:36" ht="32">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1905,14 +1917,14 @@
       <c r="U4">
         <v>10</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="32">
+    <row r="5" spans="1:36" ht="32">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -1964,26 +1976,26 @@
       <c r="U5">
         <v>50</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>56</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>150</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="48">
+    <row r="6" spans="1:36" ht="48">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -2035,29 +2047,29 @@
       <c r="U6">
         <v>50</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>61</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>62</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>45</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="32">
+    <row r="7" spans="1:36" ht="32">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="32">
+    <row r="8" spans="1:36" ht="32">
       <c r="B8" t="s">
         <v>53</v>
       </c>
@@ -2159,26 +2171,26 @@
       <c r="U8">
         <v>40</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>191</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>192</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>53</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="32">
+    <row r="9" spans="1:36" ht="32">
       <c r="B9" t="s">
         <v>53</v>
       </c>
@@ -2230,14 +2242,14 @@
       <c r="U9">
         <v>3</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="32">
+    <row r="10" spans="1:36" ht="32">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2289,27 +2301,27 @@
       <c r="U10">
         <v>50</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>72</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AA10" t="s">
         <v>73</v>
       </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" t="s">
+      <c r="AD10" s="5"/>
+      <c r="AE10" t="s">
         <v>74</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>75</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="16">
+    <row r="11" spans="1:36" ht="16">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -2361,14 +2373,14 @@
       <c r="U11">
         <v>10</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="16">
+    <row r="12" spans="1:36" ht="16">
       <c r="B12" t="s">
         <v>77</v>
       </c>
@@ -2420,26 +2432,26 @@
       <c r="U12">
         <v>100</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>56</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>150</v>
       </c>
-      <c r="AE12" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="48">
+    <row r="13" spans="1:36" ht="48">
       <c r="B13" t="s">
         <v>77</v>
       </c>
@@ -2491,29 +2503,29 @@
       <c r="U13">
         <v>50</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" t="s">
         <v>61</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AA13" t="s">
         <v>62</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AD13" t="s">
         <v>45</v>
       </c>
-      <c r="AE13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AH13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="16">
+    <row r="14" spans="1:36" ht="16">
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="16">
+    <row r="15" spans="1:36" ht="16">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -2615,26 +2627,26 @@
       <c r="U15">
         <v>40</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>191</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AA15" t="s">
         <v>186</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>196</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF15" s="3" t="s">
+      <c r="AH15" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="16">
+    <row r="16" spans="1:36" ht="16">
       <c r="B16" t="s">
         <v>77</v>
       </c>
@@ -2686,14 +2698,14 @@
       <c r="U16">
         <v>3</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AG16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF16" s="3" t="s">
+      <c r="AH16" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="16">
+    <row r="17" spans="2:34" ht="16">
       <c r="B17" t="s">
         <v>77</v>
       </c>
@@ -2745,29 +2757,29 @@
       <c r="U17">
         <v>50</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Z17" t="s">
         <v>72</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AA17" t="s">
         <v>73</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>45</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AH17" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="16">
+    <row r="18" spans="2:34" ht="16">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -2819,14 +2831,14 @@
       <c r="U18">
         <v>10</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AG18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AH18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="16">
+    <row r="19" spans="2:34" ht="16">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -2878,26 +2890,26 @@
       <c r="U19">
         <v>3</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Z19" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" t="s">
         <v>56</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AF19" t="s">
         <v>150</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AG19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF19" s="3" t="s">
+      <c r="AH19" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="2:32" ht="48">
+    <row r="20" spans="2:34" ht="48">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -2949,29 +2961,29 @@
       <c r="U20">
         <v>50</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
         <v>61</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AA20" t="s">
         <v>62</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AB20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AC20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
         <v>45</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AG20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF20" s="3" t="s">
+      <c r="AH20" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:32" ht="16">
+    <row r="21" spans="2:34" ht="16">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -3021,7 +3033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:32" ht="16">
+    <row r="22" spans="2:34" ht="16">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -3073,26 +3085,26 @@
       <c r="U22">
         <v>40</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>191</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>186</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>198</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AF22" t="s">
         <v>86</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AG22" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF22" s="3" t="s">
+      <c r="AH22" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="2:32" ht="16">
+    <row r="23" spans="2:34" ht="16">
       <c r="B23" t="s">
         <v>86</v>
       </c>
@@ -3144,14 +3156,14 @@
       <c r="U23">
         <v>3</v>
       </c>
-      <c r="AE23" s="3" t="s">
+      <c r="AG23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF23" s="3" t="s">
+      <c r="AH23" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="16">
+    <row r="24" spans="2:34" ht="16">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -3203,29 +3215,29 @@
       <c r="U24">
         <v>50</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Z24" t="s">
         <v>72</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AA24" t="s">
         <v>73</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="AB24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA24" s="3" t="s">
+      <c r="AC24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AD24" t="s">
         <v>45</v>
       </c>
-      <c r="AE24" s="3" t="s">
+      <c r="AG24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF24" s="3" t="s">
+      <c r="AH24" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:32" ht="16">
+    <row r="25" spans="2:34" ht="16">
       <c r="B25" t="s">
         <v>91</v>
       </c>
@@ -3277,14 +3289,14 @@
       <c r="U25">
         <v>10</v>
       </c>
-      <c r="AE25" s="3" t="s">
+      <c r="AG25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF25" s="3" t="s">
+      <c r="AH25" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:32" ht="16">
+    <row r="26" spans="2:34" ht="16">
       <c r="B26" t="s">
         <v>91</v>
       </c>
@@ -3336,26 +3348,26 @@
       <c r="U26">
         <v>50</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Z26" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AA26" t="s">
         <v>56</v>
       </c>
-      <c r="AC26" s="3" t="s">
+      <c r="AE26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
         <v>150</v>
       </c>
-      <c r="AE26" s="3" t="s">
+      <c r="AG26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF26" s="3" t="s">
+      <c r="AH26" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="2:32" ht="48">
+    <row r="27" spans="2:34" ht="48">
       <c r="B27" t="s">
         <v>91</v>
       </c>
@@ -3407,29 +3419,29 @@
       <c r="U27">
         <v>50</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Z27" t="s">
         <v>61</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AA27" t="s">
         <v>62</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="AB27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA27" s="3" t="s">
+      <c r="AC27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AD27" t="s">
         <v>45</v>
       </c>
-      <c r="AE27" s="3" t="s">
+      <c r="AG27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF27" s="3" t="s">
+      <c r="AH27" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:32" ht="16">
+    <row r="28" spans="2:34" ht="16">
       <c r="B28" t="s">
         <v>91</v>
       </c>
@@ -3479,7 +3491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:32" ht="16">
+    <row r="29" spans="2:34" ht="16">
       <c r="B29" t="s">
         <v>91</v>
       </c>
@@ -3531,26 +3543,26 @@
       <c r="U29">
         <v>40</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Z29" t="s">
         <v>191</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AA29" t="s">
         <v>186</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AE29" t="s">
         <v>200</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AF29" t="s">
         <v>91</v>
       </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AG29" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF29" s="3" t="s">
+      <c r="AH29" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="2:32" ht="16">
+    <row r="30" spans="2:34" ht="16">
       <c r="B30" t="s">
         <v>91</v>
       </c>
@@ -3602,14 +3614,14 @@
       <c r="U30">
         <v>3</v>
       </c>
-      <c r="AE30" s="3" t="s">
+      <c r="AG30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF30" s="3" t="s">
+      <c r="AH30" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="2:32" ht="16">
+    <row r="31" spans="2:34" ht="16">
       <c r="B31" t="s">
         <v>91</v>
       </c>
@@ -3661,29 +3673,29 @@
       <c r="U31">
         <v>50</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Z31" t="s">
         <v>72</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AA31" t="s">
         <v>73</v>
       </c>
-      <c r="Z31" s="3" t="s">
+      <c r="AB31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA31" s="3" t="s">
+      <c r="AC31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AD31" t="s">
         <v>45</v>
       </c>
-      <c r="AE31" s="3" t="s">
+      <c r="AG31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF31" s="3" t="s">
+      <c r="AH31" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:32" ht="16">
+    <row r="32" spans="2:34" ht="16">
       <c r="B32" t="s">
         <v>96</v>
       </c>
@@ -3735,14 +3747,14 @@
       <c r="U32">
         <v>10</v>
       </c>
-      <c r="AE32" s="3" t="s">
+      <c r="AG32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF32" s="3" t="s">
+      <c r="AH32" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:32" ht="16">
+    <row r="33" spans="2:34" ht="16">
       <c r="B33" t="s">
         <v>96</v>
       </c>
@@ -3794,26 +3806,26 @@
       <c r="U33">
         <v>50</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Z33" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="AA33" t="s">
         <v>56</v>
       </c>
-      <c r="AC33" s="3" t="s">
+      <c r="AE33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AF33" t="s">
         <v>150</v>
       </c>
-      <c r="AE33" s="3" t="s">
+      <c r="AG33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF33" s="3" t="s">
+      <c r="AH33" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="2:32" ht="48">
+    <row r="34" spans="2:34" ht="48">
       <c r="B34" t="s">
         <v>96</v>
       </c>
@@ -3865,29 +3877,29 @@
       <c r="U34">
         <v>50</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Z34" t="s">
         <v>61</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="AA34" t="s">
         <v>62</v>
       </c>
-      <c r="Z34" s="3" t="s">
+      <c r="AB34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA34" s="3" t="s">
+      <c r="AC34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AD34" t="s">
         <v>45</v>
       </c>
-      <c r="AE34" s="3" t="s">
+      <c r="AG34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF34" s="3" t="s">
+      <c r="AH34" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:32" ht="16">
+    <row r="35" spans="2:34" ht="16">
       <c r="B35" t="s">
         <v>96</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:32" ht="16">
+    <row r="36" spans="2:34" ht="16">
       <c r="B36" t="s">
         <v>96</v>
       </c>
@@ -3989,26 +4001,26 @@
       <c r="U36">
         <v>40</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Z36" t="s">
         <v>191</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="AA36" t="s">
         <v>186</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AE36" t="s">
         <v>202</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AF36" t="s">
         <v>96</v>
       </c>
-      <c r="AE36" s="3" t="s">
+      <c r="AG36" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF36" s="3" t="s">
+      <c r="AH36" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="2:32" ht="16">
+    <row r="37" spans="2:34" ht="16">
       <c r="B37" t="s">
         <v>96</v>
       </c>
@@ -4060,14 +4072,14 @@
       <c r="U37">
         <v>3</v>
       </c>
-      <c r="AE37" s="3" t="s">
+      <c r="AG37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF37" s="3" t="s">
+      <c r="AH37" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="2:32" ht="16">
+    <row r="38" spans="2:34" ht="16">
       <c r="B38" t="s">
         <v>96</v>
       </c>
@@ -4119,29 +4131,29 @@
       <c r="U38">
         <v>50</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Z38" t="s">
         <v>72</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AA38" t="s">
         <v>73</v>
       </c>
-      <c r="Z38" s="3" t="s">
+      <c r="AB38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA38" s="3" t="s">
+      <c r="AC38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AD38" t="s">
         <v>45</v>
       </c>
-      <c r="AE38" s="3" t="s">
+      <c r="AG38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF38" s="3" t="s">
+      <c r="AH38" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:32" ht="16">
+    <row r="39" spans="2:34" ht="16">
       <c r="B39" t="s">
         <v>101</v>
       </c>
@@ -4193,14 +4205,14 @@
       <c r="U39">
         <v>10</v>
       </c>
-      <c r="AE39" s="3" t="s">
+      <c r="AG39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF39" s="3" t="s">
+      <c r="AH39" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:32" ht="16">
+    <row r="40" spans="2:34" ht="16">
       <c r="B40" t="s">
         <v>101</v>
       </c>
@@ -4252,26 +4264,26 @@
       <c r="U40">
         <v>50</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Z40" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="AA40" t="s">
         <v>56</v>
       </c>
-      <c r="AC40" s="3" t="s">
+      <c r="AE40" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AF40" t="s">
         <v>150</v>
       </c>
-      <c r="AE40" s="3" t="s">
+      <c r="AG40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF40" s="3" t="s">
+      <c r="AH40" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="2:32" ht="48">
+    <row r="41" spans="2:34" ht="48">
       <c r="B41" t="s">
         <v>101</v>
       </c>
@@ -4323,29 +4335,29 @@
       <c r="U41">
         <v>50</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Z41" t="s">
         <v>61</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="AA41" t="s">
         <v>62</v>
       </c>
-      <c r="Z41" s="3" t="s">
+      <c r="AB41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA41" s="3" t="s">
+      <c r="AC41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AD41" t="s">
         <v>45</v>
       </c>
-      <c r="AE41" s="3" t="s">
+      <c r="AG41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF41" s="3" t="s">
+      <c r="AH41" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:32" ht="16">
+    <row r="42" spans="2:34" ht="16">
       <c r="B42" t="s">
         <v>101</v>
       </c>
@@ -4395,7 +4407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:32" ht="16">
+    <row r="43" spans="2:34" ht="16">
       <c r="B43" t="s">
         <v>101</v>
       </c>
@@ -4447,26 +4459,26 @@
       <c r="U43">
         <v>40</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Z43" t="s">
         <v>191</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="AA43" t="s">
         <v>186</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AE43" t="s">
         <v>204</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AF43" t="s">
         <v>101</v>
       </c>
-      <c r="AE43" s="3" t="s">
+      <c r="AG43" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF43" s="3" t="s">
+      <c r="AH43" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="2:32" ht="16">
+    <row r="44" spans="2:34" ht="16">
       <c r="B44" t="s">
         <v>101</v>
       </c>
@@ -4518,14 +4530,14 @@
       <c r="U44">
         <v>3</v>
       </c>
-      <c r="AE44" s="3" t="s">
+      <c r="AG44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF44" s="3" t="s">
+      <c r="AH44" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="2:32" ht="16">
+    <row r="45" spans="2:34" ht="16">
       <c r="B45" t="s">
         <v>101</v>
       </c>
@@ -4577,29 +4589,29 @@
       <c r="U45">
         <v>50</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Z45" t="s">
         <v>72</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="AA45" t="s">
         <v>73</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="AB45" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA45" s="3" t="s">
+      <c r="AC45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AD45" t="s">
         <v>45</v>
       </c>
-      <c r="AE45" s="3" t="s">
+      <c r="AG45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF45" s="3" t="s">
+      <c r="AH45" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="2:32" ht="32">
+    <row r="46" spans="2:34" ht="32">
       <c r="B46" t="s">
         <v>106</v>
       </c>
@@ -4651,14 +4663,14 @@
       <c r="U46">
         <v>10</v>
       </c>
-      <c r="AE46" s="3" t="s">
+      <c r="AG46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF46" s="3" t="s">
+      <c r="AH46" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:32" ht="32">
+    <row r="47" spans="2:34" ht="32">
       <c r="B47" t="s">
         <v>106</v>
       </c>
@@ -4710,26 +4722,26 @@
       <c r="U47">
         <v>50</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Z47" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="AA47" t="s">
         <v>56</v>
       </c>
-      <c r="AC47" s="3" t="s">
+      <c r="AE47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AF47" t="s">
         <v>150</v>
       </c>
-      <c r="AE47" s="3" t="s">
+      <c r="AG47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF47" s="3" t="s">
+      <c r="AH47" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="2:32" ht="48">
+    <row r="48" spans="2:34" ht="48">
       <c r="B48" t="s">
         <v>106</v>
       </c>
@@ -4781,29 +4793,29 @@
       <c r="U48">
         <v>50</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Z48" t="s">
         <v>61</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="AA48" t="s">
         <v>62</v>
       </c>
-      <c r="Z48" s="3" t="s">
+      <c r="AB48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA48" s="3" t="s">
+      <c r="AC48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AD48" t="s">
         <v>45</v>
       </c>
-      <c r="AE48" s="3" t="s">
+      <c r="AG48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF48" s="3" t="s">
+      <c r="AH48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:32" ht="32">
+    <row r="49" spans="2:34" ht="32">
       <c r="B49" t="s">
         <v>106</v>
       </c>
@@ -4853,7 +4865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:32" ht="32">
+    <row r="50" spans="2:34" ht="32">
       <c r="B50" t="s">
         <v>106</v>
       </c>
@@ -4905,26 +4917,26 @@
       <c r="U50">
         <v>40</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Z50" t="s">
         <v>191</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="AA50" t="s">
         <v>186</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AE50" t="s">
         <v>206</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AF50" t="s">
         <v>106</v>
       </c>
-      <c r="AE50" s="3" t="s">
+      <c r="AG50" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF50" s="3" t="s">
+      <c r="AH50" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="2:32" ht="32">
+    <row r="51" spans="2:34" ht="32">
       <c r="B51" t="s">
         <v>106</v>
       </c>
@@ -4976,14 +4988,14 @@
       <c r="U51">
         <v>50</v>
       </c>
-      <c r="AE51" s="3" t="s">
+      <c r="AG51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF51" s="3" t="s">
+      <c r="AH51" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:32" ht="32">
+    <row r="52" spans="2:34" ht="32">
       <c r="B52" t="s">
         <v>106</v>
       </c>
@@ -5035,29 +5047,29 @@
       <c r="U52">
         <v>50</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Z52" t="s">
         <v>72</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="AA52" t="s">
         <v>73</v>
       </c>
-      <c r="Z52" s="3" t="s">
+      <c r="AB52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA52" s="3" t="s">
+      <c r="AC52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AD52" t="s">
         <v>45</v>
       </c>
-      <c r="AE52" s="3" t="s">
+      <c r="AG52" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF52" s="3" t="s">
+      <c r="AH52" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:32" ht="16">
+    <row r="53" spans="2:34" ht="16">
       <c r="B53" t="s">
         <v>111</v>
       </c>
@@ -5109,14 +5121,14 @@
       <c r="U53">
         <v>10</v>
       </c>
-      <c r="AE53" s="3" t="s">
+      <c r="AG53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF53" s="3" t="s">
+      <c r="AH53" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:32" ht="16">
+    <row r="54" spans="2:34" ht="16">
       <c r="B54" t="s">
         <v>111</v>
       </c>
@@ -5168,26 +5180,26 @@
       <c r="U54">
         <v>40</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Z54" t="s">
         <v>191</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="AA54" t="s">
         <v>186</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AE54" t="s">
         <v>114</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AF54" t="s">
         <v>209</v>
       </c>
-      <c r="AE54" s="3" t="s">
+      <c r="AG54" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF54" s="3" t="s">
+      <c r="AH54" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="2:32" ht="16">
+    <row r="55" spans="2:34" ht="16">
       <c r="B55" t="s">
         <v>111</v>
       </c>
@@ -5239,29 +5251,29 @@
       <c r="U55">
         <v>50</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Z55" t="s">
         <v>115</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="AA55" t="s">
         <v>116</v>
       </c>
-      <c r="Z55" s="3" t="s">
+      <c r="AB55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AA55" s="3" t="s">
+      <c r="AC55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AD55" t="s">
         <v>45</v>
       </c>
-      <c r="AE55" s="3" t="s">
+      <c r="AG55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF55" s="3" t="s">
+      <c r="AH55" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="2:32" ht="16">
+    <row r="56" spans="2:34" ht="16">
       <c r="B56" t="s">
         <v>111</v>
       </c>
@@ -5313,29 +5325,29 @@
       <c r="U56">
         <v>1</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Z56" t="s">
         <v>41</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="AA56" t="s">
         <v>42</v>
       </c>
-      <c r="Z56" s="3" t="s">
+      <c r="AB56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA56" s="3" t="s">
+      <c r="AC56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AD56" t="s">
         <v>45</v>
       </c>
-      <c r="AE56" s="3" t="s">
+      <c r="AG56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AF56" s="3" t="s">
+      <c r="AH56" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="2:32" ht="48">
+    <row r="57" spans="2:34" ht="48">
       <c r="B57" t="s">
         <v>111</v>
       </c>
@@ -5387,29 +5399,29 @@
       <c r="U57">
         <v>50</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Z57" t="s">
         <v>125</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="AA57" t="s">
         <v>126</v>
       </c>
-      <c r="Z57" s="3" t="s">
+      <c r="AB57" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AA57" s="3" t="s">
+      <c r="AC57" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AD57" t="s">
         <v>45</v>
       </c>
-      <c r="AE57" s="3" t="s">
+      <c r="AG57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AF57" s="3" t="s">
+      <c r="AH57" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:32" ht="32">
+    <row r="58" spans="2:34" ht="32">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -5461,14 +5473,14 @@
       <c r="U58">
         <v>10</v>
       </c>
-      <c r="AE58" s="3" t="s">
+      <c r="AG58" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF58" s="3" t="s">
+      <c r="AH58" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:32" ht="32">
+    <row r="59" spans="2:34" ht="32">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -5520,26 +5532,26 @@
       <c r="U59">
         <v>50</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Z59" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="AA59" t="s">
         <v>56</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="AE59" t="s">
         <v>144</v>
       </c>
-      <c r="AD59" t="s">
+      <c r="AF59" t="s">
         <v>150</v>
       </c>
-      <c r="AE59" s="3" t="s">
+      <c r="AG59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF59" s="3" t="s">
+      <c r="AH59" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="2:32" ht="48">
+    <row r="60" spans="2:34" ht="48">
       <c r="B60" t="s">
         <v>53</v>
       </c>
@@ -5591,29 +5603,29 @@
       <c r="U60">
         <v>50</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Z60" t="s">
         <v>61</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="AA60" t="s">
         <v>62</v>
       </c>
-      <c r="Z60" s="3" t="s">
+      <c r="AB60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA60" s="3" t="s">
+      <c r="AC60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AD60" t="s">
         <v>45</v>
       </c>
-      <c r="AE60" s="3" t="s">
+      <c r="AG60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF60" s="3" t="s">
+      <c r="AH60" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:32" ht="32">
+    <row r="61" spans="2:34" ht="32">
       <c r="B61" t="s">
         <v>53</v>
       </c>
@@ -5665,14 +5677,14 @@
       <c r="U61">
         <v>3</v>
       </c>
-      <c r="AE61" s="3" t="s">
+      <c r="AG61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF61" s="3" t="s">
+      <c r="AH61" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="2:32" ht="32">
+    <row r="62" spans="2:34" ht="32">
       <c r="B62" t="s">
         <v>53</v>
       </c>
@@ -5724,26 +5736,26 @@
       <c r="U62">
         <v>50</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Z62" t="s">
         <v>72</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="AA62" t="s">
         <v>73</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AE62" t="s">
         <v>74</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AF62" t="s">
         <v>75</v>
       </c>
-      <c r="AE62" s="3" t="s">
+      <c r="AG62" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF62" s="3" t="s">
+      <c r="AH62" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="2:32" ht="16">
+    <row r="63" spans="2:34" ht="16">
       <c r="B63" t="s">
         <v>77</v>
       </c>
@@ -5795,14 +5807,14 @@
       <c r="U63">
         <v>10</v>
       </c>
-      <c r="AE63" s="3" t="s">
+      <c r="AG63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF63" s="3" t="s">
+      <c r="AH63" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="2:32" ht="16">
+    <row r="64" spans="2:34" ht="16">
       <c r="B64" t="s">
         <v>77</v>
       </c>
@@ -5854,26 +5866,26 @@
       <c r="U64">
         <v>50</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Z64" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="AA64" t="s">
         <v>56</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="AE64" t="s">
         <v>144</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AF64" t="s">
         <v>150</v>
       </c>
-      <c r="AE64" s="3" t="s">
+      <c r="AG64" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF64" s="3" t="s">
+      <c r="AH64" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="2:32" ht="48">
+    <row r="65" spans="2:34" ht="48">
       <c r="B65" t="s">
         <v>77</v>
       </c>
@@ -5925,29 +5937,29 @@
       <c r="U65">
         <v>50</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Z65" t="s">
         <v>61</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="AA65" t="s">
         <v>62</v>
       </c>
-      <c r="Z65" s="3" t="s">
+      <c r="AB65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA65" s="3" t="s">
+      <c r="AC65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AD65" t="s">
         <v>45</v>
       </c>
-      <c r="AE65" s="3" t="s">
+      <c r="AG65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF65" s="3" t="s">
+      <c r="AH65" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:32" ht="16">
+    <row r="66" spans="2:34" ht="16">
       <c r="B66" t="s">
         <v>77</v>
       </c>
@@ -5999,14 +6011,14 @@
       <c r="U66">
         <v>3</v>
       </c>
-      <c r="AE66" s="3" t="s">
+      <c r="AG66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF66" s="3" t="s">
+      <c r="AH66" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="2:32" ht="16">
+    <row r="67" spans="2:34" ht="16">
       <c r="B67" t="s">
         <v>77</v>
       </c>
@@ -6058,29 +6070,29 @@
       <c r="U67">
         <v>50</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Z67" t="s">
         <v>72</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="AA67" t="s">
         <v>73</v>
       </c>
-      <c r="Z67" s="3" t="s">
+      <c r="AB67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA67" s="3" t="s">
+      <c r="AC67" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AD67" t="s">
         <v>45</v>
       </c>
-      <c r="AE67" s="3" t="s">
+      <c r="AG67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF67" s="3" t="s">
+      <c r="AH67" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="2:32" ht="16">
+    <row r="68" spans="2:34" ht="16">
       <c r="B68" t="s">
         <v>86</v>
       </c>
@@ -6132,14 +6144,14 @@
       <c r="U68">
         <v>10</v>
       </c>
-      <c r="AE68" s="3" t="s">
+      <c r="AG68" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF68" s="3" t="s">
+      <c r="AH68" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="2:32" ht="16">
+    <row r="69" spans="2:34" ht="16">
       <c r="B69" t="s">
         <v>86</v>
       </c>
@@ -6191,26 +6203,26 @@
       <c r="U69">
         <v>50</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Z69" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="AA69" t="s">
         <v>56</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="AE69" t="s">
         <v>144</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AF69" t="s">
         <v>150</v>
       </c>
-      <c r="AE69" s="3" t="s">
+      <c r="AG69" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF69" s="3" t="s">
+      <c r="AH69" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="2:32" ht="48">
+    <row r="70" spans="2:34" ht="48">
       <c r="B70" t="s">
         <v>86</v>
       </c>
@@ -6262,29 +6274,29 @@
       <c r="U70">
         <v>50</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Z70" t="s">
         <v>61</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="AA70" t="s">
         <v>62</v>
       </c>
-      <c r="Z70" s="3" t="s">
+      <c r="AB70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA70" s="3" t="s">
+      <c r="AC70" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AD70" t="s">
         <v>45</v>
       </c>
-      <c r="AE70" s="3" t="s">
+      <c r="AG70" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF70" s="3" t="s">
+      <c r="AH70" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="2:32" ht="16">
+    <row r="71" spans="2:34" ht="16">
       <c r="B71" t="s">
         <v>86</v>
       </c>
@@ -6336,14 +6348,14 @@
       <c r="U71">
         <v>3</v>
       </c>
-      <c r="AE71" s="3" t="s">
+      <c r="AG71" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF71" s="3" t="s">
+      <c r="AH71" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="2:32" ht="16">
+    <row r="72" spans="2:34" ht="16">
       <c r="B72" t="s">
         <v>86</v>
       </c>
@@ -6395,29 +6407,29 @@
       <c r="U72">
         <v>50</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Z72" t="s">
         <v>72</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="AA72" t="s">
         <v>73</v>
       </c>
-      <c r="Z72" s="3" t="s">
+      <c r="AB72" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA72" s="3" t="s">
+      <c r="AC72" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AD72" t="s">
         <v>45</v>
       </c>
-      <c r="AE72" s="3" t="s">
+      <c r="AG72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF72" s="3" t="s">
+      <c r="AH72" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="2:32" ht="16">
+    <row r="73" spans="2:34" ht="16">
       <c r="B73" t="s">
         <v>91</v>
       </c>
@@ -6469,14 +6481,14 @@
       <c r="U73">
         <v>10</v>
       </c>
-      <c r="AE73" s="3" t="s">
+      <c r="AG73" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF73" s="3" t="s">
+      <c r="AH73" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="2:32" ht="16">
+    <row r="74" spans="2:34" ht="16">
       <c r="B74" t="s">
         <v>91</v>
       </c>
@@ -6528,26 +6540,26 @@
       <c r="U74">
         <v>50</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Z74" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="AA74" t="s">
         <v>56</v>
       </c>
-      <c r="AC74" t="s">
+      <c r="AE74" t="s">
         <v>144</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AF74" t="s">
         <v>150</v>
       </c>
-      <c r="AE74" s="3" t="s">
+      <c r="AG74" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF74" s="3" t="s">
+      <c r="AH74" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="2:32" ht="48">
+    <row r="75" spans="2:34" ht="48">
       <c r="B75" t="s">
         <v>91</v>
       </c>
@@ -6599,29 +6611,29 @@
       <c r="U75">
         <v>50</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Z75" t="s">
         <v>61</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="AA75" t="s">
         <v>62</v>
       </c>
-      <c r="Z75" s="3" t="s">
+      <c r="AB75" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA75" s="3" t="s">
+      <c r="AC75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AD75" t="s">
         <v>45</v>
       </c>
-      <c r="AE75" s="3" t="s">
+      <c r="AG75" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF75" s="3" t="s">
+      <c r="AH75" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="2:32" ht="16">
+    <row r="76" spans="2:34" ht="16">
       <c r="B76" t="s">
         <v>91</v>
       </c>
@@ -6673,14 +6685,14 @@
       <c r="U76">
         <v>3</v>
       </c>
-      <c r="AE76" s="3" t="s">
+      <c r="AG76" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF76" s="3" t="s">
+      <c r="AH76" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="2:32" ht="16">
+    <row r="77" spans="2:34" ht="16">
       <c r="B77" t="s">
         <v>91</v>
       </c>
@@ -6732,29 +6744,29 @@
       <c r="U77">
         <v>50</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Z77" t="s">
         <v>72</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="AA77" t="s">
         <v>73</v>
       </c>
-      <c r="Z77" s="3" t="s">
+      <c r="AB77" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA77" s="3" t="s">
+      <c r="AC77" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AD77" t="s">
         <v>45</v>
       </c>
-      <c r="AE77" s="3" t="s">
+      <c r="AG77" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF77" s="3" t="s">
+      <c r="AH77" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="2:32" ht="16">
+    <row r="78" spans="2:34" ht="16">
       <c r="B78" t="s">
         <v>96</v>
       </c>
@@ -6806,14 +6818,14 @@
       <c r="U78">
         <v>10</v>
       </c>
-      <c r="AE78" s="3" t="s">
+      <c r="AG78" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF78" s="3" t="s">
+      <c r="AH78" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="2:32" ht="16">
+    <row r="79" spans="2:34" ht="16">
       <c r="B79" t="s">
         <v>96</v>
       </c>
@@ -6865,26 +6877,26 @@
       <c r="U79">
         <v>50</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Z79" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="AA79" t="s">
         <v>56</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="AE79" t="s">
         <v>144</v>
       </c>
-      <c r="AD79" t="s">
+      <c r="AF79" t="s">
         <v>150</v>
       </c>
-      <c r="AE79" s="3" t="s">
+      <c r="AG79" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF79" s="3" t="s">
+      <c r="AH79" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="2:32" ht="48">
+    <row r="80" spans="2:34" ht="48">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -6936,29 +6948,29 @@
       <c r="U80">
         <v>50</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Z80" t="s">
         <v>61</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="AA80" t="s">
         <v>62</v>
       </c>
-      <c r="Z80" s="3" t="s">
+      <c r="AB80" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA80" s="3" t="s">
+      <c r="AC80" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AD80" t="s">
         <v>45</v>
       </c>
-      <c r="AE80" s="3" t="s">
+      <c r="AG80" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF80" s="3" t="s">
+      <c r="AH80" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:32" ht="16">
+    <row r="81" spans="2:34" ht="16">
       <c r="B81" t="s">
         <v>96</v>
       </c>
@@ -7010,14 +7022,14 @@
       <c r="U81">
         <v>3</v>
       </c>
-      <c r="AE81" s="3" t="s">
+      <c r="AG81" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF81" s="3" t="s">
+      <c r="AH81" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="2:32" ht="16">
+    <row r="82" spans="2:34" ht="16">
       <c r="B82" t="s">
         <v>96</v>
       </c>
@@ -7069,29 +7081,29 @@
       <c r="U82">
         <v>50</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Z82" t="s">
         <v>72</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="AA82" t="s">
         <v>73</v>
       </c>
-      <c r="Z82" s="3" t="s">
+      <c r="AB82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA82" s="3" t="s">
+      <c r="AC82" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AD82" t="s">
         <v>45</v>
       </c>
-      <c r="AE82" s="3" t="s">
+      <c r="AG82" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF82" s="3" t="s">
+      <c r="AH82" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:32" ht="16">
+    <row r="83" spans="2:34" ht="16">
       <c r="B83" t="s">
         <v>101</v>
       </c>
@@ -7143,14 +7155,14 @@
       <c r="U83">
         <v>10</v>
       </c>
-      <c r="AE83" s="3" t="s">
+      <c r="AG83" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF83" s="3" t="s">
+      <c r="AH83" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="2:32" ht="16">
+    <row r="84" spans="2:34" ht="16">
       <c r="B84" t="s">
         <v>101</v>
       </c>
@@ -7202,26 +7214,26 @@
       <c r="U84">
         <v>50</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Z84" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="AA84" t="s">
         <v>56</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AE84" t="s">
         <v>144</v>
       </c>
-      <c r="AD84" t="s">
+      <c r="AF84" t="s">
         <v>150</v>
       </c>
-      <c r="AE84" s="3" t="s">
+      <c r="AG84" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF84" s="3" t="s">
+      <c r="AH84" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="2:32" ht="48">
+    <row r="85" spans="2:34" ht="48">
       <c r="B85" t="s">
         <v>101</v>
       </c>
@@ -7273,29 +7285,29 @@
       <c r="U85">
         <v>50</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Z85" t="s">
         <v>61</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="AA85" t="s">
         <v>62</v>
       </c>
-      <c r="Z85" s="3" t="s">
+      <c r="AB85" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA85" s="3" t="s">
+      <c r="AC85" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AD85" t="s">
         <v>45</v>
       </c>
-      <c r="AE85" s="3" t="s">
+      <c r="AG85" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF85" s="3" t="s">
+      <c r="AH85" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="2:32" ht="16">
+    <row r="86" spans="2:34" ht="16">
       <c r="B86" t="s">
         <v>101</v>
       </c>
@@ -7347,14 +7359,14 @@
       <c r="U86">
         <v>3</v>
       </c>
-      <c r="AE86" s="3" t="s">
+      <c r="AG86" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF86" s="3" t="s">
+      <c r="AH86" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="2:32" ht="16">
+    <row r="87" spans="2:34" ht="16">
       <c r="B87" t="s">
         <v>101</v>
       </c>
@@ -7406,29 +7418,29 @@
       <c r="U87">
         <v>50</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Z87" t="s">
         <v>72</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="AA87" t="s">
         <v>73</v>
       </c>
-      <c r="Z87" s="3" t="s">
+      <c r="AB87" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA87" s="3" t="s">
+      <c r="AC87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AD87" t="s">
         <v>45</v>
       </c>
-      <c r="AE87" s="3" t="s">
+      <c r="AG87" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF87" s="3" t="s">
+      <c r="AH87" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="2:32" ht="32">
+    <row r="88" spans="2:34" ht="32">
       <c r="B88" t="s">
         <v>106</v>
       </c>
@@ -7480,14 +7492,14 @@
       <c r="U88">
         <v>10</v>
       </c>
-      <c r="AE88" s="3" t="s">
+      <c r="AG88" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF88" s="3" t="s">
+      <c r="AH88" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="2:32" ht="32">
+    <row r="89" spans="2:34" ht="32">
       <c r="B89" t="s">
         <v>106</v>
       </c>
@@ -7539,26 +7551,26 @@
       <c r="U89">
         <v>50</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Z89" t="s">
         <v>58</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="AA89" t="s">
         <v>56</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="AE89" t="s">
         <v>144</v>
       </c>
-      <c r="AD89" t="s">
+      <c r="AF89" t="s">
         <v>150</v>
       </c>
-      <c r="AE89" s="3" t="s">
+      <c r="AG89" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF89" s="3" t="s">
+      <c r="AH89" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="2:32" ht="48">
+    <row r="90" spans="2:34" ht="48">
       <c r="B90" t="s">
         <v>106</v>
       </c>
@@ -7610,29 +7622,29 @@
       <c r="U90">
         <v>50</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Z90" t="s">
         <v>61</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="AA90" t="s">
         <v>62</v>
       </c>
-      <c r="Z90" s="3" t="s">
+      <c r="AB90" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA90" s="3" t="s">
+      <c r="AC90" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AD90" t="s">
         <v>45</v>
       </c>
-      <c r="AE90" s="3" t="s">
+      <c r="AG90" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF90" s="3" t="s">
+      <c r="AH90" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="2:32" ht="32">
+    <row r="91" spans="2:34" ht="32">
       <c r="B91" t="s">
         <v>106</v>
       </c>
@@ -7684,14 +7696,14 @@
       <c r="U91">
         <v>3</v>
       </c>
-      <c r="AE91" s="3" t="s">
+      <c r="AG91" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF91" s="3" t="s">
+      <c r="AH91" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="2:32" ht="32">
+    <row r="92" spans="2:34" ht="32">
       <c r="B92" t="s">
         <v>106</v>
       </c>
@@ -7743,29 +7755,29 @@
       <c r="U92">
         <v>50</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Z92" t="s">
         <v>72</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="AA92" t="s">
         <v>73</v>
       </c>
-      <c r="Z92" s="3" t="s">
+      <c r="AB92" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA92" s="3" t="s">
+      <c r="AC92" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AD92" t="s">
         <v>45</v>
       </c>
-      <c r="AE92" s="3" t="s">
+      <c r="AG92" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF92" s="3" t="s">
+      <c r="AH92" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="2:32" ht="16">
+    <row r="93" spans="2:34" ht="16">
       <c r="B93" t="s">
         <v>111</v>
       </c>
@@ -7817,14 +7829,14 @@
       <c r="U93">
         <v>10</v>
       </c>
-      <c r="AE93" s="3" t="s">
+      <c r="AG93" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF93" s="3" t="s">
+      <c r="AH93" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="2:32" ht="32">
+    <row r="94" spans="2:34" ht="32">
       <c r="B94" t="s">
         <v>111</v>
       </c>
@@ -7876,29 +7888,29 @@
       <c r="U94">
         <v>50</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Z94" t="s">
         <v>115</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="AA94" t="s">
         <v>116</v>
       </c>
-      <c r="Z94" s="3" t="s">
+      <c r="AB94" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AA94" s="3" t="s">
+      <c r="AC94" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AD94" t="s">
         <v>45</v>
       </c>
-      <c r="AE94" s="3" t="s">
+      <c r="AG94" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF94" s="3" t="s">
+      <c r="AH94" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="2:32" ht="16">
+    <row r="95" spans="2:34" ht="16">
       <c r="B95" t="s">
         <v>111</v>
       </c>
@@ -7950,29 +7962,29 @@
       <c r="U95">
         <v>1</v>
       </c>
-      <c r="X95" t="s">
+      <c r="Z95" t="s">
         <v>41</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="AA95" t="s">
         <v>42</v>
       </c>
-      <c r="Z95" s="3" t="s">
+      <c r="AB95" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA95" s="3" t="s">
+      <c r="AC95" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AD95" t="s">
         <v>45</v>
       </c>
-      <c r="AE95" s="3" t="s">
+      <c r="AG95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AF95" s="3" t="s">
+      <c r="AH95" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="2:32" ht="48">
+    <row r="96" spans="2:34" ht="48">
       <c r="B96" t="s">
         <v>111</v>
       </c>
@@ -8024,29 +8036,29 @@
       <c r="U96">
         <v>50</v>
       </c>
-      <c r="X96" t="s">
+      <c r="Z96" t="s">
         <v>125</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="AA96" t="s">
         <v>126</v>
       </c>
-      <c r="Z96" s="3" t="s">
+      <c r="AB96" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AA96" s="3" t="s">
+      <c r="AC96" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AD96" t="s">
         <v>45</v>
       </c>
-      <c r="AE96" s="3" t="s">
+      <c r="AG96" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AF96" s="3" t="s">
+      <c r="AH96" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="2:32" ht="16">
+    <row r="97" spans="2:34" ht="16">
       <c r="B97" t="s">
         <v>210</v>
       </c>
@@ -8098,14 +8110,14 @@
       <c r="U97">
         <v>10</v>
       </c>
-      <c r="AE97" s="3" t="s">
+      <c r="AG97" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF97" s="3" t="s">
+      <c r="AH97" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="2:32" ht="16">
+    <row r="98" spans="2:34" ht="16">
       <c r="B98" t="s">
         <v>210</v>
       </c>
@@ -8157,26 +8169,26 @@
       <c r="U98">
         <v>50</v>
       </c>
-      <c r="X98" t="s">
+      <c r="Z98" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="AA98" t="s">
         <v>56</v>
       </c>
-      <c r="AC98" t="s">
+      <c r="AE98" t="s">
         <v>144</v>
       </c>
-      <c r="AD98" t="s">
+      <c r="AF98" t="s">
         <v>150</v>
       </c>
-      <c r="AE98" s="3" t="s">
+      <c r="AG98" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF98" s="3" t="s">
+      <c r="AH98" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="2:32" ht="48">
+    <row r="99" spans="2:34" ht="48">
       <c r="B99" t="s">
         <v>210</v>
       </c>
@@ -8228,29 +8240,29 @@
       <c r="U99">
         <v>50</v>
       </c>
-      <c r="X99" t="s">
+      <c r="Z99" t="s">
         <v>61</v>
       </c>
-      <c r="Y99" t="s">
+      <c r="AA99" t="s">
         <v>62</v>
       </c>
-      <c r="Z99" s="3" t="s">
+      <c r="AB99" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA99" s="3" t="s">
+      <c r="AC99" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB99" t="s">
+      <c r="AD99" t="s">
         <v>45</v>
       </c>
-      <c r="AE99" s="3" t="s">
+      <c r="AG99" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF99" s="3" t="s">
+      <c r="AH99" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="2:32" ht="16">
+    <row r="100" spans="2:34" ht="16">
       <c r="B100" t="s">
         <v>210</v>
       </c>
@@ -8300,7 +8312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:32" ht="16">
+    <row r="101" spans="2:34" ht="16">
       <c r="B101" t="s">
         <v>210</v>
       </c>
@@ -8352,26 +8364,26 @@
       <c r="U101">
         <v>40</v>
       </c>
-      <c r="X101" t="s">
+      <c r="Z101" t="s">
         <v>191</v>
       </c>
-      <c r="Y101" t="s">
+      <c r="AA101" t="s">
         <v>186</v>
       </c>
-      <c r="AC101" t="s">
+      <c r="AE101" t="s">
         <v>216</v>
       </c>
-      <c r="AD101" s="6" t="s">
+      <c r="AF101" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AE101" s="3" t="s">
+      <c r="AG101" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF101" s="3" t="s">
+      <c r="AH101" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="2:32" ht="16">
+    <row r="102" spans="2:34" ht="16">
       <c r="B102" t="s">
         <v>210</v>
       </c>
@@ -8423,14 +8435,14 @@
       <c r="U102">
         <v>3</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AG102" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF102" s="3" t="s">
+      <c r="AH102" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="2:32" ht="16">
+    <row r="103" spans="2:34" ht="16">
       <c r="B103" t="s">
         <v>210</v>
       </c>
@@ -8482,27 +8494,27 @@
       <c r="U103">
         <v>50</v>
       </c>
-      <c r="X103" t="s">
+      <c r="Z103" t="s">
         <v>72</v>
       </c>
-      <c r="Y103" t="s">
+      <c r="AA103" t="s">
         <v>73</v>
       </c>
-      <c r="AB103" s="5"/>
-      <c r="AC103" t="s">
+      <c r="AD103" s="5"/>
+      <c r="AE103" t="s">
         <v>214</v>
       </c>
-      <c r="AD103" s="6" t="s">
+      <c r="AF103" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AE103" s="3" t="s">
+      <c r="AG103" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF103" s="3" t="s">
+      <c r="AH103" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="2:32" ht="16">
+    <row r="104" spans="2:34" ht="16">
       <c r="B104" t="s">
         <v>210</v>
       </c>
@@ -8554,14 +8566,14 @@
       <c r="U104">
         <v>10</v>
       </c>
-      <c r="AE104" s="3" t="s">
+      <c r="AG104" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF104" s="3" t="s">
+      <c r="AH104" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="2:32" ht="16">
+    <row r="105" spans="2:34" ht="16">
       <c r="B105" t="s">
         <v>210</v>
       </c>
@@ -8613,26 +8625,26 @@
       <c r="U105">
         <v>50</v>
       </c>
-      <c r="X105" t="s">
+      <c r="Z105" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" t="s">
+      <c r="AA105" t="s">
         <v>56</v>
       </c>
-      <c r="AC105" t="s">
+      <c r="AE105" t="s">
         <v>144</v>
       </c>
-      <c r="AD105" t="s">
+      <c r="AF105" t="s">
         <v>150</v>
       </c>
-      <c r="AE105" s="3" t="s">
+      <c r="AG105" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF105" s="3" t="s">
+      <c r="AH105" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="2:32" ht="48">
+    <row r="106" spans="2:34" ht="48">
       <c r="B106" t="s">
         <v>210</v>
       </c>
@@ -8684,29 +8696,29 @@
       <c r="U106">
         <v>50</v>
       </c>
-      <c r="X106" t="s">
+      <c r="Z106" t="s">
         <v>61</v>
       </c>
-      <c r="Y106" t="s">
+      <c r="AA106" t="s">
         <v>62</v>
       </c>
-      <c r="Z106" s="3" t="s">
+      <c r="AB106" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA106" s="3" t="s">
+      <c r="AC106" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB106" t="s">
+      <c r="AD106" t="s">
         <v>45</v>
       </c>
-      <c r="AE106" s="3" t="s">
+      <c r="AG106" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF106" s="3" t="s">
+      <c r="AH106" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="2:32" ht="16">
+    <row r="107" spans="2:34" ht="16">
       <c r="B107" t="s">
         <v>210</v>
       </c>
@@ -8758,14 +8770,14 @@
       <c r="U107">
         <v>3</v>
       </c>
-      <c r="AE107" s="3" t="s">
+      <c r="AG107" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF107" s="3" t="s">
+      <c r="AH107" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="2:32" ht="16">
+    <row r="108" spans="2:34" ht="16">
       <c r="B108" t="s">
         <v>210</v>
       </c>
@@ -8817,27 +8829,27 @@
       <c r="U108">
         <v>50</v>
       </c>
-      <c r="X108" t="s">
+      <c r="Z108" t="s">
         <v>72</v>
       </c>
-      <c r="Y108" t="s">
+      <c r="AA108" t="s">
         <v>73</v>
       </c>
-      <c r="AB108" s="5"/>
-      <c r="AC108" t="s">
+      <c r="AD108" s="5"/>
+      <c r="AE108" t="s">
         <v>214</v>
       </c>
-      <c r="AD108" s="6" t="s">
+      <c r="AF108" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AE108" s="3" t="s">
+      <c r="AG108" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF108" s="3" t="s">
+      <c r="AH108" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="2:32" ht="16">
+    <row r="109" spans="2:34" ht="16">
       <c r="B109" s="4" t="s">
         <v>248</v>
       </c>
@@ -8889,14 +8901,14 @@
       <c r="U109">
         <v>10</v>
       </c>
-      <c r="AE109" s="3" t="s">
+      <c r="AG109" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF109" s="3" t="s">
+      <c r="AH109" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:32" ht="16">
+    <row r="110" spans="2:34" ht="16">
       <c r="B110" s="4" t="s">
         <v>248</v>
       </c>
@@ -8948,26 +8960,26 @@
       <c r="U110">
         <v>50</v>
       </c>
-      <c r="X110" t="s">
+      <c r="Z110" t="s">
         <v>58</v>
       </c>
-      <c r="Y110" t="s">
+      <c r="AA110" t="s">
         <v>56</v>
       </c>
-      <c r="AC110" t="s">
+      <c r="AE110" t="s">
         <v>144</v>
       </c>
-      <c r="AD110" t="s">
+      <c r="AF110" t="s">
         <v>150</v>
       </c>
-      <c r="AE110" s="3" t="s">
+      <c r="AG110" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF110" s="3" t="s">
+      <c r="AH110" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="2:32" ht="48">
+    <row r="111" spans="2:34" ht="48">
       <c r="B111" s="4" t="s">
         <v>248</v>
       </c>
@@ -9019,29 +9031,29 @@
       <c r="U111">
         <v>50</v>
       </c>
-      <c r="X111" t="s">
+      <c r="Z111" t="s">
         <v>61</v>
       </c>
-      <c r="Y111" t="s">
+      <c r="AA111" t="s">
         <v>62</v>
       </c>
-      <c r="Z111" s="3" t="s">
+      <c r="AB111" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA111" s="3" t="s">
+      <c r="AC111" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB111" t="s">
+      <c r="AD111" t="s">
         <v>45</v>
       </c>
-      <c r="AE111" s="3" t="s">
+      <c r="AG111" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF111" s="3" t="s">
+      <c r="AH111" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="2:32" ht="16">
+    <row r="112" spans="2:34" ht="16">
       <c r="B112" s="4" t="s">
         <v>248</v>
       </c>
@@ -9091,7 +9103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="2:32" ht="16">
+    <row r="113" spans="2:34" ht="16">
       <c r="B113" s="4" t="s">
         <v>248</v>
       </c>
@@ -9143,26 +9155,26 @@
       <c r="U113">
         <v>40</v>
       </c>
-      <c r="X113" t="s">
+      <c r="Z113" t="s">
         <v>191</v>
       </c>
-      <c r="Y113" t="s">
+      <c r="AA113" t="s">
         <v>186</v>
       </c>
-      <c r="AC113" t="s">
+      <c r="AE113" t="s">
         <v>229</v>
       </c>
-      <c r="AD113" s="6" t="s">
+      <c r="AF113" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AE113" s="3" t="s">
+      <c r="AG113" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF113" s="3" t="s">
+      <c r="AH113" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="2:32" ht="16">
+    <row r="114" spans="2:34" ht="16">
       <c r="B114" s="4" t="s">
         <v>248</v>
       </c>
@@ -9214,14 +9226,14 @@
       <c r="U114">
         <v>3</v>
       </c>
-      <c r="AE114" s="3" t="s">
+      <c r="AG114" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF114" s="3" t="s">
+      <c r="AH114" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="2:32" ht="16">
+    <row r="115" spans="2:34" ht="16">
       <c r="B115" s="4" t="s">
         <v>248</v>
       </c>
@@ -9273,22 +9285,22 @@
       <c r="U115">
         <v>50</v>
       </c>
-      <c r="X115" t="s">
+      <c r="Z115" t="s">
         <v>72</v>
       </c>
-      <c r="Y115" t="s">
+      <c r="AA115" t="s">
         <v>73</v>
       </c>
-      <c r="AB115" s="5"/>
-      <c r="AD115" s="6"/>
-      <c r="AE115" s="3" t="s">
+      <c r="AD115" s="5"/>
+      <c r="AF115" s="6"/>
+      <c r="AG115" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF115" s="3" t="s">
+      <c r="AH115" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="2:32" ht="16">
+    <row r="116" spans="2:34" ht="16">
       <c r="B116" s="4" t="s">
         <v>248</v>
       </c>
@@ -9340,14 +9352,14 @@
       <c r="U116">
         <v>10</v>
       </c>
-      <c r="AE116" s="3" t="s">
+      <c r="AG116" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF116" s="3" t="s">
+      <c r="AH116" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="2:32" ht="16">
+    <row r="117" spans="2:34" ht="16">
       <c r="B117" s="4" t="s">
         <v>248</v>
       </c>
@@ -9399,26 +9411,26 @@
       <c r="U117">
         <v>50</v>
       </c>
-      <c r="X117" t="s">
+      <c r="Z117" t="s">
         <v>58</v>
       </c>
-      <c r="Y117" t="s">
+      <c r="AA117" t="s">
         <v>56</v>
       </c>
-      <c r="AC117" t="s">
+      <c r="AE117" t="s">
         <v>144</v>
       </c>
-      <c r="AD117" t="s">
+      <c r="AF117" t="s">
         <v>150</v>
       </c>
-      <c r="AE117" s="3" t="s">
+      <c r="AG117" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF117" s="3" t="s">
+      <c r="AH117" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="2:32" ht="48">
+    <row r="118" spans="2:34" ht="48">
       <c r="B118" s="4" t="s">
         <v>248</v>
       </c>
@@ -9470,29 +9482,29 @@
       <c r="U118">
         <v>50</v>
       </c>
-      <c r="X118" t="s">
+      <c r="Z118" t="s">
         <v>61</v>
       </c>
-      <c r="Y118" t="s">
+      <c r="AA118" t="s">
         <v>62</v>
       </c>
-      <c r="Z118" s="3" t="s">
+      <c r="AB118" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA118" s="3" t="s">
+      <c r="AC118" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB118" t="s">
+      <c r="AD118" t="s">
         <v>45</v>
       </c>
-      <c r="AE118" s="3" t="s">
+      <c r="AG118" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF118" s="3" t="s">
+      <c r="AH118" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="2:32" ht="16">
+    <row r="119" spans="2:34" ht="16">
       <c r="B119" s="4" t="s">
         <v>248</v>
       </c>
@@ -9544,14 +9556,14 @@
       <c r="U119">
         <v>3</v>
       </c>
-      <c r="AE119" s="3" t="s">
+      <c r="AG119" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF119" s="3" t="s">
+      <c r="AH119" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="2:32" ht="16">
+    <row r="120" spans="2:34" ht="16">
       <c r="B120" s="4" t="s">
         <v>248</v>
       </c>
@@ -9603,22 +9615,22 @@
       <c r="U120">
         <v>50</v>
       </c>
-      <c r="X120" t="s">
+      <c r="Z120" t="s">
         <v>72</v>
       </c>
-      <c r="Y120" t="s">
+      <c r="AA120" t="s">
         <v>73</v>
       </c>
-      <c r="AB120" s="5"/>
-      <c r="AD120" s="6"/>
-      <c r="AE120" s="3" t="s">
+      <c r="AD120" s="5"/>
+      <c r="AF120" s="6"/>
+      <c r="AG120" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF120" s="3" t="s">
+      <c r="AH120" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="2:32" ht="16">
+    <row r="121" spans="2:34" ht="16">
       <c r="B121" s="4" t="s">
         <v>249</v>
       </c>
@@ -9670,14 +9682,14 @@
       <c r="U121">
         <v>10</v>
       </c>
-      <c r="AE121" s="3" t="s">
+      <c r="AG121" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF121" s="3" t="s">
+      <c r="AH121" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="2:32" ht="16">
+    <row r="122" spans="2:34" ht="16">
       <c r="B122" s="4" t="s">
         <v>249</v>
       </c>
@@ -9729,26 +9741,26 @@
       <c r="U122">
         <v>50</v>
       </c>
-      <c r="X122" t="s">
+      <c r="Z122" t="s">
         <v>58</v>
       </c>
-      <c r="Y122" t="s">
+      <c r="AA122" t="s">
         <v>56</v>
       </c>
-      <c r="AC122" t="s">
+      <c r="AE122" t="s">
         <v>144</v>
       </c>
-      <c r="AD122" t="s">
+      <c r="AF122" t="s">
         <v>150</v>
       </c>
-      <c r="AE122" s="3" t="s">
+      <c r="AG122" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF122" s="3" t="s">
+      <c r="AH122" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="2:32" ht="32">
+    <row r="123" spans="2:34" ht="32">
       <c r="B123" s="4" t="s">
         <v>249</v>
       </c>
@@ -9800,14 +9812,14 @@
       <c r="U123">
         <v>200</v>
       </c>
-      <c r="AE123" s="3" t="s">
+      <c r="AG123" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF123" s="3" t="s">
+      <c r="AH123" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="2:32" ht="64">
+    <row r="124" spans="2:34" ht="64">
       <c r="B124" s="4" t="s">
         <v>249</v>
       </c>
@@ -9859,30 +9871,30 @@
       <c r="U124">
         <v>100</v>
       </c>
-      <c r="X124" t="s">
+      <c r="Z124" t="s">
         <v>125</v>
       </c>
-      <c r="Y124" s="6" t="s">
+      <c r="AA124" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Z124" s="7" t="s">
+      <c r="AB124" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="AA124" s="7" t="s">
+      <c r="AC124" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="AB124" t="s">
+      <c r="AD124" t="s">
         <v>45</v>
       </c>
-      <c r="AD124" s="6"/>
-      <c r="AE124" s="3" t="s">
+      <c r="AF124" s="6"/>
+      <c r="AG124" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AF124" s="3" t="s">
+      <c r="AH124" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:32" ht="32">
+    <row r="125" spans="2:34" ht="32">
       <c r="B125" t="s">
         <v>246</v>
       </c>
@@ -9934,14 +9946,14 @@
       <c r="U125">
         <v>10</v>
       </c>
-      <c r="AE125" s="3" t="s">
+      <c r="AG125" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF125" s="3" t="s">
+      <c r="AH125" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="2:32" ht="32">
+    <row r="126" spans="2:34" ht="32">
       <c r="B126" t="s">
         <v>246</v>
       </c>
@@ -9993,26 +10005,26 @@
       <c r="U126">
         <v>50</v>
       </c>
-      <c r="X126" t="s">
+      <c r="Z126" t="s">
         <v>58</v>
       </c>
-      <c r="Y126" t="s">
+      <c r="AA126" t="s">
         <v>56</v>
       </c>
-      <c r="AC126" t="s">
+      <c r="AE126" t="s">
         <v>144</v>
       </c>
-      <c r="AD126" t="s">
+      <c r="AF126" t="s">
         <v>150</v>
       </c>
-      <c r="AE126" s="3" t="s">
+      <c r="AG126" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF126" s="3" t="s">
+      <c r="AH126" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="2:32" ht="48">
+    <row r="127" spans="2:34" ht="48">
       <c r="B127" t="s">
         <v>246</v>
       </c>
@@ -10064,29 +10076,29 @@
       <c r="U127">
         <v>50</v>
       </c>
-      <c r="X127" t="s">
+      <c r="Z127" t="s">
         <v>61</v>
       </c>
-      <c r="Y127" t="s">
+      <c r="AA127" t="s">
         <v>62</v>
       </c>
-      <c r="Z127" s="3" t="s">
+      <c r="AB127" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA127" s="3" t="s">
+      <c r="AC127" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB127" t="s">
+      <c r="AD127" t="s">
         <v>45</v>
       </c>
-      <c r="AE127" s="3" t="s">
+      <c r="AG127" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF127" s="3" t="s">
+      <c r="AH127" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="2:32" ht="32">
+    <row r="128" spans="2:34" ht="32">
       <c r="B128" t="s">
         <v>246</v>
       </c>
@@ -10136,7 +10148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="2:32" ht="32">
+    <row r="129" spans="2:34" ht="32">
       <c r="B129" t="s">
         <v>246</v>
       </c>
@@ -10188,26 +10200,26 @@
       <c r="U129">
         <v>40</v>
       </c>
-      <c r="X129" t="s">
+      <c r="Z129" t="s">
         <v>191</v>
       </c>
-      <c r="Y129" t="s">
+      <c r="AA129" t="s">
         <v>186</v>
       </c>
-      <c r="AC129" t="s">
+      <c r="AE129" t="s">
         <v>253</v>
       </c>
-      <c r="AD129" s="6" t="s">
+      <c r="AF129" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="AE129" s="3" t="s">
+      <c r="AG129" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF129" s="3" t="s">
+      <c r="AH129" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="2:32" ht="32">
+    <row r="130" spans="2:34" ht="32">
       <c r="B130" t="s">
         <v>246</v>
       </c>
@@ -10259,14 +10271,14 @@
       <c r="U130">
         <v>200</v>
       </c>
-      <c r="AE130" s="3" t="s">
+      <c r="AG130" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF130" s="3" t="s">
+      <c r="AH130" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="2:32" ht="32">
+    <row r="131" spans="2:34" ht="32">
       <c r="B131" t="s">
         <v>246</v>
       </c>
@@ -10318,14 +10330,14 @@
       <c r="U131">
         <v>10</v>
       </c>
-      <c r="AE131" s="3" t="s">
+      <c r="AG131" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF131" s="3" t="s">
+      <c r="AH131" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="2:32" ht="32">
+    <row r="132" spans="2:34" ht="32">
       <c r="B132" t="s">
         <v>246</v>
       </c>
@@ -10377,26 +10389,26 @@
       <c r="U132">
         <v>50</v>
       </c>
-      <c r="X132" t="s">
+      <c r="Z132" t="s">
         <v>58</v>
       </c>
-      <c r="Y132" t="s">
+      <c r="AA132" t="s">
         <v>56</v>
       </c>
-      <c r="AC132" t="s">
+      <c r="AE132" t="s">
         <v>144</v>
       </c>
-      <c r="AD132" t="s">
+      <c r="AF132" t="s">
         <v>150</v>
       </c>
-      <c r="AE132" s="3" t="s">
+      <c r="AG132" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF132" s="3" t="s">
+      <c r="AH132" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="2:32" ht="48">
+    <row r="133" spans="2:34" ht="48">
       <c r="B133" t="s">
         <v>246</v>
       </c>
@@ -10448,29 +10460,29 @@
       <c r="U133">
         <v>50</v>
       </c>
-      <c r="X133" t="s">
+      <c r="Z133" t="s">
         <v>61</v>
       </c>
-      <c r="Y133" t="s">
+      <c r="AA133" t="s">
         <v>62</v>
       </c>
-      <c r="Z133" s="3" t="s">
+      <c r="AB133" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA133" s="3" t="s">
+      <c r="AC133" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB133" t="s">
+      <c r="AD133" t="s">
         <v>45</v>
       </c>
-      <c r="AE133" s="3" t="s">
+      <c r="AG133" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF133" s="3" t="s">
+      <c r="AH133" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="2:32" ht="32">
+    <row r="134" spans="2:34" ht="32">
       <c r="B134" t="s">
         <v>246</v>
       </c>
@@ -10522,14 +10534,14 @@
       <c r="U134">
         <v>200</v>
       </c>
-      <c r="AE134" s="3" t="s">
+      <c r="AG134" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF134" s="3" t="s">
+      <c r="AH134" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="2:32" ht="32">
+    <row r="135" spans="2:34" ht="32">
       <c r="B135" s="10" t="s">
         <v>247</v>
       </c>
@@ -10581,14 +10593,14 @@
       <c r="U135">
         <v>10</v>
       </c>
-      <c r="AE135" s="3" t="s">
+      <c r="AG135" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF135" s="3" t="s">
+      <c r="AH135" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="2:32" ht="32">
+    <row r="136" spans="2:34" ht="32">
       <c r="B136" s="10" t="s">
         <v>247</v>
       </c>
@@ -10640,26 +10652,26 @@
       <c r="U136">
         <v>50</v>
       </c>
-      <c r="X136" t="s">
+      <c r="Z136" t="s">
         <v>58</v>
       </c>
-      <c r="Y136" t="s">
+      <c r="AA136" t="s">
         <v>56</v>
       </c>
-      <c r="AC136" t="s">
+      <c r="AE136" t="s">
         <v>144</v>
       </c>
-      <c r="AD136" t="s">
+      <c r="AF136" t="s">
         <v>150</v>
       </c>
-      <c r="AE136" s="3" t="s">
+      <c r="AG136" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF136" s="3" t="s">
+      <c r="AH136" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="2:32" ht="48">
+    <row r="137" spans="2:34" ht="48">
       <c r="B137" s="10" t="s">
         <v>247</v>
       </c>
@@ -10711,29 +10723,29 @@
       <c r="U137">
         <v>50</v>
       </c>
-      <c r="X137" t="s">
+      <c r="Z137" t="s">
         <v>61</v>
       </c>
-      <c r="Y137" t="s">
+      <c r="AA137" t="s">
         <v>62</v>
       </c>
-      <c r="Z137" s="3" t="s">
+      <c r="AB137" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA137" s="3" t="s">
+      <c r="AC137" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB137" t="s">
+      <c r="AD137" t="s">
         <v>45</v>
       </c>
-      <c r="AE137" s="3" t="s">
+      <c r="AG137" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF137" s="3" t="s">
+      <c r="AH137" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="2:32" ht="32">
+    <row r="138" spans="2:34" ht="32">
       <c r="B138" s="10" t="s">
         <v>247</v>
       </c>
@@ -10783,7 +10795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="2:32" ht="32">
+    <row r="139" spans="2:34" ht="32">
       <c r="B139" s="10" t="s">
         <v>247</v>
       </c>
@@ -10835,26 +10847,26 @@
       <c r="U139">
         <v>40</v>
       </c>
-      <c r="X139" t="s">
+      <c r="Z139" t="s">
         <v>191</v>
       </c>
-      <c r="Y139" t="s">
+      <c r="AA139" t="s">
         <v>186</v>
       </c>
-      <c r="AC139" t="s">
+      <c r="AE139" t="s">
         <v>264</v>
       </c>
-      <c r="AD139" s="6" t="s">
+      <c r="AF139" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="AE139" s="3" t="s">
+      <c r="AG139" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF139" s="3" t="s">
+      <c r="AH139" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="140" spans="2:32" ht="32">
+    <row r="140" spans="2:34" ht="32">
       <c r="B140" s="10" t="s">
         <v>247</v>
       </c>
@@ -10906,14 +10918,14 @@
       <c r="U140">
         <v>200</v>
       </c>
-      <c r="AE140" s="3" t="s">
+      <c r="AG140" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF140" s="3" t="s">
+      <c r="AH140" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="2:32" ht="32">
+    <row r="141" spans="2:34" ht="32">
       <c r="B141" s="10" t="s">
         <v>247</v>
       </c>
@@ -10965,14 +10977,14 @@
       <c r="U141">
         <v>10</v>
       </c>
-      <c r="AE141" s="3" t="s">
+      <c r="AG141" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF141" s="3" t="s">
+      <c r="AH141" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="2:32" ht="32">
+    <row r="142" spans="2:34" ht="32">
       <c r="B142" s="10" t="s">
         <v>247</v>
       </c>
@@ -11024,26 +11036,26 @@
       <c r="U142">
         <v>50</v>
       </c>
-      <c r="X142" t="s">
+      <c r="Z142" t="s">
         <v>58</v>
       </c>
-      <c r="Y142" t="s">
+      <c r="AA142" t="s">
         <v>56</v>
       </c>
-      <c r="AC142" t="s">
+      <c r="AE142" t="s">
         <v>144</v>
       </c>
-      <c r="AD142" t="s">
+      <c r="AF142" t="s">
         <v>150</v>
       </c>
-      <c r="AE142" s="3" t="s">
+      <c r="AG142" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF142" s="3" t="s">
+      <c r="AH142" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="2:32" ht="48">
+    <row r="143" spans="2:34" ht="48">
       <c r="B143" s="10" t="s">
         <v>247</v>
       </c>
@@ -11095,29 +11107,29 @@
       <c r="U143">
         <v>50</v>
       </c>
-      <c r="X143" t="s">
+      <c r="Z143" t="s">
         <v>61</v>
       </c>
-      <c r="Y143" t="s">
+      <c r="AA143" t="s">
         <v>62</v>
       </c>
-      <c r="Z143" s="3" t="s">
+      <c r="AB143" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA143" s="3" t="s">
+      <c r="AC143" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB143" t="s">
+      <c r="AD143" t="s">
         <v>45</v>
       </c>
-      <c r="AE143" s="3" t="s">
+      <c r="AG143" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF143" s="3" t="s">
+      <c r="AH143" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="2:32" ht="32">
+    <row r="144" spans="2:34" ht="32">
       <c r="B144" s="10" t="s">
         <v>247</v>
       </c>
@@ -11169,14 +11181,14 @@
       <c r="U144">
         <v>200</v>
       </c>
-      <c r="AE144" s="3" t="s">
+      <c r="AG144" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF144" s="3" t="s">
+      <c r="AH144" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="2:32" ht="32">
+    <row r="145" spans="2:34" ht="32">
       <c r="B145" s="4" t="s">
         <v>267</v>
       </c>
@@ -11228,14 +11240,14 @@
       <c r="U145">
         <v>10</v>
       </c>
-      <c r="AE145" s="3" t="s">
+      <c r="AG145" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF145" s="3" t="s">
+      <c r="AH145" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="2:32" ht="32">
+    <row r="146" spans="2:34" ht="32">
       <c r="B146" s="4" t="s">
         <v>267</v>
       </c>
@@ -11287,26 +11299,26 @@
       <c r="U146">
         <v>50</v>
       </c>
-      <c r="X146" t="s">
+      <c r="Z146" t="s">
         <v>58</v>
       </c>
-      <c r="Y146" t="s">
+      <c r="AA146" t="s">
         <v>56</v>
       </c>
-      <c r="AC146" t="s">
+      <c r="AE146" t="s">
         <v>144</v>
       </c>
-      <c r="AD146" t="s">
+      <c r="AF146" t="s">
         <v>150</v>
       </c>
-      <c r="AE146" s="3" t="s">
+      <c r="AG146" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF146" s="3" t="s">
+      <c r="AH146" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="147" spans="2:32" ht="48">
+    <row r="147" spans="2:34" ht="48">
       <c r="B147" s="4" t="s">
         <v>267</v>
       </c>
@@ -11358,29 +11370,29 @@
       <c r="U147">
         <v>50</v>
       </c>
-      <c r="X147" t="s">
+      <c r="Z147" t="s">
         <v>61</v>
       </c>
-      <c r="Y147" t="s">
+      <c r="AA147" t="s">
         <v>62</v>
       </c>
-      <c r="Z147" s="3" t="s">
+      <c r="AB147" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA147" s="3" t="s">
+      <c r="AC147" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB147" t="s">
+      <c r="AD147" t="s">
         <v>45</v>
       </c>
-      <c r="AE147" s="3" t="s">
+      <c r="AG147" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF147" s="3" t="s">
+      <c r="AH147" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="2:32" ht="32">
+    <row r="148" spans="2:34" ht="32">
       <c r="B148" s="4" t="s">
         <v>267</v>
       </c>
@@ -11430,7 +11442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="2:32" ht="32">
+    <row r="149" spans="2:34" ht="32">
       <c r="B149" s="4" t="s">
         <v>267</v>
       </c>
@@ -11482,26 +11494,26 @@
       <c r="U149">
         <v>40</v>
       </c>
-      <c r="X149" t="s">
+      <c r="Z149" t="s">
         <v>191</v>
       </c>
-      <c r="Y149" t="s">
+      <c r="AA149" t="s">
         <v>186</v>
       </c>
-      <c r="AC149" t="s">
+      <c r="AE149" t="s">
         <v>272</v>
       </c>
-      <c r="AD149" s="6" t="s">
+      <c r="AF149" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AE149" s="3" t="s">
+      <c r="AG149" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF149" s="3" t="s">
+      <c r="AH149" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="2:32" ht="32">
+    <row r="150" spans="2:34" ht="32">
       <c r="B150" s="4" t="s">
         <v>267</v>
       </c>
@@ -11553,14 +11565,14 @@
       <c r="U150">
         <v>200</v>
       </c>
-      <c r="AE150" s="3" t="s">
+      <c r="AG150" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF150" s="3" t="s">
+      <c r="AH150" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="2:32" ht="32">
+    <row r="151" spans="2:34" ht="32">
       <c r="B151" s="4" t="s">
         <v>267</v>
       </c>
@@ -11612,14 +11624,14 @@
       <c r="U151">
         <v>10</v>
       </c>
-      <c r="AE151" s="3" t="s">
+      <c r="AG151" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF151" s="3" t="s">
+      <c r="AH151" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="2:32" ht="32">
+    <row r="152" spans="2:34" ht="32">
       <c r="B152" s="4" t="s">
         <v>267</v>
       </c>
@@ -11671,26 +11683,26 @@
       <c r="U152">
         <v>50</v>
       </c>
-      <c r="X152" t="s">
+      <c r="Z152" t="s">
         <v>58</v>
       </c>
-      <c r="Y152" t="s">
+      <c r="AA152" t="s">
         <v>56</v>
       </c>
-      <c r="AC152" t="s">
+      <c r="AE152" t="s">
         <v>144</v>
       </c>
-      <c r="AD152" t="s">
+      <c r="AF152" t="s">
         <v>150</v>
       </c>
-      <c r="AE152" s="3" t="s">
+      <c r="AG152" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF152" s="3" t="s">
+      <c r="AH152" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="153" spans="2:32" ht="48">
+    <row r="153" spans="2:34" ht="48">
       <c r="B153" s="4" t="s">
         <v>267</v>
       </c>
@@ -11742,29 +11754,29 @@
       <c r="U153">
         <v>50</v>
       </c>
-      <c r="X153" t="s">
+      <c r="Z153" t="s">
         <v>61</v>
       </c>
-      <c r="Y153" t="s">
+      <c r="AA153" t="s">
         <v>62</v>
       </c>
-      <c r="Z153" s="3" t="s">
+      <c r="AB153" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA153" s="3" t="s">
+      <c r="AC153" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB153" t="s">
+      <c r="AD153" t="s">
         <v>45</v>
       </c>
-      <c r="AE153" s="3" t="s">
+      <c r="AG153" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF153" s="3" t="s">
+      <c r="AH153" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="2:32" ht="32">
+    <row r="154" spans="2:34" ht="32">
       <c r="B154" s="4" t="s">
         <v>267</v>
       </c>
@@ -11816,14 +11828,14 @@
       <c r="U154">
         <v>200</v>
       </c>
-      <c r="AE154" s="3" t="s">
+      <c r="AG154" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF154" s="3" t="s">
+      <c r="AH154" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="2:32" ht="32">
+    <row r="155" spans="2:34" ht="32">
       <c r="B155" s="4" t="s">
         <v>277</v>
       </c>
@@ -11875,14 +11887,14 @@
       <c r="U155">
         <v>10</v>
       </c>
-      <c r="AE155" s="3" t="s">
+      <c r="AG155" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF155" s="3" t="s">
+      <c r="AH155" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="2:32" ht="32">
+    <row r="156" spans="2:34" ht="32">
       <c r="B156" s="4" t="s">
         <v>277</v>
       </c>
@@ -11934,26 +11946,26 @@
       <c r="U156">
         <v>50</v>
       </c>
-      <c r="X156" t="s">
+      <c r="Z156" t="s">
         <v>58</v>
       </c>
-      <c r="Y156" t="s">
+      <c r="AA156" t="s">
         <v>56</v>
       </c>
-      <c r="AC156" t="s">
+      <c r="AE156" t="s">
         <v>144</v>
       </c>
-      <c r="AD156" t="s">
+      <c r="AF156" t="s">
         <v>150</v>
       </c>
-      <c r="AE156" s="3" t="s">
+      <c r="AG156" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF156" s="3" t="s">
+      <c r="AH156" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="2:32" ht="48">
+    <row r="157" spans="2:34" ht="48">
       <c r="B157" s="4" t="s">
         <v>277</v>
       </c>
@@ -12005,29 +12017,29 @@
       <c r="U157">
         <v>50</v>
       </c>
-      <c r="X157" t="s">
+      <c r="Z157" t="s">
         <v>61</v>
       </c>
-      <c r="Y157" t="s">
+      <c r="AA157" t="s">
         <v>62</v>
       </c>
-      <c r="Z157" s="3" t="s">
+      <c r="AB157" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA157" s="3" t="s">
+      <c r="AC157" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB157" t="s">
+      <c r="AD157" t="s">
         <v>45</v>
       </c>
-      <c r="AE157" s="3" t="s">
+      <c r="AG157" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF157" s="3" t="s">
+      <c r="AH157" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="2:32" ht="32">
+    <row r="158" spans="2:34" ht="32">
       <c r="B158" s="4" t="s">
         <v>277</v>
       </c>
@@ -12077,7 +12089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="2:32" ht="32">
+    <row r="159" spans="2:34" ht="32">
       <c r="B159" s="4" t="s">
         <v>277</v>
       </c>
@@ -12129,26 +12141,26 @@
       <c r="U159">
         <v>40</v>
       </c>
-      <c r="X159" t="s">
+      <c r="Z159" t="s">
         <v>191</v>
       </c>
-      <c r="Y159" t="s">
+      <c r="AA159" t="s">
         <v>186</v>
       </c>
-      <c r="AC159" t="s">
+      <c r="AE159" t="s">
         <v>283</v>
       </c>
-      <c r="AD159" s="6" t="s">
+      <c r="AF159" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AE159" s="3" t="s">
+      <c r="AG159" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF159" s="3" t="s">
+      <c r="AH159" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="160" spans="2:32" ht="32">
+    <row r="160" spans="2:34" ht="32">
       <c r="B160" s="4" t="s">
         <v>277</v>
       </c>
@@ -12200,14 +12212,14 @@
       <c r="U160">
         <v>200</v>
       </c>
-      <c r="AE160" s="3" t="s">
+      <c r="AG160" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF160" s="3" t="s">
+      <c r="AH160" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="2:32" ht="48">
+    <row r="161" spans="2:34" ht="48">
       <c r="B161" s="4" t="s">
         <v>277</v>
       </c>
@@ -12259,14 +12271,14 @@
       <c r="U161">
         <v>10</v>
       </c>
-      <c r="AE161" s="3" t="s">
+      <c r="AG161" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF161" s="3" t="s">
+      <c r="AH161" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="2:32" ht="48">
+    <row r="162" spans="2:34" ht="48">
       <c r="B162" s="4" t="s">
         <v>277</v>
       </c>
@@ -12318,26 +12330,26 @@
       <c r="U162">
         <v>50</v>
       </c>
-      <c r="X162" t="s">
+      <c r="Z162" t="s">
         <v>58</v>
       </c>
-      <c r="Y162" t="s">
+      <c r="AA162" t="s">
         <v>56</v>
       </c>
-      <c r="AC162" t="s">
+      <c r="AE162" t="s">
         <v>144</v>
       </c>
-      <c r="AD162" t="s">
+      <c r="AF162" t="s">
         <v>150</v>
       </c>
-      <c r="AE162" s="3" t="s">
+      <c r="AG162" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF162" s="3" t="s">
+      <c r="AH162" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="2:32" ht="48">
+    <row r="163" spans="2:34" ht="48">
       <c r="B163" s="4" t="s">
         <v>277</v>
       </c>
@@ -12389,29 +12401,29 @@
       <c r="U163">
         <v>50</v>
       </c>
-      <c r="X163" t="s">
+      <c r="Z163" t="s">
         <v>61</v>
       </c>
-      <c r="Y163" t="s">
+      <c r="AA163" t="s">
         <v>62</v>
       </c>
-      <c r="Z163" s="3" t="s">
+      <c r="AB163" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA163" s="3" t="s">
+      <c r="AC163" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB163" t="s">
+      <c r="AD163" t="s">
         <v>45</v>
       </c>
-      <c r="AE163" s="3" t="s">
+      <c r="AG163" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF163" s="3" t="s">
+      <c r="AH163" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="2:32" ht="48">
+    <row r="164" spans="2:34" ht="48">
       <c r="B164" s="4" t="s">
         <v>277</v>
       </c>
@@ -12463,14 +12475,14 @@
       <c r="U164">
         <v>200</v>
       </c>
-      <c r="AE164" s="3" t="s">
+      <c r="AG164" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF164" s="3" t="s">
+      <c r="AH164" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="2:32" ht="16">
+    <row r="165" spans="2:34" ht="16">
       <c r="B165" s="4" t="s">
         <v>287</v>
       </c>
@@ -12522,14 +12534,14 @@
       <c r="U165">
         <v>10</v>
       </c>
-      <c r="AE165" s="3" t="s">
+      <c r="AG165" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF165" s="3" t="s">
+      <c r="AH165" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="2:32" ht="16">
+    <row r="166" spans="2:34" ht="16">
       <c r="B166" s="4" t="s">
         <v>287</v>
       </c>
@@ -12581,26 +12593,26 @@
       <c r="U166">
         <v>50</v>
       </c>
-      <c r="X166" t="s">
+      <c r="Z166" t="s">
         <v>58</v>
       </c>
-      <c r="Y166" t="s">
+      <c r="AA166" t="s">
         <v>56</v>
       </c>
-      <c r="AC166" t="s">
+      <c r="AE166" t="s">
         <v>144</v>
       </c>
-      <c r="AD166" t="s">
+      <c r="AF166" t="s">
         <v>150</v>
       </c>
-      <c r="AE166" s="3" t="s">
+      <c r="AG166" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF166" s="3" t="s">
+      <c r="AH166" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="167" spans="2:32" ht="48">
+    <row r="167" spans="2:34" ht="48">
       <c r="B167" s="4" t="s">
         <v>287</v>
       </c>
@@ -12652,29 +12664,29 @@
       <c r="U167">
         <v>50</v>
       </c>
-      <c r="X167" t="s">
+      <c r="Z167" t="s">
         <v>61</v>
       </c>
-      <c r="Y167" t="s">
+      <c r="AA167" t="s">
         <v>62</v>
       </c>
-      <c r="Z167" s="3" t="s">
+      <c r="AB167" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA167" s="3" t="s">
+      <c r="AC167" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB167" t="s">
+      <c r="AD167" t="s">
         <v>45</v>
       </c>
-      <c r="AE167" s="3" t="s">
+      <c r="AG167" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF167" s="3" t="s">
+      <c r="AH167" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="2:32" ht="16">
+    <row r="168" spans="2:34" ht="16">
       <c r="B168" s="4" t="s">
         <v>287</v>
       </c>
@@ -12724,7 +12736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="2:32" ht="16">
+    <row r="169" spans="2:34" ht="16">
       <c r="B169" s="4" t="s">
         <v>287</v>
       </c>
@@ -12776,26 +12788,26 @@
       <c r="U169">
         <v>40</v>
       </c>
-      <c r="X169" t="s">
+      <c r="Z169" t="s">
         <v>191</v>
       </c>
-      <c r="Y169" t="s">
+      <c r="AA169" t="s">
         <v>186</v>
       </c>
-      <c r="AC169" t="s">
+      <c r="AE169" t="s">
         <v>293</v>
       </c>
-      <c r="AD169" s="6" t="s">
+      <c r="AF169" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AE169" s="3" t="s">
+      <c r="AG169" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF169" s="3" t="s">
+      <c r="AH169" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="2:32" ht="16">
+    <row r="170" spans="2:34" ht="16">
       <c r="B170" s="4" t="s">
         <v>287</v>
       </c>
@@ -12847,14 +12859,14 @@
       <c r="U170">
         <v>200</v>
       </c>
-      <c r="AE170" s="3" t="s">
+      <c r="AG170" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF170" s="3" t="s">
+      <c r="AH170" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="171" spans="2:32" ht="32">
+    <row r="171" spans="2:34" ht="32">
       <c r="B171" s="4" t="s">
         <v>287</v>
       </c>
@@ -12906,14 +12918,14 @@
       <c r="U171">
         <v>10</v>
       </c>
-      <c r="AE171" s="3" t="s">
+      <c r="AG171" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF171" s="3" t="s">
+      <c r="AH171" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="2:32" ht="32">
+    <row r="172" spans="2:34" ht="32">
       <c r="B172" s="4" t="s">
         <v>287</v>
       </c>
@@ -12965,26 +12977,26 @@
       <c r="U172">
         <v>50</v>
       </c>
-      <c r="X172" t="s">
+      <c r="Z172" t="s">
         <v>58</v>
       </c>
-      <c r="Y172" t="s">
+      <c r="AA172" t="s">
         <v>56</v>
       </c>
-      <c r="AC172" t="s">
+      <c r="AE172" t="s">
         <v>144</v>
       </c>
-      <c r="AD172" t="s">
+      <c r="AF172" t="s">
         <v>150</v>
       </c>
-      <c r="AE172" s="3" t="s">
+      <c r="AG172" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF172" s="3" t="s">
+      <c r="AH172" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="2:32" ht="48">
+    <row r="173" spans="2:34" ht="48">
       <c r="B173" s="4" t="s">
         <v>287</v>
       </c>
@@ -13036,29 +13048,29 @@
       <c r="U173">
         <v>50</v>
       </c>
-      <c r="X173" t="s">
+      <c r="Z173" t="s">
         <v>61</v>
       </c>
-      <c r="Y173" t="s">
+      <c r="AA173" t="s">
         <v>62</v>
       </c>
-      <c r="Z173" s="3" t="s">
+      <c r="AB173" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA173" s="3" t="s">
+      <c r="AC173" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB173" t="s">
+      <c r="AD173" t="s">
         <v>45</v>
       </c>
-      <c r="AE173" s="3" t="s">
+      <c r="AG173" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF173" s="3" t="s">
+      <c r="AH173" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="2:32" ht="32">
+    <row r="174" spans="2:34" ht="32">
       <c r="B174" s="4" t="s">
         <v>287</v>
       </c>
@@ -13110,14 +13122,14 @@
       <c r="U174">
         <v>200</v>
       </c>
-      <c r="AE174" s="3" t="s">
+      <c r="AG174" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF174" s="3" t="s">
+      <c r="AH174" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="175" spans="2:32" ht="32">
+    <row r="175" spans="2:34" ht="32">
       <c r="B175" s="4" t="s">
         <v>297</v>
       </c>
@@ -13169,14 +13181,14 @@
       <c r="U175">
         <v>10</v>
       </c>
-      <c r="AE175" s="3" t="s">
+      <c r="AG175" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF175" s="3" t="s">
+      <c r="AH175" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="2:32" ht="32">
+    <row r="176" spans="2:34" ht="32">
       <c r="B176" s="4" t="s">
         <v>297</v>
       </c>
@@ -13228,26 +13240,26 @@
       <c r="U176">
         <v>50</v>
       </c>
-      <c r="X176" t="s">
+      <c r="Z176" t="s">
         <v>58</v>
       </c>
-      <c r="Y176" t="s">
+      <c r="AA176" t="s">
         <v>56</v>
       </c>
-      <c r="AC176" t="s">
+      <c r="AE176" t="s">
         <v>144</v>
       </c>
-      <c r="AD176" t="s">
+      <c r="AF176" t="s">
         <v>150</v>
       </c>
-      <c r="AE176" s="3" t="s">
+      <c r="AG176" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF176" s="3" t="s">
+      <c r="AH176" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="2:32" ht="48">
+    <row r="177" spans="2:34" ht="48">
       <c r="B177" s="4" t="s">
         <v>297</v>
       </c>
@@ -13299,29 +13311,29 @@
       <c r="U177">
         <v>50</v>
       </c>
-      <c r="X177" t="s">
+      <c r="Z177" t="s">
         <v>61</v>
       </c>
-      <c r="Y177" t="s">
+      <c r="AA177" t="s">
         <v>62</v>
       </c>
-      <c r="Z177" s="3" t="s">
+      <c r="AB177" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA177" s="3" t="s">
+      <c r="AC177" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB177" t="s">
+      <c r="AD177" t="s">
         <v>45</v>
       </c>
-      <c r="AE177" s="3" t="s">
+      <c r="AG177" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF177" s="3" t="s">
+      <c r="AH177" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="2:32" ht="32">
+    <row r="178" spans="2:34" ht="32">
       <c r="B178" s="4" t="s">
         <v>297</v>
       </c>
@@ -13371,7 +13383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="2:32" ht="32">
+    <row r="179" spans="2:34" ht="32">
       <c r="B179" s="4" t="s">
         <v>297</v>
       </c>
@@ -13423,26 +13435,26 @@
       <c r="U179">
         <v>40</v>
       </c>
-      <c r="X179" t="s">
+      <c r="Z179" t="s">
         <v>191</v>
       </c>
-      <c r="Y179" t="s">
+      <c r="AA179" t="s">
         <v>186</v>
       </c>
-      <c r="AC179" t="s">
+      <c r="AE179" t="s">
         <v>302</v>
       </c>
-      <c r="AD179" s="6" t="s">
+      <c r="AF179" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="AE179" s="3" t="s">
+      <c r="AG179" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF179" s="3" t="s">
+      <c r="AH179" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="180" spans="2:32" ht="32">
+    <row r="180" spans="2:34" ht="32">
       <c r="B180" s="4" t="s">
         <v>297</v>
       </c>
@@ -13494,14 +13506,14 @@
       <c r="U180">
         <v>200</v>
       </c>
-      <c r="AE180" s="3" t="s">
+      <c r="AG180" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF180" s="3" t="s">
+      <c r="AH180" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="181" spans="2:32" ht="32">
+    <row r="181" spans="2:34" ht="32">
       <c r="B181" s="4" t="s">
         <v>297</v>
       </c>
@@ -13553,14 +13565,14 @@
       <c r="U181">
         <v>10</v>
       </c>
-      <c r="AE181" s="3" t="s">
+      <c r="AG181" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF181" s="3" t="s">
+      <c r="AH181" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="2:32" ht="32">
+    <row r="182" spans="2:34" ht="32">
       <c r="B182" s="4" t="s">
         <v>297</v>
       </c>
@@ -13612,26 +13624,26 @@
       <c r="U182">
         <v>50</v>
       </c>
-      <c r="X182" t="s">
+      <c r="Z182" t="s">
         <v>58</v>
       </c>
-      <c r="Y182" t="s">
+      <c r="AA182" t="s">
         <v>56</v>
       </c>
-      <c r="AC182" t="s">
+      <c r="AE182" t="s">
         <v>144</v>
       </c>
-      <c r="AD182" t="s">
+      <c r="AF182" t="s">
         <v>150</v>
       </c>
-      <c r="AE182" s="3" t="s">
+      <c r="AG182" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF182" s="3" t="s">
+      <c r="AH182" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="183" spans="2:32" ht="48">
+    <row r="183" spans="2:34" ht="48">
       <c r="B183" s="4" t="s">
         <v>297</v>
       </c>
@@ -13683,29 +13695,29 @@
       <c r="U183">
         <v>50</v>
       </c>
-      <c r="X183" t="s">
+      <c r="Z183" t="s">
         <v>61</v>
       </c>
-      <c r="Y183" t="s">
+      <c r="AA183" t="s">
         <v>62</v>
       </c>
-      <c r="Z183" s="3" t="s">
+      <c r="AB183" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA183" s="3" t="s">
+      <c r="AC183" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB183" t="s">
+      <c r="AD183" t="s">
         <v>45</v>
       </c>
-      <c r="AE183" s="3" t="s">
+      <c r="AG183" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF183" s="3" t="s">
+      <c r="AH183" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="2:32" ht="32">
+    <row r="184" spans="2:34" ht="32">
       <c r="B184" s="4" t="s">
         <v>297</v>
       </c>
@@ -13757,14 +13769,14 @@
       <c r="U184">
         <v>200</v>
       </c>
-      <c r="AE184" s="3" t="s">
+      <c r="AG184" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF184" s="3" t="s">
+      <c r="AH184" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="2:32" ht="32">
+    <row r="185" spans="2:34" ht="32">
       <c r="B185" s="4" t="s">
         <v>306</v>
       </c>
@@ -13816,14 +13828,14 @@
       <c r="U185">
         <v>10</v>
       </c>
-      <c r="AE185" s="3" t="s">
+      <c r="AG185" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF185" s="3" t="s">
+      <c r="AH185" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="2:32" ht="32">
+    <row r="186" spans="2:34" ht="32">
       <c r="B186" s="4" t="s">
         <v>306</v>
       </c>
@@ -13875,26 +13887,26 @@
       <c r="U186">
         <v>50</v>
       </c>
-      <c r="X186" t="s">
+      <c r="Z186" t="s">
         <v>58</v>
       </c>
-      <c r="Y186" t="s">
+      <c r="AA186" t="s">
         <v>56</v>
       </c>
-      <c r="AC186" t="s">
+      <c r="AE186" t="s">
         <v>144</v>
       </c>
-      <c r="AD186" t="s">
+      <c r="AF186" t="s">
         <v>150</v>
       </c>
-      <c r="AE186" s="3" t="s">
+      <c r="AG186" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF186" s="3" t="s">
+      <c r="AH186" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="187" spans="2:32" ht="48">
+    <row r="187" spans="2:34" ht="48">
       <c r="B187" s="4" t="s">
         <v>306</v>
       </c>
@@ -13946,29 +13958,29 @@
       <c r="U187">
         <v>50</v>
       </c>
-      <c r="X187" t="s">
+      <c r="Z187" t="s">
         <v>61</v>
       </c>
-      <c r="Y187" t="s">
+      <c r="AA187" t="s">
         <v>62</v>
       </c>
-      <c r="Z187" s="3" t="s">
+      <c r="AB187" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA187" s="3" t="s">
+      <c r="AC187" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB187" t="s">
+      <c r="AD187" t="s">
         <v>45</v>
       </c>
-      <c r="AE187" s="3" t="s">
+      <c r="AG187" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF187" s="3" t="s">
+      <c r="AH187" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="2:32" ht="32">
+    <row r="188" spans="2:34" ht="32">
       <c r="B188" s="4" t="s">
         <v>306</v>
       </c>
@@ -14018,7 +14030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="2:32" ht="32">
+    <row r="189" spans="2:34" ht="32">
       <c r="B189" s="4" t="s">
         <v>306</v>
       </c>
@@ -14070,26 +14082,26 @@
       <c r="U189">
         <v>40</v>
       </c>
-      <c r="X189" t="s">
+      <c r="Z189" t="s">
         <v>191</v>
       </c>
-      <c r="Y189" t="s">
+      <c r="AA189" t="s">
         <v>186</v>
       </c>
-      <c r="AC189" t="s">
+      <c r="AE189" t="s">
         <v>312</v>
       </c>
-      <c r="AD189" s="6" t="s">
+      <c r="AF189" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="AE189" s="3" t="s">
+      <c r="AG189" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF189" s="3" t="s">
+      <c r="AH189" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="190" spans="2:32" ht="32">
+    <row r="190" spans="2:34" ht="32">
       <c r="B190" s="4" t="s">
         <v>306</v>
       </c>
@@ -14141,14 +14153,14 @@
       <c r="U190">
         <v>200</v>
       </c>
-      <c r="AE190" s="3" t="s">
+      <c r="AG190" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF190" s="3" t="s">
+      <c r="AH190" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="2:32" ht="32">
+    <row r="191" spans="2:34" ht="32">
       <c r="B191" s="4" t="s">
         <v>306</v>
       </c>
@@ -14200,14 +14212,14 @@
       <c r="U191">
         <v>10</v>
       </c>
-      <c r="AE191" s="3" t="s">
+      <c r="AG191" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF191" s="3" t="s">
+      <c r="AH191" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="2:32" ht="32">
+    <row r="192" spans="2:34" ht="32">
       <c r="B192" s="4" t="s">
         <v>306</v>
       </c>
@@ -14259,26 +14271,26 @@
       <c r="U192">
         <v>50</v>
       </c>
-      <c r="X192" t="s">
+      <c r="Z192" t="s">
         <v>58</v>
       </c>
-      <c r="Y192" t="s">
+      <c r="AA192" t="s">
         <v>56</v>
       </c>
-      <c r="AC192" t="s">
+      <c r="AE192" t="s">
         <v>144</v>
       </c>
-      <c r="AD192" t="s">
+      <c r="AF192" t="s">
         <v>150</v>
       </c>
-      <c r="AE192" s="3" t="s">
+      <c r="AG192" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF192" s="3" t="s">
+      <c r="AH192" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="193" spans="2:32" ht="48">
+    <row r="193" spans="2:34" ht="48">
       <c r="B193" s="4" t="s">
         <v>306</v>
       </c>
@@ -14330,29 +14342,29 @@
       <c r="U193">
         <v>50</v>
       </c>
-      <c r="X193" t="s">
+      <c r="Z193" t="s">
         <v>61</v>
       </c>
-      <c r="Y193" t="s">
+      <c r="AA193" t="s">
         <v>62</v>
       </c>
-      <c r="Z193" s="3" t="s">
+      <c r="AB193" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA193" s="3" t="s">
+      <c r="AC193" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB193" t="s">
+      <c r="AD193" t="s">
         <v>45</v>
       </c>
-      <c r="AE193" s="3" t="s">
+      <c r="AG193" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF193" s="3" t="s">
+      <c r="AH193" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="2:32" ht="32">
+    <row r="194" spans="2:34" ht="32">
       <c r="B194" s="4" t="s">
         <v>306</v>
       </c>
@@ -14404,14 +14416,14 @@
       <c r="U194">
         <v>200</v>
       </c>
-      <c r="AE194" s="3" t="s">
+      <c r="AG194" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF194" s="3" t="s">
+      <c r="AH194" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="195" spans="2:32" ht="32">
+    <row r="195" spans="2:34" ht="32">
       <c r="B195" s="4" t="s">
         <v>318</v>
       </c>
@@ -14463,14 +14475,14 @@
       <c r="U195">
         <v>10</v>
       </c>
-      <c r="AE195" s="3" t="s">
+      <c r="AG195" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF195" s="3" t="s">
+      <c r="AH195" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="2:32" ht="32">
+    <row r="196" spans="2:34" ht="32">
       <c r="B196" s="4" t="s">
         <v>318</v>
       </c>
@@ -14522,26 +14534,26 @@
       <c r="U196">
         <v>50</v>
       </c>
-      <c r="X196" t="s">
+      <c r="Z196" t="s">
         <v>58</v>
       </c>
-      <c r="Y196" t="s">
+      <c r="AA196" t="s">
         <v>56</v>
       </c>
-      <c r="AC196" t="s">
+      <c r="AE196" t="s">
         <v>144</v>
       </c>
-      <c r="AD196" t="s">
+      <c r="AF196" t="s">
         <v>150</v>
       </c>
-      <c r="AE196" s="3" t="s">
+      <c r="AG196" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF196" s="3" t="s">
+      <c r="AH196" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="197" spans="2:32" ht="48">
+    <row r="197" spans="2:34" ht="48">
       <c r="B197" s="4" t="s">
         <v>318</v>
       </c>
@@ -14593,29 +14605,29 @@
       <c r="U197">
         <v>50</v>
       </c>
-      <c r="X197" t="s">
+      <c r="Z197" t="s">
         <v>61</v>
       </c>
-      <c r="Y197" t="s">
+      <c r="AA197" t="s">
         <v>62</v>
       </c>
-      <c r="Z197" s="3" t="s">
+      <c r="AB197" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA197" s="3" t="s">
+      <c r="AC197" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB197" t="s">
+      <c r="AD197" t="s">
         <v>45</v>
       </c>
-      <c r="AE197" s="3" t="s">
+      <c r="AG197" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF197" s="3" t="s">
+      <c r="AH197" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="198" spans="2:32" ht="32">
+    <row r="198" spans="2:34" ht="32">
       <c r="B198" s="4" t="s">
         <v>318</v>
       </c>
@@ -14665,7 +14677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="2:32" ht="32">
+    <row r="199" spans="2:34" ht="32">
       <c r="B199" s="4" t="s">
         <v>318</v>
       </c>
@@ -14717,26 +14729,26 @@
       <c r="U199">
         <v>40</v>
       </c>
-      <c r="X199" t="s">
+      <c r="Z199" t="s">
         <v>191</v>
       </c>
-      <c r="Y199" t="s">
+      <c r="AA199" t="s">
         <v>186</v>
       </c>
-      <c r="AC199" t="s">
+      <c r="AE199" t="s">
         <v>323</v>
       </c>
-      <c r="AD199" s="6" t="s">
+      <c r="AF199" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AE199" s="3" t="s">
+      <c r="AG199" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF199" s="3" t="s">
+      <c r="AH199" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="200" spans="2:32" ht="32">
+    <row r="200" spans="2:34" ht="32">
       <c r="B200" s="4" t="s">
         <v>318</v>
       </c>
@@ -14788,14 +14800,14 @@
       <c r="U200">
         <v>200</v>
       </c>
-      <c r="AE200" s="3" t="s">
+      <c r="AG200" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF200" s="3" t="s">
+      <c r="AH200" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="2:32" ht="32">
+    <row r="201" spans="2:34" ht="32">
       <c r="B201" s="4" t="s">
         <v>318</v>
       </c>
@@ -14847,14 +14859,14 @@
       <c r="U201">
         <v>10</v>
       </c>
-      <c r="AE201" s="3" t="s">
+      <c r="AG201" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF201" s="3" t="s">
+      <c r="AH201" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="2:32" ht="32">
+    <row r="202" spans="2:34" ht="32">
       <c r="B202" s="4" t="s">
         <v>318</v>
       </c>
@@ -14906,26 +14918,26 @@
       <c r="U202">
         <v>50</v>
       </c>
-      <c r="X202" t="s">
+      <c r="Z202" t="s">
         <v>58</v>
       </c>
-      <c r="Y202" t="s">
+      <c r="AA202" t="s">
         <v>56</v>
       </c>
-      <c r="AC202" t="s">
+      <c r="AE202" t="s">
         <v>144</v>
       </c>
-      <c r="AD202" t="s">
+      <c r="AF202" t="s">
         <v>150</v>
       </c>
-      <c r="AE202" s="3" t="s">
+      <c r="AG202" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF202" s="3" t="s">
+      <c r="AH202" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="2:32" ht="48">
+    <row r="203" spans="2:34" ht="48">
       <c r="B203" s="4" t="s">
         <v>318</v>
       </c>
@@ -14977,29 +14989,29 @@
       <c r="U203">
         <v>50</v>
       </c>
-      <c r="X203" t="s">
+      <c r="Z203" t="s">
         <v>61</v>
       </c>
-      <c r="Y203" t="s">
+      <c r="AA203" t="s">
         <v>62</v>
       </c>
-      <c r="Z203" s="3" t="s">
+      <c r="AB203" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA203" s="3" t="s">
+      <c r="AC203" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB203" t="s">
+      <c r="AD203" t="s">
         <v>45</v>
       </c>
-      <c r="AE203" s="3" t="s">
+      <c r="AG203" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF203" s="3" t="s">
+      <c r="AH203" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="2:32" ht="32">
+    <row r="204" spans="2:34" ht="32">
       <c r="B204" s="4" t="s">
         <v>318</v>
       </c>
@@ -15051,14 +15063,14 @@
       <c r="U204">
         <v>200</v>
       </c>
-      <c r="AE204" s="3" t="s">
+      <c r="AG204" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF204" s="3" t="s">
+      <c r="AH204" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="205" spans="2:32" ht="32">
+    <row r="205" spans="2:34" ht="32">
       <c r="B205" s="4" t="s">
         <v>328</v>
       </c>
@@ -15110,14 +15122,14 @@
       <c r="U205">
         <v>10</v>
       </c>
-      <c r="AE205" s="3" t="s">
+      <c r="AG205" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF205" s="3" t="s">
+      <c r="AH205" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="2:32" ht="32">
+    <row r="206" spans="2:34" ht="32">
       <c r="B206" s="4" t="s">
         <v>328</v>
       </c>
@@ -15169,26 +15181,26 @@
       <c r="U206">
         <v>50</v>
       </c>
-      <c r="X206" t="s">
+      <c r="Z206" t="s">
         <v>58</v>
       </c>
-      <c r="Y206" t="s">
+      <c r="AA206" t="s">
         <v>56</v>
       </c>
-      <c r="AC206" t="s">
+      <c r="AE206" t="s">
         <v>144</v>
       </c>
-      <c r="AD206" t="s">
+      <c r="AF206" t="s">
         <v>150</v>
       </c>
-      <c r="AE206" s="3" t="s">
+      <c r="AG206" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF206" s="3" t="s">
+      <c r="AH206" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="207" spans="2:32" ht="48">
+    <row r="207" spans="2:34" ht="48">
       <c r="B207" s="4" t="s">
         <v>328</v>
       </c>
@@ -15240,29 +15252,29 @@
       <c r="U207">
         <v>50</v>
       </c>
-      <c r="X207" t="s">
+      <c r="Z207" t="s">
         <v>61</v>
       </c>
-      <c r="Y207" t="s">
+      <c r="AA207" t="s">
         <v>62</v>
       </c>
-      <c r="Z207" s="3" t="s">
+      <c r="AB207" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA207" s="3" t="s">
+      <c r="AC207" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB207" t="s">
+      <c r="AD207" t="s">
         <v>45</v>
       </c>
-      <c r="AE207" s="3" t="s">
+      <c r="AG207" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF207" s="3" t="s">
+      <c r="AH207" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="208" spans="2:32" ht="32">
+    <row r="208" spans="2:34" ht="32">
       <c r="B208" s="4" t="s">
         <v>328</v>
       </c>
@@ -15312,7 +15324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="2:32" ht="32">
+    <row r="209" spans="2:34" ht="32">
       <c r="B209" s="4" t="s">
         <v>328</v>
       </c>
@@ -15364,26 +15376,26 @@
       <c r="U209">
         <v>40</v>
       </c>
-      <c r="X209" t="s">
+      <c r="Z209" t="s">
         <v>191</v>
       </c>
-      <c r="Y209" t="s">
+      <c r="AA209" t="s">
         <v>186</v>
       </c>
-      <c r="AC209" t="s">
+      <c r="AE209" t="s">
         <v>366</v>
       </c>
-      <c r="AD209" s="6" t="s">
+      <c r="AF209" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="AE209" s="3" t="s">
+      <c r="AG209" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF209" s="3" t="s">
+      <c r="AH209" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="2:32" ht="32">
+    <row r="210" spans="2:34" ht="32">
       <c r="B210" s="4" t="s">
         <v>328</v>
       </c>
@@ -15435,14 +15447,14 @@
       <c r="U210">
         <v>200</v>
       </c>
-      <c r="AE210" s="3" t="s">
+      <c r="AG210" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF210" s="3" t="s">
+      <c r="AH210" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="211" spans="2:32" ht="32">
+    <row r="211" spans="2:34" ht="32">
       <c r="B211" s="4" t="s">
         <v>328</v>
       </c>
@@ -15494,14 +15506,14 @@
       <c r="U211">
         <v>10</v>
       </c>
-      <c r="AE211" s="3" t="s">
+      <c r="AG211" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF211" s="3" t="s">
+      <c r="AH211" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="2:32" ht="32">
+    <row r="212" spans="2:34" ht="32">
       <c r="B212" s="4" t="s">
         <v>328</v>
       </c>
@@ -15553,26 +15565,26 @@
       <c r="U212">
         <v>50</v>
       </c>
-      <c r="X212" t="s">
+      <c r="Z212" t="s">
         <v>58</v>
       </c>
-      <c r="Y212" t="s">
+      <c r="AA212" t="s">
         <v>56</v>
       </c>
-      <c r="AC212" t="s">
+      <c r="AE212" t="s">
         <v>144</v>
       </c>
-      <c r="AD212" t="s">
+      <c r="AF212" t="s">
         <v>150</v>
       </c>
-      <c r="AE212" s="3" t="s">
+      <c r="AG212" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF212" s="3" t="s">
+      <c r="AH212" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="2:32" ht="48">
+    <row r="213" spans="2:34" ht="48">
       <c r="B213" s="4" t="s">
         <v>328</v>
       </c>
@@ -15624,29 +15636,29 @@
       <c r="U213">
         <v>50</v>
       </c>
-      <c r="X213" t="s">
+      <c r="Z213" t="s">
         <v>61</v>
       </c>
-      <c r="Y213" t="s">
+      <c r="AA213" t="s">
         <v>62</v>
       </c>
-      <c r="Z213" s="3" t="s">
+      <c r="AB213" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA213" s="3" t="s">
+      <c r="AC213" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB213" t="s">
+      <c r="AD213" t="s">
         <v>45</v>
       </c>
-      <c r="AE213" s="3" t="s">
+      <c r="AG213" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF213" s="3" t="s">
+      <c r="AH213" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="214" spans="2:32" ht="32">
+    <row r="214" spans="2:34" ht="32">
       <c r="B214" s="4" t="s">
         <v>328</v>
       </c>
@@ -15698,14 +15710,14 @@
       <c r="U214">
         <v>200</v>
       </c>
-      <c r="AE214" s="3" t="s">
+      <c r="AG214" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF214" s="3" t="s">
+      <c r="AH214" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="215" spans="2:32" ht="32">
+    <row r="215" spans="2:34" ht="32">
       <c r="B215" s="4" t="s">
         <v>336</v>
       </c>
@@ -15757,14 +15769,14 @@
       <c r="U215">
         <v>10</v>
       </c>
-      <c r="AE215" s="3" t="s">
+      <c r="AG215" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF215" s="3" t="s">
+      <c r="AH215" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="2:32" ht="32">
+    <row r="216" spans="2:34" ht="32">
       <c r="B216" s="4" t="s">
         <v>336</v>
       </c>
@@ -15816,26 +15828,26 @@
       <c r="U216">
         <v>50</v>
       </c>
-      <c r="X216" t="s">
+      <c r="Z216" t="s">
         <v>58</v>
       </c>
-      <c r="Y216" t="s">
+      <c r="AA216" t="s">
         <v>56</v>
       </c>
-      <c r="AC216" t="s">
+      <c r="AE216" t="s">
         <v>144</v>
       </c>
-      <c r="AD216" t="s">
+      <c r="AF216" t="s">
         <v>150</v>
       </c>
-      <c r="AE216" s="3" t="s">
+      <c r="AG216" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF216" s="3" t="s">
+      <c r="AH216" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="2:32" ht="48">
+    <row r="217" spans="2:34" ht="48">
       <c r="B217" s="4" t="s">
         <v>336</v>
       </c>
@@ -15887,29 +15899,29 @@
       <c r="U217">
         <v>50</v>
       </c>
-      <c r="X217" t="s">
+      <c r="Z217" t="s">
         <v>61</v>
       </c>
-      <c r="Y217" t="s">
+      <c r="AA217" t="s">
         <v>62</v>
       </c>
-      <c r="Z217" s="3" t="s">
+      <c r="AB217" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA217" s="3" t="s">
+      <c r="AC217" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB217" t="s">
+      <c r="AD217" t="s">
         <v>45</v>
       </c>
-      <c r="AE217" s="3" t="s">
+      <c r="AG217" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF217" s="3" t="s">
+      <c r="AH217" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="218" spans="2:32" ht="32">
+    <row r="218" spans="2:34" ht="32">
       <c r="B218" s="4" t="s">
         <v>336</v>
       </c>
@@ -15959,7 +15971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="2:32" ht="32">
+    <row r="219" spans="2:34" ht="32">
       <c r="B219" s="4" t="s">
         <v>336</v>
       </c>
@@ -16011,26 +16023,26 @@
       <c r="U219">
         <v>40</v>
       </c>
-      <c r="X219" t="s">
+      <c r="Z219" t="s">
         <v>191</v>
       </c>
-      <c r="Y219" t="s">
+      <c r="AA219" t="s">
         <v>186</v>
       </c>
-      <c r="AC219" t="s">
+      <c r="AE219" t="s">
         <v>341</v>
       </c>
-      <c r="AD219" s="6" t="s">
+      <c r="AF219" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="AE219" s="3" t="s">
+      <c r="AG219" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF219" s="3" t="s">
+      <c r="AH219" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="220" spans="2:32" ht="32">
+    <row r="220" spans="2:34" ht="32">
       <c r="B220" s="4" t="s">
         <v>336</v>
       </c>
@@ -16082,14 +16094,14 @@
       <c r="U220">
         <v>200</v>
       </c>
-      <c r="AE220" s="3" t="s">
+      <c r="AG220" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF220" s="3" t="s">
+      <c r="AH220" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="221" spans="2:32" ht="32">
+    <row r="221" spans="2:34" ht="32">
       <c r="B221" s="4" t="s">
         <v>336</v>
       </c>
@@ -16141,14 +16153,14 @@
       <c r="U221">
         <v>10</v>
       </c>
-      <c r="AE221" s="3" t="s">
+      <c r="AG221" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF221" s="3" t="s">
+      <c r="AH221" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="2:32" ht="32">
+    <row r="222" spans="2:34" ht="32">
       <c r="B222" s="4" t="s">
         <v>336</v>
       </c>
@@ -16200,26 +16212,26 @@
       <c r="U222">
         <v>50</v>
       </c>
-      <c r="X222" t="s">
+      <c r="Z222" t="s">
         <v>58</v>
       </c>
-      <c r="Y222" t="s">
+      <c r="AA222" t="s">
         <v>56</v>
       </c>
-      <c r="AC222" t="s">
+      <c r="AE222" t="s">
         <v>144</v>
       </c>
-      <c r="AD222" t="s">
+      <c r="AF222" t="s">
         <v>150</v>
       </c>
-      <c r="AE222" s="3" t="s">
+      <c r="AG222" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF222" s="3" t="s">
+      <c r="AH222" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="2:32" ht="48">
+    <row r="223" spans="2:34" ht="48">
       <c r="B223" s="4" t="s">
         <v>336</v>
       </c>
@@ -16271,29 +16283,29 @@
       <c r="U223">
         <v>50</v>
       </c>
-      <c r="X223" t="s">
+      <c r="Z223" t="s">
         <v>61</v>
       </c>
-      <c r="Y223" t="s">
+      <c r="AA223" t="s">
         <v>62</v>
       </c>
-      <c r="Z223" s="3" t="s">
+      <c r="AB223" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA223" s="3" t="s">
+      <c r="AC223" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB223" t="s">
+      <c r="AD223" t="s">
         <v>45</v>
       </c>
-      <c r="AE223" s="3" t="s">
+      <c r="AG223" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF223" s="3" t="s">
+      <c r="AH223" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="2:32" ht="32">
+    <row r="224" spans="2:34" ht="32">
       <c r="B224" s="4" t="s">
         <v>336</v>
       </c>
@@ -16345,14 +16357,14 @@
       <c r="U224">
         <v>200</v>
       </c>
-      <c r="AE224" s="3" t="s">
+      <c r="AG224" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF224" s="3" t="s">
+      <c r="AH224" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="225" spans="2:32" ht="32">
+    <row r="225" spans="2:34" ht="32">
       <c r="B225" s="4" t="s">
         <v>345</v>
       </c>
@@ -16404,14 +16416,14 @@
       <c r="U225">
         <v>10</v>
       </c>
-      <c r="AE225" s="3" t="s">
+      <c r="AG225" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF225" s="3" t="s">
+      <c r="AH225" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="226" spans="2:32" ht="32">
+    <row r="226" spans="2:34" ht="32">
       <c r="B226" s="4" t="s">
         <v>345</v>
       </c>
@@ -16463,26 +16475,26 @@
       <c r="U226">
         <v>50</v>
       </c>
-      <c r="X226" t="s">
+      <c r="Z226" t="s">
         <v>58</v>
       </c>
-      <c r="Y226" t="s">
+      <c r="AA226" t="s">
         <v>56</v>
       </c>
-      <c r="AC226" t="s">
+      <c r="AE226" t="s">
         <v>144</v>
       </c>
-      <c r="AD226" t="s">
+      <c r="AF226" t="s">
         <v>150</v>
       </c>
-      <c r="AE226" s="3" t="s">
+      <c r="AG226" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF226" s="3" t="s">
+      <c r="AH226" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="2:32" ht="48">
+    <row r="227" spans="2:34" ht="48">
       <c r="B227" s="4" t="s">
         <v>345</v>
       </c>
@@ -16534,29 +16546,29 @@
       <c r="U227">
         <v>50</v>
       </c>
-      <c r="X227" t="s">
+      <c r="Z227" t="s">
         <v>61</v>
       </c>
-      <c r="Y227" t="s">
+      <c r="AA227" t="s">
         <v>62</v>
       </c>
-      <c r="Z227" s="3" t="s">
+      <c r="AB227" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA227" s="3" t="s">
+      <c r="AC227" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB227" t="s">
+      <c r="AD227" t="s">
         <v>45</v>
       </c>
-      <c r="AE227" s="3" t="s">
+      <c r="AG227" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF227" s="3" t="s">
+      <c r="AH227" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="228" spans="2:32" ht="32">
+    <row r="228" spans="2:34" ht="32">
       <c r="B228" s="4" t="s">
         <v>345</v>
       </c>
@@ -16606,7 +16618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="2:32" ht="32">
+    <row r="229" spans="2:34" ht="32">
       <c r="B229" s="4" t="s">
         <v>345</v>
       </c>
@@ -16658,26 +16670,26 @@
       <c r="U229">
         <v>40</v>
       </c>
-      <c r="X229" t="s">
+      <c r="Z229" t="s">
         <v>191</v>
       </c>
-      <c r="Y229" t="s">
+      <c r="AA229" t="s">
         <v>186</v>
       </c>
-      <c r="AC229" t="s">
+      <c r="AE229" t="s">
         <v>351</v>
       </c>
-      <c r="AD229" s="6" t="s">
+      <c r="AF229" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AE229" s="3" t="s">
+      <c r="AG229" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF229" s="3" t="s">
+      <c r="AH229" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="230" spans="2:32" ht="32">
+    <row r="230" spans="2:34" ht="32">
       <c r="B230" s="4" t="s">
         <v>345</v>
       </c>
@@ -16729,14 +16741,14 @@
       <c r="U230">
         <v>200</v>
       </c>
-      <c r="AE230" s="3" t="s">
+      <c r="AG230" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF230" s="3" t="s">
+      <c r="AH230" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="231" spans="2:32" ht="32">
+    <row r="231" spans="2:34" ht="32">
       <c r="B231" s="4" t="s">
         <v>345</v>
       </c>
@@ -16788,14 +16800,14 @@
       <c r="U231">
         <v>10</v>
       </c>
-      <c r="AE231" s="3" t="s">
+      <c r="AG231" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF231" s="3" t="s">
+      <c r="AH231" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="2:32" ht="32">
+    <row r="232" spans="2:34" ht="32">
       <c r="B232" s="4" t="s">
         <v>345</v>
       </c>
@@ -16847,26 +16859,26 @@
       <c r="U232">
         <v>50</v>
       </c>
-      <c r="X232" t="s">
+      <c r="Z232" t="s">
         <v>58</v>
       </c>
-      <c r="Y232" t="s">
+      <c r="AA232" t="s">
         <v>56</v>
       </c>
-      <c r="AC232" t="s">
+      <c r="AE232" t="s">
         <v>144</v>
       </c>
-      <c r="AD232" t="s">
+      <c r="AF232" t="s">
         <v>150</v>
       </c>
-      <c r="AE232" s="3" t="s">
+      <c r="AG232" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF232" s="3" t="s">
+      <c r="AH232" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="2:32" ht="48">
+    <row r="233" spans="2:34" ht="48">
       <c r="B233" s="4" t="s">
         <v>345</v>
       </c>
@@ -16918,29 +16930,29 @@
       <c r="U233">
         <v>50</v>
       </c>
-      <c r="X233" t="s">
+      <c r="Z233" t="s">
         <v>61</v>
       </c>
-      <c r="Y233" t="s">
+      <c r="AA233" t="s">
         <v>62</v>
       </c>
-      <c r="Z233" s="3" t="s">
+      <c r="AB233" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA233" s="3" t="s">
+      <c r="AC233" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB233" t="s">
+      <c r="AD233" t="s">
         <v>45</v>
       </c>
-      <c r="AE233" s="3" t="s">
+      <c r="AG233" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF233" s="3" t="s">
+      <c r="AH233" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="234" spans="2:32" ht="32">
+    <row r="234" spans="2:34" ht="32">
       <c r="B234" s="4" t="s">
         <v>345</v>
       </c>
@@ -16992,14 +17004,14 @@
       <c r="U234">
         <v>200</v>
       </c>
-      <c r="AE234" s="3" t="s">
+      <c r="AG234" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF234" s="3" t="s">
+      <c r="AH234" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="235" spans="2:32" ht="32">
+    <row r="235" spans="2:34" ht="32">
       <c r="B235" s="4" t="s">
         <v>357</v>
       </c>
@@ -17051,14 +17063,14 @@
       <c r="U235">
         <v>10</v>
       </c>
-      <c r="AE235" s="3" t="s">
+      <c r="AG235" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF235" s="3" t="s">
+      <c r="AH235" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="2:32" ht="32">
+    <row r="236" spans="2:34" ht="32">
       <c r="B236" s="4" t="s">
         <v>357</v>
       </c>
@@ -17110,26 +17122,26 @@
       <c r="U236">
         <v>50</v>
       </c>
-      <c r="X236" t="s">
+      <c r="Z236" t="s">
         <v>58</v>
       </c>
-      <c r="Y236" t="s">
+      <c r="AA236" t="s">
         <v>56</v>
       </c>
-      <c r="AC236" t="s">
+      <c r="AE236" t="s">
         <v>144</v>
       </c>
-      <c r="AD236" t="s">
+      <c r="AF236" t="s">
         <v>150</v>
       </c>
-      <c r="AE236" s="3" t="s">
+      <c r="AG236" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF236" s="3" t="s">
+      <c r="AH236" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="237" spans="2:32" ht="48">
+    <row r="237" spans="2:34" ht="48">
       <c r="B237" s="4" t="s">
         <v>357</v>
       </c>
@@ -17181,29 +17193,29 @@
       <c r="U237">
         <v>50</v>
       </c>
-      <c r="X237" t="s">
+      <c r="Z237" t="s">
         <v>61</v>
       </c>
-      <c r="Y237" t="s">
+      <c r="AA237" t="s">
         <v>62</v>
       </c>
-      <c r="Z237" s="3" t="s">
+      <c r="AB237" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA237" s="3" t="s">
+      <c r="AC237" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB237" t="s">
+      <c r="AD237" t="s">
         <v>45</v>
       </c>
-      <c r="AE237" s="3" t="s">
+      <c r="AG237" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF237" s="3" t="s">
+      <c r="AH237" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="238" spans="2:32" ht="32">
+    <row r="238" spans="2:34" ht="32">
       <c r="B238" s="4" t="s">
         <v>357</v>
       </c>
@@ -17253,7 +17265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="2:32" ht="32">
+    <row r="239" spans="2:34" ht="32">
       <c r="B239" s="4" t="s">
         <v>357</v>
       </c>
@@ -17305,26 +17317,26 @@
       <c r="U239">
         <v>40</v>
       </c>
-      <c r="X239" t="s">
+      <c r="Z239" t="s">
         <v>191</v>
       </c>
-      <c r="Y239" t="s">
+      <c r="AA239" t="s">
         <v>186</v>
       </c>
-      <c r="AC239" t="s">
+      <c r="AE239" t="s">
         <v>361</v>
       </c>
-      <c r="AD239" s="6" t="s">
+      <c r="AF239" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="AE239" s="3" t="s">
+      <c r="AG239" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF239" s="3" t="s">
+      <c r="AH239" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="240" spans="2:32" ht="32">
+    <row r="240" spans="2:34" ht="32">
       <c r="B240" s="4" t="s">
         <v>357</v>
       </c>
@@ -17376,14 +17388,14 @@
       <c r="U240">
         <v>200</v>
       </c>
-      <c r="AE240" s="3" t="s">
+      <c r="AG240" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF240" s="3" t="s">
+      <c r="AH240" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="241" spans="2:32" ht="32">
+    <row r="241" spans="2:34" ht="32">
       <c r="B241" s="4" t="s">
         <v>357</v>
       </c>
@@ -17435,14 +17447,14 @@
       <c r="U241">
         <v>10</v>
       </c>
-      <c r="AE241" s="3" t="s">
+      <c r="AG241" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF241" s="3" t="s">
+      <c r="AH241" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="2:32" ht="32">
+    <row r="242" spans="2:34" ht="32">
       <c r="B242" s="4" t="s">
         <v>357</v>
       </c>
@@ -17494,26 +17506,26 @@
       <c r="U242">
         <v>50</v>
       </c>
-      <c r="X242" t="s">
+      <c r="Z242" t="s">
         <v>58</v>
       </c>
-      <c r="Y242" t="s">
+      <c r="AA242" t="s">
         <v>56</v>
       </c>
-      <c r="AC242" s="3" t="s">
+      <c r="AE242" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD242" t="s">
+      <c r="AF242" t="s">
         <v>150</v>
       </c>
-      <c r="AE242" s="3" t="s">
+      <c r="AG242" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF242" s="3" t="s">
+      <c r="AH242" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="243" spans="2:32" ht="48">
+    <row r="243" spans="2:34" ht="48">
       <c r="B243" s="4" t="s">
         <v>357</v>
       </c>
@@ -17565,29 +17577,29 @@
       <c r="U243">
         <v>50</v>
       </c>
-      <c r="X243" t="s">
+      <c r="Z243" t="s">
         <v>61</v>
       </c>
-      <c r="Y243" t="s">
+      <c r="AA243" t="s">
         <v>62</v>
       </c>
-      <c r="Z243" s="3" t="s">
+      <c r="AB243" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA243" s="3" t="s">
+      <c r="AC243" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB243" t="s">
+      <c r="AD243" t="s">
         <v>45</v>
       </c>
-      <c r="AE243" s="3" t="s">
+      <c r="AG243" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF243" s="3" t="s">
+      <c r="AH243" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="2:32" ht="32">
+    <row r="244" spans="2:34" ht="32">
       <c r="B244" s="4" t="s">
         <v>357</v>
       </c>
@@ -17639,15 +17651,15 @@
       <c r="U244">
         <v>200</v>
       </c>
-      <c r="AE244" s="3" t="s">
+      <c r="AG244" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF244" s="3" t="s">
+      <c r="AH244" s="3" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH244" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AJ244" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/curation/draft/collection/collection_specialization_EG_Local.xlsx
+++ b/curation/draft/collection/collection_specialization_EG_Local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643F4BB-C504-B64D-9181-6227A3310672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842463DE-8AE3-934F-9A76-8750F678E0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="4500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_EG" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4667" uniqueCount="376">
   <si>
     <t>package_date</t>
   </si>
@@ -1164,6 +1164,9 @@
   </si>
   <si>
     <t>derivation_description</t>
+  </si>
+  <si>
+    <t>RRAG_EGORRES</t>
   </si>
 </sst>
 </file>
@@ -1608,9 +1611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3067,9 +3070,6 @@
       <c r="N22" t="s">
         <v>186</v>
       </c>
-      <c r="O22" t="s">
-        <v>191</v>
-      </c>
       <c r="Q22" t="s">
         <v>187</v>
       </c>
@@ -3525,9 +3525,6 @@
       <c r="N29" t="s">
         <v>186</v>
       </c>
-      <c r="O29" t="s">
-        <v>191</v>
-      </c>
       <c r="Q29" t="s">
         <v>187</v>
       </c>
@@ -3983,9 +3980,6 @@
       <c r="N36" t="s">
         <v>186</v>
       </c>
-      <c r="O36" t="s">
-        <v>191</v>
-      </c>
       <c r="Q36" t="s">
         <v>187</v>
       </c>
@@ -4441,9 +4435,6 @@
       <c r="N43" t="s">
         <v>186</v>
       </c>
-      <c r="O43" t="s">
-        <v>191</v>
-      </c>
       <c r="Q43" t="s">
         <v>187</v>
       </c>
@@ -4899,9 +4890,6 @@
       <c r="N50" t="s">
         <v>186</v>
       </c>
-      <c r="O50" t="s">
-        <v>191</v>
-      </c>
       <c r="Q50" t="s">
         <v>187</v>
       </c>
@@ -5162,11 +5150,8 @@
       <c r="N54" t="s">
         <v>186</v>
       </c>
-      <c r="O54" t="s">
-        <v>191</v>
-      </c>
       <c r="Q54" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="R54">
         <v>2</v>
@@ -8346,9 +8331,6 @@
       <c r="N101" t="s">
         <v>186</v>
       </c>
-      <c r="O101" t="s">
-        <v>191</v>
-      </c>
       <c r="Q101" t="s">
         <v>187</v>
       </c>
@@ -8418,7 +8400,7 @@
         <v>65</v>
       </c>
       <c r="O102" t="s">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Q102" t="s">
         <v>188</v>
@@ -8747,10 +8729,10 @@
         <v>222</v>
       </c>
       <c r="M107" t="s">
-        <v>223</v>
+        <v>375</v>
       </c>
       <c r="N107" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O107" t="s">
         <v>82</v>
@@ -9136,9 +9118,6 @@
       </c>
       <c r="N113" t="s">
         <v>186</v>
-      </c>
-      <c r="O113" t="s">
-        <v>191</v>
       </c>
       <c r="Q113" t="s">
         <v>187</v>
@@ -10182,9 +10161,6 @@
       <c r="N129" t="s">
         <v>186</v>
       </c>
-      <c r="O129" t="s">
-        <v>191</v>
-      </c>
       <c r="Q129" t="s">
         <v>187</v>
       </c>
@@ -10829,9 +10805,6 @@
       <c r="N139" t="s">
         <v>186</v>
       </c>
-      <c r="O139" t="s">
-        <v>191</v>
-      </c>
       <c r="Q139" t="s">
         <v>187</v>
       </c>
@@ -11476,9 +11449,6 @@
       <c r="N149" t="s">
         <v>186</v>
       </c>
-      <c r="O149" t="s">
-        <v>191</v>
-      </c>
       <c r="Q149" t="s">
         <v>187</v>
       </c>
@@ -12123,9 +12093,6 @@
       <c r="N159" t="s">
         <v>186</v>
       </c>
-      <c r="O159" t="s">
-        <v>191</v>
-      </c>
       <c r="Q159" t="s">
         <v>187</v>
       </c>
@@ -12770,9 +12737,6 @@
       <c r="N169" t="s">
         <v>186</v>
       </c>
-      <c r="O169" t="s">
-        <v>191</v>
-      </c>
       <c r="Q169" t="s">
         <v>187</v>
       </c>
@@ -13417,9 +13381,6 @@
       <c r="N179" t="s">
         <v>186</v>
       </c>
-      <c r="O179" t="s">
-        <v>191</v>
-      </c>
       <c r="Q179" t="s">
         <v>187</v>
       </c>
@@ -14064,9 +14025,6 @@
       <c r="N189" t="s">
         <v>186</v>
       </c>
-      <c r="O189" t="s">
-        <v>191</v>
-      </c>
       <c r="Q189" t="s">
         <v>187</v>
       </c>
@@ -14711,9 +14669,6 @@
       <c r="N199" t="s">
         <v>186</v>
       </c>
-      <c r="O199" t="s">
-        <v>191</v>
-      </c>
       <c r="Q199" t="s">
         <v>187</v>
       </c>
@@ -15358,9 +15313,6 @@
       <c r="N209" t="s">
         <v>186</v>
       </c>
-      <c r="O209" t="s">
-        <v>191</v>
-      </c>
       <c r="Q209" t="s">
         <v>187</v>
       </c>
@@ -16005,9 +15957,6 @@
       <c r="N219" t="s">
         <v>186</v>
       </c>
-      <c r="O219" t="s">
-        <v>191</v>
-      </c>
       <c r="Q219" t="s">
         <v>187</v>
       </c>
@@ -16652,9 +16601,6 @@
       <c r="N229" t="s">
         <v>186</v>
       </c>
-      <c r="O229" t="s">
-        <v>191</v>
-      </c>
       <c r="Q229" t="s">
         <v>187</v>
       </c>
@@ -17298,9 +17244,6 @@
       </c>
       <c r="N239" t="s">
         <v>186</v>
-      </c>
-      <c r="O239" t="s">
-        <v>191</v>
       </c>
       <c r="Q239" t="s">
         <v>187</v>

--- a/curation/draft/collection/collection_specialization_EG_Local.xlsx
+++ b/curation/draft/collection/collection_specialization_EG_Local.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842463DE-8AE3-934F-9A76-8750F678E0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5DC45-EFC5-4227-BF3A-7F48372C29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="4500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_EG" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4667" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="376">
   <si>
     <t>package_date</t>
   </si>
@@ -1173,7 +1173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1611,42 +1611,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.1640625" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="31.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="26.33203125" customWidth="1"/>
-    <col min="18" max="20" width="8.83203125" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" customWidth="1"/>
-    <col min="22" max="22" width="24.1640625" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" customWidth="1"/>
+    <col min="18" max="20" width="8.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" customWidth="1"/>
     <col min="23" max="25" width="21" customWidth="1"/>
     <col min="26" max="26" width="25" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" customWidth="1"/>
-    <col min="28" max="28" width="21.6640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" style="3" customWidth="1"/>
     <col min="29" max="29" width="22" style="3" customWidth="1"/>
-    <col min="30" max="30" width="15.1640625" customWidth="1"/>
-    <col min="31" max="31" width="19.83203125" customWidth="1"/>
-    <col min="32" max="32" width="21.83203125" customWidth="1"/>
-    <col min="33" max="33" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="74.5" style="3" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" customWidth="1"/>
+    <col min="32" max="32" width="21.85546875" customWidth="1"/>
+    <col min="33" max="33" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="74.42578125" style="3" customWidth="1"/>
     <col min="35" max="35" width="16" customWidth="1"/>
-    <col min="36" max="36" width="12.83203125" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="16">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>145</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="16">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>145</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="32">
+    <row r="4" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="32">
+    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="48">
+    <row r="6" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="32">
+    <row r="7" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="32">
+    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>53</v>
       </c>
@@ -2156,9 +2156,6 @@
       <c r="N8" t="s">
         <v>186</v>
       </c>
-      <c r="O8" t="s">
-        <v>191</v>
-      </c>
       <c r="Q8" t="s">
         <v>187</v>
       </c>
@@ -2193,7 +2190,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="32">
+    <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>53</v>
       </c>
@@ -2252,7 +2249,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="32">
+    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2324,7 +2321,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="16">
+    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -2383,7 +2380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="16">
+    <row r="12" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>77</v>
       </c>
@@ -2454,7 +2451,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="48">
+    <row r="13" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>77</v>
       </c>
@@ -2528,7 +2525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="16">
+    <row r="14" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -2578,7 +2575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="16">
+    <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -2612,9 +2609,6 @@
       <c r="N15" t="s">
         <v>186</v>
       </c>
-      <c r="O15" t="s">
-        <v>191</v>
-      </c>
       <c r="Q15" t="s">
         <v>187</v>
       </c>
@@ -2649,7 +2643,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="16">
+    <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>77</v>
       </c>
@@ -2708,7 +2702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="16">
+    <row r="17" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +2776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:34" ht="16">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -2841,7 +2835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="16">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -2912,7 +2906,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="2:34" ht="48">
+    <row r="20" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -2986,7 +2980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="16">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -3036,7 +3030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:34" ht="16">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -3104,7 +3098,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="16">
+    <row r="23" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>86</v>
       </c>
@@ -3163,7 +3157,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="16">
+    <row r="24" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -3237,7 +3231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:34" ht="16">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>91</v>
       </c>
@@ -3296,7 +3290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="16">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>91</v>
       </c>
@@ -3367,7 +3361,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="2:34" ht="48">
+    <row r="27" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>91</v>
       </c>
@@ -3441,7 +3435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="16">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>91</v>
       </c>
@@ -3491,7 +3485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:34" ht="16">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>91</v>
       </c>
@@ -3559,7 +3553,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="2:34" ht="16">
+    <row r="30" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>91</v>
       </c>
@@ -3618,7 +3612,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="2:34" ht="16">
+    <row r="31" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>91</v>
       </c>
@@ -3692,7 +3686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:34" ht="16">
+    <row r="32" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>96</v>
       </c>
@@ -3751,7 +3745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:34" ht="16">
+    <row r="33" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>96</v>
       </c>
@@ -3822,7 +3816,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="48">
+    <row r="34" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>96</v>
       </c>
@@ -3896,7 +3890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="16">
+    <row r="35" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>96</v>
       </c>
@@ -3946,7 +3940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:34" ht="16">
+    <row r="36" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>96</v>
       </c>
@@ -4014,7 +4008,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="2:34" ht="16">
+    <row r="37" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>96</v>
       </c>
@@ -4073,7 +4067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="2:34" ht="16">
+    <row r="38" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>96</v>
       </c>
@@ -4147,7 +4141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:34" ht="16">
+    <row r="39" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>101</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="16">
+    <row r="40" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>101</v>
       </c>
@@ -4277,7 +4271,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="48">
+    <row r="41" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>101</v>
       </c>
@@ -4351,7 +4345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:34" ht="16">
+    <row r="42" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>101</v>
       </c>
@@ -4401,7 +4395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:34" ht="16">
+    <row r="43" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>101</v>
       </c>
@@ -4469,7 +4463,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="2:34" ht="16">
+    <row r="44" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>101</v>
       </c>
@@ -4528,7 +4522,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="2:34" ht="16">
+    <row r="45" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>101</v>
       </c>
@@ -4602,7 +4596,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="32">
+    <row r="46" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>106</v>
       </c>
@@ -4661,7 +4655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="32">
+    <row r="47" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>106</v>
       </c>
@@ -4732,7 +4726,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="2:34" ht="48">
+    <row r="48" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>106</v>
       </c>
@@ -4806,7 +4800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:34" ht="32">
+    <row r="49" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>106</v>
       </c>
@@ -4856,7 +4850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:34" ht="32">
+    <row r="50" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>106</v>
       </c>
@@ -4924,7 +4918,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="32">
+    <row r="51" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>106</v>
       </c>
@@ -4983,7 +4977,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="32">
+    <row r="52" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>106</v>
       </c>
@@ -5057,7 +5051,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:34" ht="16">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>111</v>
       </c>
@@ -5116,7 +5110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:34" ht="16">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>111</v>
       </c>
@@ -5184,7 +5178,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="2:34" ht="16">
+    <row r="55" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>111</v>
       </c>
@@ -5258,7 +5252,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="2:34" ht="16">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>111</v>
       </c>
@@ -5332,7 +5326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="48">
+    <row r="57" spans="2:34" ht="75" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>111</v>
       </c>
@@ -5406,7 +5400,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:34" ht="32">
+    <row r="58" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -5465,7 +5459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:34" ht="32">
+    <row r="59" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -5536,7 +5530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="2:34" ht="48">
+    <row r="60" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>53</v>
       </c>
@@ -5610,7 +5604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:34" ht="32">
+    <row r="61" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>53</v>
       </c>
@@ -5669,7 +5663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="2:34" ht="32">
+    <row r="62" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>53</v>
       </c>
@@ -5740,7 +5734,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="2:34" ht="16">
+    <row r="63" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>77</v>
       </c>
@@ -5799,7 +5793,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="2:34" ht="16">
+    <row r="64" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>77</v>
       </c>
@@ -5870,7 +5864,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="2:34" ht="48">
+    <row r="65" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>77</v>
       </c>
@@ -5944,7 +5938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:34" ht="16">
+    <row r="66" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>77</v>
       </c>
@@ -6003,7 +5997,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="16">
+    <row r="67" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>77</v>
       </c>
@@ -6077,7 +6071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="2:34" ht="16">
+    <row r="68" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>86</v>
       </c>
@@ -6136,7 +6130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="2:34" ht="16">
+    <row r="69" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>86</v>
       </c>
@@ -6207,7 +6201,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="2:34" ht="48">
+    <row r="70" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>86</v>
       </c>
@@ -6281,7 +6275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="2:34" ht="16">
+    <row r="71" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>86</v>
       </c>
@@ -6340,7 +6334,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="2:34" ht="16">
+    <row r="72" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>86</v>
       </c>
@@ -6414,7 +6408,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="2:34" ht="16">
+    <row r="73" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>91</v>
       </c>
@@ -6473,7 +6467,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="2:34" ht="16">
+    <row r="74" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>91</v>
       </c>
@@ -6544,7 +6538,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="2:34" ht="48">
+    <row r="75" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>91</v>
       </c>
@@ -6618,7 +6612,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="2:34" ht="16">
+    <row r="76" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>91</v>
       </c>
@@ -6677,7 +6671,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="2:34" ht="16">
+    <row r="77" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>91</v>
       </c>
@@ -6751,7 +6745,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="2:34" ht="16">
+    <row r="78" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>96</v>
       </c>
@@ -6810,7 +6804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="16">
+    <row r="79" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>96</v>
       </c>
@@ -6881,7 +6875,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="2:34" ht="48">
+    <row r="80" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -6955,7 +6949,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:34" ht="16">
+    <row r="81" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>96</v>
       </c>
@@ -7014,7 +7008,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="2:34" ht="16">
+    <row r="82" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>96</v>
       </c>
@@ -7088,7 +7082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="16">
+    <row r="83" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>101</v>
       </c>
@@ -7147,7 +7141,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="2:34" ht="16">
+    <row r="84" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>101</v>
       </c>
@@ -7218,7 +7212,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="2:34" ht="48">
+    <row r="85" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>101</v>
       </c>
@@ -7292,7 +7286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="2:34" ht="16">
+    <row r="86" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>101</v>
       </c>
@@ -7351,7 +7345,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="2:34" ht="16">
+    <row r="87" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>101</v>
       </c>
@@ -7425,7 +7419,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="2:34" ht="32">
+    <row r="88" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>106</v>
       </c>
@@ -7484,7 +7478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="2:34" ht="32">
+    <row r="89" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>106</v>
       </c>
@@ -7555,7 +7549,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="2:34" ht="48">
+    <row r="90" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>106</v>
       </c>
@@ -7629,7 +7623,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="2:34" ht="32">
+    <row r="91" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>106</v>
       </c>
@@ -7688,7 +7682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="2:34" ht="32">
+    <row r="92" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>106</v>
       </c>
@@ -7762,7 +7756,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="2:34" ht="16">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>111</v>
       </c>
@@ -7821,7 +7815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="2:34" ht="32">
+    <row r="94" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>111</v>
       </c>
@@ -7895,7 +7889,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="2:34" ht="16">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>111</v>
       </c>
@@ -7969,7 +7963,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="2:34" ht="48">
+    <row r="96" spans="2:34" ht="75" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>111</v>
       </c>
@@ -8043,7 +8037,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="2:34" ht="16">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>210</v>
       </c>
@@ -8102,7 +8096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="2:34" ht="16">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>210</v>
       </c>
@@ -8173,7 +8167,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="2:34" ht="48">
+    <row r="99" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>210</v>
       </c>
@@ -8247,7 +8241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="2:34" ht="16">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>210</v>
       </c>
@@ -8297,7 +8291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:34" ht="16">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>210</v>
       </c>
@@ -8365,7 +8359,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="2:34" ht="16">
+    <row r="102" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>210</v>
       </c>
@@ -8424,7 +8418,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="2:34" ht="16">
+    <row r="103" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>210</v>
       </c>
@@ -8496,7 +8490,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="2:34" ht="16">
+    <row r="104" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>210</v>
       </c>
@@ -8555,7 +8549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="2:34" ht="16">
+    <row r="105" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>210</v>
       </c>
@@ -8626,7 +8620,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="2:34" ht="48">
+    <row r="106" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>210</v>
       </c>
@@ -8700,7 +8694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="2:34" ht="16">
+    <row r="107" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>210</v>
       </c>
@@ -8759,7 +8753,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="2:34" ht="16">
+    <row r="108" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>210</v>
       </c>
@@ -8831,7 +8825,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="2:34" ht="16">
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="s">
         <v>248</v>
       </c>
@@ -8890,7 +8884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:34" ht="16">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
         <v>248</v>
       </c>
@@ -8961,7 +8955,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="2:34" ht="48">
+    <row r="111" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
         <v>248</v>
       </c>
@@ -9035,7 +9029,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="2:34" ht="16">
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
         <v>248</v>
       </c>
@@ -9085,7 +9079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="2:34" ht="16">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" s="4" t="s">
         <v>248</v>
       </c>
@@ -9153,7 +9147,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="2:34" ht="16">
+    <row r="114" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="s">
         <v>248</v>
       </c>
@@ -9212,7 +9206,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="2:34" ht="16">
+    <row r="115" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
         <v>248</v>
       </c>
@@ -9279,7 +9273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="2:34" ht="16">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
         <v>248</v>
       </c>
@@ -9338,7 +9332,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="2:34" ht="16">
+    <row r="117" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
         <v>248</v>
       </c>
@@ -9409,7 +9403,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="2:34" ht="48">
+    <row r="118" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
         <v>248</v>
       </c>
@@ -9483,7 +9477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="2:34" ht="16">
+    <row r="119" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
         <v>248</v>
       </c>
@@ -9542,7 +9536,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="2:34" ht="16">
+    <row r="120" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="4" t="s">
         <v>248</v>
       </c>
@@ -9609,7 +9603,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="2:34" ht="16">
+    <row r="121" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="s">
         <v>249</v>
       </c>
@@ -9668,7 +9662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="2:34" ht="16">
+    <row r="122" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>249</v>
       </c>
@@ -9739,7 +9733,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="2:34" ht="32">
+    <row r="123" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
         <v>249</v>
       </c>
@@ -9798,7 +9792,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="2:34" ht="64">
+    <row r="124" spans="2:34" ht="75" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
         <v>249</v>
       </c>
@@ -9873,7 +9867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:34" ht="32">
+    <row r="125" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>246</v>
       </c>
@@ -9932,7 +9926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="2:34" ht="32">
+    <row r="126" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>246</v>
       </c>
@@ -10003,7 +9997,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="2:34" ht="48">
+    <row r="127" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>246</v>
       </c>
@@ -10077,7 +10071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="2:34" ht="32">
+    <row r="128" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>246</v>
       </c>
@@ -10127,7 +10121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="2:34" ht="32">
+    <row r="129" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>246</v>
       </c>
@@ -10195,7 +10189,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="2:34" ht="32">
+    <row r="130" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>246</v>
       </c>
@@ -10254,7 +10248,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="2:34" ht="32">
+    <row r="131" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>246</v>
       </c>
@@ -10313,7 +10307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="2:34" ht="32">
+    <row r="132" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>246</v>
       </c>
@@ -10384,7 +10378,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="2:34" ht="48">
+    <row r="133" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>246</v>
       </c>
@@ -10458,7 +10452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="2:34" ht="32">
+    <row r="134" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>246</v>
       </c>
@@ -10517,7 +10511,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="2:34" ht="32">
+    <row r="135" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>247</v>
       </c>
@@ -10576,7 +10570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="2:34" ht="32">
+    <row r="136" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
         <v>247</v>
       </c>
@@ -10647,7 +10641,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="2:34" ht="48">
+    <row r="137" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
         <v>247</v>
       </c>
@@ -10721,7 +10715,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="2:34" ht="32">
+    <row r="138" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
         <v>247</v>
       </c>
@@ -10771,7 +10765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="2:34" ht="32">
+    <row r="139" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
         <v>247</v>
       </c>
@@ -10839,7 +10833,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="140" spans="2:34" ht="32">
+    <row r="140" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
         <v>247</v>
       </c>
@@ -10898,7 +10892,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="2:34" ht="32">
+    <row r="141" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
         <v>247</v>
       </c>
@@ -10957,7 +10951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="2:34" ht="32">
+    <row r="142" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
         <v>247</v>
       </c>
@@ -11028,7 +11022,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="2:34" ht="48">
+    <row r="143" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
         <v>247</v>
       </c>
@@ -11102,7 +11096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="2:34" ht="32">
+    <row r="144" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
         <v>247</v>
       </c>
@@ -11161,7 +11155,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="2:34" ht="32">
+    <row r="145" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
         <v>267</v>
       </c>
@@ -11220,7 +11214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="2:34" ht="32">
+    <row r="146" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
         <v>267</v>
       </c>
@@ -11291,7 +11285,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="147" spans="2:34" ht="48">
+    <row r="147" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
         <v>267</v>
       </c>
@@ -11365,7 +11359,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="2:34" ht="32">
+    <row r="148" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
         <v>267</v>
       </c>
@@ -11415,7 +11409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="2:34" ht="32">
+    <row r="149" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
         <v>267</v>
       </c>
@@ -11483,7 +11477,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="2:34" ht="32">
+    <row r="150" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
         <v>267</v>
       </c>
@@ -11542,7 +11536,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="2:34" ht="32">
+    <row r="151" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
         <v>267</v>
       </c>
@@ -11601,7 +11595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="2:34" ht="32">
+    <row r="152" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
         <v>267</v>
       </c>
@@ -11672,7 +11666,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="153" spans="2:34" ht="48">
+    <row r="153" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
         <v>267</v>
       </c>
@@ -11746,7 +11740,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="2:34" ht="32">
+    <row r="154" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="s">
         <v>267</v>
       </c>
@@ -11805,7 +11799,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="2:34" ht="32">
+    <row r="155" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="s">
         <v>277</v>
       </c>
@@ -11864,7 +11858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="2:34" ht="32">
+    <row r="156" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
         <v>277</v>
       </c>
@@ -11935,7 +11929,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="2:34" ht="48">
+    <row r="157" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
         <v>277</v>
       </c>
@@ -12009,7 +12003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="2:34" ht="32">
+    <row r="158" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B158" s="4" t="s">
         <v>277</v>
       </c>
@@ -12059,7 +12053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="2:34" ht="32">
+    <row r="159" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
         <v>277</v>
       </c>
@@ -12127,7 +12121,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="160" spans="2:34" ht="32">
+    <row r="160" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B160" s="4" t="s">
         <v>277</v>
       </c>
@@ -12186,7 +12180,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="2:34" ht="48">
+    <row r="161" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
         <v>277</v>
       </c>
@@ -12245,7 +12239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="2:34" ht="48">
+    <row r="162" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B162" s="4" t="s">
         <v>277</v>
       </c>
@@ -12316,7 +12310,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="2:34" ht="48">
+    <row r="163" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B163" s="4" t="s">
         <v>277</v>
       </c>
@@ -12390,7 +12384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="2:34" ht="48">
+    <row r="164" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="4" t="s">
         <v>277</v>
       </c>
@@ -12449,7 +12443,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="2:34" ht="16">
+    <row r="165" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="4" t="s">
         <v>287</v>
       </c>
@@ -12508,7 +12502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="2:34" ht="16">
+    <row r="166" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="4" t="s">
         <v>287</v>
       </c>
@@ -12579,7 +12573,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="167" spans="2:34" ht="48">
+    <row r="167" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
         <v>287</v>
       </c>
@@ -12653,7 +12647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="2:34" ht="16">
+    <row r="168" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B168" s="4" t="s">
         <v>287</v>
       </c>
@@ -12703,7 +12697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="2:34" ht="16">
+    <row r="169" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B169" s="4" t="s">
         <v>287</v>
       </c>
@@ -12771,7 +12765,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="2:34" ht="16">
+    <row r="170" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" s="4" t="s">
         <v>287</v>
       </c>
@@ -12830,7 +12824,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="171" spans="2:34" ht="32">
+    <row r="171" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="4" t="s">
         <v>287</v>
       </c>
@@ -12889,7 +12883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="2:34" ht="32">
+    <row r="172" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="4" t="s">
         <v>287</v>
       </c>
@@ -12960,7 +12954,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="2:34" ht="48">
+    <row r="173" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B173" s="4" t="s">
         <v>287</v>
       </c>
@@ -13034,7 +13028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="2:34" ht="32">
+    <row r="174" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B174" s="4" t="s">
         <v>287</v>
       </c>
@@ -13093,7 +13087,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="175" spans="2:34" ht="32">
+    <row r="175" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="4" t="s">
         <v>297</v>
       </c>
@@ -13152,7 +13146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="2:34" ht="32">
+    <row r="176" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="4" t="s">
         <v>297</v>
       </c>
@@ -13223,7 +13217,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="2:34" ht="48">
+    <row r="177" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B177" s="4" t="s">
         <v>297</v>
       </c>
@@ -13297,7 +13291,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="2:34" ht="32">
+    <row r="178" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
         <v>297</v>
       </c>
@@ -13347,7 +13341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="2:34" ht="32">
+    <row r="179" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="4" t="s">
         <v>297</v>
       </c>
@@ -13415,7 +13409,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="180" spans="2:34" ht="32">
+    <row r="180" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="4" t="s">
         <v>297</v>
       </c>
@@ -13474,7 +13468,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="181" spans="2:34" ht="32">
+    <row r="181" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="4" t="s">
         <v>297</v>
       </c>
@@ -13533,7 +13527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="2:34" ht="32">
+    <row r="182" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="4" t="s">
         <v>297</v>
       </c>
@@ -13604,7 +13598,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="183" spans="2:34" ht="48">
+    <row r="183" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B183" s="4" t="s">
         <v>297</v>
       </c>
@@ -13678,7 +13672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="2:34" ht="32">
+    <row r="184" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="4" t="s">
         <v>297</v>
       </c>
@@ -13737,7 +13731,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="2:34" ht="32">
+    <row r="185" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="4" t="s">
         <v>306</v>
       </c>
@@ -13796,7 +13790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="2:34" ht="32">
+    <row r="186" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B186" s="4" t="s">
         <v>306</v>
       </c>
@@ -13867,7 +13861,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="187" spans="2:34" ht="48">
+    <row r="187" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="4" t="s">
         <v>306</v>
       </c>
@@ -13941,7 +13935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="2:34" ht="32">
+    <row r="188" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B188" s="4" t="s">
         <v>306</v>
       </c>
@@ -13991,7 +13985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="2:34" ht="32">
+    <row r="189" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="4" t="s">
         <v>306</v>
       </c>
@@ -14059,7 +14053,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="190" spans="2:34" ht="32">
+    <row r="190" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B190" s="4" t="s">
         <v>306</v>
       </c>
@@ -14118,7 +14112,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="2:34" ht="32">
+    <row r="191" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B191" s="4" t="s">
         <v>306</v>
       </c>
@@ -14177,7 +14171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="2:34" ht="32">
+    <row r="192" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="4" t="s">
         <v>306</v>
       </c>
@@ -14248,7 +14242,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="193" spans="2:34" ht="48">
+    <row r="193" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B193" s="4" t="s">
         <v>306</v>
       </c>
@@ -14322,7 +14316,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="2:34" ht="32">
+    <row r="194" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B194" s="4" t="s">
         <v>306</v>
       </c>
@@ -14381,7 +14375,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="195" spans="2:34" ht="32">
+    <row r="195" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B195" s="4" t="s">
         <v>318</v>
       </c>
@@ -14440,7 +14434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="2:34" ht="32">
+    <row r="196" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="4" t="s">
         <v>318</v>
       </c>
@@ -14511,7 +14505,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="197" spans="2:34" ht="48">
+    <row r="197" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B197" s="4" t="s">
         <v>318</v>
       </c>
@@ -14585,7 +14579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="198" spans="2:34" ht="32">
+    <row r="198" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="4" t="s">
         <v>318</v>
       </c>
@@ -14635,7 +14629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="2:34" ht="32">
+    <row r="199" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B199" s="4" t="s">
         <v>318</v>
       </c>
@@ -14703,7 +14697,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="200" spans="2:34" ht="32">
+    <row r="200" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B200" s="4" t="s">
         <v>318</v>
       </c>
@@ -14762,7 +14756,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="2:34" ht="32">
+    <row r="201" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="4" t="s">
         <v>318</v>
       </c>
@@ -14821,7 +14815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="2:34" ht="32">
+    <row r="202" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B202" s="4" t="s">
         <v>318</v>
       </c>
@@ -14892,7 +14886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="2:34" ht="48">
+    <row r="203" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B203" s="4" t="s">
         <v>318</v>
       </c>
@@ -14966,7 +14960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="2:34" ht="32">
+    <row r="204" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="4" t="s">
         <v>318</v>
       </c>
@@ -15025,7 +15019,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="205" spans="2:34" ht="32">
+    <row r="205" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B205" s="4" t="s">
         <v>328</v>
       </c>
@@ -15084,7 +15078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="2:34" ht="32">
+    <row r="206" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="4" t="s">
         <v>328</v>
       </c>
@@ -15155,7 +15149,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="207" spans="2:34" ht="48">
+    <row r="207" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B207" s="4" t="s">
         <v>328</v>
       </c>
@@ -15229,7 +15223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="208" spans="2:34" ht="32">
+    <row r="208" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B208" s="4" t="s">
         <v>328</v>
       </c>
@@ -15279,7 +15273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="2:34" ht="32">
+    <row r="209" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="4" t="s">
         <v>328</v>
       </c>
@@ -15347,7 +15341,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="2:34" ht="32">
+    <row r="210" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B210" s="4" t="s">
         <v>328</v>
       </c>
@@ -15406,7 +15400,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="211" spans="2:34" ht="32">
+    <row r="211" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="4" t="s">
         <v>328</v>
       </c>
@@ -15465,7 +15459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="2:34" ht="32">
+    <row r="212" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="4" t="s">
         <v>328</v>
       </c>
@@ -15536,7 +15530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="2:34" ht="48">
+    <row r="213" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B213" s="4" t="s">
         <v>328</v>
       </c>
@@ -15610,7 +15604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="214" spans="2:34" ht="32">
+    <row r="214" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B214" s="4" t="s">
         <v>328</v>
       </c>
@@ -15669,7 +15663,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="215" spans="2:34" ht="32">
+    <row r="215" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="4" t="s">
         <v>336</v>
       </c>
@@ -15728,7 +15722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="2:34" ht="32">
+    <row r="216" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="4" t="s">
         <v>336</v>
       </c>
@@ -15799,7 +15793,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="2:34" ht="48">
+    <row r="217" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B217" s="4" t="s">
         <v>336</v>
       </c>
@@ -15873,7 +15867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="218" spans="2:34" ht="32">
+    <row r="218" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B218" s="4" t="s">
         <v>336</v>
       </c>
@@ -15923,7 +15917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="2:34" ht="32">
+    <row r="219" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="4" t="s">
         <v>336</v>
       </c>
@@ -15991,7 +15985,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="220" spans="2:34" ht="32">
+    <row r="220" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="4" t="s">
         <v>336</v>
       </c>
@@ -16050,7 +16044,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="221" spans="2:34" ht="32">
+    <row r="221" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="4" t="s">
         <v>336</v>
       </c>
@@ -16109,7 +16103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="2:34" ht="32">
+    <row r="222" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B222" s="4" t="s">
         <v>336</v>
       </c>
@@ -16180,7 +16174,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="2:34" ht="48">
+    <row r="223" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B223" s="4" t="s">
         <v>336</v>
       </c>
@@ -16254,7 +16248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="2:34" ht="32">
+    <row r="224" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B224" s="4" t="s">
         <v>336</v>
       </c>
@@ -16313,7 +16307,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="225" spans="2:34" ht="32">
+    <row r="225" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="4" t="s">
         <v>345</v>
       </c>
@@ -16372,7 +16366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="226" spans="2:34" ht="32">
+    <row r="226" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B226" s="4" t="s">
         <v>345</v>
       </c>
@@ -16443,7 +16437,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="2:34" ht="48">
+    <row r="227" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B227" s="4" t="s">
         <v>345</v>
       </c>
@@ -16517,7 +16511,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="228" spans="2:34" ht="32">
+    <row r="228" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B228" s="4" t="s">
         <v>345</v>
       </c>
@@ -16567,7 +16561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="2:34" ht="32">
+    <row r="229" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B229" s="4" t="s">
         <v>345</v>
       </c>
@@ -16635,7 +16629,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="230" spans="2:34" ht="32">
+    <row r="230" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="4" t="s">
         <v>345</v>
       </c>
@@ -16694,7 +16688,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="231" spans="2:34" ht="32">
+    <row r="231" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="4" t="s">
         <v>345</v>
       </c>
@@ -16753,7 +16747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="2:34" ht="32">
+    <row r="232" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="4" t="s">
         <v>345</v>
       </c>
@@ -16824,7 +16818,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="2:34" ht="48">
+    <row r="233" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B233" s="4" t="s">
         <v>345</v>
       </c>
@@ -16898,7 +16892,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="234" spans="2:34" ht="32">
+    <row r="234" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B234" s="4" t="s">
         <v>345</v>
       </c>
@@ -16957,7 +16951,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="235" spans="2:34" ht="32">
+    <row r="235" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B235" s="4" t="s">
         <v>357</v>
       </c>
@@ -17016,7 +17010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="2:34" ht="32">
+    <row r="236" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B236" s="4" t="s">
         <v>357</v>
       </c>
@@ -17087,7 +17081,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="237" spans="2:34" ht="48">
+    <row r="237" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B237" s="4" t="s">
         <v>357</v>
       </c>
@@ -17161,7 +17155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="238" spans="2:34" ht="32">
+    <row r="238" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B238" s="4" t="s">
         <v>357</v>
       </c>
@@ -17211,7 +17205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="2:34" ht="32">
+    <row r="239" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B239" s="4" t="s">
         <v>357</v>
       </c>
@@ -17279,7 +17273,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="240" spans="2:34" ht="32">
+    <row r="240" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B240" s="4" t="s">
         <v>357</v>
       </c>
@@ -17338,7 +17332,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="241" spans="2:34" ht="32">
+    <row r="241" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="4" t="s">
         <v>357</v>
       </c>
@@ -17397,7 +17391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="2:34" ht="32">
+    <row r="242" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="4" t="s">
         <v>357</v>
       </c>
@@ -17468,7 +17462,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="243" spans="2:34" ht="48">
+    <row r="243" spans="2:34" ht="45" x14ac:dyDescent="0.25">
       <c r="B243" s="4" t="s">
         <v>357</v>
       </c>
@@ -17542,7 +17536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="2:34" ht="32">
+    <row r="244" spans="2:34" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="4" t="s">
         <v>357</v>
       </c>

--- a/curation/draft/collection/collection_specialization_EG_Local.xlsx
+++ b/curation/draft/collection/collection_specialization_EG_Local.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5DC45-EFC5-4227-BF3A-7F48372C29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2B491A-980A-E149-A51A-718E3B2DD77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_EG" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="375">
   <si>
     <t>package_date</t>
   </si>
@@ -627,9 +627,6 @@
   </si>
   <si>
     <t>QRS Duration, Aggregate</t>
-  </si>
-  <si>
-    <t>C117780</t>
   </si>
   <si>
     <t>EGTEST = QRS Duration, Aggregate</t>
@@ -1173,7 +1170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1611,42 +1608,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF248" sqref="AF248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.1640625" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="31.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" customWidth="1"/>
-    <col min="18" max="20" width="8.85546875" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" customWidth="1"/>
-    <col min="22" max="22" width="24.140625" customWidth="1"/>
+    <col min="16" max="16" width="31.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="26.33203125" customWidth="1"/>
+    <col min="18" max="20" width="8.83203125" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
+    <col min="22" max="22" width="24.1640625" customWidth="1"/>
     <col min="23" max="25" width="21" customWidth="1"/>
     <col min="26" max="26" width="25" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" customWidth="1"/>
-    <col min="28" max="28" width="21.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" customWidth="1"/>
+    <col min="28" max="28" width="21.6640625" style="3" customWidth="1"/>
     <col min="29" max="29" width="22" style="3" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" customWidth="1"/>
-    <col min="31" max="31" width="19.85546875" customWidth="1"/>
-    <col min="32" max="32" width="21.85546875" customWidth="1"/>
-    <col min="33" max="33" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="74.42578125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" customWidth="1"/>
+    <col min="31" max="31" width="19.83203125" customWidth="1"/>
+    <col min="32" max="32" width="21.83203125" customWidth="1"/>
+    <col min="33" max="33" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="74.5" style="3" customWidth="1"/>
     <col min="35" max="35" width="16" customWidth="1"/>
-    <col min="36" max="36" width="12.85546875" customWidth="1"/>
+    <col min="36" max="36" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -1717,10 +1714,10 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>22</v>
@@ -1756,7 +1753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="16">
       <c r="B2" s="4" t="s">
         <v>145</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="16">
       <c r="B3" s="4" t="s">
         <v>145</v>
       </c>
@@ -1868,7 +1865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="32">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1927,7 +1924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="32">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -1995,10 +1992,10 @@
         <v>56</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="48">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -2072,7 +2069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="32">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -2122,7 +2119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="32">
       <c r="B8" t="s">
         <v>53</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="32">
       <c r="B9" t="s">
         <v>53</v>
       </c>
@@ -2225,7 +2222,7 @@
         <v>65</v>
       </c>
       <c r="O9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q9" t="s">
         <v>188</v>
@@ -2249,7 +2246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="32">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2321,7 +2318,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="16">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -2380,7 +2377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="16">
       <c r="B12" t="s">
         <v>77</v>
       </c>
@@ -2448,10 +2445,10 @@
         <v>56</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="48">
       <c r="B13" t="s">
         <v>77</v>
       </c>
@@ -2525,7 +2522,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="16">
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -2575,7 +2572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="16">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -2633,17 +2630,17 @@
       <c r="AE15" t="s">
         <v>195</v>
       </c>
-      <c r="AF15" t="s">
-        <v>196</v>
+      <c r="AF15" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="16">
       <c r="B16" t="s">
         <v>77</v>
       </c>
@@ -2702,7 +2699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" ht="16">
       <c r="B17" t="s">
         <v>77</v>
       </c>
@@ -2776,7 +2773,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" ht="16">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -2835,7 +2832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" ht="16">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -2903,10 +2900,10 @@
         <v>56</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" ht="48">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -2980,7 +2977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" ht="16">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" ht="16">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -3086,7 +3083,7 @@
         <v>186</v>
       </c>
       <c r="AE22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s">
         <v>86</v>
@@ -3095,10 +3092,10 @@
         <v>193</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" ht="16">
       <c r="B23" t="s">
         <v>86</v>
       </c>
@@ -3157,7 +3154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" ht="16">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -3231,7 +3228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" ht="16">
       <c r="B25" t="s">
         <v>91</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" ht="16">
       <c r="B26" t="s">
         <v>91</v>
       </c>
@@ -3358,10 +3355,10 @@
         <v>56</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" ht="48">
       <c r="B27" t="s">
         <v>91</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" ht="16">
       <c r="B28" t="s">
         <v>91</v>
       </c>
@@ -3485,7 +3482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" ht="16">
       <c r="B29" t="s">
         <v>91</v>
       </c>
@@ -3541,7 +3538,7 @@
         <v>186</v>
       </c>
       <c r="AE29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF29" t="s">
         <v>91</v>
@@ -3550,10 +3547,10 @@
         <v>193</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" ht="16">
       <c r="B30" t="s">
         <v>91</v>
       </c>
@@ -3612,7 +3609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" ht="16">
       <c r="B31" t="s">
         <v>91</v>
       </c>
@@ -3686,7 +3683,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" ht="16">
       <c r="B32" t="s">
         <v>96</v>
       </c>
@@ -3745,7 +3742,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" ht="16">
       <c r="B33" t="s">
         <v>96</v>
       </c>
@@ -3813,10 +3810,10 @@
         <v>56</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" ht="48">
       <c r="B34" t="s">
         <v>96</v>
       </c>
@@ -3890,7 +3887,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" ht="16">
       <c r="B35" t="s">
         <v>96</v>
       </c>
@@ -3940,7 +3937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" ht="16">
       <c r="B36" t="s">
         <v>96</v>
       </c>
@@ -3996,7 +3993,7 @@
         <v>186</v>
       </c>
       <c r="AE36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s">
         <v>96</v>
@@ -4005,10 +4002,10 @@
         <v>193</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" ht="16">
       <c r="B37" t="s">
         <v>96</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" ht="16">
       <c r="B38" t="s">
         <v>96</v>
       </c>
@@ -4141,7 +4138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" ht="16">
       <c r="B39" t="s">
         <v>101</v>
       </c>
@@ -4200,7 +4197,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" ht="16">
       <c r="B40" t="s">
         <v>101</v>
       </c>
@@ -4268,10 +4265,10 @@
         <v>56</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" ht="48">
       <c r="B41" t="s">
         <v>101</v>
       </c>
@@ -4345,7 +4342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" ht="16">
       <c r="B42" t="s">
         <v>101</v>
       </c>
@@ -4395,7 +4392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" ht="16">
       <c r="B43" t="s">
         <v>101</v>
       </c>
@@ -4451,7 +4448,7 @@
         <v>186</v>
       </c>
       <c r="AE43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF43" t="s">
         <v>101</v>
@@ -4460,10 +4457,10 @@
         <v>193</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" ht="16">
       <c r="B44" t="s">
         <v>101</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" ht="16">
       <c r="B45" t="s">
         <v>101</v>
       </c>
@@ -4596,7 +4593,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" ht="32">
       <c r="B46" t="s">
         <v>106</v>
       </c>
@@ -4655,7 +4652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" ht="32">
       <c r="B47" t="s">
         <v>106</v>
       </c>
@@ -4723,10 +4720,10 @@
         <v>56</v>
       </c>
       <c r="AH47" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" ht="48">
       <c r="B48" t="s">
         <v>106</v>
       </c>
@@ -4800,7 +4797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" ht="32">
       <c r="B49" t="s">
         <v>106</v>
       </c>
@@ -4850,7 +4847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" ht="32">
       <c r="B50" t="s">
         <v>106</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>186</v>
       </c>
       <c r="AE50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF50" t="s">
         <v>106</v>
@@ -4915,10 +4912,10 @@
         <v>193</v>
       </c>
       <c r="AH50" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="2:34" ht="32">
       <c r="B51" t="s">
         <v>106</v>
       </c>
@@ -4977,7 +4974,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" ht="32">
       <c r="B52" t="s">
         <v>106</v>
       </c>
@@ -5051,7 +5048,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" ht="16">
       <c r="B53" t="s">
         <v>111</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" ht="16">
       <c r="B54" t="s">
         <v>111</v>
       </c>
@@ -5169,16 +5166,16 @@
         <v>114</v>
       </c>
       <c r="AF54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG54" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="2:34" ht="16">
       <c r="B55" t="s">
         <v>111</v>
       </c>
@@ -5252,7 +5249,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:34" ht="16">
       <c r="B56" t="s">
         <v>111</v>
       </c>
@@ -5290,7 +5287,7 @@
         <v>121</v>
       </c>
       <c r="Q56" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R56">
         <v>4</v>
@@ -5326,7 +5323,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:34" ht="48">
       <c r="B57" t="s">
         <v>111</v>
       </c>
@@ -5400,7 +5397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:34" ht="32">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -5459,7 +5456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:34" ht="32">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -5527,10 +5524,10 @@
         <v>56</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="2:34" ht="48">
       <c r="B60" t="s">
         <v>53</v>
       </c>
@@ -5604,7 +5601,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:34" ht="32">
       <c r="B61" t="s">
         <v>53</v>
       </c>
@@ -5639,7 +5636,7 @@
         <v>65</v>
       </c>
       <c r="O61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q61" t="s">
         <v>66</v>
@@ -5663,7 +5660,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:34" ht="32">
       <c r="B62" t="s">
         <v>53</v>
       </c>
@@ -5734,7 +5731,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:34" ht="16">
       <c r="B63" t="s">
         <v>77</v>
       </c>
@@ -5793,7 +5790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:34" ht="16">
       <c r="B64" t="s">
         <v>77</v>
       </c>
@@ -5861,10 +5858,10 @@
         <v>56</v>
       </c>
       <c r="AH64" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" ht="48">
       <c r="B65" t="s">
         <v>77</v>
       </c>
@@ -5938,7 +5935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:34" ht="16">
       <c r="B66" t="s">
         <v>77</v>
       </c>
@@ -5997,7 +5994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" ht="16">
       <c r="B67" t="s">
         <v>77</v>
       </c>
@@ -6071,7 +6068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" ht="16">
       <c r="B68" t="s">
         <v>86</v>
       </c>
@@ -6130,7 +6127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" ht="16">
       <c r="B69" t="s">
         <v>86</v>
       </c>
@@ -6198,10 +6195,10 @@
         <v>56</v>
       </c>
       <c r="AH69" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="70" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="2:34" ht="48">
       <c r="B70" t="s">
         <v>86</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" ht="16">
       <c r="B71" t="s">
         <v>86</v>
       </c>
@@ -6334,7 +6331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:34" ht="16">
       <c r="B72" t="s">
         <v>86</v>
       </c>
@@ -6408,7 +6405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:34" ht="16">
       <c r="B73" t="s">
         <v>91</v>
       </c>
@@ -6467,7 +6464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:34" ht="16">
       <c r="B74" t="s">
         <v>91</v>
       </c>
@@ -6535,10 +6532,10 @@
         <v>56</v>
       </c>
       <c r="AH74" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" ht="48">
       <c r="B75" t="s">
         <v>91</v>
       </c>
@@ -6612,7 +6609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" ht="16">
       <c r="B76" t="s">
         <v>91</v>
       </c>
@@ -6671,7 +6668,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:34" ht="16">
       <c r="B77" t="s">
         <v>91</v>
       </c>
@@ -6745,7 +6742,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:34" ht="16">
       <c r="B78" t="s">
         <v>96</v>
       </c>
@@ -6804,7 +6801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:34" ht="16">
       <c r="B79" t="s">
         <v>96</v>
       </c>
@@ -6872,10 +6869,10 @@
         <v>56</v>
       </c>
       <c r="AH79" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="80" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="2:34" ht="48">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -6949,7 +6946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:34" ht="16">
       <c r="B81" t="s">
         <v>96</v>
       </c>
@@ -7008,7 +7005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:34" ht="16">
       <c r="B82" t="s">
         <v>96</v>
       </c>
@@ -7082,7 +7079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:34" ht="16">
       <c r="B83" t="s">
         <v>101</v>
       </c>
@@ -7141,7 +7138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:34" ht="16">
       <c r="B84" t="s">
         <v>101</v>
       </c>
@@ -7209,10 +7206,10 @@
         <v>56</v>
       </c>
       <c r="AH84" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="2:34" ht="48">
       <c r="B85" t="s">
         <v>101</v>
       </c>
@@ -7286,7 +7283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:34" ht="16">
       <c r="B86" t="s">
         <v>101</v>
       </c>
@@ -7345,7 +7342,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:34" ht="16">
       <c r="B87" t="s">
         <v>101</v>
       </c>
@@ -7419,7 +7416,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:34" ht="32">
       <c r="B88" t="s">
         <v>106</v>
       </c>
@@ -7478,7 +7475,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:34" ht="32">
       <c r="B89" t="s">
         <v>106</v>
       </c>
@@ -7546,10 +7543,10 @@
         <v>56</v>
       </c>
       <c r="AH89" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="90" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="2:34" ht="48">
       <c r="B90" t="s">
         <v>106</v>
       </c>
@@ -7623,7 +7620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:34" ht="32">
       <c r="B91" t="s">
         <v>106</v>
       </c>
@@ -7682,7 +7679,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:34" ht="32">
       <c r="B92" t="s">
         <v>106</v>
       </c>
@@ -7756,7 +7753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:34" ht="16">
       <c r="B93" t="s">
         <v>111</v>
       </c>
@@ -7815,7 +7812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:34" ht="32">
       <c r="B94" t="s">
         <v>111</v>
       </c>
@@ -7853,7 +7850,7 @@
         <v>113</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R94">
         <v>2</v>
@@ -7889,7 +7886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:34" ht="16">
       <c r="B95" t="s">
         <v>111</v>
       </c>
@@ -7963,7 +7960,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="2:34" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:34" ht="48">
       <c r="B96" t="s">
         <v>111</v>
       </c>
@@ -7992,7 +7989,7 @@
         <v>168</v>
       </c>
       <c r="M96" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N96" t="s">
         <v>123</v>
@@ -8037,24 +8034,24 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:34" ht="16">
       <c r="B97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" t="s">
         <v>211</v>
-      </c>
-      <c r="D97" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" t="s">
-        <v>34</v>
-      </c>
-      <c r="G97" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" t="s">
-        <v>212</v>
       </c>
       <c r="I97" t="s">
         <v>177</v>
@@ -8063,7 +8060,7 @@
         <v>55</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M97" t="s">
         <v>47</v>
@@ -8096,24 +8093,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:34" ht="16">
       <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" t="s">
         <v>211</v>
-      </c>
-      <c r="D98" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" t="s">
-        <v>34</v>
-      </c>
-      <c r="G98" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" t="s">
-        <v>212</v>
       </c>
       <c r="I98" t="s">
         <v>177</v>
@@ -8122,7 +8119,7 @@
         <v>55</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M98" t="s">
         <v>56</v>
@@ -8164,27 +8161,27 @@
         <v>56</v>
       </c>
       <c r="AH98" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" ht="48">
       <c r="B99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" t="s">
         <v>211</v>
-      </c>
-      <c r="D99" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" t="s">
-        <v>34</v>
-      </c>
-      <c r="G99" t="s">
-        <v>35</v>
-      </c>
-      <c r="H99" t="s">
-        <v>212</v>
       </c>
       <c r="I99" t="s">
         <v>177</v>
@@ -8193,7 +8190,7 @@
         <v>55</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M99" t="s">
         <v>59</v>
@@ -8241,24 +8238,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:34" ht="16">
       <c r="B100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" t="s">
         <v>211</v>
-      </c>
-      <c r="D100" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" t="s">
-        <v>212</v>
       </c>
       <c r="I100" t="s">
         <v>177</v>
@@ -8267,7 +8264,7 @@
         <v>55</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M100" t="s">
         <v>189</v>
@@ -8291,24 +8288,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:34" ht="16">
       <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" t="s">
         <v>211</v>
-      </c>
-      <c r="D101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101" t="s">
-        <v>35</v>
-      </c>
-      <c r="H101" t="s">
-        <v>212</v>
       </c>
       <c r="I101" t="s">
         <v>177</v>
@@ -8317,7 +8314,7 @@
         <v>55</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M101" t="s">
         <v>186</v>
@@ -8347,36 +8344,36 @@
         <v>186</v>
       </c>
       <c r="AE101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF101" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG101" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH101" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="102" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="2:34" ht="16">
       <c r="B102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" t="s">
         <v>211</v>
-      </c>
-      <c r="D102" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" t="s">
-        <v>212</v>
       </c>
       <c r="I102" t="s">
         <v>177</v>
@@ -8385,7 +8382,7 @@
         <v>55</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M102" t="s">
         <v>65</v>
@@ -8415,27 +8412,27 @@
         <v>68</v>
       </c>
       <c r="AH102" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="2:34" ht="16">
       <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" t="s">
         <v>211</v>
-      </c>
-      <c r="D103" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" t="s">
-        <v>35</v>
-      </c>
-      <c r="H103" t="s">
-        <v>212</v>
       </c>
       <c r="I103" t="s">
         <v>177</v>
@@ -8444,7 +8441,7 @@
         <v>55</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M103" t="s">
         <v>70</v>
@@ -8478,25 +8475,25 @@
       </c>
       <c r="AD103" s="5"/>
       <c r="AE103" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF103" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="AF103" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="AG103" s="3" t="s">
         <v>76</v>
       </c>
       <c r="AH103" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" ht="16">
       <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="D104" t="s">
         <v>33</v>
       </c>
@@ -8507,7 +8504,7 @@
         <v>35</v>
       </c>
       <c r="H104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I104" t="s">
         <v>160</v>
@@ -8516,7 +8513,7 @@
         <v>55</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M104" t="s">
         <v>47</v>
@@ -8549,13 +8546,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:34" ht="16">
       <c r="B105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="D105" t="s">
         <v>33</v>
       </c>
@@ -8566,7 +8563,7 @@
         <v>35</v>
       </c>
       <c r="H105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I105" t="s">
         <v>160</v>
@@ -8575,7 +8572,7 @@
         <v>55</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M105" t="s">
         <v>56</v>
@@ -8617,27 +8614,27 @@
         <v>56</v>
       </c>
       <c r="AH105" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="2:34" ht="48">
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="2:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D106" t="s">
-        <v>33</v>
-      </c>
-      <c r="E106" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" t="s">
-        <v>221</v>
       </c>
       <c r="I106" t="s">
         <v>160</v>
@@ -8646,7 +8643,7 @@
         <v>55</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M106" t="s">
         <v>59</v>
@@ -8694,13 +8691,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:34" ht="16">
       <c r="B107" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="D107" t="s">
         <v>33</v>
       </c>
@@ -8711,7 +8708,7 @@
         <v>35</v>
       </c>
       <c r="H107" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I107" t="s">
         <v>160</v>
@@ -8720,10 +8717,10 @@
         <v>55</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N107" t="s">
         <v>65</v>
@@ -8750,16 +8747,16 @@
         <v>68</v>
       </c>
       <c r="AH107" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="108" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" ht="16">
       <c r="B108" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="D108" t="s">
         <v>33</v>
       </c>
@@ -8770,7 +8767,7 @@
         <v>35</v>
       </c>
       <c r="H108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I108" t="s">
         <v>160</v>
@@ -8779,10 +8776,10 @@
         <v>55</v>
       </c>
       <c r="L108" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M108" t="s">
         <v>222</v>
-      </c>
-      <c r="M108" t="s">
-        <v>223</v>
       </c>
       <c r="N108" t="s">
         <v>70</v>
@@ -8813,36 +8810,36 @@
       </c>
       <c r="AD108" s="5"/>
       <c r="AE108" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF108" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="AF108" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="AG108" s="3" t="s">
         <v>76</v>
       </c>
       <c r="AH108" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="2:34" ht="16">
       <c r="B109" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C109" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" t="s">
         <v>224</v>
-      </c>
-      <c r="D109" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" t="s">
-        <v>35</v>
-      </c>
-      <c r="H109" t="s">
-        <v>225</v>
       </c>
       <c r="I109" t="s">
         <v>177</v>
@@ -8851,7 +8848,7 @@
         <v>55</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M109" t="s">
         <v>47</v>
@@ -8884,24 +8881,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:34" ht="16">
       <c r="B110" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" t="s">
         <v>224</v>
-      </c>
-      <c r="D110" t="s">
-        <v>33</v>
-      </c>
-      <c r="E110" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" t="s">
-        <v>35</v>
-      </c>
-      <c r="H110" t="s">
-        <v>225</v>
       </c>
       <c r="I110" t="s">
         <v>177</v>
@@ -8910,7 +8907,7 @@
         <v>55</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M110" t="s">
         <v>56</v>
@@ -8952,27 +8949,27 @@
         <v>56</v>
       </c>
       <c r="AH110" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="2:34" ht="48">
       <c r="B111" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" t="s">
         <v>224</v>
-      </c>
-      <c r="D111" t="s">
-        <v>33</v>
-      </c>
-      <c r="E111" t="s">
-        <v>34</v>
-      </c>
-      <c r="G111" t="s">
-        <v>35</v>
-      </c>
-      <c r="H111" t="s">
-        <v>225</v>
       </c>
       <c r="I111" t="s">
         <v>177</v>
@@ -8981,7 +8978,7 @@
         <v>55</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M111" t="s">
         <v>59</v>
@@ -9029,24 +9026,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:34" ht="16">
       <c r="B112" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" t="s">
         <v>224</v>
-      </c>
-      <c r="D112" t="s">
-        <v>33</v>
-      </c>
-      <c r="E112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" t="s">
-        <v>225</v>
       </c>
       <c r="I112" t="s">
         <v>177</v>
@@ -9055,7 +9052,7 @@
         <v>55</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M112" t="s">
         <v>189</v>
@@ -9079,24 +9076,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:34" ht="16">
       <c r="B113" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C113" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" t="s">
         <v>224</v>
-      </c>
-      <c r="D113" t="s">
-        <v>33</v>
-      </c>
-      <c r="E113" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" t="s">
-        <v>225</v>
       </c>
       <c r="I113" t="s">
         <v>177</v>
@@ -9105,7 +9102,7 @@
         <v>55</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M113" t="s">
         <v>186</v>
@@ -9135,36 +9132,36 @@
         <v>186</v>
       </c>
       <c r="AE113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF113" s="6" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="AG113" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH113" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="114" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="2:34" ht="16">
       <c r="B114" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" t="s">
         <v>224</v>
-      </c>
-      <c r="D114" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
-      <c r="H114" t="s">
-        <v>225</v>
       </c>
       <c r="I114" t="s">
         <v>177</v>
@@ -9173,7 +9170,7 @@
         <v>55</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M114" t="s">
         <v>65</v>
@@ -9182,7 +9179,7 @@
         <v>65</v>
       </c>
       <c r="O114" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q114" t="s">
         <v>188</v>
@@ -9203,27 +9200,27 @@
         <v>68</v>
       </c>
       <c r="AH114" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="2:34" ht="16">
       <c r="B115" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C115" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" t="s">
         <v>224</v>
-      </c>
-      <c r="D115" t="s">
-        <v>33</v>
-      </c>
-      <c r="E115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" t="s">
-        <v>35</v>
-      </c>
-      <c r="H115" t="s">
-        <v>225</v>
       </c>
       <c r="I115" t="s">
         <v>177</v>
@@ -9232,7 +9229,7 @@
         <v>55</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M115" t="s">
         <v>70</v>
@@ -9241,7 +9238,7 @@
         <v>70</v>
       </c>
       <c r="O115" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q115" t="s">
         <v>129</v>
@@ -9270,15 +9267,15 @@
         <v>76</v>
       </c>
       <c r="AH115" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="2:34" ht="16">
       <c r="B116" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D116" t="s">
         <v>33</v>
@@ -9290,7 +9287,7 @@
         <v>35</v>
       </c>
       <c r="H116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I116" t="s">
         <v>160</v>
@@ -9299,7 +9296,7 @@
         <v>55</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M116" t="s">
         <v>47</v>
@@ -9332,12 +9329,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:34" ht="16">
       <c r="B117" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D117" t="s">
         <v>33</v>
@@ -9349,7 +9346,7 @@
         <v>35</v>
       </c>
       <c r="H117" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I117" t="s">
         <v>160</v>
@@ -9358,7 +9355,7 @@
         <v>55</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M117" t="s">
         <v>56</v>
@@ -9400,15 +9397,15 @@
         <v>56</v>
       </c>
       <c r="AH117" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="118" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="2:34" ht="48">
       <c r="B118" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D118" t="s">
         <v>33</v>
@@ -9420,7 +9417,7 @@
         <v>35</v>
       </c>
       <c r="H118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I118" t="s">
         <v>160</v>
@@ -9429,7 +9426,7 @@
         <v>55</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M118" t="s">
         <v>59</v>
@@ -9477,12 +9474,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:34" ht="16">
       <c r="B119" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D119" t="s">
         <v>33</v>
@@ -9494,7 +9491,7 @@
         <v>35</v>
       </c>
       <c r="H119" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I119" t="s">
         <v>160</v>
@@ -9503,16 +9500,16 @@
         <v>55</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N119" t="s">
         <v>65</v>
       </c>
       <c r="O119" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q119" t="s">
         <v>188</v>
@@ -9533,15 +9530,15 @@
         <v>68</v>
       </c>
       <c r="AH119" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="2:34" ht="16">
       <c r="B120" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D120" t="s">
         <v>33</v>
@@ -9553,7 +9550,7 @@
         <v>35</v>
       </c>
       <c r="H120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I120" t="s">
         <v>160</v>
@@ -9562,16 +9559,16 @@
         <v>55</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N120" t="s">
         <v>70</v>
       </c>
       <c r="O120" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q120" t="s">
         <v>129</v>
@@ -9600,27 +9597,27 @@
         <v>76</v>
       </c>
       <c r="AH120" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="121" spans="2:34" ht="16">
       <c r="B121" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C121" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" t="s">
         <v>233</v>
-      </c>
-      <c r="D121" t="s">
-        <v>33</v>
-      </c>
-      <c r="E121" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" t="s">
-        <v>35</v>
-      </c>
-      <c r="H121" t="s">
-        <v>234</v>
       </c>
       <c r="I121" t="s">
         <v>160</v>
@@ -9629,7 +9626,7 @@
         <v>55</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M121" t="s">
         <v>47</v>
@@ -9662,24 +9659,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:34" ht="16">
       <c r="B122" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C122" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" t="s">
         <v>233</v>
-      </c>
-      <c r="D122" t="s">
-        <v>33</v>
-      </c>
-      <c r="E122" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" t="s">
-        <v>35</v>
-      </c>
-      <c r="H122" t="s">
-        <v>234</v>
       </c>
       <c r="I122" t="s">
         <v>160</v>
@@ -9688,7 +9685,7 @@
         <v>55</v>
       </c>
       <c r="L122" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M122" t="s">
         <v>56</v>
@@ -9730,27 +9727,27 @@
         <v>56</v>
       </c>
       <c r="AH122" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="123" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123" spans="2:34" ht="32">
       <c r="B123" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C123" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" t="s">
         <v>233</v>
-      </c>
-      <c r="D123" t="s">
-        <v>33</v>
-      </c>
-      <c r="E123" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" t="s">
-        <v>35</v>
-      </c>
-      <c r="H123" t="s">
-        <v>234</v>
       </c>
       <c r="I123" t="s">
         <v>160</v>
@@ -9759,19 +9756,19 @@
         <v>55</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N123" t="s">
         <v>65</v>
       </c>
       <c r="O123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R123">
         <v>3</v>
@@ -9789,27 +9786,27 @@
         <v>68</v>
       </c>
       <c r="AH123" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="124" spans="2:34" ht="75" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="2:34" ht="64">
       <c r="B124" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C124" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" t="s">
         <v>233</v>
-      </c>
-      <c r="D124" t="s">
-        <v>33</v>
-      </c>
-      <c r="E124" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" t="s">
-        <v>35</v>
-      </c>
-      <c r="H124" t="s">
-        <v>234</v>
       </c>
       <c r="I124" t="s">
         <v>160</v>
@@ -9818,10 +9815,10 @@
         <v>55</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N124" t="s">
         <v>123</v>
@@ -9851,10 +9848,10 @@
         <v>126</v>
       </c>
       <c r="AB124" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC124" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="AC124" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="AD124" t="s">
         <v>45</v>
@@ -9867,12 +9864,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:34" ht="32">
       <c r="B125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D125" t="s">
         <v>33</v>
@@ -9884,7 +9881,7 @@
         <v>35</v>
       </c>
       <c r="H125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I125" t="s">
         <v>177</v>
@@ -9893,7 +9890,7 @@
         <v>55</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M125" t="s">
         <v>47</v>
@@ -9926,12 +9923,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:34" ht="32">
       <c r="B126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
@@ -9943,7 +9940,7 @@
         <v>35</v>
       </c>
       <c r="H126" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I126" t="s">
         <v>177</v>
@@ -9952,7 +9949,7 @@
         <v>55</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M126" t="s">
         <v>56</v>
@@ -9994,15 +9991,15 @@
         <v>56</v>
       </c>
       <c r="AH126" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="127" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="2:34" ht="48">
       <c r="B127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D127" t="s">
         <v>33</v>
@@ -10014,7 +10011,7 @@
         <v>35</v>
       </c>
       <c r="H127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I127" t="s">
         <v>177</v>
@@ -10023,7 +10020,7 @@
         <v>55</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M127" t="s">
         <v>59</v>
@@ -10071,12 +10068,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:34" ht="32">
       <c r="B128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D128" t="s">
         <v>33</v>
@@ -10088,7 +10085,7 @@
         <v>35</v>
       </c>
       <c r="H128" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I128" t="s">
         <v>177</v>
@@ -10097,7 +10094,7 @@
         <v>55</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M128" t="s">
         <v>189</v>
@@ -10121,12 +10118,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:34" ht="32">
       <c r="B129" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D129" t="s">
         <v>33</v>
@@ -10138,7 +10135,7 @@
         <v>35</v>
       </c>
       <c r="H129" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I129" t="s">
         <v>177</v>
@@ -10147,7 +10144,7 @@
         <v>55</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M129" t="s">
         <v>186</v>
@@ -10177,24 +10174,24 @@
         <v>186</v>
       </c>
       <c r="AE129" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF129" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG129" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH129" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="130" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="2:34" ht="32">
       <c r="B130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D130" t="s">
         <v>33</v>
@@ -10206,7 +10203,7 @@
         <v>35</v>
       </c>
       <c r="H130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I130" t="s">
         <v>177</v>
@@ -10215,7 +10212,7 @@
         <v>55</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M130" t="s">
         <v>65</v>
@@ -10224,7 +10221,7 @@
         <v>65</v>
       </c>
       <c r="O130" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q130" t="s">
         <v>188</v>
@@ -10245,27 +10242,27 @@
         <v>68</v>
       </c>
       <c r="AH130" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="2:34" ht="32">
+      <c r="B131" t="s">
+        <v>245</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="131" spans="2:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>246</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D131" t="s">
-        <v>33</v>
-      </c>
-      <c r="E131" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" t="s">
-        <v>35</v>
-      </c>
-      <c r="H131" t="s">
-        <v>256</v>
       </c>
       <c r="I131" t="s">
         <v>160</v>
@@ -10274,7 +10271,7 @@
         <v>55</v>
       </c>
       <c r="L131" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M131" t="s">
         <v>47</v>
@@ -10307,12 +10304,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:34" ht="32">
       <c r="B132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D132" t="s">
         <v>33</v>
@@ -10324,7 +10321,7 @@
         <v>35</v>
       </c>
       <c r="H132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I132" t="s">
         <v>160</v>
@@ -10333,7 +10330,7 @@
         <v>55</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M132" t="s">
         <v>56</v>
@@ -10375,15 +10372,15 @@
         <v>56</v>
       </c>
       <c r="AH132" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="133" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="2:34" ht="48">
       <c r="B133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D133" t="s">
         <v>33</v>
@@ -10395,7 +10392,7 @@
         <v>35</v>
       </c>
       <c r="H133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I133" t="s">
         <v>160</v>
@@ -10404,7 +10401,7 @@
         <v>55</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M133" t="s">
         <v>59</v>
@@ -10452,12 +10449,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:34" ht="32">
       <c r="B134" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D134" t="s">
         <v>33</v>
@@ -10469,7 +10466,7 @@
         <v>35</v>
       </c>
       <c r="H134" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I134" t="s">
         <v>160</v>
@@ -10478,16 +10475,16 @@
         <v>55</v>
       </c>
       <c r="L134" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M134" t="s">
         <v>257</v>
-      </c>
-      <c r="M134" t="s">
-        <v>258</v>
       </c>
       <c r="N134" t="s">
         <v>65</v>
       </c>
       <c r="O134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q134" t="s">
         <v>188</v>
@@ -10508,27 +10505,27 @@
         <v>68</v>
       </c>
       <c r="AH134" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="135" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="135" spans="2:34" ht="32">
       <c r="B135" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C135" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D135" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>35</v>
+      </c>
+      <c r="H135" t="s">
         <v>260</v>
-      </c>
-      <c r="D135" t="s">
-        <v>33</v>
-      </c>
-      <c r="E135" t="s">
-        <v>34</v>
-      </c>
-      <c r="G135" t="s">
-        <v>35</v>
-      </c>
-      <c r="H135" t="s">
-        <v>261</v>
       </c>
       <c r="I135" t="s">
         <v>177</v>
@@ -10537,7 +10534,7 @@
         <v>55</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M135" t="s">
         <v>47</v>
@@ -10570,24 +10567,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:34" ht="32">
       <c r="B136" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C136" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D136" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" t="s">
+        <v>35</v>
+      </c>
+      <c r="H136" t="s">
         <v>260</v>
-      </c>
-      <c r="D136" t="s">
-        <v>33</v>
-      </c>
-      <c r="E136" t="s">
-        <v>34</v>
-      </c>
-      <c r="G136" t="s">
-        <v>35</v>
-      </c>
-      <c r="H136" t="s">
-        <v>261</v>
       </c>
       <c r="I136" t="s">
         <v>177</v>
@@ -10596,7 +10593,7 @@
         <v>55</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M136" t="s">
         <v>56</v>
@@ -10638,27 +10635,27 @@
         <v>56</v>
       </c>
       <c r="AH136" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="137" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="2:34" ht="48">
       <c r="B137" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C137" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D137" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
+        <v>35</v>
+      </c>
+      <c r="H137" t="s">
         <v>260</v>
-      </c>
-      <c r="D137" t="s">
-        <v>33</v>
-      </c>
-      <c r="E137" t="s">
-        <v>34</v>
-      </c>
-      <c r="G137" t="s">
-        <v>35</v>
-      </c>
-      <c r="H137" t="s">
-        <v>261</v>
       </c>
       <c r="I137" t="s">
         <v>177</v>
@@ -10667,7 +10664,7 @@
         <v>55</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M137" t="s">
         <v>59</v>
@@ -10715,24 +10712,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:34" ht="32">
       <c r="B138" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C138" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D138" t="s">
+        <v>33</v>
+      </c>
+      <c r="E138" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" t="s">
+        <v>35</v>
+      </c>
+      <c r="H138" t="s">
         <v>260</v>
-      </c>
-      <c r="D138" t="s">
-        <v>33</v>
-      </c>
-      <c r="E138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G138" t="s">
-        <v>35</v>
-      </c>
-      <c r="H138" t="s">
-        <v>261</v>
       </c>
       <c r="I138" t="s">
         <v>177</v>
@@ -10741,7 +10738,7 @@
         <v>55</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M138" t="s">
         <v>189</v>
@@ -10765,24 +10762,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:34" ht="32">
       <c r="B139" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C139" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
+        <v>35</v>
+      </c>
+      <c r="H139" t="s">
         <v>260</v>
-      </c>
-      <c r="D139" t="s">
-        <v>33</v>
-      </c>
-      <c r="E139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G139" t="s">
-        <v>35</v>
-      </c>
-      <c r="H139" t="s">
-        <v>261</v>
       </c>
       <c r="I139" t="s">
         <v>177</v>
@@ -10791,7 +10788,7 @@
         <v>55</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M139" t="s">
         <v>186</v>
@@ -10821,36 +10818,36 @@
         <v>186</v>
       </c>
       <c r="AE139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF139" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG139" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH139" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="140" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="2:34" ht="32">
       <c r="B140" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C140" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D140" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" t="s">
+        <v>35</v>
+      </c>
+      <c r="H140" t="s">
         <v>260</v>
-      </c>
-      <c r="D140" t="s">
-        <v>33</v>
-      </c>
-      <c r="E140" t="s">
-        <v>34</v>
-      </c>
-      <c r="G140" t="s">
-        <v>35</v>
-      </c>
-      <c r="H140" t="s">
-        <v>261</v>
       </c>
       <c r="I140" t="s">
         <v>177</v>
@@ -10859,7 +10856,7 @@
         <v>55</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M140" t="s">
         <v>65</v>
@@ -10868,7 +10865,7 @@
         <v>65</v>
       </c>
       <c r="O140" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q140" t="s">
         <v>188</v>
@@ -10889,15 +10886,15 @@
         <v>68</v>
       </c>
       <c r="AH140" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="141" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="2:34" ht="32">
       <c r="B141" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D141" t="s">
         <v>33</v>
@@ -10909,7 +10906,7 @@
         <v>35</v>
       </c>
       <c r="H141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I141" t="s">
         <v>160</v>
@@ -10918,7 +10915,7 @@
         <v>55</v>
       </c>
       <c r="L141" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M141" t="s">
         <v>47</v>
@@ -10951,12 +10948,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:34" ht="32">
       <c r="B142" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D142" t="s">
         <v>33</v>
@@ -10968,7 +10965,7 @@
         <v>35</v>
       </c>
       <c r="H142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I142" t="s">
         <v>160</v>
@@ -10977,7 +10974,7 @@
         <v>55</v>
       </c>
       <c r="L142" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M142" t="s">
         <v>56</v>
@@ -11019,15 +11016,15 @@
         <v>56</v>
       </c>
       <c r="AH142" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="143" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="2:34" ht="48">
       <c r="B143" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D143" t="s">
         <v>33</v>
@@ -11039,7 +11036,7 @@
         <v>35</v>
       </c>
       <c r="H143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I143" t="s">
         <v>160</v>
@@ -11048,7 +11045,7 @@
         <v>55</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M143" t="s">
         <v>59</v>
@@ -11096,12 +11093,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:34" ht="32">
       <c r="B144" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D144" t="s">
         <v>33</v>
@@ -11113,7 +11110,7 @@
         <v>35</v>
       </c>
       <c r="H144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I144" t="s">
         <v>160</v>
@@ -11122,16 +11119,16 @@
         <v>55</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N144" t="s">
         <v>65</v>
       </c>
       <c r="O144" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q144" t="s">
         <v>188</v>
@@ -11152,27 +11149,27 @@
         <v>68</v>
       </c>
       <c r="AH144" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="145" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="145" spans="2:34" ht="32">
       <c r="B145" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C145" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D145" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>35</v>
+      </c>
+      <c r="H145" t="s">
         <v>269</v>
-      </c>
-      <c r="D145" t="s">
-        <v>33</v>
-      </c>
-      <c r="E145" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" t="s">
-        <v>35</v>
-      </c>
-      <c r="H145" t="s">
-        <v>270</v>
       </c>
       <c r="I145" t="s">
         <v>177</v>
@@ -11181,7 +11178,7 @@
         <v>55</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M145" t="s">
         <v>47</v>
@@ -11214,24 +11211,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:34" ht="32">
       <c r="B146" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C146" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D146" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" t="s">
         <v>269</v>
-      </c>
-      <c r="D146" t="s">
-        <v>33</v>
-      </c>
-      <c r="E146" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" t="s">
-        <v>35</v>
-      </c>
-      <c r="H146" t="s">
-        <v>270</v>
       </c>
       <c r="I146" t="s">
         <v>177</v>
@@ -11240,7 +11237,7 @@
         <v>55</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M146" t="s">
         <v>56</v>
@@ -11282,27 +11279,27 @@
         <v>56</v>
       </c>
       <c r="AH146" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="147" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="2:34" ht="48">
       <c r="B147" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C147" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D147" t="s">
+        <v>33</v>
+      </c>
+      <c r="E147" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
+      <c r="H147" t="s">
         <v>269</v>
-      </c>
-      <c r="D147" t="s">
-        <v>33</v>
-      </c>
-      <c r="E147" t="s">
-        <v>34</v>
-      </c>
-      <c r="G147" t="s">
-        <v>35</v>
-      </c>
-      <c r="H147" t="s">
-        <v>270</v>
       </c>
       <c r="I147" t="s">
         <v>177</v>
@@ -11311,7 +11308,7 @@
         <v>55</v>
       </c>
       <c r="L147" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M147" t="s">
         <v>59</v>
@@ -11359,24 +11356,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:34" ht="32">
       <c r="B148" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C148" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
+      <c r="H148" t="s">
         <v>269</v>
-      </c>
-      <c r="D148" t="s">
-        <v>33</v>
-      </c>
-      <c r="E148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G148" t="s">
-        <v>35</v>
-      </c>
-      <c r="H148" t="s">
-        <v>270</v>
       </c>
       <c r="I148" t="s">
         <v>177</v>
@@ -11385,7 +11382,7 @@
         <v>55</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M148" t="s">
         <v>189</v>
@@ -11409,24 +11406,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:34" ht="32">
       <c r="B149" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C149" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D149" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" t="s">
+        <v>35</v>
+      </c>
+      <c r="H149" t="s">
         <v>269</v>
-      </c>
-      <c r="D149" t="s">
-        <v>33</v>
-      </c>
-      <c r="E149" t="s">
-        <v>34</v>
-      </c>
-      <c r="G149" t="s">
-        <v>35</v>
-      </c>
-      <c r="H149" t="s">
-        <v>270</v>
       </c>
       <c r="I149" t="s">
         <v>177</v>
@@ -11435,7 +11432,7 @@
         <v>55</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M149" t="s">
         <v>186</v>
@@ -11465,36 +11462,36 @@
         <v>186</v>
       </c>
       <c r="AE149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG149" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH149" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="150" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="2:34" ht="32">
       <c r="B150" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C150" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" t="s">
+        <v>34</v>
+      </c>
+      <c r="G150" t="s">
+        <v>35</v>
+      </c>
+      <c r="H150" t="s">
         <v>269</v>
-      </c>
-      <c r="D150" t="s">
-        <v>33</v>
-      </c>
-      <c r="E150" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150" t="s">
-        <v>35</v>
-      </c>
-      <c r="H150" t="s">
-        <v>270</v>
       </c>
       <c r="I150" t="s">
         <v>177</v>
@@ -11503,7 +11500,7 @@
         <v>55</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M150" t="s">
         <v>65</v>
@@ -11512,7 +11509,7 @@
         <v>65</v>
       </c>
       <c r="O150" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q150" t="s">
         <v>188</v>
@@ -11533,27 +11530,27 @@
         <v>68</v>
       </c>
       <c r="AH150" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="151" spans="2:34" ht="32">
+      <c r="B151" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D151" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" t="s">
+        <v>35</v>
+      </c>
+      <c r="H151" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="151" spans="2:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="B151" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D151" t="s">
-        <v>33</v>
-      </c>
-      <c r="E151" t="s">
-        <v>34</v>
-      </c>
-      <c r="G151" t="s">
-        <v>35</v>
-      </c>
-      <c r="H151" t="s">
-        <v>275</v>
       </c>
       <c r="I151" t="s">
         <v>160</v>
@@ -11562,7 +11559,7 @@
         <v>55</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M151" t="s">
         <v>47</v>
@@ -11595,12 +11592,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:34" ht="32">
       <c r="B152" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D152" t="s">
         <v>33</v>
@@ -11612,7 +11609,7 @@
         <v>35</v>
       </c>
       <c r="H152" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I152" t="s">
         <v>160</v>
@@ -11621,7 +11618,7 @@
         <v>55</v>
       </c>
       <c r="L152" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M152" t="s">
         <v>56</v>
@@ -11663,15 +11660,15 @@
         <v>56</v>
       </c>
       <c r="AH152" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="153" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="153" spans="2:34" ht="48">
       <c r="B153" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D153" t="s">
         <v>33</v>
@@ -11683,7 +11680,7 @@
         <v>35</v>
       </c>
       <c r="H153" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I153" t="s">
         <v>160</v>
@@ -11692,7 +11689,7 @@
         <v>55</v>
       </c>
       <c r="L153" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M153" t="s">
         <v>59</v>
@@ -11740,12 +11737,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:34" ht="32">
       <c r="B154" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D154" t="s">
         <v>33</v>
@@ -11757,7 +11754,7 @@
         <v>35</v>
       </c>
       <c r="H154" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I154" t="s">
         <v>160</v>
@@ -11766,16 +11763,16 @@
         <v>55</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M154" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N154" t="s">
         <v>65</v>
       </c>
       <c r="O154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q154" t="s">
         <v>188</v>
@@ -11796,27 +11793,27 @@
         <v>68</v>
       </c>
       <c r="AH154" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="155" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="2:34" ht="32">
       <c r="B155" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C155" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D155" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" t="s">
+        <v>35</v>
+      </c>
+      <c r="H155" t="s">
         <v>279</v>
-      </c>
-      <c r="D155" t="s">
-        <v>33</v>
-      </c>
-      <c r="E155" t="s">
-        <v>34</v>
-      </c>
-      <c r="G155" t="s">
-        <v>35</v>
-      </c>
-      <c r="H155" t="s">
-        <v>280</v>
       </c>
       <c r="I155" t="s">
         <v>177</v>
@@ -11825,7 +11822,7 @@
         <v>55</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M155" t="s">
         <v>47</v>
@@ -11858,24 +11855,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:34" ht="32">
       <c r="B156" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C156" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D156" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" t="s">
+        <v>34</v>
+      </c>
+      <c r="G156" t="s">
+        <v>35</v>
+      </c>
+      <c r="H156" t="s">
         <v>279</v>
-      </c>
-      <c r="D156" t="s">
-        <v>33</v>
-      </c>
-      <c r="E156" t="s">
-        <v>34</v>
-      </c>
-      <c r="G156" t="s">
-        <v>35</v>
-      </c>
-      <c r="H156" t="s">
-        <v>280</v>
       </c>
       <c r="I156" t="s">
         <v>177</v>
@@ -11884,7 +11881,7 @@
         <v>55</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M156" t="s">
         <v>56</v>
@@ -11926,27 +11923,27 @@
         <v>56</v>
       </c>
       <c r="AH156" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="157" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="2:34" ht="48">
       <c r="B157" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C157" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D157" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" t="s">
+        <v>35</v>
+      </c>
+      <c r="H157" t="s">
         <v>279</v>
-      </c>
-      <c r="D157" t="s">
-        <v>33</v>
-      </c>
-      <c r="E157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G157" t="s">
-        <v>35</v>
-      </c>
-      <c r="H157" t="s">
-        <v>280</v>
       </c>
       <c r="I157" t="s">
         <v>177</v>
@@ -11955,7 +11952,7 @@
         <v>55</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M157" t="s">
         <v>59</v>
@@ -12003,24 +12000,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:34" ht="32">
       <c r="B158" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C158" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" t="s">
+        <v>35</v>
+      </c>
+      <c r="H158" t="s">
         <v>279</v>
-      </c>
-      <c r="D158" t="s">
-        <v>33</v>
-      </c>
-      <c r="E158" t="s">
-        <v>34</v>
-      </c>
-      <c r="G158" t="s">
-        <v>35</v>
-      </c>
-      <c r="H158" t="s">
-        <v>280</v>
       </c>
       <c r="I158" t="s">
         <v>177</v>
@@ -12029,7 +12026,7 @@
         <v>55</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M158" t="s">
         <v>189</v>
@@ -12053,24 +12050,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:34" ht="32">
       <c r="B159" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C159" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D159" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" t="s">
+        <v>35</v>
+      </c>
+      <c r="H159" t="s">
         <v>279</v>
-      </c>
-      <c r="D159" t="s">
-        <v>33</v>
-      </c>
-      <c r="E159" t="s">
-        <v>34</v>
-      </c>
-      <c r="G159" t="s">
-        <v>35</v>
-      </c>
-      <c r="H159" t="s">
-        <v>280</v>
       </c>
       <c r="I159" t="s">
         <v>177</v>
@@ -12079,7 +12076,7 @@
         <v>55</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M159" t="s">
         <v>186</v>
@@ -12109,36 +12106,36 @@
         <v>186</v>
       </c>
       <c r="AE159" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF159" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG159" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH159" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="160" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="160" spans="2:34" ht="32">
       <c r="B160" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C160" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D160" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
+      <c r="H160" t="s">
         <v>279</v>
-      </c>
-      <c r="D160" t="s">
-        <v>33</v>
-      </c>
-      <c r="E160" t="s">
-        <v>34</v>
-      </c>
-      <c r="G160" t="s">
-        <v>35</v>
-      </c>
-      <c r="H160" t="s">
-        <v>280</v>
       </c>
       <c r="I160" t="s">
         <v>177</v>
@@ -12147,7 +12144,7 @@
         <v>55</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M160" t="s">
         <v>65</v>
@@ -12156,7 +12153,7 @@
         <v>65</v>
       </c>
       <c r="O160" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q160" t="s">
         <v>188</v>
@@ -12177,15 +12174,15 @@
         <v>68</v>
       </c>
       <c r="AH160" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="161" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="2:34" ht="48">
       <c r="B161" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D161" t="s">
         <v>33</v>
@@ -12197,7 +12194,7 @@
         <v>35</v>
       </c>
       <c r="H161" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I161" t="s">
         <v>160</v>
@@ -12206,7 +12203,7 @@
         <v>55</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M161" t="s">
         <v>47</v>
@@ -12239,12 +12236,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:34" ht="48">
       <c r="B162" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D162" t="s">
         <v>33</v>
@@ -12256,7 +12253,7 @@
         <v>35</v>
       </c>
       <c r="H162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I162" t="s">
         <v>160</v>
@@ -12265,7 +12262,7 @@
         <v>55</v>
       </c>
       <c r="L162" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M162" t="s">
         <v>56</v>
@@ -12307,15 +12304,15 @@
         <v>56</v>
       </c>
       <c r="AH162" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="163" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" spans="2:34" ht="48">
       <c r="B163" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D163" t="s">
         <v>33</v>
@@ -12327,7 +12324,7 @@
         <v>35</v>
       </c>
       <c r="H163" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I163" t="s">
         <v>160</v>
@@ -12336,7 +12333,7 @@
         <v>55</v>
       </c>
       <c r="L163" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M163" t="s">
         <v>59</v>
@@ -12384,12 +12381,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:34" ht="48">
       <c r="B164" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D164" t="s">
         <v>33</v>
@@ -12401,7 +12398,7 @@
         <v>35</v>
       </c>
       <c r="H164" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I164" t="s">
         <v>160</v>
@@ -12410,16 +12407,16 @@
         <v>55</v>
       </c>
       <c r="L164" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M164" t="s">
         <v>285</v>
-      </c>
-      <c r="M164" t="s">
-        <v>286</v>
       </c>
       <c r="N164" t="s">
         <v>65</v>
       </c>
       <c r="O164" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q164" t="s">
         <v>188</v>
@@ -12440,27 +12437,27 @@
         <v>68</v>
       </c>
       <c r="AH164" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="165" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="165" spans="2:34" ht="16">
       <c r="B165" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C165" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D165" t="s">
+        <v>33</v>
+      </c>
+      <c r="E165" t="s">
+        <v>34</v>
+      </c>
+      <c r="G165" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165" t="s">
         <v>289</v>
-      </c>
-      <c r="D165" t="s">
-        <v>33</v>
-      </c>
-      <c r="E165" t="s">
-        <v>34</v>
-      </c>
-      <c r="G165" t="s">
-        <v>35</v>
-      </c>
-      <c r="H165" t="s">
-        <v>290</v>
       </c>
       <c r="I165" t="s">
         <v>177</v>
@@ -12469,7 +12466,7 @@
         <v>55</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M165" t="s">
         <v>47</v>
@@ -12502,24 +12499,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:34" ht="16">
       <c r="B166" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C166" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D166" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" t="s">
+        <v>35</v>
+      </c>
+      <c r="H166" t="s">
         <v>289</v>
-      </c>
-      <c r="D166" t="s">
-        <v>33</v>
-      </c>
-      <c r="E166" t="s">
-        <v>34</v>
-      </c>
-      <c r="G166" t="s">
-        <v>35</v>
-      </c>
-      <c r="H166" t="s">
-        <v>290</v>
       </c>
       <c r="I166" t="s">
         <v>177</v>
@@ -12528,7 +12525,7 @@
         <v>55</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M166" t="s">
         <v>56</v>
@@ -12570,27 +12567,27 @@
         <v>56</v>
       </c>
       <c r="AH166" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="167" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167" spans="2:34" ht="48">
       <c r="B167" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C167" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D167" t="s">
+        <v>33</v>
+      </c>
+      <c r="E167" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>35</v>
+      </c>
+      <c r="H167" t="s">
         <v>289</v>
-      </c>
-      <c r="D167" t="s">
-        <v>33</v>
-      </c>
-      <c r="E167" t="s">
-        <v>34</v>
-      </c>
-      <c r="G167" t="s">
-        <v>35</v>
-      </c>
-      <c r="H167" t="s">
-        <v>290</v>
       </c>
       <c r="I167" t="s">
         <v>177</v>
@@ -12599,7 +12596,7 @@
         <v>55</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M167" t="s">
         <v>59</v>
@@ -12647,24 +12644,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:34" ht="16">
       <c r="B168" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C168" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>35</v>
+      </c>
+      <c r="H168" t="s">
         <v>289</v>
-      </c>
-      <c r="D168" t="s">
-        <v>33</v>
-      </c>
-      <c r="E168" t="s">
-        <v>34</v>
-      </c>
-      <c r="G168" t="s">
-        <v>35</v>
-      </c>
-      <c r="H168" t="s">
-        <v>290</v>
       </c>
       <c r="I168" t="s">
         <v>177</v>
@@ -12673,7 +12670,7 @@
         <v>55</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M168" t="s">
         <v>189</v>
@@ -12697,24 +12694,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:34" ht="16">
       <c r="B169" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C169" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D169" t="s">
+        <v>33</v>
+      </c>
+      <c r="E169" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>35</v>
+      </c>
+      <c r="H169" t="s">
         <v>289</v>
-      </c>
-      <c r="D169" t="s">
-        <v>33</v>
-      </c>
-      <c r="E169" t="s">
-        <v>34</v>
-      </c>
-      <c r="G169" t="s">
-        <v>35</v>
-      </c>
-      <c r="H169" t="s">
-        <v>290</v>
       </c>
       <c r="I169" t="s">
         <v>177</v>
@@ -12723,7 +12720,7 @@
         <v>55</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M169" t="s">
         <v>186</v>
@@ -12753,36 +12750,36 @@
         <v>186</v>
       </c>
       <c r="AE169" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF169" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG169" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH169" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="170" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="170" spans="2:34" ht="16">
       <c r="B170" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C170" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D170" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170" t="s">
         <v>289</v>
-      </c>
-      <c r="D170" t="s">
-        <v>33</v>
-      </c>
-      <c r="E170" t="s">
-        <v>34</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
-      <c r="H170" t="s">
-        <v>290</v>
       </c>
       <c r="I170" t="s">
         <v>177</v>
@@ -12791,7 +12788,7 @@
         <v>55</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M170" t="s">
         <v>65</v>
@@ -12800,7 +12797,7 @@
         <v>65</v>
       </c>
       <c r="O170" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q170" t="s">
         <v>188</v>
@@ -12821,15 +12818,15 @@
         <v>68</v>
       </c>
       <c r="AH170" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="171" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="171" spans="2:34" ht="32">
       <c r="B171" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D171" t="s">
         <v>33</v>
@@ -12841,7 +12838,7 @@
         <v>35</v>
       </c>
       <c r="H171" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I171" t="s">
         <v>160</v>
@@ -12850,7 +12847,7 @@
         <v>55</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M171" t="s">
         <v>47</v>
@@ -12883,12 +12880,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:34" ht="32">
       <c r="B172" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D172" t="s">
         <v>33</v>
@@ -12900,7 +12897,7 @@
         <v>35</v>
       </c>
       <c r="H172" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I172" t="s">
         <v>160</v>
@@ -12909,7 +12906,7 @@
         <v>55</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M172" t="s">
         <v>56</v>
@@ -12951,15 +12948,15 @@
         <v>56</v>
       </c>
       <c r="AH172" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="173" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" spans="2:34" ht="48">
       <c r="B173" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D173" t="s">
         <v>33</v>
@@ -12971,7 +12968,7 @@
         <v>35</v>
       </c>
       <c r="H173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I173" t="s">
         <v>160</v>
@@ -12980,7 +12977,7 @@
         <v>55</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M173" t="s">
         <v>59</v>
@@ -13028,12 +13025,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:34" ht="32">
       <c r="B174" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D174" t="s">
         <v>33</v>
@@ -13045,7 +13042,7 @@
         <v>35</v>
       </c>
       <c r="H174" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I174" t="s">
         <v>160</v>
@@ -13054,16 +13051,16 @@
         <v>55</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M174" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N174" t="s">
         <v>65</v>
       </c>
       <c r="O174" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q174" t="s">
         <v>188</v>
@@ -13084,27 +13081,27 @@
         <v>68</v>
       </c>
       <c r="AH174" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="175" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="175" spans="2:34" ht="32">
       <c r="B175" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C175" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D175" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" t="s">
+        <v>35</v>
+      </c>
+      <c r="H175" t="s">
         <v>299</v>
-      </c>
-      <c r="D175" t="s">
-        <v>33</v>
-      </c>
-      <c r="E175" t="s">
-        <v>34</v>
-      </c>
-      <c r="G175" t="s">
-        <v>35</v>
-      </c>
-      <c r="H175" t="s">
-        <v>300</v>
       </c>
       <c r="I175" t="s">
         <v>177</v>
@@ -13113,7 +13110,7 @@
         <v>55</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M175" t="s">
         <v>47</v>
@@ -13146,24 +13143,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:34" ht="32">
       <c r="B176" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C176" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D176" t="s">
+        <v>33</v>
+      </c>
+      <c r="E176" t="s">
+        <v>34</v>
+      </c>
+      <c r="G176" t="s">
+        <v>35</v>
+      </c>
+      <c r="H176" t="s">
         <v>299</v>
-      </c>
-      <c r="D176" t="s">
-        <v>33</v>
-      </c>
-      <c r="E176" t="s">
-        <v>34</v>
-      </c>
-      <c r="G176" t="s">
-        <v>35</v>
-      </c>
-      <c r="H176" t="s">
-        <v>300</v>
       </c>
       <c r="I176" t="s">
         <v>177</v>
@@ -13172,7 +13169,7 @@
         <v>55</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M176" t="s">
         <v>56</v>
@@ -13214,27 +13211,27 @@
         <v>56</v>
       </c>
       <c r="AH176" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="177" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" spans="2:34" ht="48">
       <c r="B177" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C177" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D177" t="s">
+        <v>33</v>
+      </c>
+      <c r="E177" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" t="s">
+        <v>35</v>
+      </c>
+      <c r="H177" t="s">
         <v>299</v>
-      </c>
-      <c r="D177" t="s">
-        <v>33</v>
-      </c>
-      <c r="E177" t="s">
-        <v>34</v>
-      </c>
-      <c r="G177" t="s">
-        <v>35</v>
-      </c>
-      <c r="H177" t="s">
-        <v>300</v>
       </c>
       <c r="I177" t="s">
         <v>177</v>
@@ -13243,7 +13240,7 @@
         <v>55</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M177" t="s">
         <v>59</v>
@@ -13291,24 +13288,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:34" ht="32">
       <c r="B178" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C178" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D178" t="s">
+        <v>33</v>
+      </c>
+      <c r="E178" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" t="s">
+        <v>35</v>
+      </c>
+      <c r="H178" t="s">
         <v>299</v>
-      </c>
-      <c r="D178" t="s">
-        <v>33</v>
-      </c>
-      <c r="E178" t="s">
-        <v>34</v>
-      </c>
-      <c r="G178" t="s">
-        <v>35</v>
-      </c>
-      <c r="H178" t="s">
-        <v>300</v>
       </c>
       <c r="I178" t="s">
         <v>177</v>
@@ -13317,7 +13314,7 @@
         <v>55</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M178" t="s">
         <v>189</v>
@@ -13341,24 +13338,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:34" ht="32">
       <c r="B179" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C179" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D179" t="s">
+        <v>33</v>
+      </c>
+      <c r="E179" t="s">
+        <v>34</v>
+      </c>
+      <c r="G179" t="s">
+        <v>35</v>
+      </c>
+      <c r="H179" t="s">
         <v>299</v>
-      </c>
-      <c r="D179" t="s">
-        <v>33</v>
-      </c>
-      <c r="E179" t="s">
-        <v>34</v>
-      </c>
-      <c r="G179" t="s">
-        <v>35</v>
-      </c>
-      <c r="H179" t="s">
-        <v>300</v>
       </c>
       <c r="I179" t="s">
         <v>177</v>
@@ -13367,7 +13364,7 @@
         <v>55</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M179" t="s">
         <v>186</v>
@@ -13397,36 +13394,36 @@
         <v>186</v>
       </c>
       <c r="AE179" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF179" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG179" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH179" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="180" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="180" spans="2:34" ht="32">
       <c r="B180" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C180" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D180" t="s">
+        <v>33</v>
+      </c>
+      <c r="E180" t="s">
+        <v>34</v>
+      </c>
+      <c r="G180" t="s">
+        <v>35</v>
+      </c>
+      <c r="H180" t="s">
         <v>299</v>
-      </c>
-      <c r="D180" t="s">
-        <v>33</v>
-      </c>
-      <c r="E180" t="s">
-        <v>34</v>
-      </c>
-      <c r="G180" t="s">
-        <v>35</v>
-      </c>
-      <c r="H180" t="s">
-        <v>300</v>
       </c>
       <c r="I180" t="s">
         <v>177</v>
@@ -13435,7 +13432,7 @@
         <v>55</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M180" t="s">
         <v>65</v>
@@ -13444,7 +13441,7 @@
         <v>65</v>
       </c>
       <c r="O180" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q180" t="s">
         <v>188</v>
@@ -13465,15 +13462,15 @@
         <v>68</v>
       </c>
       <c r="AH180" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="181" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="181" spans="2:34" ht="32">
       <c r="B181" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D181" t="s">
         <v>33</v>
@@ -13485,7 +13482,7 @@
         <v>35</v>
       </c>
       <c r="H181" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I181" t="s">
         <v>160</v>
@@ -13494,7 +13491,7 @@
         <v>55</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M181" t="s">
         <v>47</v>
@@ -13527,12 +13524,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:34" ht="32">
       <c r="B182" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D182" t="s">
         <v>33</v>
@@ -13544,7 +13541,7 @@
         <v>35</v>
       </c>
       <c r="H182" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I182" t="s">
         <v>160</v>
@@ -13553,7 +13550,7 @@
         <v>55</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M182" t="s">
         <v>56</v>
@@ -13595,15 +13592,15 @@
         <v>56</v>
       </c>
       <c r="AH182" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="183" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="183" spans="2:34" ht="48">
       <c r="B183" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D183" t="s">
         <v>33</v>
@@ -13615,7 +13612,7 @@
         <v>35</v>
       </c>
       <c r="H183" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I183" t="s">
         <v>160</v>
@@ -13624,7 +13621,7 @@
         <v>55</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M183" t="s">
         <v>59</v>
@@ -13672,12 +13669,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:34" ht="32">
       <c r="B184" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D184" t="s">
         <v>33</v>
@@ -13689,7 +13686,7 @@
         <v>35</v>
       </c>
       <c r="H184" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I184" t="s">
         <v>160</v>
@@ -13698,16 +13695,16 @@
         <v>55</v>
       </c>
       <c r="L184" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="M184" t="s">
         <v>304</v>
-      </c>
-      <c r="M184" t="s">
-        <v>305</v>
       </c>
       <c r="N184" t="s">
         <v>65</v>
       </c>
       <c r="O184" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q184" t="s">
         <v>188</v>
@@ -13728,27 +13725,27 @@
         <v>68</v>
       </c>
       <c r="AH184" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="185" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="2:34" ht="32">
       <c r="B185" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C185" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D185" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" t="s">
+        <v>34</v>
+      </c>
+      <c r="G185" t="s">
+        <v>35</v>
+      </c>
+      <c r="H185" t="s">
         <v>308</v>
-      </c>
-      <c r="D185" t="s">
-        <v>33</v>
-      </c>
-      <c r="E185" t="s">
-        <v>34</v>
-      </c>
-      <c r="G185" t="s">
-        <v>35</v>
-      </c>
-      <c r="H185" t="s">
-        <v>309</v>
       </c>
       <c r="I185" t="s">
         <v>177</v>
@@ -13757,7 +13754,7 @@
         <v>55</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M185" t="s">
         <v>47</v>
@@ -13790,24 +13787,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:34" ht="32">
       <c r="B186" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C186" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D186" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" t="s">
+        <v>34</v>
+      </c>
+      <c r="G186" t="s">
+        <v>35</v>
+      </c>
+      <c r="H186" t="s">
         <v>308</v>
-      </c>
-      <c r="D186" t="s">
-        <v>33</v>
-      </c>
-      <c r="E186" t="s">
-        <v>34</v>
-      </c>
-      <c r="G186" t="s">
-        <v>35</v>
-      </c>
-      <c r="H186" t="s">
-        <v>309</v>
       </c>
       <c r="I186" t="s">
         <v>177</v>
@@ -13816,7 +13813,7 @@
         <v>55</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M186" t="s">
         <v>56</v>
@@ -13858,27 +13855,27 @@
         <v>56</v>
       </c>
       <c r="AH186" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="187" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="187" spans="2:34" ht="48">
       <c r="B187" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C187" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D187" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" t="s">
+        <v>35</v>
+      </c>
+      <c r="H187" t="s">
         <v>308</v>
-      </c>
-      <c r="D187" t="s">
-        <v>33</v>
-      </c>
-      <c r="E187" t="s">
-        <v>34</v>
-      </c>
-      <c r="G187" t="s">
-        <v>35</v>
-      </c>
-      <c r="H187" t="s">
-        <v>309</v>
       </c>
       <c r="I187" t="s">
         <v>177</v>
@@ -13887,7 +13884,7 @@
         <v>55</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M187" t="s">
         <v>59</v>
@@ -13935,24 +13932,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:34" ht="32">
       <c r="B188" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C188" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D188" t="s">
+        <v>33</v>
+      </c>
+      <c r="E188" t="s">
+        <v>34</v>
+      </c>
+      <c r="G188" t="s">
+        <v>35</v>
+      </c>
+      <c r="H188" t="s">
         <v>308</v>
-      </c>
-      <c r="D188" t="s">
-        <v>33</v>
-      </c>
-      <c r="E188" t="s">
-        <v>34</v>
-      </c>
-      <c r="G188" t="s">
-        <v>35</v>
-      </c>
-      <c r="H188" t="s">
-        <v>309</v>
       </c>
       <c r="I188" t="s">
         <v>177</v>
@@ -13961,7 +13958,7 @@
         <v>55</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M188" t="s">
         <v>189</v>
@@ -13985,24 +13982,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:34" ht="32">
       <c r="B189" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C189" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D189" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" t="s">
+        <v>35</v>
+      </c>
+      <c r="H189" t="s">
         <v>308</v>
-      </c>
-      <c r="D189" t="s">
-        <v>33</v>
-      </c>
-      <c r="E189" t="s">
-        <v>34</v>
-      </c>
-      <c r="G189" t="s">
-        <v>35</v>
-      </c>
-      <c r="H189" t="s">
-        <v>309</v>
       </c>
       <c r="I189" t="s">
         <v>177</v>
@@ -14011,7 +14008,7 @@
         <v>55</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M189" t="s">
         <v>186</v>
@@ -14041,36 +14038,36 @@
         <v>186</v>
       </c>
       <c r="AE189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF189" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG189" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH189" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="190" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="190" spans="2:34" ht="32">
       <c r="B190" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C190" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D190" t="s">
+        <v>33</v>
+      </c>
+      <c r="E190" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" t="s">
+        <v>35</v>
+      </c>
+      <c r="H190" t="s">
         <v>308</v>
-      </c>
-      <c r="D190" t="s">
-        <v>33</v>
-      </c>
-      <c r="E190" t="s">
-        <v>34</v>
-      </c>
-      <c r="G190" t="s">
-        <v>35</v>
-      </c>
-      <c r="H190" t="s">
-        <v>309</v>
       </c>
       <c r="I190" t="s">
         <v>177</v>
@@ -14079,7 +14076,7 @@
         <v>55</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M190" t="s">
         <v>65</v>
@@ -14088,7 +14085,7 @@
         <v>65</v>
       </c>
       <c r="O190" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q190" t="s">
         <v>188</v>
@@ -14109,15 +14106,15 @@
         <v>68</v>
       </c>
       <c r="AH190" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="191" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="191" spans="2:34" ht="32">
       <c r="B191" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D191" t="s">
         <v>33</v>
@@ -14129,7 +14126,7 @@
         <v>35</v>
       </c>
       <c r="H191" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I191" t="s">
         <v>160</v>
@@ -14138,7 +14135,7 @@
         <v>55</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M191" t="s">
         <v>47</v>
@@ -14171,12 +14168,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:34" ht="32">
       <c r="B192" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D192" t="s">
         <v>33</v>
@@ -14188,7 +14185,7 @@
         <v>35</v>
       </c>
       <c r="H192" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I192" t="s">
         <v>160</v>
@@ -14197,7 +14194,7 @@
         <v>55</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M192" t="s">
         <v>56</v>
@@ -14239,15 +14236,15 @@
         <v>56</v>
       </c>
       <c r="AH192" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="2:34" ht="48">
       <c r="B193" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D193" t="s">
         <v>33</v>
@@ -14259,7 +14256,7 @@
         <v>35</v>
       </c>
       <c r="H193" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I193" t="s">
         <v>160</v>
@@ -14268,7 +14265,7 @@
         <v>55</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M193" t="s">
         <v>59</v>
@@ -14316,12 +14313,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:34" ht="32">
       <c r="B194" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D194" t="s">
         <v>33</v>
@@ -14333,7 +14330,7 @@
         <v>35</v>
       </c>
       <c r="H194" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I194" t="s">
         <v>160</v>
@@ -14342,16 +14339,16 @@
         <v>55</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M194" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N194" t="s">
         <v>65</v>
       </c>
       <c r="O194" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q194" t="s">
         <v>188</v>
@@ -14372,27 +14369,27 @@
         <v>68</v>
       </c>
       <c r="AH194" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="195" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="195" spans="2:34" ht="32">
       <c r="B195" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C195" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D195" t="s">
+        <v>33</v>
+      </c>
+      <c r="E195" t="s">
+        <v>34</v>
+      </c>
+      <c r="G195" t="s">
+        <v>35</v>
+      </c>
+      <c r="H195" t="s">
         <v>320</v>
-      </c>
-      <c r="D195" t="s">
-        <v>33</v>
-      </c>
-      <c r="E195" t="s">
-        <v>34</v>
-      </c>
-      <c r="G195" t="s">
-        <v>35</v>
-      </c>
-      <c r="H195" t="s">
-        <v>321</v>
       </c>
       <c r="I195" t="s">
         <v>177</v>
@@ -14401,7 +14398,7 @@
         <v>55</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M195" t="s">
         <v>47</v>
@@ -14434,24 +14431,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:34" ht="32">
       <c r="B196" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C196" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D196" t="s">
+        <v>33</v>
+      </c>
+      <c r="E196" t="s">
+        <v>34</v>
+      </c>
+      <c r="G196" t="s">
+        <v>35</v>
+      </c>
+      <c r="H196" t="s">
         <v>320</v>
-      </c>
-      <c r="D196" t="s">
-        <v>33</v>
-      </c>
-      <c r="E196" t="s">
-        <v>34</v>
-      </c>
-      <c r="G196" t="s">
-        <v>35</v>
-      </c>
-      <c r="H196" t="s">
-        <v>321</v>
       </c>
       <c r="I196" t="s">
         <v>177</v>
@@ -14460,7 +14457,7 @@
         <v>55</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M196" t="s">
         <v>56</v>
@@ -14502,27 +14499,27 @@
         <v>56</v>
       </c>
       <c r="AH196" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="197" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="2:34" ht="48">
       <c r="B197" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C197" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D197" t="s">
+        <v>33</v>
+      </c>
+      <c r="E197" t="s">
+        <v>34</v>
+      </c>
+      <c r="G197" t="s">
+        <v>35</v>
+      </c>
+      <c r="H197" t="s">
         <v>320</v>
-      </c>
-      <c r="D197" t="s">
-        <v>33</v>
-      </c>
-      <c r="E197" t="s">
-        <v>34</v>
-      </c>
-      <c r="G197" t="s">
-        <v>35</v>
-      </c>
-      <c r="H197" t="s">
-        <v>321</v>
       </c>
       <c r="I197" t="s">
         <v>177</v>
@@ -14531,7 +14528,7 @@
         <v>55</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M197" t="s">
         <v>59</v>
@@ -14579,24 +14576,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="198" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:34" ht="32">
       <c r="B198" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C198" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E198" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" t="s">
+        <v>35</v>
+      </c>
+      <c r="H198" t="s">
         <v>320</v>
-      </c>
-      <c r="D198" t="s">
-        <v>33</v>
-      </c>
-      <c r="E198" t="s">
-        <v>34</v>
-      </c>
-      <c r="G198" t="s">
-        <v>35</v>
-      </c>
-      <c r="H198" t="s">
-        <v>321</v>
       </c>
       <c r="I198" t="s">
         <v>177</v>
@@ -14605,7 +14602,7 @@
         <v>55</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M198" t="s">
         <v>189</v>
@@ -14629,24 +14626,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:34" ht="32">
       <c r="B199" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C199" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D199" t="s">
+        <v>33</v>
+      </c>
+      <c r="E199" t="s">
+        <v>34</v>
+      </c>
+      <c r="G199" t="s">
+        <v>35</v>
+      </c>
+      <c r="H199" t="s">
         <v>320</v>
-      </c>
-      <c r="D199" t="s">
-        <v>33</v>
-      </c>
-      <c r="E199" t="s">
-        <v>34</v>
-      </c>
-      <c r="G199" t="s">
-        <v>35</v>
-      </c>
-      <c r="H199" t="s">
-        <v>321</v>
       </c>
       <c r="I199" t="s">
         <v>177</v>
@@ -14655,7 +14652,7 @@
         <v>55</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M199" t="s">
         <v>186</v>
@@ -14685,36 +14682,36 @@
         <v>186</v>
       </c>
       <c r="AE199" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF199" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG199" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH199" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="200" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200" spans="2:34" ht="32">
       <c r="B200" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C200" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E200" t="s">
+        <v>34</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
+      </c>
+      <c r="H200" t="s">
         <v>320</v>
-      </c>
-      <c r="D200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E200" t="s">
-        <v>34</v>
-      </c>
-      <c r="G200" t="s">
-        <v>35</v>
-      </c>
-      <c r="H200" t="s">
-        <v>321</v>
       </c>
       <c r="I200" t="s">
         <v>177</v>
@@ -14723,7 +14720,7 @@
         <v>55</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M200" t="s">
         <v>65</v>
@@ -14732,7 +14729,7 @@
         <v>65</v>
       </c>
       <c r="O200" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q200" t="s">
         <v>188</v>
@@ -14753,15 +14750,15 @@
         <v>68</v>
       </c>
       <c r="AH200" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="201" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="201" spans="2:34" ht="32">
       <c r="B201" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D201" t="s">
         <v>33</v>
@@ -14773,7 +14770,7 @@
         <v>35</v>
       </c>
       <c r="H201" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I201" t="s">
         <v>160</v>
@@ -14782,7 +14779,7 @@
         <v>55</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M201" t="s">
         <v>47</v>
@@ -14815,12 +14812,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:34" ht="32">
       <c r="B202" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D202" t="s">
         <v>33</v>
@@ -14832,7 +14829,7 @@
         <v>35</v>
       </c>
       <c r="H202" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I202" t="s">
         <v>160</v>
@@ -14841,7 +14838,7 @@
         <v>55</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M202" t="s">
         <v>56</v>
@@ -14883,15 +14880,15 @@
         <v>56</v>
       </c>
       <c r="AH202" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="203" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="203" spans="2:34" ht="48">
       <c r="B203" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D203" t="s">
         <v>33</v>
@@ -14903,7 +14900,7 @@
         <v>35</v>
       </c>
       <c r="H203" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I203" t="s">
         <v>160</v>
@@ -14912,7 +14909,7 @@
         <v>55</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M203" t="s">
         <v>59</v>
@@ -14960,12 +14957,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:34" ht="32">
       <c r="B204" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D204" t="s">
         <v>33</v>
@@ -14977,7 +14974,7 @@
         <v>35</v>
       </c>
       <c r="H204" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I204" t="s">
         <v>160</v>
@@ -14986,16 +14983,16 @@
         <v>55</v>
       </c>
       <c r="L204" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="M204" t="s">
         <v>326</v>
-      </c>
-      <c r="M204" t="s">
-        <v>327</v>
       </c>
       <c r="N204" t="s">
         <v>65</v>
       </c>
       <c r="O204" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q204" t="s">
         <v>188</v>
@@ -15016,27 +15013,27 @@
         <v>68</v>
       </c>
       <c r="AH204" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="205" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="205" spans="2:34" ht="32">
       <c r="B205" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="D205" t="s">
+        <v>33</v>
+      </c>
+      <c r="E205" t="s">
+        <v>34</v>
+      </c>
+      <c r="G205" t="s">
+        <v>35</v>
+      </c>
+      <c r="H205" t="s">
         <v>329</v>
-      </c>
-      <c r="D205" t="s">
-        <v>33</v>
-      </c>
-      <c r="E205" t="s">
-        <v>34</v>
-      </c>
-      <c r="G205" t="s">
-        <v>35</v>
-      </c>
-      <c r="H205" t="s">
-        <v>330</v>
       </c>
       <c r="I205" t="s">
         <v>177</v>
@@ -15045,7 +15042,7 @@
         <v>55</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M205" t="s">
         <v>47</v>
@@ -15078,24 +15075,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:34" ht="32">
       <c r="B206" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="D206" t="s">
+        <v>33</v>
+      </c>
+      <c r="E206" t="s">
+        <v>34</v>
+      </c>
+      <c r="G206" t="s">
+        <v>35</v>
+      </c>
+      <c r="H206" t="s">
         <v>329</v>
-      </c>
-      <c r="D206" t="s">
-        <v>33</v>
-      </c>
-      <c r="E206" t="s">
-        <v>34</v>
-      </c>
-      <c r="G206" t="s">
-        <v>35</v>
-      </c>
-      <c r="H206" t="s">
-        <v>330</v>
       </c>
       <c r="I206" t="s">
         <v>177</v>
@@ -15104,7 +15101,7 @@
         <v>55</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M206" t="s">
         <v>56</v>
@@ -15146,27 +15143,27 @@
         <v>56</v>
       </c>
       <c r="AH206" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="207" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="207" spans="2:34" ht="48">
       <c r="B207" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="D207" t="s">
+        <v>33</v>
+      </c>
+      <c r="E207" t="s">
+        <v>34</v>
+      </c>
+      <c r="G207" t="s">
+        <v>35</v>
+      </c>
+      <c r="H207" t="s">
         <v>329</v>
-      </c>
-      <c r="D207" t="s">
-        <v>33</v>
-      </c>
-      <c r="E207" t="s">
-        <v>34</v>
-      </c>
-      <c r="G207" t="s">
-        <v>35</v>
-      </c>
-      <c r="H207" t="s">
-        <v>330</v>
       </c>
       <c r="I207" t="s">
         <v>177</v>
@@ -15175,7 +15172,7 @@
         <v>55</v>
       </c>
       <c r="L207" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M207" t="s">
         <v>59</v>
@@ -15223,24 +15220,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="208" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:34" ht="32">
       <c r="B208" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="D208" t="s">
+        <v>33</v>
+      </c>
+      <c r="E208" t="s">
+        <v>34</v>
+      </c>
+      <c r="G208" t="s">
+        <v>35</v>
+      </c>
+      <c r="H208" t="s">
         <v>329</v>
-      </c>
-      <c r="D208" t="s">
-        <v>33</v>
-      </c>
-      <c r="E208" t="s">
-        <v>34</v>
-      </c>
-      <c r="G208" t="s">
-        <v>35</v>
-      </c>
-      <c r="H208" t="s">
-        <v>330</v>
       </c>
       <c r="I208" t="s">
         <v>177</v>
@@ -15249,7 +15246,7 @@
         <v>55</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M208" t="s">
         <v>189</v>
@@ -15273,24 +15270,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:34" ht="32">
       <c r="B209" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="D209" t="s">
+        <v>33</v>
+      </c>
+      <c r="E209" t="s">
+        <v>34</v>
+      </c>
+      <c r="G209" t="s">
+        <v>35</v>
+      </c>
+      <c r="H209" t="s">
         <v>329</v>
-      </c>
-      <c r="D209" t="s">
-        <v>33</v>
-      </c>
-      <c r="E209" t="s">
-        <v>34</v>
-      </c>
-      <c r="G209" t="s">
-        <v>35</v>
-      </c>
-      <c r="H209" t="s">
-        <v>330</v>
       </c>
       <c r="I209" t="s">
         <v>177</v>
@@ -15299,7 +15296,7 @@
         <v>55</v>
       </c>
       <c r="L209" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M209" t="s">
         <v>186</v>
@@ -15329,36 +15326,36 @@
         <v>186</v>
       </c>
       <c r="AE209" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF209" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG209" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH209" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="210" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="210" spans="2:34" ht="32">
       <c r="B210" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="D210" t="s">
+        <v>33</v>
+      </c>
+      <c r="E210" t="s">
+        <v>34</v>
+      </c>
+      <c r="G210" t="s">
+        <v>35</v>
+      </c>
+      <c r="H210" t="s">
         <v>329</v>
-      </c>
-      <c r="D210" t="s">
-        <v>33</v>
-      </c>
-      <c r="E210" t="s">
-        <v>34</v>
-      </c>
-      <c r="G210" t="s">
-        <v>35</v>
-      </c>
-      <c r="H210" t="s">
-        <v>330</v>
       </c>
       <c r="I210" t="s">
         <v>177</v>
@@ -15367,7 +15364,7 @@
         <v>55</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M210" t="s">
         <v>65</v>
@@ -15376,7 +15373,7 @@
         <v>65</v>
       </c>
       <c r="O210" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q210" t="s">
         <v>188</v>
@@ -15397,27 +15394,27 @@
         <v>68</v>
       </c>
       <c r="AH210" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="211" spans="2:34" ht="32">
+      <c r="B211" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D211" t="s">
+        <v>33</v>
+      </c>
+      <c r="E211" t="s">
+        <v>34</v>
+      </c>
+      <c r="G211" t="s">
+        <v>35</v>
+      </c>
+      <c r="H211" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="211" spans="2:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="B211" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D211" t="s">
-        <v>33</v>
-      </c>
-      <c r="E211" t="s">
-        <v>34</v>
-      </c>
-      <c r="G211" t="s">
-        <v>35</v>
-      </c>
-      <c r="H211" t="s">
-        <v>333</v>
       </c>
       <c r="I211" t="s">
         <v>160</v>
@@ -15426,7 +15423,7 @@
         <v>55</v>
       </c>
       <c r="L211" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M211" t="s">
         <v>47</v>
@@ -15459,13 +15456,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:34" ht="32">
       <c r="B212" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C212" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="D212" t="s">
         <v>33</v>
       </c>
@@ -15476,7 +15473,7 @@
         <v>35</v>
       </c>
       <c r="H212" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I212" t="s">
         <v>160</v>
@@ -15485,7 +15482,7 @@
         <v>55</v>
       </c>
       <c r="L212" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M212" t="s">
         <v>56</v>
@@ -15527,16 +15524,16 @@
         <v>56</v>
       </c>
       <c r="AH212" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="213" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="213" spans="2:34" ht="48">
       <c r="B213" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="D213" t="s">
         <v>33</v>
       </c>
@@ -15547,7 +15544,7 @@
         <v>35</v>
       </c>
       <c r="H213" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I213" t="s">
         <v>160</v>
@@ -15556,7 +15553,7 @@
         <v>55</v>
       </c>
       <c r="L213" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M213" t="s">
         <v>59</v>
@@ -15604,13 +15601,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="214" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:34" ht="32">
       <c r="B214" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="D214" t="s">
         <v>33</v>
       </c>
@@ -15621,7 +15618,7 @@
         <v>35</v>
       </c>
       <c r="H214" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I214" t="s">
         <v>160</v>
@@ -15630,16 +15627,16 @@
         <v>55</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M214" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N214" t="s">
         <v>65</v>
       </c>
       <c r="O214" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q214" t="s">
         <v>188</v>
@@ -15660,27 +15657,27 @@
         <v>68</v>
       </c>
       <c r="AH214" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="215" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="215" spans="2:34" ht="32">
       <c r="B215" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C215" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D215" t="s">
+        <v>33</v>
+      </c>
+      <c r="E215" t="s">
+        <v>34</v>
+      </c>
+      <c r="G215" t="s">
+        <v>35</v>
+      </c>
+      <c r="H215" t="s">
         <v>338</v>
-      </c>
-      <c r="D215" t="s">
-        <v>33</v>
-      </c>
-      <c r="E215" t="s">
-        <v>34</v>
-      </c>
-      <c r="G215" t="s">
-        <v>35</v>
-      </c>
-      <c r="H215" t="s">
-        <v>339</v>
       </c>
       <c r="I215" t="s">
         <v>177</v>
@@ -15689,7 +15686,7 @@
         <v>55</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M215" t="s">
         <v>47</v>
@@ -15722,24 +15719,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:34" ht="32">
       <c r="B216" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C216" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D216" t="s">
+        <v>33</v>
+      </c>
+      <c r="E216" t="s">
+        <v>34</v>
+      </c>
+      <c r="G216" t="s">
+        <v>35</v>
+      </c>
+      <c r="H216" t="s">
         <v>338</v>
-      </c>
-      <c r="D216" t="s">
-        <v>33</v>
-      </c>
-      <c r="E216" t="s">
-        <v>34</v>
-      </c>
-      <c r="G216" t="s">
-        <v>35</v>
-      </c>
-      <c r="H216" t="s">
-        <v>339</v>
       </c>
       <c r="I216" t="s">
         <v>177</v>
@@ -15748,7 +15745,7 @@
         <v>55</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M216" t="s">
         <v>56</v>
@@ -15790,27 +15787,27 @@
         <v>56</v>
       </c>
       <c r="AH216" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="217" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="2:34" ht="48">
       <c r="B217" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C217" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D217" t="s">
+        <v>33</v>
+      </c>
+      <c r="E217" t="s">
+        <v>34</v>
+      </c>
+      <c r="G217" t="s">
+        <v>35</v>
+      </c>
+      <c r="H217" t="s">
         <v>338</v>
-      </c>
-      <c r="D217" t="s">
-        <v>33</v>
-      </c>
-      <c r="E217" t="s">
-        <v>34</v>
-      </c>
-      <c r="G217" t="s">
-        <v>35</v>
-      </c>
-      <c r="H217" t="s">
-        <v>339</v>
       </c>
       <c r="I217" t="s">
         <v>177</v>
@@ -15819,7 +15816,7 @@
         <v>55</v>
       </c>
       <c r="L217" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M217" t="s">
         <v>59</v>
@@ -15867,24 +15864,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="218" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:34" ht="32">
       <c r="B218" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C218" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D218" t="s">
+        <v>33</v>
+      </c>
+      <c r="E218" t="s">
+        <v>34</v>
+      </c>
+      <c r="G218" t="s">
+        <v>35</v>
+      </c>
+      <c r="H218" t="s">
         <v>338</v>
-      </c>
-      <c r="D218" t="s">
-        <v>33</v>
-      </c>
-      <c r="E218" t="s">
-        <v>34</v>
-      </c>
-      <c r="G218" t="s">
-        <v>35</v>
-      </c>
-      <c r="H218" t="s">
-        <v>339</v>
       </c>
       <c r="I218" t="s">
         <v>177</v>
@@ -15893,7 +15890,7 @@
         <v>55</v>
       </c>
       <c r="L218" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M218" t="s">
         <v>189</v>
@@ -15917,24 +15914,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:34" ht="32">
       <c r="B219" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C219" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D219" t="s">
+        <v>33</v>
+      </c>
+      <c r="E219" t="s">
+        <v>34</v>
+      </c>
+      <c r="G219" t="s">
+        <v>35</v>
+      </c>
+      <c r="H219" t="s">
         <v>338</v>
-      </c>
-      <c r="D219" t="s">
-        <v>33</v>
-      </c>
-      <c r="E219" t="s">
-        <v>34</v>
-      </c>
-      <c r="G219" t="s">
-        <v>35</v>
-      </c>
-      <c r="H219" t="s">
-        <v>339</v>
       </c>
       <c r="I219" t="s">
         <v>177</v>
@@ -15943,7 +15940,7 @@
         <v>55</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M219" t="s">
         <v>186</v>
@@ -15973,36 +15970,36 @@
         <v>186</v>
       </c>
       <c r="AE219" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF219" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG219" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH219" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="220" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="220" spans="2:34" ht="32">
       <c r="B220" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C220" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D220" t="s">
+        <v>33</v>
+      </c>
+      <c r="E220" t="s">
+        <v>34</v>
+      </c>
+      <c r="G220" t="s">
+        <v>35</v>
+      </c>
+      <c r="H220" t="s">
         <v>338</v>
-      </c>
-      <c r="D220" t="s">
-        <v>33</v>
-      </c>
-      <c r="E220" t="s">
-        <v>34</v>
-      </c>
-      <c r="G220" t="s">
-        <v>35</v>
-      </c>
-      <c r="H220" t="s">
-        <v>339</v>
       </c>
       <c r="I220" t="s">
         <v>177</v>
@@ -16011,7 +16008,7 @@
         <v>55</v>
       </c>
       <c r="L220" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M220" t="s">
         <v>65</v>
@@ -16020,7 +16017,7 @@
         <v>65</v>
       </c>
       <c r="O220" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q220" t="s">
         <v>188</v>
@@ -16041,15 +16038,15 @@
         <v>68</v>
       </c>
       <c r="AH220" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="221" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="221" spans="2:34" ht="32">
       <c r="B221" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D221" t="s">
         <v>33</v>
@@ -16061,7 +16058,7 @@
         <v>35</v>
       </c>
       <c r="H221" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I221" t="s">
         <v>160</v>
@@ -16070,7 +16067,7 @@
         <v>55</v>
       </c>
       <c r="L221" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M221" t="s">
         <v>47</v>
@@ -16103,12 +16100,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:34" ht="32">
       <c r="B222" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D222" t="s">
         <v>33</v>
@@ -16120,7 +16117,7 @@
         <v>35</v>
       </c>
       <c r="H222" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I222" t="s">
         <v>160</v>
@@ -16129,7 +16126,7 @@
         <v>55</v>
       </c>
       <c r="L222" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M222" t="s">
         <v>56</v>
@@ -16171,15 +16168,15 @@
         <v>56</v>
       </c>
       <c r="AH222" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="223" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="2:34" ht="48">
       <c r="B223" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D223" t="s">
         <v>33</v>
@@ -16191,7 +16188,7 @@
         <v>35</v>
       </c>
       <c r="H223" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I223" t="s">
         <v>160</v>
@@ -16200,7 +16197,7 @@
         <v>55</v>
       </c>
       <c r="L223" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M223" t="s">
         <v>59</v>
@@ -16248,12 +16245,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:34" ht="32">
       <c r="B224" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D224" t="s">
         <v>33</v>
@@ -16265,7 +16262,7 @@
         <v>35</v>
       </c>
       <c r="H224" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I224" t="s">
         <v>160</v>
@@ -16274,16 +16271,16 @@
         <v>55</v>
       </c>
       <c r="L224" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="M224" t="s">
         <v>343</v>
-      </c>
-      <c r="M224" t="s">
-        <v>344</v>
       </c>
       <c r="N224" t="s">
         <v>65</v>
       </c>
       <c r="O224" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q224" t="s">
         <v>188</v>
@@ -16304,27 +16301,27 @@
         <v>68</v>
       </c>
       <c r="AH224" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="225" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="225" spans="2:34" ht="32">
       <c r="B225" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C225" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D225" t="s">
+        <v>33</v>
+      </c>
+      <c r="E225" t="s">
+        <v>34</v>
+      </c>
+      <c r="G225" t="s">
+        <v>35</v>
+      </c>
+      <c r="H225" t="s">
         <v>348</v>
-      </c>
-      <c r="D225" t="s">
-        <v>33</v>
-      </c>
-      <c r="E225" t="s">
-        <v>34</v>
-      </c>
-      <c r="G225" t="s">
-        <v>35</v>
-      </c>
-      <c r="H225" t="s">
-        <v>349</v>
       </c>
       <c r="I225" t="s">
         <v>177</v>
@@ -16333,7 +16330,7 @@
         <v>55</v>
       </c>
       <c r="L225" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M225" t="s">
         <v>47</v>
@@ -16366,24 +16363,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="226" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:34" ht="32">
       <c r="B226" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C226" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D226" t="s">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>34</v>
+      </c>
+      <c r="G226" t="s">
+        <v>35</v>
+      </c>
+      <c r="H226" t="s">
         <v>348</v>
-      </c>
-      <c r="D226" t="s">
-        <v>33</v>
-      </c>
-      <c r="E226" t="s">
-        <v>34</v>
-      </c>
-      <c r="G226" t="s">
-        <v>35</v>
-      </c>
-      <c r="H226" t="s">
-        <v>349</v>
       </c>
       <c r="I226" t="s">
         <v>177</v>
@@ -16392,7 +16389,7 @@
         <v>55</v>
       </c>
       <c r="L226" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M226" t="s">
         <v>56</v>
@@ -16434,27 +16431,27 @@
         <v>56</v>
       </c>
       <c r="AH226" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="227" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="227" spans="2:34" ht="48">
       <c r="B227" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C227" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D227" t="s">
+        <v>33</v>
+      </c>
+      <c r="E227" t="s">
+        <v>34</v>
+      </c>
+      <c r="G227" t="s">
+        <v>35</v>
+      </c>
+      <c r="H227" t="s">
         <v>348</v>
-      </c>
-      <c r="D227" t="s">
-        <v>33</v>
-      </c>
-      <c r="E227" t="s">
-        <v>34</v>
-      </c>
-      <c r="G227" t="s">
-        <v>35</v>
-      </c>
-      <c r="H227" t="s">
-        <v>349</v>
       </c>
       <c r="I227" t="s">
         <v>177</v>
@@ -16463,7 +16460,7 @@
         <v>55</v>
       </c>
       <c r="L227" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M227" t="s">
         <v>59</v>
@@ -16511,24 +16508,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="228" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:34" ht="32">
       <c r="B228" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C228" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D228" t="s">
+        <v>33</v>
+      </c>
+      <c r="E228" t="s">
+        <v>34</v>
+      </c>
+      <c r="G228" t="s">
+        <v>35</v>
+      </c>
+      <c r="H228" t="s">
         <v>348</v>
-      </c>
-      <c r="D228" t="s">
-        <v>33</v>
-      </c>
-      <c r="E228" t="s">
-        <v>34</v>
-      </c>
-      <c r="G228" t="s">
-        <v>35</v>
-      </c>
-      <c r="H228" t="s">
-        <v>349</v>
       </c>
       <c r="I228" t="s">
         <v>177</v>
@@ -16537,7 +16534,7 @@
         <v>55</v>
       </c>
       <c r="L228" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M228" t="s">
         <v>189</v>
@@ -16561,24 +16558,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:34" ht="32">
       <c r="B229" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C229" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D229" t="s">
+        <v>33</v>
+      </c>
+      <c r="E229" t="s">
+        <v>34</v>
+      </c>
+      <c r="G229" t="s">
+        <v>35</v>
+      </c>
+      <c r="H229" t="s">
         <v>348</v>
-      </c>
-      <c r="D229" t="s">
-        <v>33</v>
-      </c>
-      <c r="E229" t="s">
-        <v>34</v>
-      </c>
-      <c r="G229" t="s">
-        <v>35</v>
-      </c>
-      <c r="H229" t="s">
-        <v>349</v>
       </c>
       <c r="I229" t="s">
         <v>177</v>
@@ -16587,7 +16584,7 @@
         <v>55</v>
       </c>
       <c r="L229" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M229" t="s">
         <v>186</v>
@@ -16617,36 +16614,36 @@
         <v>186</v>
       </c>
       <c r="AE229" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF229" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG229" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH229" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="230" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="230" spans="2:34" ht="32">
       <c r="B230" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C230" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D230" t="s">
+        <v>33</v>
+      </c>
+      <c r="E230" t="s">
+        <v>34</v>
+      </c>
+      <c r="G230" t="s">
+        <v>35</v>
+      </c>
+      <c r="H230" t="s">
         <v>348</v>
-      </c>
-      <c r="D230" t="s">
-        <v>33</v>
-      </c>
-      <c r="E230" t="s">
-        <v>34</v>
-      </c>
-      <c r="G230" t="s">
-        <v>35</v>
-      </c>
-      <c r="H230" t="s">
-        <v>349</v>
       </c>
       <c r="I230" t="s">
         <v>177</v>
@@ -16655,7 +16652,7 @@
         <v>55</v>
       </c>
       <c r="L230" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M230" t="s">
         <v>65</v>
@@ -16664,7 +16661,7 @@
         <v>65</v>
       </c>
       <c r="O230" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q230" t="s">
         <v>188</v>
@@ -16685,16 +16682,16 @@
         <v>68</v>
       </c>
       <c r="AH230" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="231" spans="2:34" ht="32">
+      <c r="B231" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C231" s="8" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="231" spans="2:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="B231" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>348</v>
-      </c>
       <c r="D231" t="s">
         <v>33</v>
       </c>
@@ -16705,7 +16702,7 @@
         <v>35</v>
       </c>
       <c r="H231" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I231" t="s">
         <v>160</v>
@@ -16714,7 +16711,7 @@
         <v>55</v>
       </c>
       <c r="L231" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M231" t="s">
         <v>47</v>
@@ -16747,12 +16744,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:34" ht="32">
       <c r="B232" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D232" t="s">
         <v>33</v>
@@ -16764,7 +16761,7 @@
         <v>35</v>
       </c>
       <c r="H232" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I232" t="s">
         <v>160</v>
@@ -16773,7 +16770,7 @@
         <v>55</v>
       </c>
       <c r="L232" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M232" t="s">
         <v>56</v>
@@ -16815,15 +16812,15 @@
         <v>56</v>
       </c>
       <c r="AH232" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="233" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="233" spans="2:34" ht="48">
       <c r="B233" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D233" t="s">
         <v>33</v>
@@ -16835,7 +16832,7 @@
         <v>35</v>
       </c>
       <c r="H233" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I233" t="s">
         <v>160</v>
@@ -16844,7 +16841,7 @@
         <v>55</v>
       </c>
       <c r="L233" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M233" t="s">
         <v>59</v>
@@ -16892,12 +16889,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="234" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:34" ht="32">
       <c r="B234" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D234" t="s">
         <v>33</v>
@@ -16909,7 +16906,7 @@
         <v>35</v>
       </c>
       <c r="H234" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I234" t="s">
         <v>160</v>
@@ -16918,16 +16915,16 @@
         <v>55</v>
       </c>
       <c r="L234" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="M234" t="s">
         <v>353</v>
-      </c>
-      <c r="M234" t="s">
-        <v>354</v>
       </c>
       <c r="N234" t="s">
         <v>65</v>
       </c>
       <c r="O234" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q234" t="s">
         <v>188</v>
@@ -16948,27 +16945,27 @@
         <v>68</v>
       </c>
       <c r="AH234" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="235" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="235" spans="2:34" ht="32">
       <c r="B235" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D235" t="s">
+        <v>33</v>
+      </c>
+      <c r="E235" t="s">
+        <v>34</v>
+      </c>
+      <c r="G235" t="s">
+        <v>35</v>
+      </c>
+      <c r="H235" t="s">
         <v>357</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D235" t="s">
-        <v>33</v>
-      </c>
-      <c r="E235" t="s">
-        <v>34</v>
-      </c>
-      <c r="G235" t="s">
-        <v>35</v>
-      </c>
-      <c r="H235" t="s">
-        <v>358</v>
       </c>
       <c r="I235" t="s">
         <v>177</v>
@@ -16977,7 +16974,7 @@
         <v>55</v>
       </c>
       <c r="L235" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M235" t="s">
         <v>47</v>
@@ -17010,24 +17007,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:34" ht="32">
       <c r="B236" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D236" t="s">
+        <v>33</v>
+      </c>
+      <c r="E236" t="s">
+        <v>34</v>
+      </c>
+      <c r="G236" t="s">
+        <v>35</v>
+      </c>
+      <c r="H236" t="s">
         <v>357</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D236" t="s">
-        <v>33</v>
-      </c>
-      <c r="E236" t="s">
-        <v>34</v>
-      </c>
-      <c r="G236" t="s">
-        <v>35</v>
-      </c>
-      <c r="H236" t="s">
-        <v>358</v>
       </c>
       <c r="I236" t="s">
         <v>177</v>
@@ -17036,7 +17033,7 @@
         <v>55</v>
       </c>
       <c r="L236" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M236" t="s">
         <v>56</v>
@@ -17078,27 +17075,27 @@
         <v>56</v>
       </c>
       <c r="AH236" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="237" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="237" spans="2:34" ht="48">
       <c r="B237" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D237" t="s">
+        <v>33</v>
+      </c>
+      <c r="E237" t="s">
+        <v>34</v>
+      </c>
+      <c r="G237" t="s">
+        <v>35</v>
+      </c>
+      <c r="H237" t="s">
         <v>357</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D237" t="s">
-        <v>33</v>
-      </c>
-      <c r="E237" t="s">
-        <v>34</v>
-      </c>
-      <c r="G237" t="s">
-        <v>35</v>
-      </c>
-      <c r="H237" t="s">
-        <v>358</v>
       </c>
       <c r="I237" t="s">
         <v>177</v>
@@ -17107,7 +17104,7 @@
         <v>55</v>
       </c>
       <c r="L237" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M237" t="s">
         <v>59</v>
@@ -17155,24 +17152,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="238" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:34" ht="32">
       <c r="B238" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D238" t="s">
+        <v>33</v>
+      </c>
+      <c r="E238" t="s">
+        <v>34</v>
+      </c>
+      <c r="G238" t="s">
+        <v>35</v>
+      </c>
+      <c r="H238" t="s">
         <v>357</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D238" t="s">
-        <v>33</v>
-      </c>
-      <c r="E238" t="s">
-        <v>34</v>
-      </c>
-      <c r="G238" t="s">
-        <v>35</v>
-      </c>
-      <c r="H238" t="s">
-        <v>358</v>
       </c>
       <c r="I238" t="s">
         <v>177</v>
@@ -17181,7 +17178,7 @@
         <v>55</v>
       </c>
       <c r="L238" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M238" t="s">
         <v>189</v>
@@ -17205,24 +17202,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:34" ht="32">
       <c r="B239" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D239" t="s">
+        <v>33</v>
+      </c>
+      <c r="E239" t="s">
+        <v>34</v>
+      </c>
+      <c r="G239" t="s">
+        <v>35</v>
+      </c>
+      <c r="H239" t="s">
         <v>357</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D239" t="s">
-        <v>33</v>
-      </c>
-      <c r="E239" t="s">
-        <v>34</v>
-      </c>
-      <c r="G239" t="s">
-        <v>35</v>
-      </c>
-      <c r="H239" t="s">
-        <v>358</v>
       </c>
       <c r="I239" t="s">
         <v>177</v>
@@ -17231,7 +17228,7 @@
         <v>55</v>
       </c>
       <c r="L239" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M239" t="s">
         <v>186</v>
@@ -17261,36 +17258,36 @@
         <v>186</v>
       </c>
       <c r="AE239" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF239" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG239" s="3" t="s">
         <v>193</v>
       </c>
       <c r="AH239" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="240" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="240" spans="2:34" ht="32">
       <c r="B240" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D240" t="s">
+        <v>33</v>
+      </c>
+      <c r="E240" t="s">
+        <v>34</v>
+      </c>
+      <c r="G240" t="s">
+        <v>35</v>
+      </c>
+      <c r="H240" t="s">
         <v>357</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D240" t="s">
-        <v>33</v>
-      </c>
-      <c r="E240" t="s">
-        <v>34</v>
-      </c>
-      <c r="G240" t="s">
-        <v>35</v>
-      </c>
-      <c r="H240" t="s">
-        <v>358</v>
       </c>
       <c r="I240" t="s">
         <v>177</v>
@@ -17299,7 +17296,7 @@
         <v>55</v>
       </c>
       <c r="L240" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M240" t="s">
         <v>65</v>
@@ -17308,7 +17305,7 @@
         <v>65</v>
       </c>
       <c r="O240" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q240" t="s">
         <v>188</v>
@@ -17329,15 +17326,15 @@
         <v>68</v>
       </c>
       <c r="AH240" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="241" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="241" spans="2:34" ht="32">
       <c r="B241" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D241" t="s">
         <v>33</v>
@@ -17349,7 +17346,7 @@
         <v>35</v>
       </c>
       <c r="H241" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I241" t="s">
         <v>160</v>
@@ -17358,7 +17355,7 @@
         <v>55</v>
       </c>
       <c r="L241" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M241" t="s">
         <v>47</v>
@@ -17391,12 +17388,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:34" ht="32">
       <c r="B242" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D242" t="s">
         <v>33</v>
@@ -17408,7 +17405,7 @@
         <v>35</v>
       </c>
       <c r="H242" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I242" t="s">
         <v>160</v>
@@ -17417,7 +17414,7 @@
         <v>55</v>
       </c>
       <c r="L242" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M242" t="s">
         <v>56</v>
@@ -17459,15 +17456,15 @@
         <v>56</v>
       </c>
       <c r="AH242" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="243" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="243" spans="2:34" ht="48">
       <c r="B243" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D243" t="s">
         <v>33</v>
@@ -17479,7 +17476,7 @@
         <v>35</v>
       </c>
       <c r="H243" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I243" t="s">
         <v>160</v>
@@ -17488,7 +17485,7 @@
         <v>55</v>
       </c>
       <c r="L243" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M243" t="s">
         <v>59</v>
@@ -17536,12 +17533,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:34" ht="32">
       <c r="B244" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D244" t="s">
         <v>33</v>
@@ -17553,7 +17550,7 @@
         <v>35</v>
       </c>
       <c r="H244" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I244" t="s">
         <v>160</v>
@@ -17562,16 +17559,16 @@
         <v>55</v>
       </c>
       <c r="L244" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M244" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N244" t="s">
         <v>65</v>
       </c>
       <c r="O244" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q244" t="s">
         <v>188</v>
@@ -17592,7 +17589,7 @@
         <v>68</v>
       </c>
       <c r="AH244" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
